--- a/ゾンビシューターゲームコスト表.xlsx
+++ b/ゾンビシューターゲームコスト表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\由留部 瑛人\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\由留部\Documents\MyGame3D2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91097DE-1D48-4788-8542-D0C0745ACE01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BA465C-42E5-4B76-8862-7CE3C1B52A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3390" yWindow="1680" windowWidth="21840" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3045" yWindow="180" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="分類別コスト集計" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$2:$G$137</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$2:$G$138</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">分類別コスト集計!$B$2:$D$17</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="167">
   <si>
     <t>分類</t>
   </si>
@@ -119,25 +119,10 @@
     <t>カメラ</t>
   </si>
   <si>
-    <t>複数対応</t>
-  </si>
-  <si>
     <t>コントローラー</t>
   </si>
   <si>
-    <t>入力</t>
-  </si>
-  <si>
     <t>ステージ進行管理</t>
-  </si>
-  <si>
-    <t>シーン切り替え</t>
-  </si>
-  <si>
-    <t>フェード</t>
-  </si>
-  <si>
-    <t>切り替え条件管理</t>
   </si>
   <si>
     <t>スコア管理</t>
@@ -776,6 +761,48 @@
   </si>
   <si>
     <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロゴ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーン遷移</t>
+    <rPh sb="3" eb="5">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オプション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サウンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGM、SE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マウス感度</t>
+    <rPh sb="3" eb="5">
+      <t>カンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>切り替え条件管理</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1075,7 +1102,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1196,9 +1223,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1541,11 +1565,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I137"/>
+  <dimension ref="B2:I138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B97" sqref="B97"/>
+      <pane ySplit="2" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -1588,7 +1612,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D3" s="8">
         <v>1</v>
@@ -1609,7 +1633,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D4" s="7">
         <v>1</v>
@@ -1630,7 +1654,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D5" s="7">
         <v>1</v>
@@ -1651,7 +1675,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D6" s="7">
         <v>3</v>
@@ -1666,7 +1690,7 @@
         <v>10</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="18.75">
@@ -1674,7 +1698,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D7" s="7">
         <v>4</v>
@@ -1695,7 +1719,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D8" s="7">
         <v>2</v>
@@ -1713,10 +1737,10 @@
     </row>
     <row r="9" spans="2:8" ht="18.75">
       <c r="B9" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D9" s="7">
         <v>1</v>
@@ -1734,10 +1758,10 @@
     </row>
     <row r="10" spans="2:8" ht="18.75">
       <c r="B10" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D10" s="7">
         <v>3</v>
@@ -1779,7 +1803,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D12" s="7">
         <v>1</v>
@@ -1800,7 +1824,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D13" s="7">
         <v>0.5</v>
@@ -1821,7 +1845,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D14" s="7">
         <v>0.5</v>
@@ -1842,7 +1866,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D15" s="7">
         <v>0.5</v>
@@ -1863,7 +1887,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D16" s="7">
         <v>0.5</v>
@@ -1884,7 +1908,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D17" s="7">
         <v>0.5</v>
@@ -1905,7 +1929,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D18" s="7">
         <v>1</v>
@@ -1926,7 +1950,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D19" s="7">
         <v>0.5</v>
@@ -1947,7 +1971,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D20" s="7">
         <v>2</v>
@@ -1962,7 +1986,7 @@
         <v>10</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="18.75">
@@ -1976,10 +2000,10 @@
     </row>
     <row r="22" spans="2:8" ht="18.75">
       <c r="B22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
@@ -1997,10 +2021,10 @@
     </row>
     <row r="23" spans="2:8" ht="18.75">
       <c r="B23" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D23" s="7">
         <v>1</v>
@@ -2018,10 +2042,10 @@
     </row>
     <row r="24" spans="2:8" ht="18.75">
       <c r="B24" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D24" s="7">
         <v>1.5</v>
@@ -2039,10 +2063,10 @@
     </row>
     <row r="25" spans="2:8" ht="18.75">
       <c r="B25" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D25" s="7">
         <v>1</v>
@@ -2060,10 +2084,10 @@
     </row>
     <row r="26" spans="2:8" ht="18.75">
       <c r="B26" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D26" s="7">
         <v>5</v>
@@ -2078,15 +2102,15 @@
         <v>10</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="18.75">
       <c r="B27" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D27" s="7">
         <v>5</v>
@@ -2101,15 +2125,15 @@
         <v>10</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="18.75">
       <c r="B28" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D28" s="7">
         <v>4</v>
@@ -2124,15 +2148,15 @@
         <v>10</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="18.75">
       <c r="B29" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D29" s="7">
         <v>4</v>
@@ -2147,15 +2171,15 @@
         <v>10</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="18.75">
       <c r="B30" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D30" s="7">
         <v>1</v>
@@ -2173,10 +2197,10 @@
     </row>
     <row r="31" spans="2:8" ht="18.75">
       <c r="B31" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D31" s="7">
         <v>2</v>
@@ -2191,15 +2215,15 @@
         <v>10</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="18.75">
       <c r="B32" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D32" s="7">
         <v>5</v>
@@ -2214,15 +2238,15 @@
         <v>10</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="18.75">
       <c r="B33" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D33" s="7">
         <v>2</v>
@@ -2249,10 +2273,10 @@
     </row>
     <row r="35" spans="2:8" ht="18.75">
       <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -2270,10 +2294,10 @@
     </row>
     <row r="36" spans="2:8" ht="18.75">
       <c r="B36" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="D36" s="7">
         <v>1</v>
@@ -2291,10 +2315,10 @@
     </row>
     <row r="37" spans="2:8" ht="35.1" customHeight="1">
       <c r="B37" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D37" s="7">
         <v>1.5</v>
@@ -2309,15 +2333,15 @@
         <v>10</v>
       </c>
       <c r="H37" s="39" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="18.75">
       <c r="B38" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D38" s="7">
         <v>1.5</v>
@@ -2335,10 +2359,10 @@
     </row>
     <row r="39" spans="2:8" ht="18.75">
       <c r="B39" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D39" s="7">
         <v>1</v>
@@ -2356,10 +2380,10 @@
     </row>
     <row r="40" spans="2:8" ht="18.75">
       <c r="B40" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D40" s="7">
         <v>5</v>
@@ -2374,15 +2398,15 @@
         <v>10</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="18.75">
       <c r="B41" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D41" s="7">
         <v>5</v>
@@ -2397,15 +2421,15 @@
         <v>10</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="18.75">
       <c r="B42" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D42" s="7">
         <v>4</v>
@@ -2420,15 +2444,15 @@
         <v>10</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="18.75">
       <c r="B43" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D43" s="7">
         <v>4</v>
@@ -2443,15 +2467,15 @@
         <v>10</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="2:8" ht="18.75">
       <c r="B44" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D44" s="7">
         <v>1</v>
@@ -2469,10 +2493,10 @@
     </row>
     <row r="45" spans="2:8" ht="18.75">
       <c r="B45" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D45" s="7">
         <v>2</v>
@@ -2487,15 +2511,15 @@
         <v>10</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="18.75">
       <c r="B46" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D46" s="7">
         <v>5</v>
@@ -2510,15 +2534,15 @@
         <v>10</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="18.75">
       <c r="B47" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D47" s="7">
         <v>2</v>
@@ -2545,10 +2569,10 @@
     </row>
     <row r="49" spans="2:8" ht="18.75">
       <c r="B49" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -2566,10 +2590,10 @@
     </row>
     <row r="50" spans="2:8" ht="18.75">
       <c r="B50" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D50" s="7">
         <v>1</v>
@@ -2587,10 +2611,10 @@
     </row>
     <row r="51" spans="2:8" ht="18.75">
       <c r="B51" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D51" s="7">
         <v>2</v>
@@ -2608,10 +2632,10 @@
     </row>
     <row r="52" spans="2:8" ht="18.75">
       <c r="B52" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="D52" s="7">
         <v>1</v>
@@ -2629,10 +2653,10 @@
     </row>
     <row r="53" spans="2:8" ht="18.75">
       <c r="B53" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D53" s="7">
         <v>5</v>
@@ -2647,15 +2671,15 @@
         <v>10</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="2:8" ht="18.75">
       <c r="B54" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D54" s="7">
         <v>5</v>
@@ -2670,15 +2694,15 @@
         <v>10</v>
       </c>
       <c r="H54" s="15" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="18.75">
       <c r="B55" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D55" s="7">
         <v>4</v>
@@ -2693,15 +2717,15 @@
         <v>10</v>
       </c>
       <c r="H55" s="15" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="18.75">
       <c r="B56" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D56" s="7">
         <v>4</v>
@@ -2716,15 +2740,15 @@
         <v>10</v>
       </c>
       <c r="H56" s="15" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="18.75">
       <c r="B57" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D57" s="7">
         <v>1</v>
@@ -2742,10 +2766,10 @@
     </row>
     <row r="58" spans="2:8" ht="18.75">
       <c r="B58" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D58" s="7">
         <v>2</v>
@@ -2760,15 +2784,15 @@
         <v>10</v>
       </c>
       <c r="H58" s="15" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="2:8" ht="18.75">
       <c r="B59" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D59" s="7">
         <v>5</v>
@@ -2783,15 +2807,15 @@
         <v>10</v>
       </c>
       <c r="H59" s="15" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="2:8" ht="18.75">
       <c r="B60" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D60" s="7">
         <v>2</v>
@@ -2818,10 +2842,10 @@
     </row>
     <row r="62" spans="2:8" ht="18.75">
       <c r="B62" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D62" s="4">
         <v>1</v>
@@ -2839,12 +2863,12 @@
     </row>
     <row r="63" spans="2:8" ht="18.75">
       <c r="B63" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D63" s="41">
+        <v>86</v>
+      </c>
+      <c r="D63" s="7">
         <v>1</v>
       </c>
       <c r="E63" s="5" t="s">
@@ -2860,12 +2884,12 @@
     </row>
     <row r="64" spans="2:8" ht="18.75">
       <c r="B64" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D64" s="41">
+        <v>107</v>
+      </c>
+      <c r="D64" s="7">
         <v>5</v>
       </c>
       <c r="E64" s="5" t="s">
@@ -2881,12 +2905,12 @@
     </row>
     <row r="65" spans="2:8" ht="18.75">
       <c r="B65" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D65" s="41">
+        <v>87</v>
+      </c>
+      <c r="D65" s="7">
         <v>1</v>
       </c>
       <c r="E65" s="5" t="s">
@@ -2902,10 +2926,10 @@
     </row>
     <row r="66" spans="2:8" ht="18.75">
       <c r="B66" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D66" s="7">
         <v>4</v>
@@ -2920,15 +2944,15 @@
         <v>10</v>
       </c>
       <c r="H66" s="15" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" spans="2:8" ht="18.75">
       <c r="B67" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D67" s="7">
         <v>4</v>
@@ -2943,15 +2967,15 @@
         <v>10</v>
       </c>
       <c r="H67" s="15" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68" spans="2:8" ht="18.75">
       <c r="B68" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D68" s="7">
         <v>2</v>
@@ -2966,15 +2990,15 @@
         <v>10</v>
       </c>
       <c r="H68" s="15" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" spans="2:8" ht="18.75">
       <c r="B69" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D69" s="7">
         <v>1</v>
@@ -2989,15 +3013,15 @@
         <v>10</v>
       </c>
       <c r="H69" s="15" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="2:8" ht="18.75">
       <c r="B70" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D70" s="7">
         <f>0.5*8</f>
@@ -3013,15 +3037,15 @@
         <v>10</v>
       </c>
       <c r="H70" s="15" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" spans="2:8" ht="18.75">
       <c r="B71" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D71" s="7">
         <v>5</v>
@@ -3036,7 +3060,7 @@
         <v>10</v>
       </c>
       <c r="H71" s="15" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="72" spans="2:8" ht="18.75">
@@ -3050,10 +3074,10 @@
     </row>
     <row r="73" spans="2:8" ht="18.75">
       <c r="B73" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D73" s="4">
         <v>2</v>
@@ -3068,15 +3092,15 @@
         <v>10</v>
       </c>
       <c r="H73" s="15" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="74" spans="2:8" ht="18.75">
       <c r="B74" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D74" s="7">
         <v>2</v>
@@ -3091,15 +3115,15 @@
         <v>10</v>
       </c>
       <c r="H74" s="15" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75" spans="2:8" ht="18.75">
       <c r="B75" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D75" s="7">
         <v>3</v>
@@ -3114,15 +3138,15 @@
         <v>10</v>
       </c>
       <c r="H75" s="15" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="76" spans="2:8" ht="18.75">
       <c r="B76" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D76" s="7">
         <v>4</v>
@@ -3137,15 +3161,15 @@
         <v>10</v>
       </c>
       <c r="H76" s="15" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="77" spans="2:8" ht="18.75">
       <c r="B77" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D77" s="7">
         <v>2</v>
@@ -3160,15 +3184,15 @@
         <v>10</v>
       </c>
       <c r="H77" s="15" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="78" spans="2:8" ht="18.75">
       <c r="B78" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D78" s="7">
         <v>9</v>
@@ -3183,15 +3207,15 @@
         <v>10</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79" spans="2:8" ht="18.75">
       <c r="B79" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D79" s="7">
         <v>1</v>
@@ -3209,10 +3233,10 @@
     </row>
     <row r="80" spans="2:8" ht="18.75">
       <c r="B80" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D80" s="7">
         <v>3</v>
@@ -3227,15 +3251,15 @@
         <v>10</v>
       </c>
       <c r="H80" s="15" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="81" spans="2:8" ht="18.75">
       <c r="B81" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D81" s="7">
         <v>1</v>
@@ -3250,15 +3274,15 @@
         <v>10</v>
       </c>
       <c r="H81" s="15" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="82" spans="2:8" ht="18.75">
       <c r="B82" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D82" s="7">
         <v>2</v>
@@ -3273,15 +3297,15 @@
         <v>10</v>
       </c>
       <c r="H82" s="15" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="83" spans="2:8" ht="18.75">
       <c r="B83" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D83" s="7">
         <v>5</v>
@@ -3290,13 +3314,13 @@
         <v>11</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G83" s="11" t="s">
         <v>10</v>
       </c>
       <c r="H83" s="15" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="84" spans="2:8" ht="18.75">
@@ -3310,10 +3334,10 @@
     </row>
     <row r="85" spans="2:8" ht="18.75">
       <c r="B85" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D85" s="4">
         <v>2</v>
@@ -3328,15 +3352,15 @@
         <v>10</v>
       </c>
       <c r="H85" s="14" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="86" spans="2:8" ht="18.75">
       <c r="B86" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D86" s="7">
         <v>2</v>
@@ -3351,15 +3375,15 @@
         <v>10</v>
       </c>
       <c r="H86" s="15" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="18.75">
       <c r="B87" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D87" s="7">
         <v>2</v>
@@ -3374,15 +3398,15 @@
         <v>10</v>
       </c>
       <c r="H87" s="39" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="88" spans="2:8" ht="18.75">
       <c r="B88" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D88" s="7">
         <v>1</v>
@@ -3397,15 +3421,15 @@
         <v>10</v>
       </c>
       <c r="H88" s="15" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="18.75">
       <c r="B89" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D89" s="7">
         <v>1</v>
@@ -3420,15 +3444,15 @@
         <v>10</v>
       </c>
       <c r="H89" s="15" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="90" spans="2:8" ht="18.75">
       <c r="B90" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D90" s="7">
         <v>1</v>
@@ -3443,15 +3467,15 @@
         <v>10</v>
       </c>
       <c r="H90" s="15" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="18.75">
       <c r="B91" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D91" s="7">
         <v>1</v>
@@ -3466,15 +3490,15 @@
         <v>10</v>
       </c>
       <c r="H91" s="15" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="18.75">
       <c r="B92" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D92" s="7">
         <v>1</v>
@@ -3489,15 +3513,15 @@
         <v>10</v>
       </c>
       <c r="H92" s="15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="18.75">
       <c r="B93" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D93" s="7">
         <v>3</v>
@@ -3512,15 +3536,15 @@
         <v>10</v>
       </c>
       <c r="H93" s="15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="18.75">
       <c r="B94" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D94" s="7">
         <v>9</v>
@@ -3535,15 +3559,15 @@
         <v>10</v>
       </c>
       <c r="H94" s="15" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="18.75">
       <c r="B95" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D95" s="7">
         <v>9</v>
@@ -3558,7 +3582,7 @@
         <v>10</v>
       </c>
       <c r="H95" s="15" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="18.75">
@@ -3572,119 +3596,135 @@
     </row>
     <row r="97" spans="2:8" ht="18.75">
       <c r="B97" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D97" s="4">
+        <v>1</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F97" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G97" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H97" s="15"/>
+    </row>
+    <row r="98" spans="2:8" ht="18.75">
+      <c r="B98" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D98" s="7">
+        <v>1</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F98" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G98" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H98" s="15"/>
+    </row>
+    <row r="99" spans="2:8" ht="18.75">
+      <c r="B99" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D99" s="7">
+        <v>1</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F99" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H99" s="15"/>
+    </row>
+    <row r="100" spans="2:8" ht="18.75">
+      <c r="B100" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D100" s="7">
+        <v>2</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F100" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G100" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H100" s="15"/>
+    </row>
+    <row r="101" spans="2:8" ht="18.75">
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="15"/>
+    </row>
+    <row r="102" spans="2:8" ht="18.75">
+      <c r="B102" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D97" s="4">
-        <v>4</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F97" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G97" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H97" s="15"/>
-    </row>
-    <row r="98" spans="2:8" ht="18.75">
-      <c r="B98" s="1"/>
-      <c r="C98" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D98" s="7">
-        <v>8</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F98" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G98" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H98" s="15"/>
-    </row>
-    <row r="99" spans="2:8" ht="18.75">
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="11"/>
-      <c r="G99" s="11"/>
-      <c r="H99" s="15"/>
-    </row>
-    <row r="100" spans="2:8" ht="18.75">
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="11"/>
-      <c r="G100" s="11"/>
-      <c r="H100" s="15"/>
-    </row>
-    <row r="101" spans="2:8" ht="18.75">
-      <c r="B101" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D101" s="4">
+      <c r="C102" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D102" s="4">
         <v>1</v>
       </c>
-      <c r="E101" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F101" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G101" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H101" s="14"/>
-    </row>
-    <row r="102" spans="2:8" ht="18.75">
-      <c r="B102" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D102" s="7">
-        <v>1</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F102" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G102" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H102" s="15"/>
+      <c r="E102" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G102" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H102" s="14" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="103" spans="2:8" ht="18.75">
       <c r="B103" s="1" t="s">
-        <v>28</v>
+        <v>162</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>31</v>
+        <v>165</v>
       </c>
       <c r="D103" s="7">
         <v>1</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G103" s="11" t="s">
         <v>10</v>
@@ -3693,13 +3733,13 @@
     </row>
     <row r="104" spans="2:8" ht="18.75">
       <c r="B104" s="1" t="s">
-        <v>28</v>
+        <v>162</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>32</v>
+        <v>166</v>
       </c>
       <c r="D104" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E104" s="5" t="s">
         <v>8</v>
@@ -3714,10 +3754,10 @@
     </row>
     <row r="105" spans="2:8" ht="18.75">
       <c r="B105" s="1" t="s">
-        <v>28</v>
+        <v>162</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D105" s="7">
         <v>4</v>
@@ -3735,92 +3775,104 @@
     </row>
     <row r="106" spans="2:8" ht="18.75">
       <c r="B106" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="D106" s="7">
+        <v>4</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F106" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G106" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H106" s="15"/>
+    </row>
+    <row r="107" spans="2:8" ht="18.75">
+      <c r="B107" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D107" s="7">
         <v>1</v>
       </c>
-      <c r="E106" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F106" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G106" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H106" s="15"/>
-    </row>
-    <row r="107" spans="2:8" ht="18.75">
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="11"/>
-      <c r="G107" s="11"/>
+      <c r="E107" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F107" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G107" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="H107" s="15"/>
     </row>
     <row r="108" spans="2:8" ht="18.75">
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
       <c r="D108" s="7"/>
-      <c r="E108" s="6"/>
-      <c r="F108" s="12"/>
-      <c r="G108" s="12"/>
-      <c r="H108" s="16"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="15"/>
     </row>
     <row r="109" spans="2:8" ht="18.75">
-      <c r="B109" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D109" s="4">
-        <v>1</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F109" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G109" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H109" s="15"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="16"/>
     </row>
     <row r="110" spans="2:8" ht="18.75">
       <c r="B110" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C110" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D110" s="4">
+        <v>1</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F110" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G110" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H110" s="15"/>
+    </row>
+    <row r="111" spans="2:8" ht="18.75">
+      <c r="B111" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D110" s="7">
+      <c r="D111" s="7">
         <v>1</v>
       </c>
-      <c r="E110" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F110" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G110" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H110" s="15"/>
-    </row>
-    <row r="111" spans="2:8" ht="18.75">
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="11"/>
-      <c r="G111" s="11"/>
+      <c r="E111" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F111" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G111" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="H111" s="15"/>
     </row>
     <row r="112" spans="2:8" ht="18.75">
@@ -3833,53 +3885,41 @@
       <c r="H112" s="15"/>
     </row>
     <row r="113" spans="2:8" ht="18.75">
-      <c r="B113" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D113" s="4">
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="11"/>
+      <c r="H113" s="15"/>
+    </row>
+    <row r="114" spans="2:8" ht="18.75">
+      <c r="B114" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D114" s="4">
         <v>2</v>
       </c>
-      <c r="E113" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F113" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G113" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H113" s="14"/>
-    </row>
-    <row r="114" spans="2:8" ht="18.75">
-      <c r="B114" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D114" s="7">
-        <v>1</v>
-      </c>
-      <c r="E114" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F114" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G114" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H114" s="15"/>
+      <c r="E114" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G114" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H114" s="14"/>
     </row>
     <row r="115" spans="2:8" ht="18.75">
       <c r="B115" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D115" s="7">
         <v>1</v>
@@ -3896,54 +3936,52 @@
       <c r="H115" s="15"/>
     </row>
     <row r="116" spans="2:8" ht="18.75">
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="7"/>
-      <c r="E116" s="5"/>
-      <c r="F116" s="11"/>
-      <c r="G116" s="11"/>
+      <c r="B116" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D116" s="7">
+        <v>1</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F116" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G116" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="H116" s="15"/>
     </row>
     <row r="117" spans="2:8" ht="18.75">
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
       <c r="D117" s="7"/>
-      <c r="E117" s="6"/>
-      <c r="F117" s="12"/>
-      <c r="G117" s="12"/>
-      <c r="H117" s="16"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="11"/>
+      <c r="H117" s="15"/>
     </row>
     <row r="118" spans="2:8" ht="18.75">
-      <c r="B118" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D118" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F118" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G118" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H118" s="15" t="s">
-        <v>42</v>
-      </c>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="16"/>
     </row>
     <row r="119" spans="2:8" ht="18.75">
       <c r="B119" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D119" s="7">
+        <v>36</v>
+      </c>
+      <c r="D119" s="4">
         <v>1.5</v>
       </c>
       <c r="E119" s="5" t="s">
@@ -3955,15 +3993,29 @@
       <c r="G119" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H119" s="15"/>
+      <c r="H119" s="15" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="120" spans="2:8" ht="18.75">
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="7"/>
-      <c r="E120" s="5"/>
-      <c r="F120" s="11"/>
-      <c r="G120" s="11"/>
+      <c r="B120" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D120" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F120" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G120" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="H120" s="15"/>
     </row>
     <row r="121" spans="2:8" ht="18.75">
@@ -3976,53 +4028,41 @@
       <c r="H121" s="15"/>
     </row>
     <row r="122" spans="2:8" ht="18.75">
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="11"/>
+      <c r="G122" s="11"/>
+      <c r="H122" s="15"/>
+    </row>
+    <row r="123" spans="2:8" ht="18.75">
+      <c r="B123" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C122" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D122" s="4">
+      <c r="C123" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D123" s="4">
         <v>1</v>
       </c>
-      <c r="E122" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F122" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G122" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H122" s="14"/>
-    </row>
-    <row r="123" spans="2:8" ht="18.75">
-      <c r="B123" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D123" s="7">
-        <v>1</v>
-      </c>
-      <c r="E123" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F123" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G123" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H123" s="15"/>
+      <c r="E123" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G123" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H123" s="14"/>
     </row>
     <row r="124" spans="2:8" ht="18.75">
       <c r="B124" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="D124" s="7">
         <v>1</v>
@@ -4039,53 +4079,53 @@
       <c r="H124" s="15"/>
     </row>
     <row r="125" spans="2:8" ht="18.75">
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="7"/>
-      <c r="E125" s="5"/>
-      <c r="F125" s="11"/>
-      <c r="G125" s="11"/>
+      <c r="B125" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D125" s="7">
+        <v>1</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F125" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G125" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="H125" s="15"/>
     </row>
     <row r="126" spans="2:8" ht="18.75">
-      <c r="B126" s="2"/>
-      <c r="C126" s="2"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
       <c r="D126" s="7"/>
-      <c r="E126" s="6"/>
-      <c r="F126" s="12"/>
-      <c r="G126" s="12"/>
-      <c r="H126" s="16"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="11"/>
+      <c r="G126" s="11"/>
+      <c r="H126" s="15"/>
     </row>
     <row r="127" spans="2:8" ht="18.75">
-      <c r="B127" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D127" s="4">
-        <v>4</v>
-      </c>
-      <c r="E127" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F127" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G127" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H127" s="15"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="12"/>
+      <c r="G127" s="12"/>
+      <c r="H127" s="16"/>
     </row>
     <row r="128" spans="2:8" ht="18.75">
       <c r="B128" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D128" s="7">
-        <v>2</v>
+        <v>42</v>
+      </c>
+      <c r="D128" s="4">
+        <v>4</v>
       </c>
       <c r="E128" s="5" t="s">
         <v>8</v>
@@ -4100,10 +4140,10 @@
     </row>
     <row r="129" spans="2:8" ht="18.75">
       <c r="B129" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D129" s="7">
         <v>2</v>
@@ -4121,10 +4161,10 @@
     </row>
     <row r="130" spans="2:8" ht="18.75">
       <c r="B130" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D130" s="7">
         <v>2</v>
@@ -4141,12 +4181,24 @@
       <c r="H130" s="15"/>
     </row>
     <row r="131" spans="2:8" ht="18.75">
-      <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="7"/>
-      <c r="E131" s="5"/>
-      <c r="F131" s="11"/>
-      <c r="G131" s="11"/>
+      <c r="B131" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D131" s="7">
+        <v>2</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F131" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G131" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="H131" s="15"/>
     </row>
     <row r="132" spans="2:8" ht="18.75">
@@ -4159,36 +4211,36 @@
       <c r="H132" s="15"/>
     </row>
     <row r="133" spans="2:8" ht="18.75">
-      <c r="B133" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D133" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E133" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F133" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G133" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H133" s="14" t="s">
-        <v>54</v>
-      </c>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="7"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="11"/>
+      <c r="G133" s="11"/>
+      <c r="H133" s="15"/>
     </row>
     <row r="134" spans="2:8" ht="18.75">
-      <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="7"/>
-      <c r="E134" s="5"/>
-      <c r="F134" s="11"/>
-      <c r="G134" s="11"/>
-      <c r="H134" s="15"/>
+      <c r="B134" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G134" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H134" s="14" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="135" spans="2:8" ht="18.75">
       <c r="B135" s="1"/>
@@ -4209,16 +4261,25 @@
       <c r="H136" s="15"/>
     </row>
     <row r="137" spans="2:8" ht="18.75">
-      <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
-      <c r="D137" s="9"/>
-      <c r="E137" s="6"/>
-      <c r="F137" s="12"/>
-      <c r="G137" s="12"/>
-      <c r="H137" s="16"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="11"/>
+      <c r="G137" s="11"/>
+      <c r="H137" s="15"/>
+    </row>
+    <row r="138" spans="2:8" ht="18.75">
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="9"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="12"/>
+      <c r="G138" s="12"/>
+      <c r="H138" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="E2:G137" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="E2:G138" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
@@ -4265,7 +4326,7 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="22" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D2" s="22" t="s">
         <v>4</v>
@@ -4301,7 +4362,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F5" s="23" t="s">
         <v>11</v>
@@ -4309,10 +4370,10 @@
     </row>
     <row r="6" spans="2:6">
       <c r="D6" s="21" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -4347,7 +4408,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G2" s="30"/>
       <c r="H2" s="30"/>
@@ -4355,21 +4416,21 @@
     </row>
     <row r="3" spans="2:9">
       <c r="B3" s="18" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C3" s="19">
         <f>SUMIF(Sheet1!B:B, B3, Sheet1!D:D)</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G3" s="30">
         <f>SUMIF(Sheet1!G:G,"完了",Sheet1!D:D)</f>
         <v>0</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I3" s="30"/>
     </row>
@@ -4382,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G4" s="30">
         <f ca="1">NETWORKDAYS(G5,G6)</f>
@@ -4403,7 +4464,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G5" s="34">
         <f>DATE(2025,5,12)</f>
@@ -4414,14 +4475,14 @@
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="19">
         <f>SUMIF(Sheet1!B:B, B6, Sheet1!D:D)</f>
         <v>0</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G6" s="34">
         <f ca="1">TODAY()</f>
@@ -4432,7 +4493,7 @@
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="18" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C7" s="19">
         <f>SUMIF(Sheet1!B:B, B7, Sheet1!D:D)</f>
@@ -4454,22 +4515,22 @@
       <c r="F8" s="30"/>
       <c r="G8" s="30"/>
       <c r="H8" s="30" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="18" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C9" s="19">
         <f>SUMIF(Sheet1!B:B, B9, Sheet1!D:D)</f>
         <v>10</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G9" s="34">
         <f>DATE(2025,6,6)</f>
@@ -4490,7 +4551,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G10" s="34">
         <v>45674</v>
@@ -4511,7 +4572,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G11" s="34">
         <v>45691</v>
@@ -4525,11 +4586,11 @@
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" s="19">
         <f>SUMIF(Sheet1!B:B, B12, Sheet1!D:D)</f>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -4543,11 +4604,11 @@
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C14" s="19">
         <f>SUMIF(Sheet1!B:B, B14, Sheet1!D:D)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="2:9">
@@ -4570,34 +4631,20 @@
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="18" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006836AD0B55474E4CAD520F1DEB8FB579" ma:contentTypeVersion="3" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="078ba6c1f7b5b638bb57eb024ae572f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="187a6309-4c0c-49e3-bd2d-e8130eb88270" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5f182963113af090d1b42042cf04cb6" ns2:_="">
     <xsd:import namespace="187a6309-4c0c-49e3-bd2d-e8130eb88270"/>
@@ -4735,24 +4782,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A1D85CE-B20E-4841-A55B-779E85453EF9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4768,4 +4813,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ゾンビシューターゲームコスト表.xlsx
+++ b/ゾンビシューターゲームコスト表.xlsx
@@ -5,21 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\由留部\Documents\MyGame3D2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\由留部 瑛人\Documents\MyGame3D2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BA465C-42E5-4B76-8862-7CE3C1B52A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C1258F-4CDD-4D24-9ADA-0F687521F1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3045" yWindow="180" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1305" yWindow="1485" windowWidth="21840" windowHeight="12915" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
-    <sheet name="分類別コスト集計" sheetId="2" r:id="rId3"/>
+    <sheet name="分類別コスト集計" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$2:$G$138</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">分類別コスト集計!$B$2:$D$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">分類別コスト集計!$B$2:$D$17</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="143">
   <si>
     <t>分類</t>
   </si>
@@ -83,90 +83,18 @@
     <t>死亡判定</t>
   </si>
   <si>
-    <t>アニメーション</t>
-  </si>
-  <si>
     <t>アルファ</t>
   </si>
   <si>
-    <t>人数選択</t>
-  </si>
-  <si>
-    <t>ステージ選択</t>
-  </si>
-  <si>
-    <t>ギミック</t>
-  </si>
-  <si>
     <t>作業中</t>
   </si>
   <si>
-    <t>ギミック選択</t>
-  </si>
-  <si>
-    <t>UI</t>
-  </si>
-  <si>
     <t>完了</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>ギミック配置</t>
-  </si>
-  <si>
-    <t>カメラ</t>
-  </si>
-  <si>
-    <t>コントローラー</t>
-  </si>
-  <si>
-    <t>ステージ進行管理</t>
-  </si>
-  <si>
-    <t>スコア管理</t>
-  </si>
-  <si>
-    <t>スコア表示</t>
-  </si>
-  <si>
-    <t>勝敗表示</t>
-  </si>
-  <si>
-    <t>タイトル</t>
-  </si>
-  <si>
-    <t>タイトルロゴ</t>
-  </si>
-  <si>
-    <t>オプション</t>
-  </si>
-  <si>
-    <t>サウンド設定</t>
-  </si>
-  <si>
-    <t>侵入シーンへ返す</t>
-  </si>
-  <si>
-    <t>サウンド</t>
-  </si>
-  <si>
-    <t>BGM</t>
-  </si>
-  <si>
-    <t>前の作品からリスペクト</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>入力管理</t>
-  </si>
-  <si>
-    <t>装飾</t>
-  </si>
-  <si>
     <t>エフェクト</t>
   </si>
   <si>
@@ -189,9 +117,6 @@
   </si>
   <si>
     <t>∞</t>
-  </si>
-  <si>
-    <t>またしても何も知らない杉野さん</t>
   </si>
   <si>
     <t>進捗段階</t>
@@ -275,13 +200,6 @@
   </si>
   <si>
     <t>リロードアニメーション</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>盾</t>
-    <rPh sb="0" eb="1">
-      <t>タテ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -631,13 +549,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>一人称始点</t>
-    <rPh sb="0" eb="5">
-      <t>イチニンショウシテン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ウェーブ終了時のスコア表示・演出</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -681,10 +592,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スピードブースト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>フルメタル弾(弾薬系1)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -713,15 +620,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>火力ブースト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>攻撃力1.5倍程度</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アドレナリン</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -802,7 +701,55 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>切り替え条件管理</t>
+    <t>侵入シーンへ返す</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どのシーンからオプションシーンに入りどのシーンに戻るのか</t>
+    <rPh sb="16" eb="17">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盾(近接武器)</t>
+    <rPh sb="0" eb="1">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>キンセツブキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スピードブースト(強化系1)</t>
+    <rPh sb="9" eb="11">
+      <t>キョウカ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アドレナリン(強化系3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火力ブースト(強化系2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一人称視点</t>
+    <rPh sb="0" eb="3">
+      <t>イチニンショウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シテン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1102,7 +1049,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1222,6 +1169,19 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1567,9 +1527,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C104" sqref="C104"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -1580,7 +1540,7 @@
     <col min="5" max="5" width="11.25" style="7" customWidth="1"/>
     <col min="6" max="6" width="13.25" style="7" customWidth="1"/>
     <col min="7" max="7" width="10" style="7" customWidth="1"/>
-    <col min="8" max="8" width="52.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="58.375" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1612,7 +1572,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="D3" s="8">
         <v>1</v>
@@ -1624,7 +1584,7 @@
         <v>9</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H3" s="14"/>
     </row>
@@ -1633,7 +1593,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="D4" s="7">
         <v>1</v>
@@ -1645,7 +1605,7 @@
         <v>9</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H4" s="15"/>
     </row>
@@ -1654,7 +1614,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="D5" s="7">
         <v>1</v>
@@ -1675,7 +1635,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="D6" s="7">
         <v>3</v>
@@ -1690,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="18.75">
@@ -1698,7 +1658,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="D7" s="7">
         <v>4</v>
@@ -1719,7 +1679,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="D8" s="7">
         <v>2</v>
@@ -1737,10 +1697,10 @@
     </row>
     <row r="9" spans="2:8" ht="18.75">
       <c r="B9" s="1" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="D9" s="7">
         <v>1</v>
@@ -1752,16 +1712,16 @@
         <v>9</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="2:8" ht="18.75">
       <c r="B10" s="1" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="D10" s="7">
         <v>3</v>
@@ -1773,7 +1733,7 @@
         <v>9</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H10" s="15"/>
     </row>
@@ -1803,7 +1763,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="D12" s="7">
         <v>1</v>
@@ -1824,7 +1784,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="D13" s="7">
         <v>0.5</v>
@@ -1833,10 +1793,10 @@
         <v>8</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H13" s="15"/>
     </row>
@@ -1845,7 +1805,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="D14" s="7">
         <v>0.5</v>
@@ -1854,10 +1814,10 @@
         <v>8</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H14" s="15"/>
     </row>
@@ -1866,7 +1826,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="D15" s="7">
         <v>0.5</v>
@@ -1875,7 +1835,7 @@
         <v>8</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>10</v>
@@ -1887,7 +1847,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="D16" s="7">
         <v>0.5</v>
@@ -1896,7 +1856,7 @@
         <v>8</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>10</v>
@@ -1908,7 +1868,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="D17" s="7">
         <v>0.5</v>
@@ -1917,10 +1877,10 @@
         <v>8</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H17" s="15"/>
     </row>
@@ -1929,7 +1889,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="D18" s="7">
         <v>1</v>
@@ -1938,7 +1898,7 @@
         <v>8</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>10</v>
@@ -1950,7 +1910,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="D19" s="7">
         <v>0.5</v>
@@ -1959,10 +1919,10 @@
         <v>8</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H19" s="15"/>
     </row>
@@ -1971,7 +1931,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="D20" s="7">
         <v>2</v>
@@ -1980,13 +1940,13 @@
         <v>8</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>10</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="18.75">
@@ -2000,10 +1960,10 @@
     </row>
     <row r="22" spans="2:8" ht="18.75">
       <c r="B22" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
@@ -2021,10 +1981,10 @@
     </row>
     <row r="23" spans="2:8" ht="18.75">
       <c r="B23" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="D23" s="7">
         <v>1</v>
@@ -2042,10 +2002,10 @@
     </row>
     <row r="24" spans="2:8" ht="18.75">
       <c r="B24" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="D24" s="7">
         <v>1.5</v>
@@ -2063,10 +2023,10 @@
     </row>
     <row r="25" spans="2:8" ht="18.75">
       <c r="B25" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="D25" s="7">
         <v>1</v>
@@ -2084,10 +2044,10 @@
     </row>
     <row r="26" spans="2:8" ht="18.75">
       <c r="B26" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="D26" s="7">
         <v>5</v>
@@ -2102,15 +2062,15 @@
         <v>10</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="18.75">
       <c r="B27" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="D27" s="7">
         <v>5</v>
@@ -2125,15 +2085,15 @@
         <v>10</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="18.75">
       <c r="B28" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="D28" s="7">
         <v>4</v>
@@ -2148,15 +2108,15 @@
         <v>10</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="18.75">
       <c r="B29" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="D29" s="7">
         <v>4</v>
@@ -2171,15 +2131,15 @@
         <v>10</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="18.75">
       <c r="B30" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="D30" s="7">
         <v>1</v>
@@ -2197,33 +2157,33 @@
     </row>
     <row r="31" spans="2:8" ht="18.75">
       <c r="B31" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="D31" s="7">
         <v>2</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>10</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="18.75">
       <c r="B32" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="D32" s="7">
         <v>5</v>
@@ -2232,30 +2192,30 @@
         <v>8</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>10</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="18.75">
       <c r="B33" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="D33" s="7">
         <v>2</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>10</v>
@@ -2273,10 +2233,10 @@
     </row>
     <row r="35" spans="2:8" ht="18.75">
       <c r="B35" s="3" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -2294,10 +2254,10 @@
     </row>
     <row r="36" spans="2:8" ht="18.75">
       <c r="B36" s="1" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="D36" s="7">
         <v>1</v>
@@ -2315,10 +2275,10 @@
     </row>
     <row r="37" spans="2:8" ht="35.1" customHeight="1">
       <c r="B37" s="1" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="D37" s="7">
         <v>1.5</v>
@@ -2333,15 +2293,15 @@
         <v>10</v>
       </c>
       <c r="H37" s="39" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="18.75">
       <c r="B38" s="1" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="D38" s="7">
         <v>1.5</v>
@@ -2359,10 +2319,10 @@
     </row>
     <row r="39" spans="2:8" ht="18.75">
       <c r="B39" s="1" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="D39" s="7">
         <v>1</v>
@@ -2380,10 +2340,10 @@
     </row>
     <row r="40" spans="2:8" ht="18.75">
       <c r="B40" s="1" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="D40" s="7">
         <v>5</v>
@@ -2398,15 +2358,15 @@
         <v>10</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="18.75">
       <c r="B41" s="1" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="D41" s="7">
         <v>5</v>
@@ -2421,15 +2381,15 @@
         <v>10</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="18.75">
       <c r="B42" s="1" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="D42" s="7">
         <v>4</v>
@@ -2444,15 +2404,15 @@
         <v>10</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="18.75">
       <c r="B43" s="1" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="D43" s="7">
         <v>4</v>
@@ -2467,15 +2427,15 @@
         <v>10</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="2:8" ht="18.75">
       <c r="B44" s="1" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="D44" s="7">
         <v>1</v>
@@ -2493,33 +2453,33 @@
     </row>
     <row r="45" spans="2:8" ht="18.75">
       <c r="B45" s="1" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="D45" s="7">
         <v>2</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G45" s="11" t="s">
         <v>10</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="18.75">
       <c r="B46" s="1" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="D46" s="7">
         <v>5</v>
@@ -2528,30 +2488,30 @@
         <v>8</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G46" s="11" t="s">
         <v>10</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="18.75">
       <c r="B47" s="1" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="D47" s="7">
         <v>2</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G47" s="11" t="s">
         <v>10</v>
@@ -2569,10 +2529,10 @@
     </row>
     <row r="49" spans="2:8" ht="18.75">
       <c r="B49" s="1" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -2590,10 +2550,10 @@
     </row>
     <row r="50" spans="2:8" ht="18.75">
       <c r="B50" s="1" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="D50" s="7">
         <v>1</v>
@@ -2611,10 +2571,10 @@
     </row>
     <row r="51" spans="2:8" ht="18.75">
       <c r="B51" s="1" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="D51" s="7">
         <v>2</v>
@@ -2632,10 +2592,10 @@
     </row>
     <row r="52" spans="2:8" ht="18.75">
       <c r="B52" s="1" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="D52" s="7">
         <v>1</v>
@@ -2653,10 +2613,10 @@
     </row>
     <row r="53" spans="2:8" ht="18.75">
       <c r="B53" s="1" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="D53" s="7">
         <v>5</v>
@@ -2671,15 +2631,15 @@
         <v>10</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="2:8" ht="18.75">
       <c r="B54" s="1" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="D54" s="7">
         <v>5</v>
@@ -2694,15 +2654,15 @@
         <v>10</v>
       </c>
       <c r="H54" s="15" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="18.75">
       <c r="B55" s="1" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="D55" s="7">
         <v>4</v>
@@ -2717,15 +2677,15 @@
         <v>10</v>
       </c>
       <c r="H55" s="15" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="18.75">
       <c r="B56" s="1" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="D56" s="7">
         <v>4</v>
@@ -2740,15 +2700,15 @@
         <v>10</v>
       </c>
       <c r="H56" s="15" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="18.75">
       <c r="B57" s="1" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="D57" s="7">
         <v>1</v>
@@ -2766,33 +2726,33 @@
     </row>
     <row r="58" spans="2:8" ht="18.75">
       <c r="B58" s="1" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="D58" s="7">
         <v>2</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G58" s="11" t="s">
         <v>10</v>
       </c>
       <c r="H58" s="15" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="2:8" ht="18.75">
       <c r="B59" s="1" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="D59" s="7">
         <v>5</v>
@@ -2801,30 +2761,30 @@
         <v>8</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G59" s="11" t="s">
         <v>10</v>
       </c>
       <c r="H59" s="15" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="2:8" ht="18.75">
       <c r="B60" s="1" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="D60" s="7">
         <v>2</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G60" s="11" t="s">
         <v>10</v>
@@ -2842,10 +2802,10 @@
     </row>
     <row r="62" spans="2:8" ht="18.75">
       <c r="B62" s="3" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="D62" s="4">
         <v>1</v>
@@ -2863,10 +2823,10 @@
     </row>
     <row r="63" spans="2:8" ht="18.75">
       <c r="B63" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>86</v>
+        <v>57</v>
+      </c>
+      <c r="C63" s="45" t="s">
+        <v>60</v>
       </c>
       <c r="D63" s="7">
         <v>1</v>
@@ -2884,10 +2844,10 @@
     </row>
     <row r="64" spans="2:8" ht="18.75">
       <c r="B64" s="1" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D64" s="7">
         <v>5</v>
@@ -2905,10 +2865,10 @@
     </row>
     <row r="65" spans="2:8" ht="18.75">
       <c r="B65" s="1" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="D65" s="7">
         <v>1</v>
@@ -2926,10 +2886,10 @@
     </row>
     <row r="66" spans="2:8" ht="18.75">
       <c r="B66" s="1" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="D66" s="7">
         <v>4</v>
@@ -2944,15 +2904,15 @@
         <v>10</v>
       </c>
       <c r="H66" s="15" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="2:8" ht="18.75">
       <c r="B67" s="1" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="D67" s="7">
         <v>4</v>
@@ -2967,15 +2927,15 @@
         <v>10</v>
       </c>
       <c r="H67" s="15" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="2:8" ht="18.75">
       <c r="B68" s="1" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="D68" s="7">
         <v>2</v>
@@ -2984,27 +2944,27 @@
         <v>8</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G68" s="11" t="s">
         <v>10</v>
       </c>
       <c r="H68" s="15" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69" spans="2:8" ht="18.75">
       <c r="B69" s="1" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="D69" s="7">
         <v>1</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F69" s="11" t="s">
         <v>9</v>
@@ -3013,15 +2973,15 @@
         <v>10</v>
       </c>
       <c r="H69" s="15" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="2:8" ht="18.75">
       <c r="B70" s="1" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="D70" s="7">
         <f>0.5*8</f>
@@ -3031,21 +2991,21 @@
         <v>8</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G70" s="11" t="s">
         <v>10</v>
       </c>
       <c r="H70" s="15" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="2:8" ht="18.75">
       <c r="B71" s="1" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="D71" s="7">
         <v>5</v>
@@ -3054,13 +3014,13 @@
         <v>8</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G71" s="11" t="s">
         <v>10</v>
       </c>
       <c r="H71" s="15" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72" spans="2:8" ht="18.75">
@@ -3074,10 +3034,10 @@
     </row>
     <row r="73" spans="2:8" ht="18.75">
       <c r="B73" s="1" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D73" s="4">
         <v>2</v>
@@ -3092,15 +3052,15 @@
         <v>10</v>
       </c>
       <c r="H73" s="15" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="2:8" ht="18.75">
       <c r="B74" s="1" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="D74" s="7">
         <v>2</v>
@@ -3115,15 +3075,15 @@
         <v>10</v>
       </c>
       <c r="H74" s="15" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="2:8" ht="18.75">
       <c r="B75" s="1" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="D75" s="7">
         <v>3</v>
@@ -3138,15 +3098,15 @@
         <v>10</v>
       </c>
       <c r="H75" s="15" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="2:8" ht="18.75">
       <c r="B76" s="1" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="D76" s="7">
         <v>4</v>
@@ -3161,15 +3121,15 @@
         <v>10</v>
       </c>
       <c r="H76" s="15" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="2:8" ht="18.75">
       <c r="B77" s="1" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="D77" s="7">
         <v>2</v>
@@ -3184,15 +3144,15 @@
         <v>10</v>
       </c>
       <c r="H77" s="15" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
     </row>
     <row r="78" spans="2:8" ht="18.75">
       <c r="B78" s="1" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="D78" s="7">
         <v>9</v>
@@ -3207,15 +3167,15 @@
         <v>10</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="2:8" ht="18.75">
       <c r="B79" s="1" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="D79" s="7">
         <v>1</v>
@@ -3233,10 +3193,10 @@
     </row>
     <row r="80" spans="2:8" ht="18.75">
       <c r="B80" s="1" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="D80" s="7">
         <v>3</v>
@@ -3251,61 +3211,61 @@
         <v>10</v>
       </c>
       <c r="H80" s="15" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="2:8" ht="18.75">
       <c r="B81" s="1" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="D81" s="7">
         <v>1</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G81" s="11" t="s">
         <v>10</v>
       </c>
       <c r="H81" s="15" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="2:8" ht="18.75">
       <c r="B82" s="1" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="D82" s="7">
         <v>2</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G82" s="11" t="s">
         <v>10</v>
       </c>
       <c r="H82" s="15" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83" spans="2:8" ht="18.75">
       <c r="B83" s="1" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="D83" s="7">
         <v>5</v>
@@ -3314,13 +3274,13 @@
         <v>11</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="G83" s="11" t="s">
         <v>10</v>
       </c>
       <c r="H83" s="15" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="2:8" ht="18.75">
@@ -3334,10 +3294,10 @@
     </row>
     <row r="85" spans="2:8" ht="18.75">
       <c r="B85" s="3" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="D85" s="4">
         <v>2</v>
@@ -3352,21 +3312,21 @@
         <v>10</v>
       </c>
       <c r="H85" s="14" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
     </row>
     <row r="86" spans="2:8" ht="18.75">
       <c r="B86" s="1" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="D86" s="7">
         <v>2</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F86" s="11" t="s">
         <v>9</v>
@@ -3375,21 +3335,21 @@
         <v>10</v>
       </c>
       <c r="H86" s="15" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="18.75">
       <c r="B87" s="1" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="D87" s="7">
         <v>2</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F87" s="11" t="s">
         <v>9</v>
@@ -3398,15 +3358,15 @@
         <v>10</v>
       </c>
       <c r="H87" s="39" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88" spans="2:8" ht="18.75">
       <c r="B88" s="1" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="D88" s="7">
         <v>1</v>
@@ -3421,21 +3381,21 @@
         <v>10</v>
       </c>
       <c r="H88" s="15" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="18.75">
       <c r="B89" s="1" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="D89" s="7">
         <v>1</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F89" s="11" t="s">
         <v>9</v>
@@ -3444,21 +3404,21 @@
         <v>10</v>
       </c>
       <c r="H89" s="15" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
     </row>
     <row r="90" spans="2:8" ht="18.75">
       <c r="B90" s="1" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="D90" s="7">
         <v>1</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F90" s="11" t="s">
         <v>9</v>
@@ -3467,21 +3427,21 @@
         <v>10</v>
       </c>
       <c r="H90" s="15" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="18.75">
       <c r="B91" s="1" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D91" s="7">
         <v>1</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F91" s="11" t="s">
         <v>9</v>
@@ -3490,15 +3450,15 @@
         <v>10</v>
       </c>
       <c r="H91" s="15" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="18.75">
       <c r="B92" s="1" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D92" s="7">
         <v>1</v>
@@ -3513,21 +3473,21 @@
         <v>10</v>
       </c>
       <c r="H92" s="15" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="18.75">
       <c r="B93" s="1" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D93" s="7">
         <v>3</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F93" s="11" t="s">
         <v>9</v>
@@ -3536,53 +3496,53 @@
         <v>10</v>
       </c>
       <c r="H93" s="15" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="18.75">
       <c r="B94" s="1" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="D94" s="7">
         <v>9</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G94" s="11" t="s">
         <v>10</v>
       </c>
       <c r="H94" s="15" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="18.75">
       <c r="B95" s="1" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="D95" s="7">
         <v>9</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G95" s="11" t="s">
         <v>10</v>
       </c>
       <c r="H95" s="15" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="18.75">
@@ -3596,10 +3556,10 @@
     </row>
     <row r="97" spans="2:8" ht="18.75">
       <c r="B97" s="1" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="D97" s="4">
         <v>1</v>
@@ -3608,7 +3568,7 @@
         <v>8</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="G97" s="11" t="s">
         <v>10</v>
@@ -3617,10 +3577,10 @@
     </row>
     <row r="98" spans="2:8" ht="18.75">
       <c r="B98" s="1" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="D98" s="7">
         <v>1</v>
@@ -3632,25 +3592,25 @@
         <v>9</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H98" s="15"/>
     </row>
     <row r="99" spans="2:8" ht="18.75">
       <c r="B99" s="1" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="D99" s="7">
         <v>1</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G99" s="11" t="s">
         <v>10</v>
@@ -3659,19 +3619,19 @@
     </row>
     <row r="100" spans="2:8" ht="18.75">
       <c r="B100" s="1" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="D100" s="7">
         <v>2</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G100" s="11" t="s">
         <v>10</v>
@@ -3689,10 +3649,10 @@
     </row>
     <row r="102" spans="2:8" ht="18.75">
       <c r="B102" s="3" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="D102" s="4">
         <v>1</v>
@@ -3707,24 +3667,24 @@
         <v>10</v>
       </c>
       <c r="H102" s="14" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
     </row>
     <row r="103" spans="2:8" ht="18.75">
       <c r="B103" s="1" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="D103" s="7">
         <v>1</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G103" s="11" t="s">
         <v>10</v>
@@ -3733,10 +3693,10 @@
     </row>
     <row r="104" spans="2:8" ht="18.75">
       <c r="B104" s="1" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="D104" s="7">
         <v>1</v>
@@ -3750,17 +3710,19 @@
       <c r="G104" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H104" s="15"/>
+      <c r="H104" s="15" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="105" spans="2:8" ht="18.75">
       <c r="B105" s="1" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="D105" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E105" s="5" t="s">
         <v>8</v>
@@ -3775,19 +3737,19 @@
     </row>
     <row r="106" spans="2:8" ht="18.75">
       <c r="B106" s="1" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="D106" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G106" s="11" t="s">
         <v>10</v>
@@ -3796,19 +3758,19 @@
     </row>
     <row r="107" spans="2:8" ht="18.75">
       <c r="B107" s="1" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="D107" s="7">
         <v>1</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G107" s="11" t="s">
         <v>10</v>
@@ -3816,38 +3778,50 @@
       <c r="H107" s="15"/>
     </row>
     <row r="108" spans="2:8" ht="18.75">
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
       <c r="D108" s="7"/>
-      <c r="E108" s="5"/>
-      <c r="F108" s="11"/>
-      <c r="G108" s="11"/>
-      <c r="H108" s="15"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="16"/>
     </row>
     <row r="109" spans="2:8" ht="18.75">
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="12"/>
-      <c r="G109" s="12"/>
-      <c r="H109" s="16"/>
+      <c r="B109" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D109" s="4">
+        <v>4</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F109" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G109" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H109" s="15"/>
     </row>
     <row r="110" spans="2:8" ht="18.75">
       <c r="B110" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D110" s="4">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="D110" s="7">
+        <v>2</v>
       </c>
       <c r="E110" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G110" s="11" t="s">
         <v>10</v>
@@ -3856,13 +3830,13 @@
     </row>
     <row r="111" spans="2:8" ht="18.75">
       <c r="B111" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D111" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E111" s="5" t="s">
         <v>8</v>
@@ -3876,12 +3850,24 @@
       <c r="H111" s="15"/>
     </row>
     <row r="112" spans="2:8" ht="18.75">
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="5"/>
-      <c r="F112" s="11"/>
-      <c r="G112" s="11"/>
+      <c r="B112" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D112" s="7">
+        <v>2</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F112" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G112" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="H112" s="15"/>
     </row>
     <row r="113" spans="2:8" ht="18.75">
@@ -3895,13 +3881,13 @@
     </row>
     <row r="114" spans="2:8" ht="18.75">
       <c r="B114" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D114" s="4">
-        <v>2</v>
+        <v>23</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="E114" s="4" t="s">
         <v>8</v>
@@ -3915,368 +3901,188 @@
       <c r="H114" s="14"/>
     </row>
     <row r="115" spans="2:8" ht="18.75">
-      <c r="B115" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D115" s="7">
-        <v>1</v>
-      </c>
-      <c r="E115" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F115" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G115" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H115" s="15"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="12"/>
+      <c r="H115" s="16"/>
     </row>
     <row r="116" spans="2:8" ht="18.75">
-      <c r="B116" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D116" s="7">
-        <v>1</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F116" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G116" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H116" s="15"/>
+      <c r="B116" s="43"/>
+      <c r="C116" s="43"/>
+      <c r="D116" s="41"/>
+      <c r="E116" s="41"/>
+      <c r="F116" s="41"/>
+      <c r="G116" s="41"/>
+      <c r="H116" s="44"/>
     </row>
     <row r="117" spans="2:8" ht="18.75">
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="7"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="11"/>
-      <c r="G117" s="11"/>
-      <c r="H117" s="15"/>
+      <c r="B117" s="43"/>
+      <c r="C117" s="43"/>
+      <c r="D117" s="41"/>
+      <c r="E117" s="41"/>
+      <c r="F117" s="41"/>
+      <c r="G117" s="41"/>
+      <c r="H117" s="44"/>
     </row>
     <row r="118" spans="2:8" ht="18.75">
-      <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="7"/>
-      <c r="E118" s="6"/>
-      <c r="F118" s="12"/>
-      <c r="G118" s="12"/>
-      <c r="H118" s="16"/>
+      <c r="B118" s="43"/>
+      <c r="C118" s="43"/>
+      <c r="D118" s="41"/>
+      <c r="E118" s="41"/>
+      <c r="F118" s="41"/>
+      <c r="G118" s="41"/>
+      <c r="H118" s="44"/>
     </row>
     <row r="119" spans="2:8" ht="18.75">
-      <c r="B119" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D119" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="E119" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F119" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G119" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H119" s="15" t="s">
-        <v>37</v>
-      </c>
+      <c r="B119" s="43"/>
+      <c r="C119" s="43"/>
+      <c r="D119" s="41"/>
+      <c r="E119" s="41"/>
+      <c r="F119" s="41"/>
+      <c r="G119" s="41"/>
+      <c r="H119" s="44"/>
     </row>
     <row r="120" spans="2:8" ht="18.75">
-      <c r="B120" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D120" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F120" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G120" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H120" s="15"/>
+      <c r="B120" s="43"/>
+      <c r="C120" s="43"/>
+      <c r="D120" s="41"/>
+      <c r="E120" s="41"/>
+      <c r="F120" s="41"/>
+      <c r="G120" s="41"/>
+      <c r="H120" s="44"/>
     </row>
     <row r="121" spans="2:8" ht="18.75">
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="7"/>
-      <c r="E121" s="5"/>
-      <c r="F121" s="11"/>
-      <c r="G121" s="11"/>
-      <c r="H121" s="15"/>
+      <c r="B121" s="43"/>
+      <c r="C121" s="43"/>
+      <c r="D121" s="41"/>
+      <c r="E121" s="41"/>
+      <c r="F121" s="41"/>
+      <c r="G121" s="41"/>
+      <c r="H121" s="44"/>
     </row>
     <row r="122" spans="2:8" ht="18.75">
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="7"/>
-      <c r="E122" s="5"/>
-      <c r="F122" s="11"/>
-      <c r="G122" s="11"/>
-      <c r="H122" s="15"/>
+      <c r="B122" s="43"/>
+      <c r="C122" s="43"/>
+      <c r="D122" s="41"/>
+      <c r="E122" s="41"/>
+      <c r="F122" s="41"/>
+      <c r="G122" s="41"/>
+      <c r="H122" s="44"/>
     </row>
     <row r="123" spans="2:8" ht="18.75">
-      <c r="B123" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D123" s="4">
-        <v>1</v>
-      </c>
-      <c r="E123" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F123" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G123" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H123" s="14"/>
+      <c r="B123" s="43"/>
+      <c r="C123" s="43"/>
+      <c r="D123" s="41"/>
+      <c r="E123" s="41"/>
+      <c r="F123" s="41"/>
+      <c r="G123" s="41"/>
+      <c r="H123" s="44"/>
     </row>
     <row r="124" spans="2:8" ht="18.75">
-      <c r="B124" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D124" s="7">
-        <v>1</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F124" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G124" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H124" s="15"/>
+      <c r="B124" s="43"/>
+      <c r="C124" s="43"/>
+      <c r="D124" s="41"/>
+      <c r="E124" s="41"/>
+      <c r="F124" s="41"/>
+      <c r="G124" s="41"/>
+      <c r="H124" s="44"/>
     </row>
     <row r="125" spans="2:8" ht="18.75">
-      <c r="B125" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D125" s="7">
-        <v>1</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F125" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G125" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H125" s="15"/>
+      <c r="B125" s="43"/>
+      <c r="C125" s="43"/>
+      <c r="D125" s="41"/>
+      <c r="E125" s="41"/>
+      <c r="F125" s="41"/>
+      <c r="G125" s="41"/>
+      <c r="H125" s="44"/>
     </row>
     <row r="126" spans="2:8" ht="18.75">
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="7"/>
-      <c r="E126" s="5"/>
-      <c r="F126" s="11"/>
-      <c r="G126" s="11"/>
-      <c r="H126" s="15"/>
+      <c r="B126" s="43"/>
+      <c r="C126" s="43"/>
+      <c r="D126" s="41"/>
+      <c r="E126" s="41"/>
+      <c r="F126" s="41"/>
+      <c r="G126" s="41"/>
+      <c r="H126" s="44"/>
     </row>
     <row r="127" spans="2:8" ht="18.75">
-      <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
-      <c r="D127" s="7"/>
-      <c r="E127" s="6"/>
-      <c r="F127" s="12"/>
-      <c r="G127" s="12"/>
-      <c r="H127" s="16"/>
-    </row>
-    <row r="128" spans="2:8" ht="18.75">
-      <c r="B128" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D128" s="4">
-        <v>4</v>
-      </c>
-      <c r="E128" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F128" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G128" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H128" s="15"/>
-    </row>
-    <row r="129" spans="2:8" ht="18.75">
-      <c r="B129" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D129" s="7">
-        <v>2</v>
-      </c>
-      <c r="E129" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F129" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G129" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H129" s="15"/>
-    </row>
-    <row r="130" spans="2:8" ht="18.75">
-      <c r="B130" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D130" s="7">
-        <v>2</v>
-      </c>
-      <c r="E130" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F130" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G130" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H130" s="15"/>
-    </row>
-    <row r="131" spans="2:8" ht="18.75">
-      <c r="B131" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D131" s="7">
-        <v>2</v>
-      </c>
-      <c r="E131" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F131" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G131" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H131" s="15"/>
-    </row>
+      <c r="B127" s="43"/>
+      <c r="C127" s="43"/>
+      <c r="D127" s="41"/>
+      <c r="E127" s="41"/>
+      <c r="F127" s="41"/>
+      <c r="G127" s="41"/>
+      <c r="H127" s="44"/>
+    </row>
+    <row r="128" spans="2:8" ht="18.75"/>
+    <row r="129" spans="2:8" ht="18.75"/>
+    <row r="130" spans="2:8" ht="18.75"/>
+    <row r="131" spans="2:8" ht="18.75"/>
     <row r="132" spans="2:8" ht="18.75">
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="7"/>
-      <c r="E132" s="5"/>
-      <c r="F132" s="11"/>
-      <c r="G132" s="11"/>
-      <c r="H132" s="15"/>
+      <c r="B132" s="43"/>
+      <c r="C132" s="43"/>
+      <c r="D132" s="41"/>
+      <c r="E132" s="41"/>
+      <c r="F132" s="41"/>
+      <c r="G132" s="41"/>
+      <c r="H132" s="44"/>
     </row>
     <row r="133" spans="2:8" ht="18.75">
-      <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="7"/>
-      <c r="E133" s="5"/>
-      <c r="F133" s="11"/>
-      <c r="G133" s="11"/>
-      <c r="H133" s="15"/>
+      <c r="B133" s="43"/>
+      <c r="C133" s="43"/>
+      <c r="D133" s="41"/>
+      <c r="E133" s="41"/>
+      <c r="F133" s="41"/>
+      <c r="G133" s="41"/>
+      <c r="H133" s="44"/>
     </row>
     <row r="134" spans="2:8" ht="18.75">
-      <c r="B134" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D134" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F134" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G134" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H134" s="14" t="s">
-        <v>49</v>
-      </c>
+      <c r="B134" s="43"/>
+      <c r="C134" s="41"/>
+      <c r="D134" s="42"/>
+      <c r="E134" s="41"/>
+      <c r="F134" s="41"/>
+      <c r="G134" s="41"/>
+      <c r="H134" s="44"/>
     </row>
     <row r="135" spans="2:8" ht="18.75">
-      <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="7"/>
-      <c r="E135" s="5"/>
-      <c r="F135" s="11"/>
-      <c r="G135" s="11"/>
-      <c r="H135" s="15"/>
+      <c r="B135" s="43"/>
+      <c r="C135" s="43"/>
+      <c r="D135" s="41"/>
+      <c r="E135" s="41"/>
+      <c r="F135" s="41"/>
+      <c r="G135" s="41"/>
+      <c r="H135" s="44"/>
     </row>
     <row r="136" spans="2:8" ht="18.75">
-      <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="7"/>
-      <c r="E136" s="5"/>
-      <c r="F136" s="11"/>
-      <c r="G136" s="11"/>
-      <c r="H136" s="15"/>
+      <c r="B136" s="43"/>
+      <c r="C136" s="43"/>
+      <c r="D136" s="41"/>
+      <c r="E136" s="41"/>
+      <c r="F136" s="41"/>
+      <c r="G136" s="41"/>
+      <c r="H136" s="44"/>
     </row>
     <row r="137" spans="2:8" ht="18.75">
-      <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="7"/>
-      <c r="E137" s="5"/>
-      <c r="F137" s="11"/>
-      <c r="G137" s="11"/>
-      <c r="H137" s="15"/>
+      <c r="B137" s="43"/>
+      <c r="C137" s="43"/>
+      <c r="D137" s="41"/>
+      <c r="E137" s="41"/>
+      <c r="F137" s="41"/>
+      <c r="G137" s="41"/>
+      <c r="H137" s="44"/>
     </row>
     <row r="138" spans="2:8" ht="18.75">
-      <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
-      <c r="D138" s="9"/>
-      <c r="E138" s="6"/>
-      <c r="F138" s="12"/>
-      <c r="G138" s="12"/>
-      <c r="H138" s="16"/>
+      <c r="B138" s="43"/>
+      <c r="C138" s="43"/>
+      <c r="D138" s="41"/>
+      <c r="E138" s="41"/>
+      <c r="F138" s="41"/>
+      <c r="G138" s="41"/>
+      <c r="H138" s="44"/>
     </row>
   </sheetData>
   <autoFilter ref="E2:G138" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
@@ -4290,19 +4096,19 @@
           <x14:formula1>
             <xm:f>Sheet2!$B$3:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>G1:G1048576</xm:sqref>
+          <xm:sqref>G1:G127 G132:G133 G135:G1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{66D8840C-D443-486F-BC72-01200775D285}">
           <x14:formula1>
             <xm:f>Sheet2!$D$3:$D$6</xm:f>
           </x14:formula1>
-          <xm:sqref>F1:F1048576</xm:sqref>
+          <xm:sqref>F1:F127 F132:F133 F135:F1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D61B1C0A-2748-4606-B0EE-00EEC89A23C6}">
           <x14:formula1>
             <xm:f>Sheet2!$F$3:$F$6</xm:f>
           </x14:formula1>
-          <xm:sqref>E1:E1048576</xm:sqref>
+          <xm:sqref>E1:E127 E132:E133 E135:E1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4311,6 +4117,265 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:I16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="21.625" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.75" customWidth="1"/>
+    <col min="9" max="9" width="16.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="30">
+        <f>SUM(C:C)</f>
+        <v>238.5</v>
+      </c>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="19">
+        <f>SUMIF(Sheet1!B:B, B3, Sheet1!D:D)</f>
+        <v>24</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="30">
+        <f>SUMIF(Sheet1!G:G,"完了",Sheet1!D:D)</f>
+        <v>9</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="30"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="19">
+        <f>SUMIF(Sheet1!B:B, B4, Sheet1!D:D)</f>
+        <v>32.5</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="30">
+        <f ca="1">NETWORKDAYS(G5,G6)</f>
+        <v>13</v>
+      </c>
+      <c r="H4" s="38">
+        <f ca="1" xml:space="preserve"> G3 / G4</f>
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="I4" s="30"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="19">
+        <f>SUMIF(Sheet1!B:B, B5, Sheet1!D:D)</f>
+        <v>34</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="34">
+        <f>DATE(2025,5,2)</f>
+        <v>45779</v>
+      </c>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="19">
+        <f>SUMIF(Sheet1!B:B, B6, Sheet1!D:D)</f>
+        <v>33</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="34">
+        <f ca="1">TODAY()</f>
+        <v>45797</v>
+      </c>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="19">
+        <f>SUMIF(Sheet1!B:B, B7, Sheet1!D:D)</f>
+        <v>28</v>
+      </c>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="19">
+        <f>SUMIF(Sheet1!B:B, B8, Sheet1!D:D)</f>
+        <v>34</v>
+      </c>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="19">
+        <f>SUMIF(Sheet1!B:B, B9, Sheet1!D:D)</f>
+        <v>32</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="34">
+        <f>DATE(2025,8,11)</f>
+        <v>45880</v>
+      </c>
+      <c r="H9" s="37">
+        <f ca="1">NETWORKDAYS(TODAY(),G9)</f>
+        <v>60</v>
+      </c>
+      <c r="I9" s="38">
+        <f ca="1">($G$2 - $G$3) / H9</f>
+        <v>3.8250000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="19">
+        <f>SUMIF(Sheet1!B:B, B10, Sheet1!D:D)</f>
+        <v>5</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="34">
+        <f>DATE(2025,8,17)</f>
+        <v>45886</v>
+      </c>
+      <c r="H10" s="37">
+        <f ca="1">NETWORKDAYS(TODAY(),G10)</f>
+        <v>64</v>
+      </c>
+      <c r="I10" s="38">
+        <f ca="1">($G$2 - $G$3) / H10</f>
+        <v>3.5859375</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="19">
+        <f>SUMIF(Sheet1!B:B, B11, Sheet1!D:D)</f>
+        <v>6</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="34">
+        <f>DATE(2025,9,1)</f>
+        <v>45901</v>
+      </c>
+      <c r="H11" s="37">
+        <f ca="1">NETWORKDAYS(TODAY(),G11)</f>
+        <v>75</v>
+      </c>
+      <c r="I11" s="38">
+        <f ca="1">($G$2 - $G$3) / H11</f>
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="19">
+        <f>SUMIF(Sheet1!B:B, B12, Sheet1!D:D)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="18"/>
+      <c r="C14" s="19">
+        <f>SUMIF(Sheet1!B:B, B14, Sheet1!D:D)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="18"/>
+      <c r="C15" s="19">
+        <f>SUMIF(Sheet1!B:B, B15, Sheet1!D:D)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="18"/>
+      <c r="C16" s="19">
+        <f>SUMIF(Sheet1!B:B, B16, Sheet1!D:D)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE868E3-33E5-43E7-9EF1-2BA63334710F}">
   <dimension ref="B2:F6"/>
   <sheetViews>
@@ -4326,7 +4391,7 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="22" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D2" s="22" t="s">
         <v>4</v>
@@ -4348,21 +4413,21 @@
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="20" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="40" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="F5" s="23" t="s">
         <v>11</v>
@@ -4370,10 +4435,10 @@
     </row>
     <row r="6" spans="2:6">
       <c r="D6" s="21" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -4382,269 +4447,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:I17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="21.625" customWidth="1"/>
-    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.75" customWidth="1"/>
-    <col min="9" max="9" width="16.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:9">
-      <c r="B2" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-    </row>
-    <row r="3" spans="2:9">
-      <c r="B3" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="19">
-        <f>SUMIF(Sheet1!B:B, B3, Sheet1!D:D)</f>
-        <v>16</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="30">
-        <f>SUMIF(Sheet1!G:G,"完了",Sheet1!D:D)</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" s="30"/>
-    </row>
-    <row r="4" spans="2:9">
-      <c r="B4" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="19">
-        <f>SUMIF(Sheet1!B:B, B4, Sheet1!D:D)</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="30">
-        <f ca="1">NETWORKDAYS(G5,G6)</f>
-        <v>6</v>
-      </c>
-      <c r="H4" s="38">
-        <f ca="1" xml:space="preserve"> G3 / G4</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="30"/>
-    </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="19">
-        <f>SUMIF(Sheet1!B:B, B5, Sheet1!D:D)</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="34">
-        <f>DATE(2025,5,12)</f>
-        <v>45789</v>
-      </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="19">
-        <f>SUMIF(Sheet1!B:B, B6, Sheet1!D:D)</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="34">
-        <f ca="1">TODAY()</f>
-        <v>45796</v>
-      </c>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="19">
-        <f>SUMIF(Sheet1!B:B, B7, Sheet1!D:D)</f>
-        <v>3</v>
-      </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="19">
-        <f>SUMIF(Sheet1!B:B, B8, Sheet1!D:D)</f>
-        <v>3</v>
-      </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="I8" s="30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="19">
-        <f>SUMIF(Sheet1!B:B, B9, Sheet1!D:D)</f>
-        <v>10</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="34">
-        <f>DATE(2025,6,6)</f>
-        <v>45814</v>
-      </c>
-      <c r="H9" s="37">
-        <f ca="1">NETWORKDAYS(TODAY(),G9)</f>
-        <v>15</v>
-      </c>
-      <c r="I9" s="38"/>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="19">
-        <f>SUMIF(Sheet1!B:B, B10, Sheet1!D:D)</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="34">
-        <v>45674</v>
-      </c>
-      <c r="H10" s="37">
-        <v>-65</v>
-      </c>
-      <c r="I10" s="38">
-        <v>-1.877</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="19">
-        <f>SUMIF(Sheet1!B:B, B11, Sheet1!D:D)</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="34">
-        <v>45691</v>
-      </c>
-      <c r="H11" s="37">
-        <v>-54</v>
-      </c>
-      <c r="I11" s="38">
-        <v>-2.2589999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="19">
-        <f>SUMIF(Sheet1!B:B, B12, Sheet1!D:D)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="19">
-        <f>SUMIF(Sheet1!B:B, B13, Sheet1!D:D)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="19">
-        <f>SUMIF(Sheet1!B:B, B14, Sheet1!D:D)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="19">
-        <f>SUMIF(Sheet1!B:B, B15, Sheet1!D:D)</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9">
-      <c r="B16" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="19">
-        <f>SUMIF(Sheet1!B:B, B16, Sheet1!D:D)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006836AD0B55474E4CAD520F1DEB8FB579" ma:contentTypeVersion="3" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="078ba6c1f7b5b638bb57eb024ae572f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="187a6309-4c0c-49e3-bd2d-e8130eb88270" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5f182963113af090d1b42042cf04cb6" ns2:_="">
     <xsd:import namespace="187a6309-4c0c-49e3-bd2d-e8130eb88270"/>
@@ -4782,22 +4600,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A1D85CE-B20E-4841-A55B-779E85453EF9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4813,21 +4633,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ゾンビシューターゲームコスト表.xlsx
+++ b/ゾンビシューターゲームコスト表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\由留部 瑛人\Documents\MyGame3D2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sho24\OneDrive\ドキュメント\MyGame3D2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C1258F-4CDD-4D24-9ADA-0F687521F1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14E92AA-62E9-4F10-8145-7FEE9A25EE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1305" yWindow="1485" windowWidth="21840" windowHeight="12915" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="144">
   <si>
     <t>分類</t>
   </si>
@@ -749,6 +749,22 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>シテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>K2作品フィードバック会(α版まで完成)</t>
+    <rPh sb="2" eb="4">
+      <t>サクヒン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カンセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -757,7 +773,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -813,8 +829,31 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -855,6 +894,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD0CECE"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1049,7 +1094,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1135,25 +1180,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="56" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1171,17 +1201,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1528,7 +1572,7 @@
   <dimension ref="B2:I138"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -2292,7 +2336,7 @@
       <c r="G37" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H37" s="39" t="s">
+      <c r="H37" s="34" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2825,7 +2869,7 @@
       <c r="B63" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C63" s="45" t="s">
+      <c r="C63" s="36" t="s">
         <v>60</v>
       </c>
       <c r="D63" s="7">
@@ -3357,7 +3401,7 @@
       <c r="G87" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H87" s="39" t="s">
+      <c r="H87" s="34" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3910,179 +3954,101 @@
       <c r="H115" s="16"/>
     </row>
     <row r="116" spans="2:8" ht="18.75">
-      <c r="B116" s="43"/>
-      <c r="C116" s="43"/>
-      <c r="D116" s="41"/>
-      <c r="E116" s="41"/>
-      <c r="F116" s="41"/>
-      <c r="G116" s="41"/>
-      <c r="H116" s="44"/>
+      <c r="C116"/>
+      <c r="D116" s="7"/>
+      <c r="H116" s="13"/>
     </row>
     <row r="117" spans="2:8" ht="18.75">
-      <c r="B117" s="43"/>
-      <c r="C117" s="43"/>
-      <c r="D117" s="41"/>
-      <c r="E117" s="41"/>
-      <c r="F117" s="41"/>
-      <c r="G117" s="41"/>
-      <c r="H117" s="44"/>
+      <c r="C117"/>
+      <c r="D117" s="7"/>
+      <c r="H117" s="13"/>
     </row>
     <row r="118" spans="2:8" ht="18.75">
-      <c r="B118" s="43"/>
-      <c r="C118" s="43"/>
-      <c r="D118" s="41"/>
-      <c r="E118" s="41"/>
-      <c r="F118" s="41"/>
-      <c r="G118" s="41"/>
-      <c r="H118" s="44"/>
+      <c r="C118"/>
+      <c r="D118" s="7"/>
+      <c r="H118" s="13"/>
     </row>
     <row r="119" spans="2:8" ht="18.75">
-      <c r="B119" s="43"/>
-      <c r="C119" s="43"/>
-      <c r="D119" s="41"/>
-      <c r="E119" s="41"/>
-      <c r="F119" s="41"/>
-      <c r="G119" s="41"/>
-      <c r="H119" s="44"/>
+      <c r="C119"/>
+      <c r="D119" s="7"/>
+      <c r="H119" s="13"/>
     </row>
     <row r="120" spans="2:8" ht="18.75">
-      <c r="B120" s="43"/>
-      <c r="C120" s="43"/>
-      <c r="D120" s="41"/>
-      <c r="E120" s="41"/>
-      <c r="F120" s="41"/>
-      <c r="G120" s="41"/>
-      <c r="H120" s="44"/>
+      <c r="C120"/>
+      <c r="D120" s="7"/>
+      <c r="H120" s="13"/>
     </row>
     <row r="121" spans="2:8" ht="18.75">
-      <c r="B121" s="43"/>
-      <c r="C121" s="43"/>
-      <c r="D121" s="41"/>
-      <c r="E121" s="41"/>
-      <c r="F121" s="41"/>
-      <c r="G121" s="41"/>
-      <c r="H121" s="44"/>
+      <c r="C121"/>
+      <c r="D121" s="7"/>
+      <c r="H121" s="13"/>
     </row>
     <row r="122" spans="2:8" ht="18.75">
-      <c r="B122" s="43"/>
-      <c r="C122" s="43"/>
-      <c r="D122" s="41"/>
-      <c r="E122" s="41"/>
-      <c r="F122" s="41"/>
-      <c r="G122" s="41"/>
-      <c r="H122" s="44"/>
+      <c r="C122"/>
+      <c r="D122" s="7"/>
+      <c r="H122" s="13"/>
     </row>
     <row r="123" spans="2:8" ht="18.75">
-      <c r="B123" s="43"/>
-      <c r="C123" s="43"/>
-      <c r="D123" s="41"/>
-      <c r="E123" s="41"/>
-      <c r="F123" s="41"/>
-      <c r="G123" s="41"/>
-      <c r="H123" s="44"/>
+      <c r="C123"/>
+      <c r="D123" s="7"/>
+      <c r="H123" s="13"/>
     </row>
     <row r="124" spans="2:8" ht="18.75">
-      <c r="B124" s="43"/>
-      <c r="C124" s="43"/>
-      <c r="D124" s="41"/>
-      <c r="E124" s="41"/>
-      <c r="F124" s="41"/>
-      <c r="G124" s="41"/>
-      <c r="H124" s="44"/>
+      <c r="C124"/>
+      <c r="D124" s="7"/>
+      <c r="H124" s="13"/>
     </row>
     <row r="125" spans="2:8" ht="18.75">
-      <c r="B125" s="43"/>
-      <c r="C125" s="43"/>
-      <c r="D125" s="41"/>
-      <c r="E125" s="41"/>
-      <c r="F125" s="41"/>
-      <c r="G125" s="41"/>
-      <c r="H125" s="44"/>
+      <c r="C125"/>
+      <c r="D125" s="7"/>
+      <c r="H125" s="13"/>
     </row>
     <row r="126" spans="2:8" ht="18.75">
-      <c r="B126" s="43"/>
-      <c r="C126" s="43"/>
-      <c r="D126" s="41"/>
-      <c r="E126" s="41"/>
-      <c r="F126" s="41"/>
-      <c r="G126" s="41"/>
-      <c r="H126" s="44"/>
+      <c r="C126"/>
+      <c r="D126" s="7"/>
+      <c r="H126" s="13"/>
     </row>
     <row r="127" spans="2:8" ht="18.75">
-      <c r="B127" s="43"/>
-      <c r="C127" s="43"/>
-      <c r="D127" s="41"/>
-      <c r="E127" s="41"/>
-      <c r="F127" s="41"/>
-      <c r="G127" s="41"/>
-      <c r="H127" s="44"/>
+      <c r="C127"/>
+      <c r="D127" s="7"/>
+      <c r="H127" s="13"/>
     </row>
     <row r="128" spans="2:8" ht="18.75"/>
-    <row r="129" spans="2:8" ht="18.75"/>
-    <row r="130" spans="2:8" ht="18.75"/>
-    <row r="131" spans="2:8" ht="18.75"/>
-    <row r="132" spans="2:8" ht="18.75">
-      <c r="B132" s="43"/>
-      <c r="C132" s="43"/>
-      <c r="D132" s="41"/>
-      <c r="E132" s="41"/>
-      <c r="F132" s="41"/>
-      <c r="G132" s="41"/>
-      <c r="H132" s="44"/>
-    </row>
-    <row r="133" spans="2:8" ht="18.75">
-      <c r="B133" s="43"/>
-      <c r="C133" s="43"/>
-      <c r="D133" s="41"/>
-      <c r="E133" s="41"/>
-      <c r="F133" s="41"/>
-      <c r="G133" s="41"/>
-      <c r="H133" s="44"/>
-    </row>
-    <row r="134" spans="2:8" ht="18.75">
-      <c r="B134" s="43"/>
-      <c r="C134" s="41"/>
-      <c r="D134" s="42"/>
-      <c r="E134" s="41"/>
-      <c r="F134" s="41"/>
-      <c r="G134" s="41"/>
-      <c r="H134" s="44"/>
-    </row>
-    <row r="135" spans="2:8" ht="18.75">
-      <c r="B135" s="43"/>
-      <c r="C135" s="43"/>
-      <c r="D135" s="41"/>
-      <c r="E135" s="41"/>
-      <c r="F135" s="41"/>
-      <c r="G135" s="41"/>
-      <c r="H135" s="44"/>
-    </row>
-    <row r="136" spans="2:8" ht="18.75">
-      <c r="B136" s="43"/>
-      <c r="C136" s="43"/>
-      <c r="D136" s="41"/>
-      <c r="E136" s="41"/>
-      <c r="F136" s="41"/>
-      <c r="G136" s="41"/>
-      <c r="H136" s="44"/>
-    </row>
-    <row r="137" spans="2:8" ht="18.75">
-      <c r="B137" s="43"/>
-      <c r="C137" s="43"/>
-      <c r="D137" s="41"/>
-      <c r="E137" s="41"/>
-      <c r="F137" s="41"/>
-      <c r="G137" s="41"/>
-      <c r="H137" s="44"/>
-    </row>
-    <row r="138" spans="2:8" ht="18.75">
-      <c r="B138" s="43"/>
-      <c r="C138" s="43"/>
-      <c r="D138" s="41"/>
-      <c r="E138" s="41"/>
-      <c r="F138" s="41"/>
-      <c r="G138" s="41"/>
-      <c r="H138" s="44"/>
+    <row r="129" spans="3:8" ht="18.75"/>
+    <row r="130" spans="3:8" ht="18.75"/>
+    <row r="131" spans="3:8" ht="18.75"/>
+    <row r="132" spans="3:8" ht="18.75">
+      <c r="C132"/>
+      <c r="D132" s="7"/>
+      <c r="H132" s="13"/>
+    </row>
+    <row r="133" spans="3:8" ht="18.75">
+      <c r="C133"/>
+      <c r="D133" s="7"/>
+      <c r="H133" s="13"/>
+    </row>
+    <row r="134" spans="3:8" ht="18.75">
+      <c r="H134" s="13"/>
+    </row>
+    <row r="135" spans="3:8" ht="18.75">
+      <c r="C135"/>
+      <c r="D135" s="7"/>
+      <c r="H135" s="13"/>
+    </row>
+    <row r="136" spans="3:8" ht="18.75">
+      <c r="C136"/>
+      <c r="D136" s="7"/>
+      <c r="H136" s="13"/>
+    </row>
+    <row r="137" spans="3:8" ht="18.75">
+      <c r="C137"/>
+      <c r="D137" s="7"/>
+      <c r="H137" s="13"/>
+    </row>
+    <row r="138" spans="3:8" ht="18.75">
+      <c r="C138"/>
+      <c r="D138" s="7"/>
+      <c r="H138" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="E2:G138" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
@@ -4121,37 +4087,37 @@
   <dimension ref="B2:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="21.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="21.625" customWidth="1"/>
+    <col min="6" max="6" width="48.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.75" customWidth="1"/>
     <col min="9" max="9" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
-      <c r="B2" s="36" t="s">
+    <row r="2" spans="2:9" ht="19.5">
+      <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="30">
+      <c r="G2" s="29">
         <f>SUM(C:C)</f>
         <v>238.5</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-    </row>
-    <row r="3" spans="2:9">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+    </row>
+    <row r="3" spans="2:9" ht="19.5">
       <c r="B3" s="18" t="s">
         <v>7</v>
       </c>
@@ -4159,19 +4125,19 @@
         <f>SUMIF(Sheet1!B:B, B3, Sheet1!D:D)</f>
         <v>24</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="29">
         <f>SUMIF(Sheet1!G:G,"完了",Sheet1!D:D)</f>
         <v>9</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="30"/>
-    </row>
-    <row r="4" spans="2:9">
+      <c r="I3" s="29"/>
+    </row>
+    <row r="4" spans="2:9" ht="19.5">
       <c r="B4" s="1" t="s">
         <v>54</v>
       </c>
@@ -4179,20 +4145,20 @@
         <f>SUMIF(Sheet1!B:B, B4, Sheet1!D:D)</f>
         <v>32.5</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="29">
         <f ca="1">NETWORKDAYS(G5,G6)</f>
-        <v>13</v>
-      </c>
-      <c r="H4" s="38">
+        <v>14</v>
+      </c>
+      <c r="H4" s="33">
         <f ca="1" xml:space="preserve"> G3 / G4</f>
-        <v>0.69230769230769229</v>
-      </c>
-      <c r="I4" s="30"/>
-    </row>
-    <row r="5" spans="2:9">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="I4" s="29"/>
+    </row>
+    <row r="5" spans="2:9" ht="19.5">
       <c r="B5" s="18" t="s">
         <v>55</v>
       </c>
@@ -4200,17 +4166,17 @@
         <f>SUMIF(Sheet1!B:B, B5, Sheet1!D:D)</f>
         <v>34</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="30">
         <f>DATE(2025,5,2)</f>
         <v>45779</v>
       </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-    </row>
-    <row r="6" spans="2:9">
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+    </row>
+    <row r="6" spans="2:9" ht="19.5">
       <c r="B6" s="18" t="s">
         <v>56</v>
       </c>
@@ -4218,15 +4184,15 @@
         <f>SUMIF(Sheet1!B:B, B6, Sheet1!D:D)</f>
         <v>33</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="30">
         <f ca="1">TODAY()</f>
-        <v>45797</v>
-      </c>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
+        <v>45798</v>
+      </c>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="18" t="s">
@@ -4236,10 +4202,10 @@
         <f>SUMIF(Sheet1!B:B, B7, Sheet1!D:D)</f>
         <v>28</v>
       </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="1" t="s">
@@ -4249,16 +4215,16 @@
         <f>SUMIF(Sheet1!B:B, B8, Sheet1!D:D)</f>
         <v>34</v>
       </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30" t="s">
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="29" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:9" ht="24">
       <c r="B9" s="18" t="s">
         <v>103</v>
       </c>
@@ -4266,23 +4232,23 @@
         <f>SUMIF(Sheet1!B:B, B9, Sheet1!D:D)</f>
         <v>32</v>
       </c>
-      <c r="F9" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="34">
-        <f>DATE(2025,8,11)</f>
-        <v>45880</v>
-      </c>
-      <c r="H9" s="37">
+      <c r="F9" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="G9" s="38">
+        <f>DATE(2025,7,23)</f>
+        <v>45861</v>
+      </c>
+      <c r="H9" s="39">
         <f ca="1">NETWORKDAYS(TODAY(),G9)</f>
-        <v>60</v>
-      </c>
-      <c r="I9" s="38">
+        <v>46</v>
+      </c>
+      <c r="I9" s="7">
         <f ca="1">($G$2 - $G$3) / H9</f>
-        <v>3.8250000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9">
+        <v>4.9891304347826084</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="19.5">
       <c r="B10" s="18" t="s">
         <v>127</v>
       </c>
@@ -4290,23 +4256,23 @@
         <f>SUMIF(Sheet1!B:B, B10, Sheet1!D:D)</f>
         <v>5</v>
       </c>
-      <c r="F10" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="34">
-        <f>DATE(2025,8,17)</f>
-        <v>45886</v>
-      </c>
-      <c r="H10" s="37">
+      <c r="F10" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="30">
+        <f>DATE(2025,8,11)</f>
+        <v>45880</v>
+      </c>
+      <c r="H10" s="32">
         <f ca="1">NETWORKDAYS(TODAY(),G10)</f>
-        <v>64</v>
-      </c>
-      <c r="I10" s="38">
+        <v>59</v>
+      </c>
+      <c r="I10" s="33">
         <f ca="1">($G$2 - $G$3) / H10</f>
-        <v>3.5859375</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9">
+        <v>3.8898305084745761</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="19.5">
       <c r="B11" s="18" t="s">
         <v>132</v>
       </c>
@@ -4314,29 +4280,44 @@
         <f>SUMIF(Sheet1!B:B, B11, Sheet1!D:D)</f>
         <v>6</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="30">
+        <f>DATE(2025,8,17)</f>
+        <v>45886</v>
+      </c>
+      <c r="H11" s="32">
+        <f ca="1">NETWORKDAYS(TODAY(),G11)</f>
+        <v>63</v>
+      </c>
+      <c r="I11" s="33">
+        <f ca="1">($G$2 - $G$3) / H11</f>
+        <v>3.6428571428571428</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="19.5">
+      <c r="B12" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="19">
+        <f>SUMIF(Sheet1!B:B, B12, Sheet1!D:D)</f>
+        <v>10</v>
+      </c>
+      <c r="F12" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="34">
+      <c r="G12" s="30">
         <f>DATE(2025,9,1)</f>
         <v>45901</v>
       </c>
-      <c r="H11" s="37">
-        <f ca="1">NETWORKDAYS(TODAY(),G11)</f>
-        <v>75</v>
-      </c>
-      <c r="I11" s="38">
-        <f ca="1">($G$2 - $G$3) / H11</f>
-        <v>3.06</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="19">
-        <f>SUMIF(Sheet1!B:B, B12, Sheet1!D:D)</f>
-        <v>10</v>
+      <c r="H12" s="32">
+        <f ca="1">NETWORKDAYS(TODAY(),G12)</f>
+        <v>74</v>
+      </c>
+      <c r="I12" s="33">
+        <f ca="1">($G$2 - $G$3) / H12</f>
+        <v>3.1013513513513513</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -4423,7 +4404,7 @@
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="35" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="20" t="s">
@@ -4448,21 +4429,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006836AD0B55474E4CAD520F1DEB8FB579" ma:contentTypeVersion="3" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="078ba6c1f7b5b638bb57eb024ae572f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="187a6309-4c0c-49e3-bd2d-e8130eb88270" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5f182963113af090d1b42042cf04cb6" ns2:_="">
     <xsd:import namespace="187a6309-4c0c-49e3-bd2d-e8130eb88270"/>
@@ -4600,24 +4566,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A1D85CE-B20E-4841-A55B-779E85453EF9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4633,4 +4597,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ゾンビシューターゲームコスト表.xlsx
+++ b/ゾンビシューターゲームコスト表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sho24\OneDrive\ドキュメント\MyGame3D2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\由留部 瑛人\Documents\MyGame3D2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14E92AA-62E9-4F10-8145-7FEE9A25EE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FE6B15-F1DD-439C-8E43-051F33405F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14520" yWindow="0" windowWidth="14385" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="148">
   <si>
     <t>分類</t>
   </si>
@@ -767,13 +767,29 @@
       <t>カンセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗率 (%)</t>
+  </si>
+  <si>
+    <t>合計進捗率</t>
+    <rPh sb="0" eb="5">
+      <t>ゴウケイシンチョクリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コスト合計</t>
+  </si>
+  <si>
+    <t>進捗率(%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -784,15 +800,6 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -852,8 +859,34 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -902,8 +935,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1088,13 +1127,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1159,42 +1209,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="56" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1204,29 +1248,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1572,8 +1649,8 @@
   <dimension ref="B2:I138"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -1589,25 +1666,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="18.75">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="27" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2336,7 +2413,7 @@
       <c r="G37" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H37" s="34" t="s">
+      <c r="H37" s="32" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2869,7 +2946,7 @@
       <c r="B63" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C63" s="36" t="s">
+      <c r="C63" s="34" t="s">
         <v>60</v>
       </c>
       <c r="D63" s="7">
@@ -3401,7 +3478,7 @@
       <c r="G87" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H87" s="34" t="s">
+      <c r="H87" s="32" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4084,10 +4161,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:I16"/>
+  <dimension ref="B2:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4101,21 +4178,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="19.5">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="D2" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="29">
+      <c r="G2" s="28">
         <f>SUM(C:C)</f>
         <v>238.5</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
     </row>
     <row r="3" spans="2:9" ht="19.5">
       <c r="B3" s="18" t="s">
@@ -4125,17 +4205,21 @@
         <f>SUMIF(Sheet1!B:B, B3, Sheet1!D:D)</f>
         <v>24</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="D3" s="50">
+        <f>ROUNDDOWN(COUNTIFS(Sheet1!B:B, "プレイヤー", Sheet1!G:G, "完了") / COUNTIF(Sheet1!B:B, "プレイヤー") * 100,1)</f>
+        <v>44.4</v>
+      </c>
+      <c r="F3" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="28">
         <f>SUMIF(Sheet1!G:G,"完了",Sheet1!D:D)</f>
         <v>9</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="29"/>
+      <c r="I3" s="28"/>
     </row>
     <row r="4" spans="2:9" ht="19.5">
       <c r="B4" s="1" t="s">
@@ -4145,18 +4229,22 @@
         <f>SUMIF(Sheet1!B:B, B4, Sheet1!D:D)</f>
         <v>32.5</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="D4" s="50">
+        <f>ROUNDDOWN(COUNTIFS(Sheet1!B:B, "敵1(通常ゾンビ)", Sheet1!G:G, "完了") / COUNTIF(Sheet1!B:B, "敵1(通常ゾンビ)") * 100,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="28">
         <f ca="1">NETWORKDAYS(G5,G6)</f>
-        <v>14</v>
-      </c>
-      <c r="H4" s="33">
+        <v>16</v>
+      </c>
+      <c r="H4" s="31">
         <f ca="1" xml:space="preserve"> G3 / G4</f>
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="I4" s="29"/>
+        <v>0.5625</v>
+      </c>
+      <c r="I4" s="28"/>
     </row>
     <row r="5" spans="2:9" ht="19.5">
       <c r="B5" s="18" t="s">
@@ -4166,15 +4254,19 @@
         <f>SUMIF(Sheet1!B:B, B5, Sheet1!D:D)</f>
         <v>34</v>
       </c>
-      <c r="F5" s="43" t="s">
+      <c r="D5" s="50">
+        <f>ROUNDDOWN(COUNTIFS(Sheet1!B:B, "敵2(ランナーゾンビ)", Sheet1!G:G, "完了") / COUNTIF(Sheet1!B:B, "敵2(ランナーゾンビ)") * 100,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="29">
         <f>DATE(2025,5,2)</f>
         <v>45779</v>
       </c>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
     </row>
     <row r="6" spans="2:9" ht="19.5">
       <c r="B6" s="18" t="s">
@@ -4184,15 +4276,19 @@
         <f>SUMIF(Sheet1!B:B, B6, Sheet1!D:D)</f>
         <v>33</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="D6" s="50">
+        <f>ROUNDDOWN(COUNTIFS(Sheet1!B:B, "敵3(酸を飛ばすゾンビ)", Sheet1!G:G, "完了") / COUNTIF(Sheet1!B:B, "敵3(酸を飛ばすゾンビ)") * 100,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="29">
         <f ca="1">TODAY()</f>
-        <v>45798</v>
-      </c>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
+        <v>45800</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="18" t="s">
@@ -4202,10 +4298,14 @@
         <f>SUMIF(Sheet1!B:B, B7, Sheet1!D:D)</f>
         <v>28</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
+      <c r="D7" s="50">
+        <f>ROUNDDOWN(COUNTIFS(Sheet1!B:B, "ボス", Sheet1!G:G, "完了") / COUNTIF(Sheet1!B:B, "ボス") * 100,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="1" t="s">
@@ -4215,12 +4315,16 @@
         <f>SUMIF(Sheet1!B:B, B8, Sheet1!D:D)</f>
         <v>34</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29" t="s">
+      <c r="D8" s="50">
+        <f>ROUNDDOWN(COUNTIFS(Sheet1!B:B, "ウェーブ管理システム", Sheet1!G:G, "完了") / COUNTIF(Sheet1!B:B, "ウェーブ管理システム") * 100,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="29" t="s">
+      <c r="I8" s="28" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4232,20 +4336,24 @@
         <f>SUMIF(Sheet1!B:B, B9, Sheet1!D:D)</f>
         <v>32</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="D9" s="50">
+        <f>ROUNDDOWN(COUNTIFS(Sheet1!B:B, "アイテム", Sheet1!G:G, "完了") / COUNTIF(Sheet1!B:B, "アイテム") * 100,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="G9" s="38">
+      <c r="G9" s="36">
         <f>DATE(2025,7,23)</f>
         <v>45861</v>
       </c>
-      <c r="H9" s="39">
+      <c r="H9" s="37">
         <f ca="1">NETWORKDAYS(TODAY(),G9)</f>
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I9" s="7">
         <f ca="1">($G$2 - $G$3) / H9</f>
-        <v>4.9891304347826084</v>
+        <v>5.2159090909090908</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="19.5">
@@ -4256,20 +4364,24 @@
         <f>SUMIF(Sheet1!B:B, B10, Sheet1!D:D)</f>
         <v>5</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="D10" s="50">
+        <f>ROUNDDOWN(COUNTIFS(Sheet1!B:B, "タイトル", Sheet1!G:G, "完了") / COUNTIF(Sheet1!B:B, "タイトル") * 100,1)</f>
+        <v>25</v>
+      </c>
+      <c r="F10" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="29">
         <f>DATE(2025,8,11)</f>
         <v>45880</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="30">
         <f ca="1">NETWORKDAYS(TODAY(),G10)</f>
-        <v>59</v>
-      </c>
-      <c r="I10" s="33">
+        <v>57</v>
+      </c>
+      <c r="I10" s="31">
         <f ca="1">($G$2 - $G$3) / H10</f>
-        <v>3.8898305084745761</v>
+        <v>4.0263157894736841</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="19.5">
@@ -4280,20 +4392,24 @@
         <f>SUMIF(Sheet1!B:B, B11, Sheet1!D:D)</f>
         <v>6</v>
       </c>
-      <c r="F11" s="41" t="s">
+      <c r="D11" s="50">
+        <f>ROUNDDOWN(COUNTIFS(Sheet1!B:B, "オプション", Sheet1!G:G, "完了") / COUNTIF(Sheet1!B:B, "オプション") * 100,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="29">
         <f>DATE(2025,8,17)</f>
         <v>45886</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H11" s="30">
         <f ca="1">NETWORKDAYS(TODAY(),G11)</f>
-        <v>63</v>
-      </c>
-      <c r="I11" s="33">
+        <v>61</v>
+      </c>
+      <c r="I11" s="31">
         <f ca="1">($G$2 - $G$3) / H11</f>
-        <v>3.6428571428571428</v>
+        <v>3.762295081967213</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="19.5">
@@ -4304,20 +4420,24 @@
         <f>SUMIF(Sheet1!B:B, B12, Sheet1!D:D)</f>
         <v>10</v>
       </c>
-      <c r="F12" s="42" t="s">
+      <c r="D12" s="50">
+        <f>ROUNDDOWN(COUNTIFS(Sheet1!B:B, "エフェクト", Sheet1!G:G, "完了") / COUNTIF(Sheet1!B:B, "エフェクト") * 100,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="29">
         <f>DATE(2025,9,1)</f>
         <v>45901</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="30">
         <f ca="1">NETWORKDAYS(TODAY(),G12)</f>
-        <v>74</v>
-      </c>
-      <c r="I12" s="33">
+        <v>72</v>
+      </c>
+      <c r="I12" s="31">
         <f ca="1">($G$2 - $G$3) / H12</f>
-        <v>3.1013513513513513</v>
+        <v>3.1875</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -4327,32 +4447,106 @@
       <c r="C13" s="19" t="s">
         <v>24</v>
       </c>
+      <c r="D13" s="50">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="18"/>
-      <c r="C14" s="19">
-        <f>SUMIF(Sheet1!B:B, B14, Sheet1!D:D)</f>
+      <c r="B14" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="50">
+        <f>ROUNDDOWN(COUNTIF(Sheet1!G:G, "完了") / COUNTA(Sheet1!G:G) * 100,1)</f>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F14" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="H14" s="52" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="48"/>
+      <c r="F15" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="53">
+        <f>SUMIF(Sheet1!F:F, "プロト", Sheet1!D:D)</f>
+        <v>162.5</v>
+      </c>
+      <c r="H15" s="53">
+        <f>ROUNDDOWN(COUNTIFS(Sheet1!F:F, "プロト", Sheet1!G:G, "完了") / COUNTIF(Sheet1!F:F, "プロト") * 100,1)</f>
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="44"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="48"/>
+      <c r="F16" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="53">
+        <f>SUMIF(Sheet1!F:F, "アルファ", Sheet1!D:D)</f>
+        <v>70</v>
+      </c>
+      <c r="H16" s="53">
+        <f>ROUNDDOWN(COUNTIFS(Sheet1!F:F, "アルファ", Sheet1!G:G, "完了") / COUNTIF(Sheet1!F:F, "アルファ") * 100,1)</f>
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8">
+      <c r="D17" s="48"/>
+      <c r="F17" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="53">
+        <f>SUMIF(Sheet1!F:F, "ベータ", Sheet1!D:D)</f>
+        <v>6</v>
+      </c>
+      <c r="H17" s="53" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8">
+      <c r="D18" s="48"/>
+      <c r="F18" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="53">
+        <f>SUMIF(Sheet1!F:F, "マスター", Sheet1!D:D)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="18"/>
-      <c r="C15" s="19">
-        <f>SUMIF(Sheet1!B:B, B15, Sheet1!D:D)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9">
-      <c r="B16" s="18"/>
-      <c r="C16" s="19">
-        <f>SUMIF(Sheet1!B:B, B16, Sheet1!D:D)</f>
-        <v>0</v>
-      </c>
+      <c r="H18" s="53" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8">
+      <c r="D20" s="46"/>
+    </row>
+    <row r="21" spans="4:8">
+      <c r="D21" s="46"/>
+    </row>
+    <row r="22" spans="4:8">
+      <c r="D22" s="46"/>
+    </row>
+    <row r="23" spans="4:8">
+      <c r="D23" s="46"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D8 D10" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -4361,7 +4555,7 @@
   <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4371,13 +4565,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="43" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4388,7 +4582,7 @@
       <c r="D3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="22" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4399,18 +4593,18 @@
       <c r="D4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="22" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="33" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="22" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4418,7 +4612,7 @@
       <c r="D6" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="23" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4429,6 +4623,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006836AD0B55474E4CAD520F1DEB8FB579" ma:contentTypeVersion="3" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="078ba6c1f7b5b638bb57eb024ae572f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="187a6309-4c0c-49e3-bd2d-e8130eb88270" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5f182963113af090d1b42042cf04cb6" ns2:_="">
     <xsd:import namespace="187a6309-4c0c-49e3-bd2d-e8130eb88270"/>
@@ -4566,22 +4775,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A1D85CE-B20E-4841-A55B-779E85453EF9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4597,21 +4808,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ゾンビシューターゲームコスト表.xlsx
+++ b/ゾンビシューターゲームコスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\由留部 瑛人\Documents\MyGame3D2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FE6B15-F1DD-439C-8E43-051F33405F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3AA9C0-7B48-4292-8581-0DC8F5EAE4EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14520" yWindow="0" windowWidth="14385" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="150">
   <si>
     <t>分類</t>
   </si>
@@ -783,6 +783,26 @@
   </si>
   <si>
     <t>進捗率(%)</t>
+  </si>
+  <si>
+    <t>盾を実装するため削除</t>
+    <rPh sb="0" eb="1">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -942,7 +962,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1116,19 +1136,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
@@ -1144,7 +1151,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1242,9 +1249,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1275,19 +1279,13 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1296,7 +1294,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1648,9 +1646,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I138"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -1833,9 +1831,11 @@
         <v>9</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="15"/>
+        <v>149</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="10" spans="2:8" ht="18.75">
       <c r="B10" s="1" t="s">
@@ -2064,7 +2064,7 @@
         <v>13</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H20" s="15" t="s">
         <v>79</v>
@@ -2946,7 +2946,7 @@
       <c r="B63" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C63" s="34" t="s">
+      <c r="C63" s="33" t="s">
         <v>60</v>
       </c>
       <c r="D63" s="7">
@@ -4163,8 +4163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4178,16 +4178,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="19.5">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="37" t="s">
         <v>29</v>
       </c>
       <c r="G2" s="28">
@@ -4205,16 +4205,16 @@
         <f>SUMIF(Sheet1!B:B, B3, Sheet1!D:D)</f>
         <v>24</v>
       </c>
-      <c r="D3" s="50">
+      <c r="D3" s="47">
         <f>ROUNDDOWN(COUNTIFS(Sheet1!B:B, "プレイヤー", Sheet1!G:G, "完了") / COUNTIF(Sheet1!B:B, "プレイヤー") * 100,1)</f>
         <v>44.4</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="38" t="s">
         <v>30</v>
       </c>
       <c r="G3" s="28">
         <f>SUMIF(Sheet1!G:G,"完了",Sheet1!D:D)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H3" s="28" t="s">
         <v>31</v>
@@ -4229,20 +4229,20 @@
         <f>SUMIF(Sheet1!B:B, B4, Sheet1!D:D)</f>
         <v>32.5</v>
       </c>
-      <c r="D4" s="50">
+      <c r="D4" s="47">
         <f>ROUNDDOWN(COUNTIFS(Sheet1!B:B, "敵1(通常ゾンビ)", Sheet1!G:G, "完了") / COUNTIF(Sheet1!B:B, "敵1(通常ゾンビ)") * 100,1)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="39" t="s">
         <v>32</v>
       </c>
       <c r="G4" s="28">
         <f ca="1">NETWORKDAYS(G5,G6)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H4" s="31">
         <f ca="1" xml:space="preserve"> G3 / G4</f>
-        <v>0.5625</v>
+        <v>0.58823529411764708</v>
       </c>
       <c r="I4" s="28"/>
     </row>
@@ -4254,11 +4254,11 @@
         <f>SUMIF(Sheet1!B:B, B5, Sheet1!D:D)</f>
         <v>34</v>
       </c>
-      <c r="D5" s="50">
+      <c r="D5" s="47">
         <f>ROUNDDOWN(COUNTIFS(Sheet1!B:B, "敵2(ランナーゾンビ)", Sheet1!G:G, "完了") / COUNTIF(Sheet1!B:B, "敵2(ランナーゾンビ)") * 100,1)</f>
         <v>0</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="40" t="s">
         <v>33</v>
       </c>
       <c r="G5" s="29">
@@ -4276,16 +4276,16 @@
         <f>SUMIF(Sheet1!B:B, B6, Sheet1!D:D)</f>
         <v>33</v>
       </c>
-      <c r="D6" s="50">
+      <c r="D6" s="47">
         <f>ROUNDDOWN(COUNTIFS(Sheet1!B:B, "敵3(酸を飛ばすゾンビ)", Sheet1!G:G, "完了") / COUNTIF(Sheet1!B:B, "敵3(酸を飛ばすゾンビ)") * 100,1)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="41" t="s">
         <v>34</v>
       </c>
       <c r="G6" s="29">
         <f ca="1">TODAY()</f>
-        <v>45800</v>
+        <v>45803</v>
       </c>
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
@@ -4298,7 +4298,7 @@
         <f>SUMIF(Sheet1!B:B, B7, Sheet1!D:D)</f>
         <v>28</v>
       </c>
-      <c r="D7" s="50">
+      <c r="D7" s="47">
         <f>ROUNDDOWN(COUNTIFS(Sheet1!B:B, "ボス", Sheet1!G:G, "完了") / COUNTIF(Sheet1!B:B, "ボス") * 100,1)</f>
         <v>0</v>
       </c>
@@ -4315,7 +4315,7 @@
         <f>SUMIF(Sheet1!B:B, B8, Sheet1!D:D)</f>
         <v>34</v>
       </c>
-      <c r="D8" s="50">
+      <c r="D8" s="47">
         <f>ROUNDDOWN(COUNTIFS(Sheet1!B:B, "ウェーブ管理システム", Sheet1!G:G, "完了") / COUNTIF(Sheet1!B:B, "ウェーブ管理システム") * 100,1)</f>
         <v>0</v>
       </c>
@@ -4336,24 +4336,24 @@
         <f>SUMIF(Sheet1!B:B, B9, Sheet1!D:D)</f>
         <v>32</v>
       </c>
-      <c r="D9" s="50">
+      <c r="D9" s="47">
         <f>ROUNDDOWN(COUNTIFS(Sheet1!B:B, "アイテム", Sheet1!G:G, "完了") / COUNTIF(Sheet1!B:B, "アイテム") * 100,1)</f>
         <v>0</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="F9" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="35">
         <f>DATE(2025,7,23)</f>
         <v>45861</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="36">
         <f ca="1">NETWORKDAYS(TODAY(),G9)</f>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I9" s="7">
         <f ca="1">($G$2 - $G$3) / H9</f>
-        <v>5.2159090909090908</v>
+        <v>5.3139534883720927</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="19.5">
@@ -4364,11 +4364,11 @@
         <f>SUMIF(Sheet1!B:B, B10, Sheet1!D:D)</f>
         <v>5</v>
       </c>
-      <c r="D10" s="50">
+      <c r="D10" s="47">
         <f>ROUNDDOWN(COUNTIFS(Sheet1!B:B, "タイトル", Sheet1!G:G, "完了") / COUNTIF(Sheet1!B:B, "タイトル") * 100,1)</f>
         <v>25</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="37" t="s">
         <v>37</v>
       </c>
       <c r="G10" s="29">
@@ -4377,11 +4377,11 @@
       </c>
       <c r="H10" s="30">
         <f ca="1">NETWORKDAYS(TODAY(),G10)</f>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I10" s="31">
         <f ca="1">($G$2 - $G$3) / H10</f>
-        <v>4.0263157894736841</v>
+        <v>4.0803571428571432</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="19.5">
@@ -4392,11 +4392,11 @@
         <f>SUMIF(Sheet1!B:B, B11, Sheet1!D:D)</f>
         <v>6</v>
       </c>
-      <c r="D11" s="50">
+      <c r="D11" s="47">
         <f>ROUNDDOWN(COUNTIFS(Sheet1!B:B, "オプション", Sheet1!G:G, "完了") / COUNTIF(Sheet1!B:B, "オプション") * 100,1)</f>
         <v>0</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="38" t="s">
         <v>38</v>
       </c>
       <c r="G11" s="29">
@@ -4405,11 +4405,11 @@
       </c>
       <c r="H11" s="30">
         <f ca="1">NETWORKDAYS(TODAY(),G11)</f>
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I11" s="31">
         <f ca="1">($G$2 - $G$3) / H11</f>
-        <v>3.762295081967213</v>
+        <v>3.8083333333333331</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="19.5">
@@ -4420,11 +4420,11 @@
         <f>SUMIF(Sheet1!B:B, B12, Sheet1!D:D)</f>
         <v>10</v>
       </c>
-      <c r="D12" s="50">
+      <c r="D12" s="47">
         <f>ROUNDDOWN(COUNTIFS(Sheet1!B:B, "エフェクト", Sheet1!G:G, "完了") / COUNTIF(Sheet1!B:B, "エフェクト") * 100,1)</f>
         <v>0</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="F12" s="39" t="s">
         <v>39</v>
       </c>
       <c r="G12" s="29">
@@ -4433,11 +4433,11 @@
       </c>
       <c r="H12" s="30">
         <f ca="1">NETWORKDAYS(TODAY(),G12)</f>
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I12" s="31">
         <f ca="1">($G$2 - $G$3) / H12</f>
-        <v>3.1875</v>
+        <v>3.2183098591549295</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -4447,98 +4447,96 @@
       <c r="C13" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="50">
+      <c r="D13" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="48" t="s">
         <v>145</v>
       </c>
       <c r="C14" s="9"/>
-      <c r="D14" s="50">
+      <c r="D14" s="47">
         <f>ROUNDDOWN(COUNTIF(Sheet1!G:G, "完了") / COUNTA(Sheet1!G:G) * 100,1)</f>
         <v>8.6999999999999993</v>
       </c>
-      <c r="F14" s="52" t="s">
+      <c r="F14" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="52" t="s">
+      <c r="G14" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="H14" s="52" t="s">
+      <c r="H14" s="49" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="48"/>
-      <c r="F15" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="53">
+      <c r="C15" s="7"/>
+      <c r="D15" s="45"/>
+      <c r="F15" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="50">
         <f>SUMIF(Sheet1!F:F, "プロト", Sheet1!D:D)</f>
         <v>162.5</v>
       </c>
-      <c r="H15" s="53">
+      <c r="H15" s="50">
         <f>ROUNDDOWN(COUNTIFS(Sheet1!F:F, "プロト", Sheet1!G:G, "完了") / COUNTIF(Sheet1!F:F, "プロト") * 100,1)</f>
-        <v>6.9</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="44"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="48"/>
-      <c r="F16" s="53" t="s">
+      <c r="C16" s="7"/>
+      <c r="D16" s="45"/>
+      <c r="F16" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="53">
+      <c r="G16" s="50">
         <f>SUMIF(Sheet1!F:F, "アルファ", Sheet1!D:D)</f>
         <v>70</v>
       </c>
-      <c r="H16" s="53">
+      <c r="H16" s="50">
         <f>ROUNDDOWN(COUNTIFS(Sheet1!F:F, "アルファ", Sheet1!G:G, "完了") / COUNTIF(Sheet1!F:F, "アルファ") * 100,1)</f>
-        <v>14.2</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="17" spans="4:8">
-      <c r="D17" s="48"/>
-      <c r="F17" s="53" t="s">
+      <c r="D17" s="45"/>
+      <c r="F17" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="53">
+      <c r="G17" s="50">
         <f>SUMIF(Sheet1!F:F, "ベータ", Sheet1!D:D)</f>
         <v>6</v>
       </c>
-      <c r="H17" s="53" t="e">
+      <c r="H17" s="50" t="e">
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="4:8">
-      <c r="D18" s="48"/>
-      <c r="F18" s="53" t="s">
+      <c r="D18" s="45"/>
+      <c r="F18" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="53">
+      <c r="G18" s="50">
         <f>SUMIF(Sheet1!F:F, "マスター", Sheet1!D:D)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="53" t="e">
+      <c r="H18" s="50" t="e">
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="4:8">
-      <c r="D20" s="46"/>
+      <c r="D20" s="43"/>
     </row>
     <row r="21" spans="4:8">
-      <c r="D21" s="46"/>
+      <c r="D21" s="43"/>
     </row>
     <row r="22" spans="4:8">
-      <c r="D22" s="46"/>
+      <c r="D22" s="43"/>
     </row>
     <row r="23" spans="4:8">
-      <c r="D23" s="46"/>
+      <c r="D23" s="43"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4555,7 +4553,7 @@
   <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4565,13 +4563,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="42" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4587,7 +4585,7 @@
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="20" t="s">
@@ -4598,7 +4596,7 @@
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="20" t="s">
@@ -4609,6 +4607,9 @@
       </c>
     </row>
     <row r="6" spans="2:6">
+      <c r="B6" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="D6" s="21" t="s">
         <v>27</v>
       </c>

--- a/ゾンビシューターゲームコスト表.xlsx
+++ b/ゾンビシューターゲームコスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\由留部 瑛人\Documents\MyGame3D2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3AA9C0-7B48-4292-8581-0DC8F5EAE4EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F67F75B-BB1D-4416-95CB-1CFA736B930C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1335" yWindow="3450" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -289,10 +289,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ボス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>待機アニメーション</t>
     <rPh sb="0" eb="2">
       <t>タイキ</t>
@@ -460,9 +456,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ボス</t>
-  </si>
-  <si>
     <t xml:space="preserve">	ウェーブカウント管理</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -802,6 +795,13 @@
     <rPh sb="0" eb="2">
       <t>サクジョ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボス(ゾンビを召喚)</t>
+  </si>
+  <si>
+    <t>ボス(ゾンビを召喚)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1646,9 +1646,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -1754,7 +1754,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D6" s="7">
         <v>3</v>
@@ -1831,10 +1831,10 @@
         <v>9</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="18.75">
@@ -1842,7 +1842,7 @@
         <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D10" s="7">
         <v>3</v>
@@ -1884,7 +1884,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D12" s="7">
         <v>1</v>
@@ -2031,7 +2031,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="7">
         <v>0.5</v>
@@ -2052,7 +2052,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D20" s="7">
         <v>2</v>
@@ -2067,7 +2067,7 @@
         <v>15</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="18.75">
@@ -2084,7 +2084,7 @@
         <v>54</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
@@ -2105,7 +2105,7 @@
         <v>54</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23" s="7">
         <v>1</v>
@@ -2126,7 +2126,7 @@
         <v>54</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D24" s="7">
         <v>1.5</v>
@@ -2147,7 +2147,7 @@
         <v>54</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D25" s="7">
         <v>1</v>
@@ -2168,7 +2168,7 @@
         <v>54</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D26" s="7">
         <v>5</v>
@@ -2183,7 +2183,7 @@
         <v>10</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="18.75">
@@ -2191,7 +2191,7 @@
         <v>54</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D27" s="7">
         <v>5</v>
@@ -2206,7 +2206,7 @@
         <v>10</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="18.75">
@@ -2214,7 +2214,7 @@
         <v>54</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D28" s="7">
         <v>4</v>
@@ -2229,7 +2229,7 @@
         <v>10</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="18.75">
@@ -2237,7 +2237,7 @@
         <v>54</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D29" s="7">
         <v>4</v>
@@ -2252,7 +2252,7 @@
         <v>10</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="18.75">
@@ -2260,7 +2260,7 @@
         <v>54</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D30" s="7">
         <v>1</v>
@@ -2281,7 +2281,7 @@
         <v>54</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D31" s="7">
         <v>2</v>
@@ -2296,7 +2296,7 @@
         <v>10</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="18.75">
@@ -2304,7 +2304,7 @@
         <v>54</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D32" s="7">
         <v>5</v>
@@ -2319,7 +2319,7 @@
         <v>10</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="18.75">
@@ -2327,7 +2327,7 @@
         <v>54</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D33" s="7">
         <v>2</v>
@@ -2357,7 +2357,7 @@
         <v>55</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -2378,7 +2378,7 @@
         <v>55</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D36" s="7">
         <v>1</v>
@@ -2414,7 +2414,7 @@
         <v>10</v>
       </c>
       <c r="H37" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="18.75">
@@ -2422,7 +2422,7 @@
         <v>55</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D38" s="7">
         <v>1.5</v>
@@ -2443,7 +2443,7 @@
         <v>55</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D39" s="7">
         <v>1</v>
@@ -2464,7 +2464,7 @@
         <v>55</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D40" s="7">
         <v>5</v>
@@ -2479,7 +2479,7 @@
         <v>10</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="18.75">
@@ -2487,7 +2487,7 @@
         <v>55</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D41" s="7">
         <v>5</v>
@@ -2502,7 +2502,7 @@
         <v>10</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="18.75">
@@ -2510,7 +2510,7 @@
         <v>55</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D42" s="7">
         <v>4</v>
@@ -2525,7 +2525,7 @@
         <v>10</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="18.75">
@@ -2533,7 +2533,7 @@
         <v>55</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D43" s="7">
         <v>4</v>
@@ -2548,7 +2548,7 @@
         <v>10</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="2:8" ht="18.75">
@@ -2556,7 +2556,7 @@
         <v>55</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D44" s="7">
         <v>1</v>
@@ -2577,7 +2577,7 @@
         <v>55</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D45" s="7">
         <v>2</v>
@@ -2592,7 +2592,7 @@
         <v>10</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="18.75">
@@ -2600,7 +2600,7 @@
         <v>55</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D46" s="7">
         <v>5</v>
@@ -2615,7 +2615,7 @@
         <v>10</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="18.75">
@@ -2623,7 +2623,7 @@
         <v>55</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D47" s="7">
         <v>2</v>
@@ -2653,7 +2653,7 @@
         <v>56</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -2674,7 +2674,7 @@
         <v>56</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D50" s="7">
         <v>1</v>
@@ -2695,7 +2695,7 @@
         <v>56</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D51" s="7">
         <v>2</v>
@@ -2716,7 +2716,7 @@
         <v>56</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D52" s="7">
         <v>1</v>
@@ -2737,7 +2737,7 @@
         <v>56</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D53" s="7">
         <v>5</v>
@@ -2752,7 +2752,7 @@
         <v>10</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="2:8" ht="18.75">
@@ -2760,7 +2760,7 @@
         <v>56</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D54" s="7">
         <v>5</v>
@@ -2775,7 +2775,7 @@
         <v>10</v>
       </c>
       <c r="H54" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="18.75">
@@ -2783,7 +2783,7 @@
         <v>56</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D55" s="7">
         <v>4</v>
@@ -2798,7 +2798,7 @@
         <v>10</v>
       </c>
       <c r="H55" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="18.75">
@@ -2806,7 +2806,7 @@
         <v>56</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D56" s="7">
         <v>4</v>
@@ -2821,7 +2821,7 @@
         <v>10</v>
       </c>
       <c r="H56" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="18.75">
@@ -2829,7 +2829,7 @@
         <v>56</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D57" s="7">
         <v>1</v>
@@ -2850,7 +2850,7 @@
         <v>56</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D58" s="7">
         <v>2</v>
@@ -2865,7 +2865,7 @@
         <v>10</v>
       </c>
       <c r="H58" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="2:8" ht="18.75">
@@ -2873,7 +2873,7 @@
         <v>56</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D59" s="7">
         <v>5</v>
@@ -2888,7 +2888,7 @@
         <v>10</v>
       </c>
       <c r="H59" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="2:8" ht="18.75">
@@ -2896,7 +2896,7 @@
         <v>56</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D60" s="7">
         <v>2</v>
@@ -2923,10 +2923,10 @@
     </row>
     <row r="62" spans="2:8" ht="18.75">
       <c r="B62" s="3" t="s">
-        <v>57</v>
+        <v>149</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D62" s="4">
         <v>1</v>
@@ -2944,10 +2944,10 @@
     </row>
     <row r="63" spans="2:8" ht="18.75">
       <c r="B63" s="1" t="s">
-        <v>57</v>
+        <v>148</v>
       </c>
       <c r="C63" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D63" s="7">
         <v>1</v>
@@ -2965,10 +2965,10 @@
     </row>
     <row r="64" spans="2:8" ht="18.75">
       <c r="B64" s="1" t="s">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D64" s="7">
         <v>5</v>
@@ -2986,10 +2986,10 @@
     </row>
     <row r="65" spans="2:8" ht="18.75">
       <c r="B65" s="1" t="s">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D65" s="7">
         <v>1</v>
@@ -3007,10 +3007,10 @@
     </row>
     <row r="66" spans="2:8" ht="18.75">
       <c r="B66" s="1" t="s">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D66" s="7">
         <v>4</v>
@@ -3025,15 +3025,15 @@
         <v>10</v>
       </c>
       <c r="H66" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="2:8" ht="18.75">
       <c r="B67" s="1" t="s">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D67" s="7">
         <v>4</v>
@@ -3048,15 +3048,15 @@
         <v>10</v>
       </c>
       <c r="H67" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68" spans="2:8" ht="18.75">
       <c r="B68" s="1" t="s">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D68" s="7">
         <v>2</v>
@@ -3071,15 +3071,15 @@
         <v>10</v>
       </c>
       <c r="H68" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="2:8" ht="18.75">
       <c r="B69" s="1" t="s">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D69" s="7">
         <v>1</v>
@@ -3094,15 +3094,15 @@
         <v>10</v>
       </c>
       <c r="H69" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="2:8" ht="18.75">
       <c r="B70" s="1" t="s">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D70" s="7">
         <f>0.5*8</f>
@@ -3118,15 +3118,15 @@
         <v>10</v>
       </c>
       <c r="H70" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="2:8" ht="18.75">
       <c r="B71" s="1" t="s">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D71" s="7">
         <v>5</v>
@@ -3141,7 +3141,7 @@
         <v>10</v>
       </c>
       <c r="H71" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" spans="2:8" ht="18.75">
@@ -3155,10 +3155,10 @@
     </row>
     <row r="73" spans="2:8" ht="18.75">
       <c r="B73" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D73" s="4">
         <v>2</v>
@@ -3173,15 +3173,15 @@
         <v>10</v>
       </c>
       <c r="H73" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="2:8" ht="18.75">
       <c r="B74" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="D74" s="7">
         <v>2</v>
@@ -3196,15 +3196,15 @@
         <v>10</v>
       </c>
       <c r="H74" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="2:8" ht="18.75">
       <c r="B75" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D75" s="7">
         <v>3</v>
@@ -3219,15 +3219,15 @@
         <v>10</v>
       </c>
       <c r="H75" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="2:8" ht="18.75">
       <c r="B76" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D76" s="7">
         <v>4</v>
@@ -3242,15 +3242,15 @@
         <v>10</v>
       </c>
       <c r="H76" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="2:8" ht="18.75">
       <c r="B77" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D77" s="7">
         <v>2</v>
@@ -3265,38 +3265,38 @@
         <v>10</v>
       </c>
       <c r="H77" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="78" spans="2:8" ht="18.75">
       <c r="B78" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C78" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D78" s="7">
+        <v>9</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H78" s="15" t="s">
         <v>74</v>
-      </c>
-      <c r="D78" s="7">
-        <v>9</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F78" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G78" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H78" s="15" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="79" spans="2:8" ht="18.75">
       <c r="B79" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D79" s="7">
         <v>1</v>
@@ -3314,10 +3314,10 @@
     </row>
     <row r="80" spans="2:8" ht="18.75">
       <c r="B80" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D80" s="7">
         <v>3</v>
@@ -3332,15 +3332,15 @@
         <v>10</v>
       </c>
       <c r="H80" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="2:8" ht="18.75">
       <c r="B81" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D81" s="7">
         <v>1</v>
@@ -3355,15 +3355,15 @@
         <v>10</v>
       </c>
       <c r="H81" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="2:8" ht="18.75">
       <c r="B82" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D82" s="7">
         <v>2</v>
@@ -3378,15 +3378,15 @@
         <v>10</v>
       </c>
       <c r="H82" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="2:8" ht="18.75">
       <c r="B83" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D83" s="7">
         <v>5</v>
@@ -3401,7 +3401,7 @@
         <v>10</v>
       </c>
       <c r="H83" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="2:8" ht="18.75">
@@ -3415,10 +3415,10 @@
     </row>
     <row r="85" spans="2:8" ht="18.75">
       <c r="B85" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D85" s="4">
         <v>2</v>
@@ -3433,15 +3433,15 @@
         <v>10</v>
       </c>
       <c r="H85" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="2:8" ht="18.75">
       <c r="B86" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D86" s="7">
         <v>2</v>
@@ -3456,15 +3456,15 @@
         <v>10</v>
       </c>
       <c r="H86" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="18.75">
       <c r="B87" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D87" s="7">
         <v>2</v>
@@ -3479,15 +3479,15 @@
         <v>10</v>
       </c>
       <c r="H87" s="32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88" spans="2:8" ht="18.75">
       <c r="B88" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D88" s="7">
         <v>1</v>
@@ -3502,15 +3502,15 @@
         <v>10</v>
       </c>
       <c r="H88" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="18.75">
       <c r="B89" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D89" s="7">
         <v>1</v>
@@ -3525,15 +3525,15 @@
         <v>10</v>
       </c>
       <c r="H89" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="2:8" ht="18.75">
       <c r="B90" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D90" s="7">
         <v>1</v>
@@ -3548,15 +3548,15 @@
         <v>10</v>
       </c>
       <c r="H90" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="18.75">
       <c r="B91" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D91" s="7">
         <v>1</v>
@@ -3571,15 +3571,15 @@
         <v>10</v>
       </c>
       <c r="H91" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="18.75">
       <c r="B92" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D92" s="7">
         <v>1</v>
@@ -3594,15 +3594,15 @@
         <v>10</v>
       </c>
       <c r="H92" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="18.75">
       <c r="B93" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D93" s="7">
         <v>3</v>
@@ -3617,15 +3617,15 @@
         <v>10</v>
       </c>
       <c r="H93" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="18.75">
       <c r="B94" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D94" s="7">
         <v>9</v>
@@ -3640,15 +3640,15 @@
         <v>10</v>
       </c>
       <c r="H94" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="18.75">
       <c r="B95" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D95" s="7">
         <v>9</v>
@@ -3663,7 +3663,7 @@
         <v>10</v>
       </c>
       <c r="H95" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="18.75">
@@ -3677,10 +3677,10 @@
     </row>
     <row r="97" spans="2:8" ht="18.75">
       <c r="B97" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D97" s="4">
         <v>1</v>
@@ -3698,10 +3698,10 @@
     </row>
     <row r="98" spans="2:8" ht="18.75">
       <c r="B98" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="D98" s="7">
         <v>1</v>
@@ -3719,10 +3719,10 @@
     </row>
     <row r="99" spans="2:8" ht="18.75">
       <c r="B99" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D99" s="7">
         <v>1</v>
@@ -3740,10 +3740,10 @@
     </row>
     <row r="100" spans="2:8" ht="18.75">
       <c r="B100" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D100" s="7">
         <v>2</v>
@@ -3770,10 +3770,10 @@
     </row>
     <row r="102" spans="2:8" ht="18.75">
       <c r="B102" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D102" s="4">
         <v>1</v>
@@ -3788,15 +3788,15 @@
         <v>10</v>
       </c>
       <c r="H102" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="103" spans="2:8" ht="18.75">
       <c r="B103" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D103" s="7">
         <v>1</v>
@@ -3814,10 +3814,10 @@
     </row>
     <row r="104" spans="2:8" ht="18.75">
       <c r="B104" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D104" s="7">
         <v>1</v>
@@ -3832,15 +3832,15 @@
         <v>10</v>
       </c>
       <c r="H104" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="105" spans="2:8" ht="18.75">
       <c r="B105" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D105" s="7">
         <v>1</v>
@@ -3858,10 +3858,10 @@
     </row>
     <row r="106" spans="2:8" ht="18.75">
       <c r="B106" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D106" s="7">
         <v>1</v>
@@ -3879,10 +3879,10 @@
     </row>
     <row r="107" spans="2:8" ht="18.75">
       <c r="B107" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D107" s="7">
         <v>1</v>
@@ -4163,8 +4163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4185,7 +4185,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="44" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>29</v>
@@ -4238,11 +4238,11 @@
       </c>
       <c r="G4" s="28">
         <f ca="1">NETWORKDAYS(G5,G6)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H4" s="31">
         <f ca="1" xml:space="preserve"> G3 / G4</f>
-        <v>0.58823529411764708</v>
+        <v>0.52631578947368418</v>
       </c>
       <c r="I4" s="28"/>
     </row>
@@ -4285,21 +4285,21 @@
       </c>
       <c r="G6" s="29">
         <f ca="1">TODAY()</f>
-        <v>45803</v>
+        <v>45805</v>
       </c>
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="18" t="s">
-        <v>57</v>
+        <v>149</v>
       </c>
       <c r="C7" s="19">
         <f>SUMIF(Sheet1!B:B, B7, Sheet1!D:D)</f>
         <v>28</v>
       </c>
       <c r="D7" s="47">
-        <f>ROUNDDOWN(COUNTIFS(Sheet1!B:B, "ボス", Sheet1!G:G, "完了") / COUNTIF(Sheet1!B:B, "ボス") * 100,1)</f>
+        <f>ROUNDDOWN(COUNTIFS(Sheet1!B:B, "ボス(ゾンビを召喚)", Sheet1!G:G, "完了") / COUNTIF(Sheet1!B:B, "ボス(ゾンビを召喚)") * 100,1)</f>
         <v>0</v>
       </c>
       <c r="F7" s="28"/>
@@ -4309,7 +4309,7 @@
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C8" s="19">
         <f>SUMIF(Sheet1!B:B, B8, Sheet1!D:D)</f>
@@ -4330,7 +4330,7 @@
     </row>
     <row r="9" spans="2:9" ht="24">
       <c r="B9" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C9" s="19">
         <f>SUMIF(Sheet1!B:B, B9, Sheet1!D:D)</f>
@@ -4341,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G9" s="35">
         <f>DATE(2025,7,23)</f>
@@ -4349,16 +4349,16 @@
       </c>
       <c r="H9" s="36">
         <f ca="1">NETWORKDAYS(TODAY(),G9)</f>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I9" s="7">
         <f ca="1">($G$2 - $G$3) / H9</f>
-        <v>5.3139534883720927</v>
+        <v>5.5731707317073171</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="19.5">
       <c r="B10" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C10" s="19">
         <f>SUMIF(Sheet1!B:B, B10, Sheet1!D:D)</f>
@@ -4377,16 +4377,16 @@
       </c>
       <c r="H10" s="30">
         <f ca="1">NETWORKDAYS(TODAY(),G10)</f>
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I10" s="31">
         <f ca="1">($G$2 - $G$3) / H10</f>
-        <v>4.0803571428571432</v>
+        <v>4.2314814814814818</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="19.5">
       <c r="B11" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C11" s="19">
         <f>SUMIF(Sheet1!B:B, B11, Sheet1!D:D)</f>
@@ -4405,16 +4405,16 @@
       </c>
       <c r="H11" s="30">
         <f ca="1">NETWORKDAYS(TODAY(),G11)</f>
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I11" s="31">
         <f ca="1">($G$2 - $G$3) / H11</f>
-        <v>3.8083333333333331</v>
+        <v>3.9396551724137931</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="19.5">
       <c r="B12" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" s="19">
         <f>SUMIF(Sheet1!B:B, B12, Sheet1!D:D)</f>
@@ -4433,11 +4433,11 @@
       </c>
       <c r="H12" s="30">
         <f ca="1">NETWORKDAYS(TODAY(),G12)</f>
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I12" s="31">
         <f ca="1">($G$2 - $G$3) / H12</f>
-        <v>3.2183098591549295</v>
+        <v>3.3115942028985508</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -4453,7 +4453,7 @@
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="48" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="47">
@@ -4464,10 +4464,10 @@
         <v>4</v>
       </c>
       <c r="G14" s="49" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H14" s="49" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="2:9">
@@ -4608,7 +4608,7 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>27</v>
@@ -4624,21 +4624,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006836AD0B55474E4CAD520F1DEB8FB579" ma:contentTypeVersion="3" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="078ba6c1f7b5b638bb57eb024ae572f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="187a6309-4c0c-49e3-bd2d-e8130eb88270" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5f182963113af090d1b42042cf04cb6" ns2:_="">
     <xsd:import namespace="187a6309-4c0c-49e3-bd2d-e8130eb88270"/>
@@ -4776,24 +4761,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A1D85CE-B20E-4841-A55B-779E85453EF9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4809,4 +4792,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ゾンビシューターゲームコスト表.xlsx
+++ b/ゾンビシューターゲームコスト表.xlsx
@@ -5,20 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\由留部 瑛人\Documents\MyGame3D2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sho24\Documents\GitHub\MyGame3D2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F67F75B-BB1D-4416-95CB-1CFA736B930C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE93F70-0D4D-4E59-A0FB-77BD14311578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1335" yWindow="3450" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="コスト表" sheetId="1" r:id="rId1"/>
     <sheet name="分類別コスト集計" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="その他" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$2:$G$138</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">コスト表!$E$2:$G$132</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">分類別コスト集計!$B$2:$D$17</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="136">
   <si>
     <t>分類</t>
   </si>
@@ -177,10 +177,6 @@
   </si>
   <si>
     <t>wasd移動</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リロード</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -196,10 +192,6 @@
   </si>
   <si>
     <t>ジャンプアニメーション</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リロードアニメーション</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -432,10 +424,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>マズルフラッシュ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>攻撃(遠距離攻撃)</t>
     <rPh sb="0" eb="2">
       <t>コウゲキ</t>
@@ -557,79 +545,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>常に弾が貫通効果を得る(敵を一体貫く)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ウェーブごとに増加（例：5体 → 10体）</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>弾が無限になるもしくはマガジンの容量が一定数増える</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>弾が爆発し広範囲攻撃(例：敵二体分)をする効果を得る</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HP全回復</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一定割合回復</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>次のウェーブで1回だけ即死回避(体力1残した状態になる)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フルメタル弾(弾薬系1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>爆裂弾(弾薬系2)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>拡張マガジン(弾薬系3)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>防護服(回復系3)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>包帯(回復系2)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>応急キット(回復系1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ダッシュ速度アップ	　</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>攻撃力1.5倍程度</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>上記2つの効果+武器の連射力UP+リロード速度UP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>それぞれのアイテムのアニメーション</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>エフェクト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>それぞれのエフェクトのアニメーション</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -698,44 +618,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>どのシーンからオプションシーンに入りどのシーンに戻るのか</t>
-    <rPh sb="16" eb="17">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>盾(近接武器)</t>
-    <rPh sb="0" eb="1">
-      <t>タテ</t>
-    </rPh>
-    <rPh sb="2" eb="6">
-      <t>キンセツブキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スピードブースト(強化系1)</t>
-    <rPh sb="9" eb="11">
-      <t>キョウカ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アドレナリン(強化系3)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>火力ブースト(強化系2)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>一人称視点</t>
     <rPh sb="0" eb="3">
       <t>イチニンショウ</t>
@@ -778,19 +660,6 @@
     <t>進捗率(%)</t>
   </si>
   <si>
-    <t>盾を実装するため削除</t>
-    <rPh sb="0" eb="1">
-      <t>タテ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>削除</t>
     <rPh sb="0" eb="2">
       <t>サクジョ</t>
@@ -802,6 +671,98 @@
   </si>
   <si>
     <t>ボス(ゾンビを召喚)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アニメーション</t>
+  </si>
+  <si>
+    <t>弾薬</t>
+    <rPh sb="0" eb="2">
+      <t>ダンヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回復</t>
+    <rPh sb="0" eb="2">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1コス=1時間</t>
+    <rPh sb="5" eb="7">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器切り替え</t>
+    <rPh sb="0" eb="3">
+      <t>ブキキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器切り替えアニメーション</t>
+    <rPh sb="0" eb="3">
+      <t>ブキキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弾</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弾の描画、当たり判定</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ビョウガ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盾</t>
+    <rPh sb="0" eb="1">
+      <t>タテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どのシーンからオプションシーンに遷移し、どのシーンに遷移するか</t>
+    <rPh sb="16" eb="18">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>センイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -842,27 +803,12 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
@@ -902,6 +848,21 @@
       <color rgb="FFFFFFFF"/>
       <name val="游ゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFA20000"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -1151,7 +1112,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1240,9 +1201,6 @@
     <xf numFmtId="56" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1252,55 +1210,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1644,26 +1608,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I138"/>
+  <dimension ref="B1:I132"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="17" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="7" customWidth="1"/>
-    <col min="6" max="6" width="13.25" style="7" customWidth="1"/>
+    <col min="3" max="3" width="31.59765625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="12.8984375" style="17" customWidth="1"/>
+    <col min="5" max="5" width="11.19921875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="13.19921875" style="7" customWidth="1"/>
     <col min="7" max="7" width="10" style="7" customWidth="1"/>
-    <col min="8" max="8" width="58.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="58.3984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.09765625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="18.75">
+    <row r="1" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" ht="18">
       <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
@@ -1686,7 +1655,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="18.75">
+    <row r="3" spans="2:8" ht="18">
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1707,7 +1676,7 @@
       </c>
       <c r="H3" s="14"/>
     </row>
-    <row r="4" spans="2:8" ht="18.75">
+    <row r="4" spans="2:8" ht="18">
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1728,7 +1697,7 @@
       </c>
       <c r="H4" s="15"/>
     </row>
-    <row r="5" spans="2:8" ht="18.75">
+    <row r="5" spans="2:8" ht="18">
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1749,12 +1718,12 @@
       </c>
       <c r="H5" s="15"/>
     </row>
-    <row r="6" spans="2:8" ht="18.75">
+    <row r="6" spans="2:8" ht="18">
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D6" s="7">
         <v>3</v>
@@ -1769,15 +1738,15 @@
         <v>10</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="18.75">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="18">
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D7" s="7">
         <v>4</v>
@@ -1793,12 +1762,12 @@
       </c>
       <c r="H7" s="15"/>
     </row>
-    <row r="8" spans="2:8" ht="18.75">
+    <row r="8" spans="2:8" ht="18">
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D8" s="7">
         <v>2</v>
@@ -1814,39 +1783,37 @@
       </c>
       <c r="H8" s="15"/>
     </row>
-    <row r="9" spans="2:8" ht="18.75">
+    <row r="9" spans="2:8" ht="18">
       <c r="B9" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="D9" s="7">
+        <v>3</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="2:8" ht="18">
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="7">
         <v>1</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="18.75">
-      <c r="B10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D10" s="7">
-        <v>3</v>
-      </c>
       <c r="E10" s="5" t="s">
         <v>8</v>
       </c>
@@ -1854,19 +1821,19 @@
         <v>9</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="2:8" ht="18.75">
+    <row r="11" spans="2:8" ht="18">
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="D11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>8</v>
@@ -1879,12 +1846,12 @@
       </c>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="2:8" ht="18.75">
+    <row r="12" spans="2:8" ht="18">
       <c r="B12" s="1" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="D12" s="7">
         <v>1</v>
@@ -1898,35 +1865,37 @@
       <c r="G12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="15"/>
-    </row>
-    <row r="13" spans="2:8" ht="18.75">
+      <c r="H12" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="18">
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="D13" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="2:8" ht="18.75">
+    <row r="14" spans="2:8" ht="18">
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D14" s="7">
         <v>0.5</v>
@@ -1942,12 +1911,12 @@
       </c>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="2:8" ht="18.75">
+    <row r="15" spans="2:8" ht="18">
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D15" s="7">
         <v>0.5</v>
@@ -1959,16 +1928,16 @@
         <v>13</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H15" s="15"/>
     </row>
-    <row r="16" spans="2:8" ht="18.75">
+    <row r="16" spans="2:8" ht="18">
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D16" s="7">
         <v>0.5</v>
@@ -1984,12 +1953,12 @@
       </c>
       <c r="H16" s="15"/>
     </row>
-    <row r="17" spans="2:8" ht="18.75">
+    <row r="17" spans="2:8" ht="18">
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="7">
         <v>0.5</v>
@@ -2001,19 +1970,19 @@
         <v>13</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H17" s="15"/>
     </row>
-    <row r="18" spans="2:8" ht="18.75">
+    <row r="18" spans="2:8" ht="18">
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D18" s="7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>8</v>
@@ -2026,12 +1995,12 @@
       </c>
       <c r="H18" s="15"/>
     </row>
-    <row r="19" spans="2:8" ht="18.75">
+    <row r="19" spans="2:8" ht="18">
       <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D19" s="7">
         <v>0.5</v>
@@ -2047,15 +2016,15 @@
       </c>
       <c r="H19" s="15"/>
     </row>
-    <row r="20" spans="2:8" ht="18.75">
+    <row r="20" spans="2:8" ht="18">
       <c r="B20" s="1" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="D20" s="7">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>8</v>
@@ -2064,115 +2033,113 @@
         <v>13</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="18.75">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="16"/>
-    </row>
-    <row r="22" spans="2:8" ht="18.75">
-      <c r="B22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="2:8" ht="18">
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="7">
+        <v>2</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="2:8" ht="18">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="16"/>
+    </row>
+    <row r="23" spans="2:8" ht="18">
+      <c r="B23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="2:8" ht="18">
+      <c r="B24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" spans="2:8" ht="18">
+      <c r="B25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="2:8" ht="18">
+      <c r="B26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D26" s="7">
         <v>1</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="15"/>
-    </row>
-    <row r="23" spans="2:8" ht="18.75">
-      <c r="B23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="15"/>
-    </row>
-    <row r="24" spans="2:8" ht="18.75">
-      <c r="B24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" s="15"/>
-    </row>
-    <row r="25" spans="2:8" ht="18.75">
-      <c r="B25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="15"/>
-    </row>
-    <row r="26" spans="2:8" ht="18.75">
-      <c r="B26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="7">
-        <v>5</v>
-      </c>
       <c r="E26" s="5" t="s">
         <v>8</v>
       </c>
@@ -2182,13 +2149,11 @@
       <c r="G26" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H26" s="15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="18.75">
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="2:8" ht="18">
       <c r="B27" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>62</v>
@@ -2206,18 +2171,18 @@
         <v>10</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="18.75">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="18">
       <c r="B28" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D28" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>8</v>
@@ -2229,15 +2194,15 @@
         <v>10</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="18.75">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="18">
       <c r="B29" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D29" s="7">
         <v>4</v>
@@ -2252,65 +2217,65 @@
         <v>10</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" ht="18.75">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="18">
       <c r="B30" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="D30" s="7">
+        <v>4</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="18">
+      <c r="B31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="7">
         <v>1</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H30" s="15"/>
-    </row>
-    <row r="31" spans="2:8" ht="18.75">
-      <c r="B31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D31" s="7">
+      <c r="E31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="15"/>
+    </row>
+    <row r="32" spans="2:8" ht="18">
+      <c r="B32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="7">
         <v>2</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E32" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" ht="18.75">
-      <c r="B32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D32" s="7">
-        <v>5</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>13</v>
@@ -2319,21 +2284,21 @@
         <v>10</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="18.75">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="18">
       <c r="B33" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="D33" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F33" s="11" t="s">
         <v>13</v>
@@ -2341,88 +2306,88 @@
       <c r="G33" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H33" s="15"/>
-    </row>
-    <row r="34" spans="2:8" ht="18.75">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
+      <c r="H33" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="18">
+      <c r="B34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" s="7">
+        <v>2</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="H34" s="15"/>
     </row>
-    <row r="35" spans="2:8" ht="18.75">
-      <c r="B35" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D35" s="4">
+    <row r="35" spans="2:8" ht="18">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="15"/>
+    </row>
+    <row r="36" spans="2:8" ht="18">
+      <c r="B36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="4">
         <v>1</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H35" s="14"/>
-    </row>
-    <row r="36" spans="2:8" ht="18.75">
-      <c r="B36" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" s="7">
+      <c r="E36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="14"/>
+    </row>
+    <row r="37" spans="2:8" ht="18">
+      <c r="B37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="7">
         <v>1</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H36" s="15"/>
-    </row>
-    <row r="37" spans="2:8" ht="35.1" customHeight="1">
-      <c r="B37" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="E37" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" s="15"/>
+    </row>
+    <row r="38" spans="2:8" ht="35.1" customHeight="1">
+      <c r="B38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H37" s="32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" ht="18.75">
-      <c r="B38" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="D38" s="7">
         <v>1.5</v>
@@ -2436,39 +2401,41 @@
       <c r="G38" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="15"/>
-    </row>
-    <row r="39" spans="2:8" ht="18.75">
+      <c r="H38" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="18">
       <c r="B39" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D39" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" s="15"/>
+    </row>
+    <row r="40" spans="2:8" ht="18">
+      <c r="B40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="7">
         <v>1</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H39" s="15"/>
-    </row>
-    <row r="40" spans="2:8" ht="18.75">
-      <c r="B40" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="7">
-        <v>5</v>
-      </c>
       <c r="E40" s="5" t="s">
         <v>8</v>
       </c>
@@ -2478,13 +2445,11 @@
       <c r="G40" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H40" s="15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" ht="18.75">
+      <c r="H40" s="15"/>
+    </row>
+    <row r="41" spans="2:8" ht="18">
       <c r="B41" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>62</v>
@@ -2502,18 +2467,18 @@
         <v>10</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" ht="18.75">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="18">
       <c r="B42" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D42" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>8</v>
@@ -2525,15 +2490,15 @@
         <v>10</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" ht="18.75">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="18">
       <c r="B43" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D43" s="7">
         <v>4</v>
@@ -2548,65 +2513,65 @@
         <v>10</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" ht="18.75">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="18">
       <c r="B44" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="D44" s="7">
+        <v>4</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="18">
+      <c r="B45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45" s="7">
         <v>1</v>
       </c>
-      <c r="E44" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H44" s="15"/>
-    </row>
-    <row r="45" spans="2:8" ht="18.75">
-      <c r="B45" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D45" s="7">
+      <c r="E45" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" s="15"/>
+    </row>
+    <row r="46" spans="2:8" ht="18">
+      <c r="B46" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46" s="7">
         <v>2</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E46" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H45" s="15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" ht="18.75">
-      <c r="B46" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D46" s="7">
-        <v>5</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>13</v>
@@ -2615,21 +2580,21 @@
         <v>10</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" ht="18.75">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="18">
       <c r="B47" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="D47" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F47" s="11" t="s">
         <v>13</v>
@@ -2637,111 +2602,113 @@
       <c r="G47" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H47" s="15"/>
-    </row>
-    <row r="48" spans="2:8" ht="18.75">
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="16"/>
-    </row>
-    <row r="49" spans="2:8" ht="18.75">
-      <c r="B49" s="1" t="s">
+      <c r="H47" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="18">
+      <c r="B48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48" s="7">
+        <v>2</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" s="15"/>
+    </row>
+    <row r="49" spans="2:8" ht="18">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="16"/>
+    </row>
+    <row r="50" spans="2:8" ht="18">
+      <c r="B50" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D50" s="4">
+        <v>1</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H50" s="15"/>
+    </row>
+    <row r="51" spans="2:8" ht="18">
+      <c r="B51" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" s="7">
+        <v>1</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51" s="15"/>
+    </row>
+    <row r="52" spans="2:8" ht="18">
+      <c r="B52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D52" s="7">
+        <v>2</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" s="15"/>
+    </row>
+    <row r="53" spans="2:8" ht="18">
+      <c r="B53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D53" s="7">
         <v>1</v>
       </c>
-      <c r="E49" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H49" s="15"/>
-    </row>
-    <row r="50" spans="2:8" ht="18.75">
-      <c r="B50" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D50" s="7">
-        <v>1</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H50" s="15"/>
-    </row>
-    <row r="51" spans="2:8" ht="18.75">
-      <c r="B51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D51" s="7">
-        <v>2</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H51" s="15"/>
-    </row>
-    <row r="52" spans="2:8" ht="18.75">
-      <c r="B52" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D52" s="7">
-        <v>1</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H52" s="15"/>
-    </row>
-    <row r="53" spans="2:8" ht="18.75">
-      <c r="B53" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D53" s="7">
-        <v>5</v>
-      </c>
       <c r="E53" s="5" t="s">
         <v>8</v>
       </c>
@@ -2751,13 +2718,11 @@
       <c r="G53" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H53" s="15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" ht="18.75">
+      <c r="H53" s="15"/>
+    </row>
+    <row r="54" spans="2:8" ht="18">
       <c r="B54" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>62</v>
@@ -2775,18 +2740,18 @@
         <v>10</v>
       </c>
       <c r="H54" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" ht="18.75">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="18">
       <c r="B55" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D55" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>8</v>
@@ -2798,15 +2763,15 @@
         <v>10</v>
       </c>
       <c r="H55" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" ht="18.75">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="18">
       <c r="B56" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D56" s="7">
         <v>4</v>
@@ -2821,65 +2786,65 @@
         <v>10</v>
       </c>
       <c r="H56" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="18">
+      <c r="B57" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D57" s="7">
+        <v>4</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" ht="18">
+      <c r="B58" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D58" s="7">
+        <v>1</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H58" s="15"/>
+    </row>
+    <row r="59" spans="2:8" ht="18">
+      <c r="B59" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="57" spans="2:8" ht="18.75">
-      <c r="B57" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D57" s="7">
-        <v>1</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H57" s="15"/>
-    </row>
-    <row r="58" spans="2:8" ht="18.75">
-      <c r="B58" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D58" s="7">
+      <c r="D59" s="7">
         <v>2</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E59" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="F58" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H58" s="15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" ht="18.75">
-      <c r="B59" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D59" s="7">
-        <v>5</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="F59" s="11" t="s">
         <v>13</v>
@@ -2888,21 +2853,21 @@
         <v>10</v>
       </c>
       <c r="H59" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" ht="18.75">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" ht="18">
       <c r="B60" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="D60" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F60" s="11" t="s">
         <v>13</v>
@@ -2910,111 +2875,113 @@
       <c r="G60" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H60" s="15"/>
-    </row>
-    <row r="61" spans="2:8" ht="18.75">
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
+      <c r="H60" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" ht="18">
+      <c r="B61" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D61" s="7">
+        <v>2</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="H61" s="15"/>
     </row>
-    <row r="62" spans="2:8" ht="18.75">
-      <c r="B62" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C62" s="3" t="s">
+    <row r="62" spans="2:8" ht="18">
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="15"/>
+    </row>
+    <row r="63" spans="2:8" ht="18">
+      <c r="B63" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D63" s="4">
+        <v>1</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63" s="14"/>
+    </row>
+    <row r="64" spans="2:8" ht="18">
+      <c r="B64" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C64" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D64" s="7">
+        <v>1</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H64" s="15"/>
+    </row>
+    <row r="65" spans="2:8" ht="18">
+      <c r="B65" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D65" s="7">
+        <v>5</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H65" s="15"/>
+    </row>
+    <row r="66" spans="2:8" ht="18">
+      <c r="B66" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D66" s="7">
         <v>1</v>
       </c>
-      <c r="E62" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H62" s="14"/>
-    </row>
-    <row r="63" spans="2:8" ht="18.75">
-      <c r="B63" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C63" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="D63" s="7">
-        <v>1</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F63" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G63" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H63" s="15"/>
-    </row>
-    <row r="64" spans="2:8" ht="18.75">
-      <c r="B64" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D64" s="7">
-        <v>5</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F64" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H64" s="15"/>
-    </row>
-    <row r="65" spans="2:8" ht="18.75">
-      <c r="B65" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D65" s="7">
-        <v>1</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F65" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G65" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H65" s="15"/>
-    </row>
-    <row r="66" spans="2:8" ht="18.75">
-      <c r="B66" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D66" s="7">
-        <v>4</v>
-      </c>
       <c r="E66" s="5" t="s">
         <v>8</v>
       </c>
@@ -3024,16 +2991,14 @@
       <c r="G66" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H66" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" ht="18.75">
+      <c r="H66" s="15"/>
+    </row>
+    <row r="67" spans="2:8" ht="18">
       <c r="B67" s="1" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D67" s="7">
         <v>4</v>
@@ -3048,89 +3013,89 @@
         <v>10</v>
       </c>
       <c r="H67" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" ht="18">
+      <c r="B68" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D68" s="7">
+        <v>4</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H68" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" ht="18">
+      <c r="B69" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="68" spans="2:8" ht="18.75">
-      <c r="B68" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D68" s="7">
+      <c r="D69" s="7">
         <v>2</v>
       </c>
-      <c r="E68" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F68" s="11" t="s">
+      <c r="E69" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G68" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H68" s="15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" ht="18.75">
-      <c r="B69" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D69" s="7">
-        <v>1</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>9</v>
-      </c>
       <c r="G69" s="11" t="s">
         <v>10</v>
       </c>
       <c r="H69" s="15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" ht="18.75">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" ht="18">
       <c r="B70" s="1" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="7">
+        <v>1</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H70" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" ht="18">
+      <c r="B71" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D71" s="7">
         <f>0.5*8</f>
         <v>4</v>
       </c>
-      <c r="E70" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F70" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H70" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" ht="18.75">
-      <c r="B71" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D71" s="7">
-        <v>5</v>
-      </c>
       <c r="E71" s="5" t="s">
         <v>8</v>
       </c>
@@ -3141,232 +3106,232 @@
         <v>10</v>
       </c>
       <c r="H71" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" ht="18.75">
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="16"/>
-    </row>
-    <row r="73" spans="2:8" ht="18.75">
-      <c r="B73" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" ht="18">
+      <c r="B72" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D72" s="7">
+        <v>5</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H72" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" ht="18">
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="16"/>
+    </row>
+    <row r="74" spans="2:8" ht="18">
+      <c r="B74" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D74" s="4">
+        <v>2</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H74" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" ht="18">
+      <c r="B75" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D75" s="7">
+        <v>2</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H75" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D73" s="4">
+    </row>
+    <row r="76" spans="2:8" ht="18">
+      <c r="B76" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D76" s="7">
+        <v>3</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H76" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" ht="18">
+      <c r="B77" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D77" s="7">
+        <v>4</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H77" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" ht="18">
+      <c r="B78" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D78" s="7">
         <v>2</v>
       </c>
-      <c r="E73" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F73" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G73" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H73" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" ht="18.75">
-      <c r="B74" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D74" s="7">
-        <v>2</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F74" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G74" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H74" s="15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" ht="18.75">
-      <c r="B75" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D75" s="7">
+      <c r="E78" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H78" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" ht="18">
+      <c r="B79" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D79" s="7">
+        <v>9</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G79" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H79" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" ht="18">
+      <c r="B80" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D80" s="7">
+        <v>1</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H80" s="15"/>
+    </row>
+    <row r="81" spans="2:8" ht="18">
+      <c r="B81" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D81" s="7">
         <v>3</v>
       </c>
-      <c r="E75" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F75" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G75" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H75" s="15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" ht="18.75">
-      <c r="B76" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D76" s="7">
-        <v>4</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F76" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G76" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H76" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" ht="18.75">
-      <c r="B77" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C77" s="1" t="s">
+      <c r="E81" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G81" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H81" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D77" s="7">
-        <v>2</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F77" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G77" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H77" s="15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8" ht="18.75">
-      <c r="B78" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D78" s="7">
-        <v>9</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F78" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G78" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H78" s="15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" ht="18.75">
-      <c r="B79" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C79" s="1" t="s">
+    </row>
+    <row r="82" spans="2:8" ht="18">
+      <c r="B82" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D79" s="7">
+      <c r="D82" s="7">
         <v>1</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F79" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G79" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H79" s="15"/>
-    </row>
-    <row r="80" spans="2:8" ht="18.75">
-      <c r="B80" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D80" s="7">
-        <v>3</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F80" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G80" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H80" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8" ht="18.75">
-      <c r="B81" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D81" s="7">
-        <v>1</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F81" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G81" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H81" s="15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="82" spans="2:8" ht="18.75">
-      <c r="B82" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D82" s="7">
-        <v>2</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>16</v>
@@ -3378,208 +3343,184 @@
         <v>10</v>
       </c>
       <c r="H82" s="15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8" ht="18.75">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" ht="18">
       <c r="B83" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C83" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D83" s="7">
+        <v>2</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F83" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G83" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H83" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D83" s="7">
+    </row>
+    <row r="84" spans="2:8" ht="18">
+      <c r="B84" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D84" s="7">
         <v>5</v>
       </c>
-      <c r="E83" s="5" t="s">
+      <c r="E84" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F83" s="11" t="s">
+      <c r="F84" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G83" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H83" s="15" t="s">
+      <c r="G84" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H84" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" ht="18">
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="15"/>
+    </row>
+    <row r="86" spans="2:8" ht="18">
+      <c r="B86" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="84" spans="2:8" ht="18.75">
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11"/>
-      <c r="H84" s="15"/>
-    </row>
-    <row r="85" spans="2:8" ht="18.75">
-      <c r="B85" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D85" s="4">
+      <c r="C86" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D86" s="8">
         <v>2</v>
       </c>
-      <c r="E85" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G85" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H85" s="14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="86" spans="2:8" ht="18.75">
-      <c r="B86" s="1" t="s">
+      <c r="E86" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G86" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H86" s="14"/>
+    </row>
+    <row r="87" spans="2:8" ht="18">
+      <c r="B87" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D87" s="49">
+        <v>2</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G87" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H87" s="15"/>
+    </row>
+    <row r="88" spans="2:8" ht="18">
+      <c r="B88" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D88" s="49">
+        <v>2</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F88" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G88" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H88" s="15"/>
+    </row>
+    <row r="89" spans="2:8" ht="18">
+      <c r="B89" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D86" s="7">
+      <c r="D89" s="7">
         <v>2</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F86" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G86" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H86" s="15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="87" spans="2:8" ht="18.75">
-      <c r="B87" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D87" s="7">
-        <v>2</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F87" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G87" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H87" s="32" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="88" spans="2:8" ht="18.75">
-      <c r="B88" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D88" s="7">
-        <v>1</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F88" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G88" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H88" s="15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8" ht="18.75">
-      <c r="B89" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D89" s="7">
-        <v>1</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G89" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H89" s="15" t="s">
+      <c r="H89" s="15"/>
+    </row>
+    <row r="90" spans="2:8" ht="18">
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="16"/>
+    </row>
+    <row r="91" spans="2:8" ht="18">
+      <c r="B91" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D91" s="4">
+        <v>1</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G91" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H91" s="15"/>
+    </row>
+    <row r="92" spans="2:8" ht="18">
+      <c r="B92" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8" ht="18.75">
-      <c r="B90" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D90" s="7">
-        <v>1</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F90" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G90" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H90" s="15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8" ht="18.75">
-      <c r="B91" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D91" s="7">
-        <v>1</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F91" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G91" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H91" s="15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="92" spans="2:8" ht="18.75">
-      <c r="B92" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="D92" s="7">
         <v>1</v>
@@ -3591,44 +3532,40 @@
         <v>9</v>
       </c>
       <c r="G92" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H92" s="15" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="93" spans="2:8" ht="18.75">
+        <v>15</v>
+      </c>
+      <c r="H92" s="15"/>
+    </row>
+    <row r="93" spans="2:8" ht="18">
       <c r="B93" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="D93" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E93" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G93" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H93" s="15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="94" spans="2:8" ht="18.75">
+      <c r="H93" s="15"/>
+    </row>
+    <row r="94" spans="2:8" ht="18">
       <c r="B94" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="D94" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>16</v>
@@ -3639,69 +3576,67 @@
       <c r="G94" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H94" s="15" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="95" spans="2:8" ht="18.75">
-      <c r="B95" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D95" s="7">
-        <v>9</v>
-      </c>
-      <c r="E95" s="5" t="s">
+      <c r="H94" s="15"/>
+    </row>
+    <row r="95" spans="2:8" ht="18">
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="15"/>
+    </row>
+    <row r="96" spans="2:8" ht="18">
+      <c r="B96" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D96" s="4">
+        <v>2</v>
+      </c>
+      <c r="E96" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F95" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G95" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H95" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="96" spans="2:8" ht="18.75">
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="12"/>
-      <c r="G96" s="12"/>
-      <c r="H96" s="16"/>
-    </row>
-    <row r="97" spans="2:8" ht="18.75">
+      <c r="F96" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G96" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H96" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" ht="18">
       <c r="B97" s="1" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D97" s="4">
+        <v>113</v>
+      </c>
+      <c r="D97" s="7">
         <v>1</v>
       </c>
       <c r="E97" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="G97" s="11" t="s">
         <v>10</v>
       </c>
       <c r="H97" s="15"/>
     </row>
-    <row r="98" spans="2:8" ht="18.75">
+    <row r="98" spans="2:8" ht="18">
       <c r="B98" s="1" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="D98" s="7">
         <v>1</v>
@@ -3713,40 +3648,42 @@
         <v>9</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H98" s="15"/>
-    </row>
-    <row r="99" spans="2:8" ht="18.75">
+        <v>10</v>
+      </c>
+      <c r="H98" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" ht="18">
       <c r="B99" s="1" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="D99" s="7">
         <v>1</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G99" s="11" t="s">
         <v>10</v>
       </c>
       <c r="H99" s="15"/>
     </row>
-    <row r="100" spans="2:8" ht="18.75">
+    <row r="100" spans="2:8" ht="18">
       <c r="B100" s="1" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="D100" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>16</v>
@@ -3759,47 +3696,45 @@
       </c>
       <c r="H100" s="15"/>
     </row>
-    <row r="101" spans="2:8" ht="18.75">
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="11"/>
-      <c r="G101" s="11"/>
+    <row r="101" spans="2:8" ht="18">
+      <c r="B101" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D101" s="7">
+        <v>1</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F101" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G101" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="H101" s="15"/>
     </row>
-    <row r="102" spans="2:8" ht="18.75">
-      <c r="B102" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D102" s="4">
-        <v>1</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G102" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H102" s="14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="103" spans="2:8" ht="18.75">
+    <row r="102" spans="2:8" ht="18">
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="16"/>
+    </row>
+    <row r="103" spans="2:8" ht="18">
       <c r="B103" s="1" t="s">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D103" s="7">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="D103" s="4">
+        <v>4</v>
       </c>
       <c r="E103" s="5" t="s">
         <v>8</v>
@@ -3812,15 +3747,15 @@
       </c>
       <c r="H103" s="15"/>
     </row>
-    <row r="104" spans="2:8" ht="18.75">
+    <row r="104" spans="2:8" ht="18">
       <c r="B104" s="1" t="s">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="D104" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E104" s="5" t="s">
         <v>8</v>
@@ -3831,19 +3766,17 @@
       <c r="G104" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H104" s="15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="105" spans="2:8" ht="18.75">
+      <c r="H104" s="15"/>
+    </row>
+    <row r="105" spans="2:8" ht="18">
       <c r="B105" s="1" t="s">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="D105" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E105" s="5" t="s">
         <v>8</v>
@@ -3856,279 +3789,165 @@
       </c>
       <c r="H105" s="15"/>
     </row>
-    <row r="106" spans="2:8" ht="18.75">
+    <row r="106" spans="2:8" ht="18">
       <c r="B106" s="1" t="s">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="D106" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G106" s="11" t="s">
         <v>10</v>
       </c>
       <c r="H106" s="15"/>
     </row>
-    <row r="107" spans="2:8" ht="18.75">
-      <c r="B107" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D107" s="7">
-        <v>1</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F107" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G107" s="11" t="s">
-        <v>10</v>
-      </c>
+    <row r="107" spans="2:8" ht="18">
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
       <c r="H107" s="15"/>
     </row>
-    <row r="108" spans="2:8" ht="18.75">
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="6"/>
-      <c r="F108" s="12"/>
-      <c r="G108" s="12"/>
-      <c r="H108" s="16"/>
-    </row>
-    <row r="109" spans="2:8" ht="18.75">
-      <c r="B109" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D109" s="4">
-        <v>4</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F109" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G109" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H109" s="15"/>
-    </row>
-    <row r="110" spans="2:8" ht="18.75">
-      <c r="B110" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D110" s="7">
-        <v>2</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F110" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G110" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H110" s="15"/>
-    </row>
-    <row r="111" spans="2:8" ht="18.75">
-      <c r="B111" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D111" s="7">
-        <v>2</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F111" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G111" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H111" s="15"/>
-    </row>
-    <row r="112" spans="2:8" ht="18.75">
-      <c r="B112" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D112" s="7">
-        <v>2</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F112" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G112" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H112" s="15"/>
-    </row>
-    <row r="113" spans="2:8" ht="18.75">
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
+    <row r="108" spans="2:8" ht="18">
+      <c r="B108" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G108" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H108" s="14"/>
+    </row>
+    <row r="109" spans="2:8" ht="18">
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="16"/>
+    </row>
+    <row r="110" spans="2:8" ht="18">
+      <c r="C110"/>
+      <c r="D110" s="7"/>
+      <c r="H110" s="13"/>
+    </row>
+    <row r="111" spans="2:8" ht="18">
+      <c r="C111"/>
+      <c r="D111" s="7"/>
+      <c r="H111" s="13"/>
+    </row>
+    <row r="112" spans="2:8" ht="18">
+      <c r="C112"/>
+      <c r="D112" s="7"/>
+      <c r="H112" s="13"/>
+    </row>
+    <row r="113" spans="3:8" ht="18">
+      <c r="C113"/>
       <c r="D113" s="7"/>
-      <c r="E113" s="5"/>
-      <c r="F113" s="11"/>
-      <c r="G113" s="11"/>
-      <c r="H113" s="15"/>
-    </row>
-    <row r="114" spans="2:8" ht="18.75">
-      <c r="B114" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G114" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H114" s="14"/>
-    </row>
-    <row r="115" spans="2:8" ht="18.75">
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
-      <c r="D115" s="9"/>
-      <c r="E115" s="6"/>
-      <c r="F115" s="12"/>
-      <c r="G115" s="12"/>
-      <c r="H115" s="16"/>
-    </row>
-    <row r="116" spans="2:8" ht="18.75">
+      <c r="H113" s="13"/>
+    </row>
+    <row r="114" spans="3:8" ht="18">
+      <c r="C114"/>
+      <c r="D114" s="7"/>
+      <c r="H114" s="13"/>
+    </row>
+    <row r="115" spans="3:8" ht="18">
+      <c r="C115"/>
+      <c r="D115" s="7"/>
+      <c r="H115" s="13"/>
+    </row>
+    <row r="116" spans="3:8" ht="18">
       <c r="C116"/>
       <c r="D116" s="7"/>
       <c r="H116" s="13"/>
     </row>
-    <row r="117" spans="2:8" ht="18.75">
+    <row r="117" spans="3:8" ht="18">
       <c r="C117"/>
       <c r="D117" s="7"/>
       <c r="H117" s="13"/>
     </row>
-    <row r="118" spans="2:8" ht="18.75">
+    <row r="118" spans="3:8" ht="18">
       <c r="C118"/>
       <c r="D118" s="7"/>
       <c r="H118" s="13"/>
     </row>
-    <row r="119" spans="2:8" ht="18.75">
+    <row r="119" spans="3:8" ht="18">
       <c r="C119"/>
       <c r="D119" s="7"/>
       <c r="H119" s="13"/>
     </row>
-    <row r="120" spans="2:8" ht="18.75">
+    <row r="120" spans="3:8" ht="18">
       <c r="C120"/>
       <c r="D120" s="7"/>
       <c r="H120" s="13"/>
     </row>
-    <row r="121" spans="2:8" ht="18.75">
+    <row r="121" spans="3:8" ht="18">
       <c r="C121"/>
       <c r="D121" s="7"/>
       <c r="H121" s="13"/>
     </row>
-    <row r="122" spans="2:8" ht="18.75">
-      <c r="C122"/>
-      <c r="D122" s="7"/>
-      <c r="H122" s="13"/>
-    </row>
-    <row r="123" spans="2:8" ht="18.75">
-      <c r="C123"/>
-      <c r="D123" s="7"/>
-      <c r="H123" s="13"/>
-    </row>
-    <row r="124" spans="2:8" ht="18.75">
-      <c r="C124"/>
-      <c r="D124" s="7"/>
-      <c r="H124" s="13"/>
-    </row>
-    <row r="125" spans="2:8" ht="18.75">
-      <c r="C125"/>
-      <c r="D125" s="7"/>
-      <c r="H125" s="13"/>
-    </row>
-    <row r="126" spans="2:8" ht="18.75">
+    <row r="122" spans="3:8" ht="18"/>
+    <row r="123" spans="3:8" ht="18"/>
+    <row r="124" spans="3:8" ht="18"/>
+    <row r="125" spans="3:8" ht="18"/>
+    <row r="126" spans="3:8" ht="18">
       <c r="C126"/>
       <c r="D126" s="7"/>
       <c r="H126" s="13"/>
     </row>
-    <row r="127" spans="2:8" ht="18.75">
+    <row r="127" spans="3:8" ht="18">
       <c r="C127"/>
       <c r="D127" s="7"/>
       <c r="H127" s="13"/>
     </row>
-    <row r="128" spans="2:8" ht="18.75"/>
-    <row r="129" spans="3:8" ht="18.75"/>
-    <row r="130" spans="3:8" ht="18.75"/>
-    <row r="131" spans="3:8" ht="18.75"/>
-    <row r="132" spans="3:8" ht="18.75">
+    <row r="128" spans="3:8" ht="18">
+      <c r="H128" s="13"/>
+    </row>
+    <row r="129" spans="3:8" ht="18">
+      <c r="C129"/>
+      <c r="D129" s="7"/>
+      <c r="H129" s="13"/>
+    </row>
+    <row r="130" spans="3:8" ht="18">
+      <c r="C130"/>
+      <c r="D130" s="7"/>
+      <c r="H130" s="13"/>
+    </row>
+    <row r="131" spans="3:8" ht="18">
+      <c r="C131"/>
+      <c r="D131" s="7"/>
+      <c r="H131" s="13"/>
+    </row>
+    <row r="132" spans="3:8" ht="18">
       <c r="C132"/>
       <c r="D132" s="7"/>
       <c r="H132" s="13"/>
     </row>
-    <row r="133" spans="3:8" ht="18.75">
-      <c r="C133"/>
-      <c r="D133" s="7"/>
-      <c r="H133" s="13"/>
-    </row>
-    <row r="134" spans="3:8" ht="18.75">
-      <c r="H134" s="13"/>
-    </row>
-    <row r="135" spans="3:8" ht="18.75">
-      <c r="C135"/>
-      <c r="D135" s="7"/>
-      <c r="H135" s="13"/>
-    </row>
-    <row r="136" spans="3:8" ht="18.75">
-      <c r="C136"/>
-      <c r="D136" s="7"/>
-      <c r="H136" s="13"/>
-    </row>
-    <row r="137" spans="3:8" ht="18.75">
-      <c r="C137"/>
-      <c r="D137" s="7"/>
-      <c r="H137" s="13"/>
-    </row>
-    <row r="138" spans="3:8" ht="18.75">
-      <c r="C138"/>
-      <c r="D138" s="7"/>
-      <c r="H138" s="13"/>
-    </row>
   </sheetData>
-  <autoFilter ref="E2:G138" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="E2:G132" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
@@ -4137,21 +3956,21 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A83D83F3-3B26-4E37-A8DD-007161044665}">
           <x14:formula1>
-            <xm:f>Sheet2!$B$3:$B$6</xm:f>
+            <xm:f>その他!$B$3:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>G1:G127 G132:G133 G135:G1048576</xm:sqref>
+          <xm:sqref>G126:G127 G129:G1048576 G1:G121</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{66D8840C-D443-486F-BC72-01200775D285}">
           <x14:formula1>
-            <xm:f>Sheet2!$D$3:$D$6</xm:f>
+            <xm:f>その他!$D$3:$D$6</xm:f>
           </x14:formula1>
-          <xm:sqref>F1:F127 F132:F133 F135:F1048576</xm:sqref>
+          <xm:sqref>F126:F127 F129:F1048576 F1:F121</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D61B1C0A-2748-4606-B0EE-00EEC89A23C6}">
           <x14:formula1>
-            <xm:f>Sheet2!$F$3:$F$6</xm:f>
+            <xm:f>その他!$F$3:$F$6</xm:f>
           </x14:formula1>
-          <xm:sqref>E1:E127 E132:E133 E135:E1048576</xm:sqref>
+          <xm:sqref>E126:E127 E129:E1048576 E1:E121</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4163,102 +3982,102 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.8984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="48.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.09765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.75" customWidth="1"/>
-    <col min="9" max="9" width="16.25" customWidth="1"/>
+    <col min="8" max="8" width="17.69921875" customWidth="1"/>
+    <col min="9" max="9" width="16.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="19.5">
-      <c r="B2" s="46" t="s">
+    <row r="2" spans="2:9" ht="19.8">
+      <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="F2" s="37" t="s">
+      <c r="D2" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" s="35" t="s">
         <v>29</v>
       </c>
       <c r="G2" s="28">
         <f>SUM(C:C)</f>
-        <v>238.5</v>
+        <v>217</v>
       </c>
       <c r="H2" s="28"/>
       <c r="I2" s="28"/>
     </row>
-    <row r="3" spans="2:9" ht="19.5">
+    <row r="3" spans="2:9" ht="19.8">
       <c r="B3" s="18" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="19">
-        <f>SUMIF(Sheet1!B:B, B3, Sheet1!D:D)</f>
-        <v>24</v>
-      </c>
-      <c r="D3" s="47">
-        <f>ROUNDDOWN(COUNTIFS(Sheet1!B:B, "プレイヤー", Sheet1!G:G, "完了") / COUNTIF(Sheet1!B:B, "プレイヤー") * 100,1)</f>
-        <v>44.4</v>
-      </c>
-      <c r="F3" s="38" t="s">
+        <f>SUMIF(コスト表!B:B, B3, コスト表!D:D)</f>
+        <v>25.5</v>
+      </c>
+      <c r="D3" s="45">
+        <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "プレイヤー", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "プレイヤー") * 100,1)</f>
+        <v>31.5</v>
+      </c>
+      <c r="F3" s="36" t="s">
         <v>30</v>
       </c>
       <c r="G3" s="28">
-        <f>SUMIF(Sheet1!G:G,"完了",Sheet1!D:D)</f>
-        <v>10</v>
+        <f>SUMIF(コスト表!G:G,"完了",コスト表!D:D)</f>
+        <v>7.5</v>
       </c>
       <c r="H3" s="28" t="s">
         <v>31</v>
       </c>
       <c r="I3" s="28"/>
     </row>
-    <row r="4" spans="2:9" ht="19.5">
+    <row r="4" spans="2:9" ht="19.8">
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" s="19">
-        <f>SUMIF(Sheet1!B:B, B4, Sheet1!D:D)</f>
+        <f>SUMIF(コスト表!B:B, B4, コスト表!D:D)</f>
         <v>32.5</v>
       </c>
-      <c r="D4" s="47">
-        <f>ROUNDDOWN(COUNTIFS(Sheet1!B:B, "敵1(通常ゾンビ)", Sheet1!G:G, "完了") / COUNTIF(Sheet1!B:B, "敵1(通常ゾンビ)") * 100,1)</f>
+      <c r="D4" s="45">
+        <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "敵1(通常ゾンビ)", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "敵1(通常ゾンビ)") * 100,1)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="37" t="s">
         <v>32</v>
       </c>
       <c r="G4" s="28">
         <f ca="1">NETWORKDAYS(G5,G6)</f>
-        <v>19</v>
-      </c>
-      <c r="H4" s="31">
+        <v>21</v>
+      </c>
+      <c r="H4" s="30">
         <f ca="1" xml:space="preserve"> G3 / G4</f>
-        <v>0.52631578947368418</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="I4" s="28"/>
     </row>
-    <row r="5" spans="2:9" ht="19.5">
+    <row r="5" spans="2:9" ht="19.8">
       <c r="B5" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C5" s="19">
-        <f>SUMIF(Sheet1!B:B, B5, Sheet1!D:D)</f>
+        <f>SUMIF(コスト表!B:B, B5, コスト表!D:D)</f>
         <v>34</v>
       </c>
-      <c r="D5" s="47">
-        <f>ROUNDDOWN(COUNTIFS(Sheet1!B:B, "敵2(ランナーゾンビ)", Sheet1!G:G, "完了") / COUNTIF(Sheet1!B:B, "敵2(ランナーゾンビ)") * 100,1)</f>
+      <c r="D5" s="45">
+        <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "敵2(ランナーゾンビ)", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "敵2(ランナーゾンビ)") * 100,1)</f>
         <v>0</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="38" t="s">
         <v>33</v>
       </c>
       <c r="G5" s="29">
@@ -4268,38 +4087,38 @@
       <c r="H5" s="28"/>
       <c r="I5" s="28"/>
     </row>
-    <row r="6" spans="2:9" ht="19.5">
+    <row r="6" spans="2:9" ht="19.8">
       <c r="B6" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C6" s="19">
-        <f>SUMIF(Sheet1!B:B, B6, Sheet1!D:D)</f>
+        <f>SUMIF(コスト表!B:B, B6, コスト表!D:D)</f>
         <v>33</v>
       </c>
-      <c r="D6" s="47">
-        <f>ROUNDDOWN(COUNTIFS(Sheet1!B:B, "敵3(酸を飛ばすゾンビ)", Sheet1!G:G, "完了") / COUNTIF(Sheet1!B:B, "敵3(酸を飛ばすゾンビ)") * 100,1)</f>
+      <c r="D6" s="45">
+        <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "敵3(酸を飛ばすゾンビ)", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "敵3(酸を飛ばすゾンビ)") * 100,1)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="39" t="s">
         <v>34</v>
       </c>
       <c r="G6" s="29">
         <f ca="1">TODAY()</f>
-        <v>45805</v>
+        <v>45808</v>
       </c>
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="18" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="C7" s="19">
-        <f>SUMIF(Sheet1!B:B, B7, Sheet1!D:D)</f>
+        <f>SUMIF(コスト表!B:B, B7, コスト表!D:D)</f>
         <v>28</v>
       </c>
-      <c r="D7" s="47">
-        <f>ROUNDDOWN(COUNTIFS(Sheet1!B:B, "ボス(ゾンビを召喚)", Sheet1!G:G, "完了") / COUNTIF(Sheet1!B:B, "ボス(ゾンビを召喚)") * 100,1)</f>
+      <c r="D7" s="45">
+        <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "ボス(ゾンビを召喚)", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "ボス(ゾンビを召喚)") * 100,1)</f>
         <v>0</v>
       </c>
       <c r="F7" s="28"/>
@@ -4309,14 +4128,14 @@
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C8" s="19">
-        <f>SUMIF(Sheet1!B:B, B8, Sheet1!D:D)</f>
+        <f>SUMIF(コスト表!B:B, B8, コスト表!D:D)</f>
         <v>34</v>
       </c>
-      <c r="D8" s="47">
-        <f>ROUNDDOWN(COUNTIFS(Sheet1!B:B, "ウェーブ管理システム", Sheet1!G:G, "完了") / COUNTIF(Sheet1!B:B, "ウェーブ管理システム") * 100,1)</f>
+      <c r="D8" s="45">
+        <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "ウェーブ管理システム", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "ウェーブ管理システム") * 100,1)</f>
         <v>0</v>
       </c>
       <c r="F8" s="28"/>
@@ -4328,116 +4147,116 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="24">
+    <row r="9" spans="2:9" ht="22.2">
       <c r="B9" s="18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C9" s="19">
-        <f>SUMIF(Sheet1!B:B, B9, Sheet1!D:D)</f>
-        <v>32</v>
-      </c>
-      <c r="D9" s="47">
-        <f>ROUNDDOWN(COUNTIFS(Sheet1!B:B, "アイテム", Sheet1!G:G, "完了") / COUNTIF(Sheet1!B:B, "アイテム") * 100,1)</f>
+        <f>SUMIF(コスト表!B:B, B9, コスト表!D:D)</f>
+        <v>8</v>
+      </c>
+      <c r="D9" s="45">
+        <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "アイテム", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "アイテム") * 100,1)</f>
         <v>0</v>
       </c>
-      <c r="F9" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="G9" s="35">
+      <c r="F9" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="G9" s="34">
         <f>DATE(2025,7,23)</f>
         <v>45861</v>
       </c>
-      <c r="H9" s="36">
+      <c r="H9" s="51">
         <f ca="1">NETWORKDAYS(TODAY(),G9)</f>
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I9" s="7">
         <f ca="1">($G$2 - $G$3) / H9</f>
-        <v>5.5731707317073171</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="19.5">
+        <v>5.5131578947368425</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="19.8">
       <c r="B10" s="18" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C10" s="19">
-        <f>SUMIF(Sheet1!B:B, B10, Sheet1!D:D)</f>
+        <f>SUMIF(コスト表!B:B, B10, コスト表!D:D)</f>
         <v>5</v>
       </c>
-      <c r="D10" s="47">
-        <f>ROUNDDOWN(COUNTIFS(Sheet1!B:B, "タイトル", Sheet1!G:G, "完了") / COUNTIF(Sheet1!B:B, "タイトル") * 100,1)</f>
+      <c r="D10" s="45">
+        <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "タイトル", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "タイトル") * 100,1)</f>
         <v>25</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="35" t="s">
         <v>37</v>
       </c>
       <c r="G10" s="29">
         <f>DATE(2025,8,11)</f>
         <v>45880</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="50">
         <f ca="1">NETWORKDAYS(TODAY(),G10)</f>
-        <v>54</v>
-      </c>
-      <c r="I10" s="31">
+        <v>51</v>
+      </c>
+      <c r="I10" s="30">
         <f ca="1">($G$2 - $G$3) / H10</f>
-        <v>4.2314814814814818</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="19.5">
+        <v>4.1078431372549016</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="19.8">
       <c r="B11" s="18" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="C11" s="19">
-        <f>SUMIF(Sheet1!B:B, B11, Sheet1!D:D)</f>
-        <v>6</v>
-      </c>
-      <c r="D11" s="47">
-        <f>ROUNDDOWN(COUNTIFS(Sheet1!B:B, "オプション", Sheet1!G:G, "完了") / COUNTIF(Sheet1!B:B, "オプション") * 100,1)</f>
+        <f>SUMIF(コスト表!B:B, B11, コスト表!D:D)</f>
+        <v>7</v>
+      </c>
+      <c r="D11" s="45">
+        <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "オプション", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "オプション") * 100,1)</f>
         <v>0</v>
       </c>
-      <c r="F11" s="38" t="s">
+      <c r="F11" s="36" t="s">
         <v>38</v>
       </c>
       <c r="G11" s="29">
         <f>DATE(2025,8,17)</f>
         <v>45886</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="50">
         <f ca="1">NETWORKDAYS(TODAY(),G11)</f>
-        <v>58</v>
-      </c>
-      <c r="I11" s="31">
+        <v>55</v>
+      </c>
+      <c r="I11" s="30">
         <f ca="1">($G$2 - $G$3) / H11</f>
-        <v>3.9396551724137931</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="19.5">
+        <v>3.8090909090909091</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="19.8">
       <c r="B12" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C12" s="19">
-        <f>SUMIF(Sheet1!B:B, B12, Sheet1!D:D)</f>
-        <v>10</v>
-      </c>
-      <c r="D12" s="47">
-        <f>ROUNDDOWN(COUNTIFS(Sheet1!B:B, "エフェクト", Sheet1!G:G, "完了") / COUNTIF(Sheet1!B:B, "エフェクト") * 100,1)</f>
+        <f>SUMIF(コスト表!B:B, B12, コスト表!D:D)</f>
+        <v>10</v>
+      </c>
+      <c r="D12" s="45">
+        <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "エフェクト", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "エフェクト") * 100,1)</f>
         <v>0</v>
       </c>
-      <c r="F12" s="39" t="s">
+      <c r="F12" s="37" t="s">
         <v>39</v>
       </c>
       <c r="G12" s="29">
         <f>DATE(2025,9,1)</f>
         <v>45901</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="50">
         <f ca="1">NETWORKDAYS(TODAY(),G12)</f>
-        <v>69</v>
-      </c>
-      <c r="I12" s="31">
+        <v>66</v>
+      </c>
+      <c r="I12" s="30">
         <f ca="1">($G$2 - $G$3) / H12</f>
-        <v>3.3115942028985508</v>
+        <v>3.1742424242424243</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -4447,96 +4266,96 @@
       <c r="C13" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="47">
+      <c r="D13" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="48" t="s">
-        <v>143</v>
+      <c r="B14" s="46" t="s">
+        <v>118</v>
       </c>
       <c r="C14" s="9"/>
-      <c r="D14" s="47">
-        <f>ROUNDDOWN(COUNTIF(Sheet1!G:G, "完了") / COUNTA(Sheet1!G:G) * 100,1)</f>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="F14" s="49" t="s">
+      <c r="D14" s="45">
+        <f>ROUNDDOWN(COUNTIF(コスト表!G:G, "完了") / COUNTA(コスト表!G:G) * 100,1)</f>
+        <v>7.2</v>
+      </c>
+      <c r="F14" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="49" t="s">
-        <v>144</v>
-      </c>
-      <c r="H14" s="49" t="s">
-        <v>145</v>
+      <c r="G14" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="H14" s="47" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="2:9">
       <c r="C15" s="7"/>
-      <c r="D15" s="45"/>
-      <c r="F15" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="50">
-        <f>SUMIF(Sheet1!F:F, "プロト", Sheet1!D:D)</f>
-        <v>162.5</v>
-      </c>
-      <c r="H15" s="50">
-        <f>ROUNDDOWN(COUNTIFS(Sheet1!F:F, "プロト", Sheet1!G:G, "完了") / COUNTIF(Sheet1!F:F, "プロト") * 100,1)</f>
-        <v>5.5</v>
+      <c r="D15" s="43"/>
+      <c r="F15" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="48">
+        <f>SUMIF(コスト表!F:F, "プロト", コスト表!D:D)</f>
+        <v>155.5</v>
+      </c>
+      <c r="H15" s="48">
+        <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "プロト", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "プロト") * 100,1)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="2:9">
       <c r="C16" s="7"/>
-      <c r="D16" s="45"/>
-      <c r="F16" s="50" t="s">
+      <c r="D16" s="43"/>
+      <c r="F16" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="50">
-        <f>SUMIF(Sheet1!F:F, "アルファ", Sheet1!D:D)</f>
-        <v>70</v>
-      </c>
-      <c r="H16" s="50">
-        <f>ROUNDDOWN(COUNTIFS(Sheet1!F:F, "アルファ", Sheet1!G:G, "完了") / COUNTIF(Sheet1!F:F, "アルファ") * 100,1)</f>
-        <v>17.8</v>
+      <c r="G16" s="48">
+        <f>SUMIF(コスト表!F:F, "アルファ", コスト表!D:D)</f>
+        <v>55.5</v>
+      </c>
+      <c r="H16" s="48">
+        <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "アルファ", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "アルファ") * 100,1)</f>
+        <v>10.7</v>
       </c>
     </row>
     <row r="17" spans="4:8">
-      <c r="D17" s="45"/>
-      <c r="F17" s="50" t="s">
+      <c r="D17" s="43"/>
+      <c r="F17" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="50">
-        <f>SUMIF(Sheet1!F:F, "ベータ", Sheet1!D:D)</f>
+      <c r="G17" s="48">
+        <f>SUMIF(コスト表!F:F, "ベータ", コスト表!D:D)</f>
         <v>6</v>
       </c>
-      <c r="H17" s="50" t="e">
+      <c r="H17" s="48" t="e">
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="4:8">
-      <c r="D18" s="45"/>
-      <c r="F18" s="50" t="s">
+      <c r="D18" s="43"/>
+      <c r="F18" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="50">
-        <f>SUMIF(Sheet1!F:F, "マスター", Sheet1!D:D)</f>
+      <c r="G18" s="48">
+        <f>SUMIF(コスト表!F:F, "マスター", コスト表!D:D)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="50" t="e">
+      <c r="H18" s="48" t="e">
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="4:8">
-      <c r="D20" s="43"/>
+      <c r="D20" s="41"/>
     </row>
     <row r="21" spans="4:8">
-      <c r="D21" s="43"/>
+      <c r="D21" s="41"/>
     </row>
     <row r="22" spans="4:8">
-      <c r="D22" s="43"/>
+      <c r="D22" s="41"/>
     </row>
     <row r="23" spans="4:8">
-      <c r="D23" s="43"/>
+      <c r="D23" s="41"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4556,20 +4375,20 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="11.375" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="11.3984375" customWidth="1"/>
+    <col min="3" max="3" width="10.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="40" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4608,7 +4427,7 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="2" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>27</v>
@@ -4624,6 +4443,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006836AD0B55474E4CAD520F1DEB8FB579" ma:contentTypeVersion="3" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="078ba6c1f7b5b638bb57eb024ae572f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="187a6309-4c0c-49e3-bd2d-e8130eb88270" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5f182963113af090d1b42042cf04cb6" ns2:_="">
     <xsd:import namespace="187a6309-4c0c-49e3-bd2d-e8130eb88270"/>
@@ -4761,22 +4595,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A1D85CE-B20E-4841-A55B-779E85453EF9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4792,21 +4628,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ゾンビシューターゲームコスト表.xlsx
+++ b/ゾンビシューターゲームコスト表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sho24\Documents\GitHub\MyGame3D2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sho24\OneDrive\ドキュメント\MyGame3D2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE93F70-0D4D-4E59-A0FB-77BD14311578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EA32F4-0400-48B0-AAE8-6B0833BD00EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コスト表" sheetId="1" r:id="rId1"/>
@@ -1112,7 +1112,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1256,9 +1256,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1611,20 +1608,20 @@
   <dimension ref="B1:I132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C99" sqref="C99"/>
+      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.59765625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="12.8984375" style="17" customWidth="1"/>
-    <col min="5" max="5" width="11.19921875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="13.19921875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="31.625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="7" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="7" customWidth="1"/>
     <col min="7" max="7" width="10" style="7" customWidth="1"/>
-    <col min="8" max="8" width="58.3984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.09765625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="58.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" customHeight="1">
@@ -1632,7 +1629,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="18">
+    <row r="2" spans="2:8" ht="18.75">
       <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
@@ -1655,7 +1652,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="18">
+    <row r="3" spans="2:8" ht="18.75">
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1676,7 +1673,7 @@
       </c>
       <c r="H3" s="14"/>
     </row>
-    <row r="4" spans="2:8" ht="18">
+    <row r="4" spans="2:8" ht="18.75">
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1697,7 +1694,7 @@
       </c>
       <c r="H4" s="15"/>
     </row>
-    <row r="5" spans="2:8" ht="18">
+    <row r="5" spans="2:8" ht="18.75">
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1714,11 +1711,11 @@
         <v>9</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H5" s="15"/>
     </row>
-    <row r="6" spans="2:8" ht="18">
+    <row r="6" spans="2:8" ht="18.75">
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1735,13 +1732,13 @@
         <v>9</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H6" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="18">
+    <row r="7" spans="2:8" ht="18.75">
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1758,11 +1755,11 @@
         <v>9</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H7" s="15"/>
     </row>
-    <row r="8" spans="2:8" ht="18">
+    <row r="8" spans="2:8" ht="18.75">
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1783,7 +1780,7 @@
       </c>
       <c r="H8" s="15"/>
     </row>
-    <row r="9" spans="2:8" ht="18">
+    <row r="9" spans="2:8" ht="18.75">
       <c r="B9" s="1" t="s">
         <v>41</v>
       </c>
@@ -1804,7 +1801,7 @@
       </c>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="2:8" ht="18">
+    <row r="10" spans="2:8" ht="18.75">
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1825,7 +1822,7 @@
       </c>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="2:8" ht="18">
+    <row r="11" spans="2:8" ht="18.75">
       <c r="B11" s="1" t="s">
         <v>129</v>
       </c>
@@ -1846,7 +1843,7 @@
       </c>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="2:8" ht="18">
+    <row r="12" spans="2:8" ht="18.75">
       <c r="B12" s="1" t="s">
         <v>129</v>
       </c>
@@ -1863,13 +1860,13 @@
         <v>9</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H12" s="15" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="18">
+    <row r="13" spans="2:8" ht="18.75">
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
@@ -1877,7 +1874,7 @@
         <v>101</v>
       </c>
       <c r="D13" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>8</v>
@@ -1890,7 +1887,7 @@
       </c>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="2:8" ht="18">
+    <row r="14" spans="2:8" ht="18.75">
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
@@ -1911,7 +1908,7 @@
       </c>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="2:8" ht="18">
+    <row r="15" spans="2:8" ht="18.75">
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
@@ -1932,7 +1929,7 @@
       </c>
       <c r="H15" s="15"/>
     </row>
-    <row r="16" spans="2:8" ht="18">
+    <row r="16" spans="2:8" ht="18.75">
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
@@ -1949,11 +1946,11 @@
         <v>13</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H16" s="15"/>
     </row>
-    <row r="17" spans="2:8" ht="18">
+    <row r="17" spans="2:8" ht="18.75">
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
@@ -1974,7 +1971,7 @@
       </c>
       <c r="H17" s="15"/>
     </row>
-    <row r="18" spans="2:8" ht="18">
+    <row r="18" spans="2:8" ht="18.75">
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
@@ -1995,7 +1992,7 @@
       </c>
       <c r="H18" s="15"/>
     </row>
-    <row r="19" spans="2:8" ht="18">
+    <row r="19" spans="2:8" ht="18.75">
       <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
@@ -2016,7 +2013,7 @@
       </c>
       <c r="H19" s="15"/>
     </row>
-    <row r="20" spans="2:8" ht="18">
+    <row r="20" spans="2:8" ht="18.75">
       <c r="B20" s="1" t="s">
         <v>129</v>
       </c>
@@ -2037,7 +2034,7 @@
       </c>
       <c r="H20" s="15"/>
     </row>
-    <row r="21" spans="2:8" ht="18">
+    <row r="21" spans="2:8" ht="18.75">
       <c r="B21" s="1" t="s">
         <v>7</v>
       </c>
@@ -2058,7 +2055,7 @@
       </c>
       <c r="H21" s="15"/>
     </row>
-    <row r="22" spans="2:8" ht="18">
+    <row r="22" spans="2:8" ht="18.75">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="7"/>
@@ -2067,7 +2064,7 @@
       <c r="G22" s="12"/>
       <c r="H22" s="16"/>
     </row>
-    <row r="23" spans="2:8" ht="18">
+    <row r="23" spans="2:8" ht="18.75">
       <c r="B23" s="1" t="s">
         <v>52</v>
       </c>
@@ -2088,7 +2085,7 @@
       </c>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" spans="2:8" ht="18">
+    <row r="24" spans="2:8" ht="18.75">
       <c r="B24" s="1" t="s">
         <v>52</v>
       </c>
@@ -2109,7 +2106,7 @@
       </c>
       <c r="H24" s="15"/>
     </row>
-    <row r="25" spans="2:8" ht="18">
+    <row r="25" spans="2:8" ht="18.75">
       <c r="B25" s="1" t="s">
         <v>52</v>
       </c>
@@ -2130,7 +2127,7 @@
       </c>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" spans="2:8" ht="18">
+    <row r="26" spans="2:8" ht="18.75">
       <c r="B26" s="1" t="s">
         <v>52</v>
       </c>
@@ -2151,7 +2148,7 @@
       </c>
       <c r="H26" s="15"/>
     </row>
-    <row r="27" spans="2:8" ht="18">
+    <row r="27" spans="2:8" ht="18.75">
       <c r="B27" s="1" t="s">
         <v>52</v>
       </c>
@@ -2174,7 +2171,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="18">
+    <row r="28" spans="2:8" ht="18.75">
       <c r="B28" s="1" t="s">
         <v>52</v>
       </c>
@@ -2197,7 +2194,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="18">
+    <row r="29" spans="2:8" ht="18.75">
       <c r="B29" s="1" t="s">
         <v>52</v>
       </c>
@@ -2220,7 +2217,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="18">
+    <row r="30" spans="2:8" ht="18.75">
       <c r="B30" s="1" t="s">
         <v>52</v>
       </c>
@@ -2243,7 +2240,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="2:8" ht="18">
+    <row r="31" spans="2:8" ht="18.75">
       <c r="B31" s="1" t="s">
         <v>52</v>
       </c>
@@ -2264,7 +2261,7 @@
       </c>
       <c r="H31" s="15"/>
     </row>
-    <row r="32" spans="2:8" ht="18">
+    <row r="32" spans="2:8" ht="18.75">
       <c r="B32" s="1" t="s">
         <v>52</v>
       </c>
@@ -2287,7 +2284,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="18">
+    <row r="33" spans="2:8" ht="18.75">
       <c r="B33" s="1" t="s">
         <v>52</v>
       </c>
@@ -2310,7 +2307,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="18">
+    <row r="34" spans="2:8" ht="18.75">
       <c r="B34" s="1" t="s">
         <v>52</v>
       </c>
@@ -2331,7 +2328,7 @@
       </c>
       <c r="H34" s="15"/>
     </row>
-    <row r="35" spans="2:8" ht="18">
+    <row r="35" spans="2:8" ht="18.75">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="7"/>
@@ -2340,7 +2337,7 @@
       <c r="G35" s="11"/>
       <c r="H35" s="15"/>
     </row>
-    <row r="36" spans="2:8" ht="18">
+    <row r="36" spans="2:8" ht="18.75">
       <c r="B36" s="3" t="s">
         <v>53</v>
       </c>
@@ -2361,7 +2358,7 @@
       </c>
       <c r="H36" s="14"/>
     </row>
-    <row r="37" spans="2:8" ht="18">
+    <row r="37" spans="2:8" ht="18.75">
       <c r="B37" s="1" t="s">
         <v>53</v>
       </c>
@@ -2405,7 +2402,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="2:8" ht="18">
+    <row r="39" spans="2:8" ht="18.75">
       <c r="B39" s="1" t="s">
         <v>53</v>
       </c>
@@ -2426,7 +2423,7 @@
       </c>
       <c r="H39" s="15"/>
     </row>
-    <row r="40" spans="2:8" ht="18">
+    <row r="40" spans="2:8" ht="18.75">
       <c r="B40" s="1" t="s">
         <v>53</v>
       </c>
@@ -2447,7 +2444,7 @@
       </c>
       <c r="H40" s="15"/>
     </row>
-    <row r="41" spans="2:8" ht="18">
+    <row r="41" spans="2:8" ht="18.75">
       <c r="B41" s="1" t="s">
         <v>53</v>
       </c>
@@ -2470,7 +2467,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="18">
+    <row r="42" spans="2:8" ht="18.75">
       <c r="B42" s="1" t="s">
         <v>53</v>
       </c>
@@ -2493,7 +2490,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="2:8" ht="18">
+    <row r="43" spans="2:8" ht="18.75">
       <c r="B43" s="1" t="s">
         <v>53</v>
       </c>
@@ -2516,7 +2513,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="2:8" ht="18">
+    <row r="44" spans="2:8" ht="18.75">
       <c r="B44" s="1" t="s">
         <v>53</v>
       </c>
@@ -2539,7 +2536,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="2:8" ht="18">
+    <row r="45" spans="2:8" ht="18.75">
       <c r="B45" s="1" t="s">
         <v>53</v>
       </c>
@@ -2560,7 +2557,7 @@
       </c>
       <c r="H45" s="15"/>
     </row>
-    <row r="46" spans="2:8" ht="18">
+    <row r="46" spans="2:8" ht="18.75">
       <c r="B46" s="1" t="s">
         <v>53</v>
       </c>
@@ -2583,7 +2580,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="2:8" ht="18">
+    <row r="47" spans="2:8" ht="18.75">
       <c r="B47" s="1" t="s">
         <v>53</v>
       </c>
@@ -2606,7 +2603,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="2:8" ht="18">
+    <row r="48" spans="2:8" ht="18.75">
       <c r="B48" s="1" t="s">
         <v>53</v>
       </c>
@@ -2627,7 +2624,7 @@
       </c>
       <c r="H48" s="15"/>
     </row>
-    <row r="49" spans="2:8" ht="18">
+    <row r="49" spans="2:8" ht="18.75">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="7"/>
@@ -2636,7 +2633,7 @@
       <c r="G49" s="12"/>
       <c r="H49" s="16"/>
     </row>
-    <row r="50" spans="2:8" ht="18">
+    <row r="50" spans="2:8" ht="18.75">
       <c r="B50" s="1" t="s">
         <v>54</v>
       </c>
@@ -2657,7 +2654,7 @@
       </c>
       <c r="H50" s="15"/>
     </row>
-    <row r="51" spans="2:8" ht="18">
+    <row r="51" spans="2:8" ht="18.75">
       <c r="B51" s="1" t="s">
         <v>54</v>
       </c>
@@ -2678,7 +2675,7 @@
       </c>
       <c r="H51" s="15"/>
     </row>
-    <row r="52" spans="2:8" ht="18">
+    <row r="52" spans="2:8" ht="18.75">
       <c r="B52" s="1" t="s">
         <v>54</v>
       </c>
@@ -2699,7 +2696,7 @@
       </c>
       <c r="H52" s="15"/>
     </row>
-    <row r="53" spans="2:8" ht="18">
+    <row r="53" spans="2:8" ht="18.75">
       <c r="B53" s="1" t="s">
         <v>54</v>
       </c>
@@ -2720,7 +2717,7 @@
       </c>
       <c r="H53" s="15"/>
     </row>
-    <row r="54" spans="2:8" ht="18">
+    <row r="54" spans="2:8" ht="18.75">
       <c r="B54" s="1" t="s">
         <v>54</v>
       </c>
@@ -2743,7 +2740,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="2:8" ht="18">
+    <row r="55" spans="2:8" ht="18.75">
       <c r="B55" s="1" t="s">
         <v>54</v>
       </c>
@@ -2766,7 +2763,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="2:8" ht="18">
+    <row r="56" spans="2:8" ht="18.75">
       <c r="B56" s="1" t="s">
         <v>54</v>
       </c>
@@ -2789,7 +2786,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="2:8" ht="18">
+    <row r="57" spans="2:8" ht="18.75">
       <c r="B57" s="1" t="s">
         <v>54</v>
       </c>
@@ -2812,7 +2809,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="2:8" ht="18">
+    <row r="58" spans="2:8" ht="18.75">
       <c r="B58" s="1" t="s">
         <v>54</v>
       </c>
@@ -2833,7 +2830,7 @@
       </c>
       <c r="H58" s="15"/>
     </row>
-    <row r="59" spans="2:8" ht="18">
+    <row r="59" spans="2:8" ht="18.75">
       <c r="B59" s="1" t="s">
         <v>54</v>
       </c>
@@ -2856,7 +2853,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="18">
+    <row r="60" spans="2:8" ht="18.75">
       <c r="B60" s="1" t="s">
         <v>54</v>
       </c>
@@ -2879,7 +2876,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="2:8" ht="18">
+    <row r="61" spans="2:8" ht="18.75">
       <c r="B61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2900,7 +2897,7 @@
       </c>
       <c r="H61" s="15"/>
     </row>
-    <row r="62" spans="2:8" ht="18">
+    <row r="62" spans="2:8" ht="18.75">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="7"/>
@@ -2909,7 +2906,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="15"/>
     </row>
-    <row r="63" spans="2:8" ht="18">
+    <row r="63" spans="2:8" ht="18.75">
       <c r="B63" s="3" t="s">
         <v>123</v>
       </c>
@@ -2930,7 +2927,7 @@
       </c>
       <c r="H63" s="14"/>
     </row>
-    <row r="64" spans="2:8" ht="18">
+    <row r="64" spans="2:8" ht="18.75">
       <c r="B64" s="1" t="s">
         <v>122</v>
       </c>
@@ -2951,7 +2948,7 @@
       </c>
       <c r="H64" s="15"/>
     </row>
-    <row r="65" spans="2:8" ht="18">
+    <row r="65" spans="2:8" ht="18.75">
       <c r="B65" s="1" t="s">
         <v>122</v>
       </c>
@@ -2972,7 +2969,7 @@
       </c>
       <c r="H65" s="15"/>
     </row>
-    <row r="66" spans="2:8" ht="18">
+    <row r="66" spans="2:8" ht="18.75">
       <c r="B66" s="1" t="s">
         <v>122</v>
       </c>
@@ -2993,7 +2990,7 @@
       </c>
       <c r="H66" s="15"/>
     </row>
-    <row r="67" spans="2:8" ht="18">
+    <row r="67" spans="2:8" ht="18.75">
       <c r="B67" s="1" t="s">
         <v>122</v>
       </c>
@@ -3016,7 +3013,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="2:8" ht="18">
+    <row r="68" spans="2:8" ht="18.75">
       <c r="B68" s="1" t="s">
         <v>122</v>
       </c>
@@ -3039,7 +3036,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="2:8" ht="18">
+    <row r="69" spans="2:8" ht="18.75">
       <c r="B69" s="1" t="s">
         <v>122</v>
       </c>
@@ -3062,7 +3059,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="2:8" ht="18">
+    <row r="70" spans="2:8" ht="18.75">
       <c r="B70" s="1" t="s">
         <v>122</v>
       </c>
@@ -3085,7 +3082,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="71" spans="2:8" ht="18">
+    <row r="71" spans="2:8" ht="18.75">
       <c r="B71" s="1" t="s">
         <v>122</v>
       </c>
@@ -3109,7 +3106,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="2:8" ht="18">
+    <row r="72" spans="2:8" ht="18.75">
       <c r="B72" s="1" t="s">
         <v>122</v>
       </c>
@@ -3132,7 +3129,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="2:8" ht="18">
+    <row r="73" spans="2:8" ht="18.75">
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="7"/>
@@ -3141,7 +3138,7 @@
       <c r="G73" s="12"/>
       <c r="H73" s="16"/>
     </row>
-    <row r="74" spans="2:8" ht="18">
+    <row r="74" spans="2:8" ht="18.75">
       <c r="B74" s="1" t="s">
         <v>79</v>
       </c>
@@ -3164,7 +3161,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="75" spans="2:8" ht="18">
+    <row r="75" spans="2:8" ht="18.75">
       <c r="B75" s="1" t="s">
         <v>79</v>
       </c>
@@ -3187,7 +3184,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="76" spans="2:8" ht="18">
+    <row r="76" spans="2:8" ht="18.75">
       <c r="B76" s="1" t="s">
         <v>79</v>
       </c>
@@ -3210,7 +3207,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="77" spans="2:8" ht="18">
+    <row r="77" spans="2:8" ht="18.75">
       <c r="B77" s="1" t="s">
         <v>79</v>
       </c>
@@ -3233,7 +3230,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="18">
+    <row r="78" spans="2:8" ht="18.75">
       <c r="B78" s="1" t="s">
         <v>79</v>
       </c>
@@ -3256,7 +3253,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="79" spans="2:8" ht="18">
+    <row r="79" spans="2:8" ht="18.75">
       <c r="B79" s="1" t="s">
         <v>79</v>
       </c>
@@ -3279,7 +3276,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="80" spans="2:8" ht="18">
+    <row r="80" spans="2:8" ht="18.75">
       <c r="B80" s="1" t="s">
         <v>79</v>
       </c>
@@ -3300,7 +3297,7 @@
       </c>
       <c r="H80" s="15"/>
     </row>
-    <row r="81" spans="2:8" ht="18">
+    <row r="81" spans="2:8" ht="18.75">
       <c r="B81" s="1" t="s">
         <v>79</v>
       </c>
@@ -3323,7 +3320,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="82" spans="2:8" ht="18">
+    <row r="82" spans="2:8" ht="18.75">
       <c r="B82" s="1" t="s">
         <v>79</v>
       </c>
@@ -3346,7 +3343,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="18">
+    <row r="83" spans="2:8" ht="18.75">
       <c r="B83" s="1" t="s">
         <v>79</v>
       </c>
@@ -3369,7 +3366,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="84" spans="2:8" ht="18">
+    <row r="84" spans="2:8" ht="18.75">
       <c r="B84" s="1" t="s">
         <v>79</v>
       </c>
@@ -3392,7 +3389,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="85" spans="2:8" ht="18">
+    <row r="85" spans="2:8" ht="18.75">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="7"/>
@@ -3401,7 +3398,7 @@
       <c r="G85" s="11"/>
       <c r="H85" s="15"/>
     </row>
-    <row r="86" spans="2:8" ht="18">
+    <row r="86" spans="2:8" ht="18.75">
       <c r="B86" s="3" t="s">
         <v>97</v>
       </c>
@@ -3422,14 +3419,14 @@
       </c>
       <c r="H86" s="14"/>
     </row>
-    <row r="87" spans="2:8" ht="18">
+    <row r="87" spans="2:8" ht="18.75">
       <c r="B87" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D87" s="49">
+      <c r="D87" s="7">
         <v>2</v>
       </c>
       <c r="E87" s="5" t="s">
@@ -3443,14 +3440,14 @@
       </c>
       <c r="H87" s="15"/>
     </row>
-    <row r="88" spans="2:8" ht="18">
+    <row r="88" spans="2:8" ht="18.75">
       <c r="B88" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D88" s="49">
+      <c r="D88" s="7">
         <v>2</v>
       </c>
       <c r="E88" s="5" t="s">
@@ -3464,7 +3461,7 @@
       </c>
       <c r="H88" s="15"/>
     </row>
-    <row r="89" spans="2:8" ht="18">
+    <row r="89" spans="2:8" ht="18.75">
       <c r="B89" s="1" t="s">
         <v>97</v>
       </c>
@@ -3485,7 +3482,7 @@
       </c>
       <c r="H89" s="15"/>
     </row>
-    <row r="90" spans="2:8" ht="18">
+    <row r="90" spans="2:8" ht="18.75">
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="7"/>
@@ -3494,7 +3491,7 @@
       <c r="G90" s="12"/>
       <c r="H90" s="16"/>
     </row>
-    <row r="91" spans="2:8" ht="18">
+    <row r="91" spans="2:8" ht="18.75">
       <c r="B91" s="1" t="s">
         <v>105</v>
       </c>
@@ -3515,7 +3512,7 @@
       </c>
       <c r="H91" s="15"/>
     </row>
-    <row r="92" spans="2:8" ht="18">
+    <row r="92" spans="2:8" ht="18.75">
       <c r="B92" s="1" t="s">
         <v>105</v>
       </c>
@@ -3536,7 +3533,7 @@
       </c>
       <c r="H92" s="15"/>
     </row>
-    <row r="93" spans="2:8" ht="18">
+    <row r="93" spans="2:8" ht="18.75">
       <c r="B93" s="1" t="s">
         <v>105</v>
       </c>
@@ -3557,7 +3554,7 @@
       </c>
       <c r="H93" s="15"/>
     </row>
-    <row r="94" spans="2:8" ht="18">
+    <row r="94" spans="2:8" ht="18.75">
       <c r="B94" s="1" t="s">
         <v>105</v>
       </c>
@@ -3578,7 +3575,7 @@
       </c>
       <c r="H94" s="15"/>
     </row>
-    <row r="95" spans="2:8" ht="18">
+    <row r="95" spans="2:8" ht="18.75">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="7"/>
@@ -3587,7 +3584,7 @@
       <c r="G95" s="11"/>
       <c r="H95" s="15"/>
     </row>
-    <row r="96" spans="2:8" ht="18">
+    <row r="96" spans="2:8" ht="18.75">
       <c r="B96" s="3" t="s">
         <v>110</v>
       </c>
@@ -3610,7 +3607,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="97" spans="2:8" ht="18">
+    <row r="97" spans="2:8" ht="18.75">
       <c r="B97" s="1" t="s">
         <v>110</v>
       </c>
@@ -3631,7 +3628,7 @@
       </c>
       <c r="H97" s="15"/>
     </row>
-    <row r="98" spans="2:8" ht="18">
+    <row r="98" spans="2:8" ht="18.75">
       <c r="B98" s="1" t="s">
         <v>110</v>
       </c>
@@ -3654,7 +3651,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="99" spans="2:8" ht="18">
+    <row r="99" spans="2:8" ht="18.75">
       <c r="B99" s="1" t="s">
         <v>110</v>
       </c>
@@ -3675,7 +3672,7 @@
       </c>
       <c r="H99" s="15"/>
     </row>
-    <row r="100" spans="2:8" ht="18">
+    <row r="100" spans="2:8" ht="18.75">
       <c r="B100" s="1" t="s">
         <v>110</v>
       </c>
@@ -3696,7 +3693,7 @@
       </c>
       <c r="H100" s="15"/>
     </row>
-    <row r="101" spans="2:8" ht="18">
+    <row r="101" spans="2:8" ht="18.75">
       <c r="B101" s="1" t="s">
         <v>110</v>
       </c>
@@ -3717,7 +3714,7 @@
       </c>
       <c r="H101" s="15"/>
     </row>
-    <row r="102" spans="2:8" ht="18">
+    <row r="102" spans="2:8" ht="18.75">
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="7"/>
@@ -3726,7 +3723,7 @@
       <c r="G102" s="12"/>
       <c r="H102" s="16"/>
     </row>
-    <row r="103" spans="2:8" ht="18">
+    <row r="103" spans="2:8" ht="18.75">
       <c r="B103" s="1" t="s">
         <v>17</v>
       </c>
@@ -3747,7 +3744,7 @@
       </c>
       <c r="H103" s="15"/>
     </row>
-    <row r="104" spans="2:8" ht="18">
+    <row r="104" spans="2:8" ht="18.75">
       <c r="B104" s="1" t="s">
         <v>17</v>
       </c>
@@ -3768,7 +3765,7 @@
       </c>
       <c r="H104" s="15"/>
     </row>
-    <row r="105" spans="2:8" ht="18">
+    <row r="105" spans="2:8" ht="18.75">
       <c r="B105" s="1" t="s">
         <v>17</v>
       </c>
@@ -3789,7 +3786,7 @@
       </c>
       <c r="H105" s="15"/>
     </row>
-    <row r="106" spans="2:8" ht="18">
+    <row r="106" spans="2:8" ht="18.75">
       <c r="B106" s="1" t="s">
         <v>17</v>
       </c>
@@ -3810,7 +3807,7 @@
       </c>
       <c r="H106" s="15"/>
     </row>
-    <row r="107" spans="2:8" ht="18">
+    <row r="107" spans="2:8" ht="18.75">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="7"/>
@@ -3819,7 +3816,7 @@
       <c r="G107" s="11"/>
       <c r="H107" s="15"/>
     </row>
-    <row r="108" spans="2:8" ht="18">
+    <row r="108" spans="2:8" ht="18.75">
       <c r="B108" s="3" t="s">
         <v>22</v>
       </c>
@@ -3840,7 +3837,7 @@
       </c>
       <c r="H108" s="14"/>
     </row>
-    <row r="109" spans="2:8" ht="18">
+    <row r="109" spans="2:8" ht="18.75">
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="9"/>
@@ -3849,99 +3846,99 @@
       <c r="G109" s="12"/>
       <c r="H109" s="16"/>
     </row>
-    <row r="110" spans="2:8" ht="18">
+    <row r="110" spans="2:8" ht="18.75">
       <c r="C110"/>
       <c r="D110" s="7"/>
       <c r="H110" s="13"/>
     </row>
-    <row r="111" spans="2:8" ht="18">
+    <row r="111" spans="2:8" ht="18.75">
       <c r="C111"/>
       <c r="D111" s="7"/>
       <c r="H111" s="13"/>
     </row>
-    <row r="112" spans="2:8" ht="18">
+    <row r="112" spans="2:8" ht="18.75">
       <c r="C112"/>
       <c r="D112" s="7"/>
       <c r="H112" s="13"/>
     </row>
-    <row r="113" spans="3:8" ht="18">
+    <row r="113" spans="3:8" ht="18.75">
       <c r="C113"/>
       <c r="D113" s="7"/>
       <c r="H113" s="13"/>
     </row>
-    <row r="114" spans="3:8" ht="18">
+    <row r="114" spans="3:8" ht="18.75">
       <c r="C114"/>
       <c r="D114" s="7"/>
       <c r="H114" s="13"/>
     </row>
-    <row r="115" spans="3:8" ht="18">
+    <row r="115" spans="3:8" ht="18.75">
       <c r="C115"/>
       <c r="D115" s="7"/>
       <c r="H115" s="13"/>
     </row>
-    <row r="116" spans="3:8" ht="18">
+    <row r="116" spans="3:8" ht="18.75">
       <c r="C116"/>
       <c r="D116" s="7"/>
       <c r="H116" s="13"/>
     </row>
-    <row r="117" spans="3:8" ht="18">
+    <row r="117" spans="3:8" ht="18.75">
       <c r="C117"/>
       <c r="D117" s="7"/>
       <c r="H117" s="13"/>
     </row>
-    <row r="118" spans="3:8" ht="18">
+    <row r="118" spans="3:8" ht="18.75">
       <c r="C118"/>
       <c r="D118" s="7"/>
       <c r="H118" s="13"/>
     </row>
-    <row r="119" spans="3:8" ht="18">
+    <row r="119" spans="3:8" ht="18.75">
       <c r="C119"/>
       <c r="D119" s="7"/>
       <c r="H119" s="13"/>
     </row>
-    <row r="120" spans="3:8" ht="18">
+    <row r="120" spans="3:8" ht="18.75">
       <c r="C120"/>
       <c r="D120" s="7"/>
       <c r="H120" s="13"/>
     </row>
-    <row r="121" spans="3:8" ht="18">
+    <row r="121" spans="3:8" ht="18.75">
       <c r="C121"/>
       <c r="D121" s="7"/>
       <c r="H121" s="13"/>
     </row>
-    <row r="122" spans="3:8" ht="18"/>
-    <row r="123" spans="3:8" ht="18"/>
-    <row r="124" spans="3:8" ht="18"/>
-    <row r="125" spans="3:8" ht="18"/>
-    <row r="126" spans="3:8" ht="18">
+    <row r="122" spans="3:8" ht="18.75"/>
+    <row r="123" spans="3:8" ht="18.75"/>
+    <row r="124" spans="3:8" ht="18.75"/>
+    <row r="125" spans="3:8" ht="18.75"/>
+    <row r="126" spans="3:8" ht="18.75">
       <c r="C126"/>
       <c r="D126" s="7"/>
       <c r="H126" s="13"/>
     </row>
-    <row r="127" spans="3:8" ht="18">
+    <row r="127" spans="3:8" ht="18.75">
       <c r="C127"/>
       <c r="D127" s="7"/>
       <c r="H127" s="13"/>
     </row>
-    <row r="128" spans="3:8" ht="18">
+    <row r="128" spans="3:8" ht="18.75">
       <c r="H128" s="13"/>
     </row>
-    <row r="129" spans="3:8" ht="18">
+    <row r="129" spans="3:8" ht="18.75">
       <c r="C129"/>
       <c r="D129" s="7"/>
       <c r="H129" s="13"/>
     </row>
-    <row r="130" spans="3:8" ht="18">
+    <row r="130" spans="3:8" ht="18.75">
       <c r="C130"/>
       <c r="D130" s="7"/>
       <c r="H130" s="13"/>
     </row>
-    <row r="131" spans="3:8" ht="18">
+    <row r="131" spans="3:8" ht="18.75">
       <c r="C131"/>
       <c r="D131" s="7"/>
       <c r="H131" s="13"/>
     </row>
-    <row r="132" spans="3:8" ht="18">
+    <row r="132" spans="3:8" ht="18.75">
       <c r="C132"/>
       <c r="D132" s="7"/>
       <c r="H132" s="13"/>
@@ -3986,17 +3983,17 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="21.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="48.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.69921875" customWidth="1"/>
-    <col min="9" max="9" width="16.19921875" customWidth="1"/>
+    <col min="8" max="8" width="17.75" customWidth="1"/>
+    <col min="9" max="9" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="19.8">
+    <row r="2" spans="2:9" ht="19.5">
       <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
@@ -4011,18 +4008,18 @@
       </c>
       <c r="G2" s="28">
         <f>SUM(C:C)</f>
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H2" s="28"/>
       <c r="I2" s="28"/>
     </row>
-    <row r="3" spans="2:9" ht="19.8">
+    <row r="3" spans="2:9" ht="19.5">
       <c r="B3" s="18" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="19">
         <f>SUMIF(コスト表!B:B, B3, コスト表!D:D)</f>
-        <v>25.5</v>
+        <v>27.5</v>
       </c>
       <c r="D3" s="45">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "プレイヤー", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "プレイヤー") * 100,1)</f>
@@ -4040,7 +4037,7 @@
       </c>
       <c r="I3" s="28"/>
     </row>
-    <row r="4" spans="2:9" ht="19.8">
+    <row r="4" spans="2:9" ht="19.5">
       <c r="B4" s="1" t="s">
         <v>52</v>
       </c>
@@ -4065,7 +4062,7 @@
       </c>
       <c r="I4" s="28"/>
     </row>
-    <row r="5" spans="2:9" ht="19.8">
+    <row r="5" spans="2:9" ht="19.5">
       <c r="B5" s="18" t="s">
         <v>53</v>
       </c>
@@ -4087,7 +4084,7 @@
       <c r="H5" s="28"/>
       <c r="I5" s="28"/>
     </row>
-    <row r="6" spans="2:9" ht="19.8">
+    <row r="6" spans="2:9" ht="19.5">
       <c r="B6" s="18" t="s">
         <v>54</v>
       </c>
@@ -4104,7 +4101,7 @@
       </c>
       <c r="G6" s="29">
         <f ca="1">TODAY()</f>
-        <v>45808</v>
+        <v>45809</v>
       </c>
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
@@ -4147,7 +4144,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="22.2">
+    <row r="9" spans="2:9" ht="24">
       <c r="B9" s="18" t="s">
         <v>98</v>
       </c>
@@ -4166,16 +4163,16 @@
         <f>DATE(2025,7,23)</f>
         <v>45861</v>
       </c>
-      <c r="H9" s="51">
+      <c r="H9" s="50">
         <f ca="1">NETWORKDAYS(TODAY(),G9)</f>
         <v>38</v>
       </c>
       <c r="I9" s="7">
         <f ca="1">($G$2 - $G$3) / H9</f>
-        <v>5.5131578947368425</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="19.8">
+        <v>5.5657894736842106</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="19.5">
       <c r="B10" s="18" t="s">
         <v>105</v>
       </c>
@@ -4194,16 +4191,16 @@
         <f>DATE(2025,8,11)</f>
         <v>45880</v>
       </c>
-      <c r="H10" s="50">
+      <c r="H10" s="49">
         <f ca="1">NETWORKDAYS(TODAY(),G10)</f>
         <v>51</v>
       </c>
       <c r="I10" s="30">
         <f ca="1">($G$2 - $G$3) / H10</f>
-        <v>4.1078431372549016</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="19.8">
+        <v>4.1470588235294121</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="19.5">
       <c r="B11" s="18" t="s">
         <v>110</v>
       </c>
@@ -4222,16 +4219,16 @@
         <f>DATE(2025,8,17)</f>
         <v>45886</v>
       </c>
-      <c r="H11" s="50">
+      <c r="H11" s="49">
         <f ca="1">NETWORKDAYS(TODAY(),G11)</f>
         <v>55</v>
       </c>
       <c r="I11" s="30">
         <f ca="1">($G$2 - $G$3) / H11</f>
-        <v>3.8090909090909091</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="19.8">
+        <v>3.8454545454545452</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="19.5">
       <c r="B12" s="18" t="s">
         <v>75</v>
       </c>
@@ -4250,13 +4247,13 @@
         <f>DATE(2025,9,1)</f>
         <v>45901</v>
       </c>
-      <c r="H12" s="50">
+      <c r="H12" s="49">
         <f ca="1">NETWORKDAYS(TODAY(),G12)</f>
         <v>66</v>
       </c>
       <c r="I12" s="30">
         <f ca="1">($G$2 - $G$3) / H12</f>
-        <v>3.1742424242424243</v>
+        <v>3.2045454545454546</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -4297,7 +4294,7 @@
       </c>
       <c r="G15" s="48">
         <f>SUMIF(コスト表!F:F, "プロト", コスト表!D:D)</f>
-        <v>155.5</v>
+        <v>157.5</v>
       </c>
       <c r="H15" s="48">
         <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "プロト", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "プロト") * 100,1)</f>
@@ -4372,13 +4369,13 @@
   <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="11.3984375" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" customWidth="1"/>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
@@ -4443,21 +4440,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006836AD0B55474E4CAD520F1DEB8FB579" ma:contentTypeVersion="3" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="078ba6c1f7b5b638bb57eb024ae572f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="187a6309-4c0c-49e3-bd2d-e8130eb88270" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5f182963113af090d1b42042cf04cb6" ns2:_="">
     <xsd:import namespace="187a6309-4c0c-49e3-bd2d-e8130eb88270"/>
@@ -4595,24 +4577,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A1D85CE-B20E-4841-A55B-779E85453EF9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4628,4 +4608,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ゾンビシューターゲームコスト表.xlsx
+++ b/ゾンビシューターゲームコスト表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sho24\OneDrive\ドキュメント\MyGame3D2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sho24\OneDrive\デスクトップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EA32F4-0400-48B0-AAE8-6B0833BD00EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDB1AEF-3C0C-4C36-8028-7AB2A3CCDFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1965" yWindow="1725" windowWidth="21510" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コスト表" sheetId="1" r:id="rId1"/>
@@ -268,19 +268,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>敵3(酸を飛ばすゾンビ)</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>サン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>待機アニメーション</t>
     <rPh sb="0" eb="2">
       <t>タイキ</t>
@@ -762,6 +749,19 @@
     </rPh>
     <rPh sb="26" eb="28">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵3(遠距離型ゾンビ)</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>エンキョリ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ガタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1608,8 +1608,8 @@
   <dimension ref="B1:I132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -1626,7 +1626,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" customHeight="1">
       <c r="B1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="2:8" ht="18.75">
@@ -1720,7 +1720,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D6" s="7">
         <v>3</v>
@@ -1785,7 +1785,7 @@
         <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D9" s="7">
         <v>3</v>
@@ -1824,10 +1824,10 @@
     </row>
     <row r="11" spans="2:8" ht="18.75">
       <c r="B11" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="D11" s="7">
         <v>2</v>
@@ -1845,10 +1845,10 @@
     </row>
     <row r="12" spans="2:8" ht="18.75">
       <c r="B12" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D12" s="7">
         <v>1</v>
@@ -1863,7 +1863,7 @@
         <v>14</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="18.75">
@@ -1871,7 +1871,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D13" s="7">
         <v>3</v>
@@ -1997,7 +1997,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="7">
         <v>0.5</v>
@@ -2015,10 +2015,10 @@
     </row>
     <row r="20" spans="2:8" ht="18.75">
       <c r="B20" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D20" s="7">
         <v>0.5</v>
@@ -2039,7 +2039,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D21" s="7">
         <v>2</v>
@@ -2069,7 +2069,7 @@
         <v>52</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" s="4">
         <v>1</v>
@@ -2090,7 +2090,7 @@
         <v>52</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24" s="7">
         <v>1</v>
@@ -2111,7 +2111,7 @@
         <v>52</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D25" s="7">
         <v>1.5</v>
@@ -2132,7 +2132,7 @@
         <v>52</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D26" s="7">
         <v>1</v>
@@ -2153,7 +2153,7 @@
         <v>52</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D27" s="7">
         <v>5</v>
@@ -2168,7 +2168,7 @@
         <v>10</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="18.75">
@@ -2176,7 +2176,7 @@
         <v>52</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D28" s="7">
         <v>5</v>
@@ -2191,7 +2191,7 @@
         <v>10</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="18.75">
@@ -2199,7 +2199,7 @@
         <v>52</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D29" s="7">
         <v>4</v>
@@ -2214,7 +2214,7 @@
         <v>10</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="18.75">
@@ -2222,7 +2222,7 @@
         <v>52</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D30" s="7">
         <v>4</v>
@@ -2237,7 +2237,7 @@
         <v>10</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="18.75">
@@ -2245,7 +2245,7 @@
         <v>52</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D31" s="7">
         <v>1</v>
@@ -2266,7 +2266,7 @@
         <v>52</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="7">
         <v>2</v>
@@ -2281,7 +2281,7 @@
         <v>10</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="18.75">
@@ -2289,7 +2289,7 @@
         <v>52</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D33" s="7">
         <v>5</v>
@@ -2304,7 +2304,7 @@
         <v>10</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="18.75">
@@ -2312,7 +2312,7 @@
         <v>52</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="7">
         <v>2</v>
@@ -2342,7 +2342,7 @@
         <v>53</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D36" s="4">
         <v>1</v>
@@ -2363,7 +2363,7 @@
         <v>53</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D37" s="7">
         <v>1</v>
@@ -2399,7 +2399,7 @@
         <v>10</v>
       </c>
       <c r="H38" s="31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="18.75">
@@ -2407,7 +2407,7 @@
         <v>53</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D39" s="7">
         <v>1.5</v>
@@ -2428,7 +2428,7 @@
         <v>53</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D40" s="7">
         <v>1</v>
@@ -2449,7 +2449,7 @@
         <v>53</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D41" s="7">
         <v>5</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="18.75">
@@ -2472,7 +2472,7 @@
         <v>53</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D42" s="7">
         <v>5</v>
@@ -2487,7 +2487,7 @@
         <v>10</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="18.75">
@@ -2495,7 +2495,7 @@
         <v>53</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D43" s="7">
         <v>4</v>
@@ -2510,7 +2510,7 @@
         <v>10</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="2:8" ht="18.75">
@@ -2518,7 +2518,7 @@
         <v>53</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D44" s="7">
         <v>4</v>
@@ -2533,7 +2533,7 @@
         <v>10</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="2:8" ht="18.75">
@@ -2541,7 +2541,7 @@
         <v>53</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D45" s="7">
         <v>1</v>
@@ -2562,7 +2562,7 @@
         <v>53</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D46" s="7">
         <v>2</v>
@@ -2577,7 +2577,7 @@
         <v>10</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="18.75">
@@ -2585,7 +2585,7 @@
         <v>53</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D47" s="7">
         <v>5</v>
@@ -2600,7 +2600,7 @@
         <v>10</v>
       </c>
       <c r="H47" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="2:8" ht="18.75">
@@ -2608,7 +2608,7 @@
         <v>53</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D48" s="7">
         <v>2</v>
@@ -2635,10 +2635,10 @@
     </row>
     <row r="50" spans="2:8" ht="18.75">
       <c r="B50" s="1" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D50" s="4">
         <v>1</v>
@@ -2656,10 +2656,10 @@
     </row>
     <row r="51" spans="2:8" ht="18.75">
       <c r="B51" s="1" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D51" s="7">
         <v>1</v>
@@ -2677,10 +2677,10 @@
     </row>
     <row r="52" spans="2:8" ht="18.75">
       <c r="B52" s="1" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D52" s="7">
         <v>2</v>
@@ -2698,10 +2698,10 @@
     </row>
     <row r="53" spans="2:8" ht="18.75">
       <c r="B53" s="1" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D53" s="7">
         <v>1</v>
@@ -2719,10 +2719,10 @@
     </row>
     <row r="54" spans="2:8" ht="18.75">
       <c r="B54" s="1" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D54" s="7">
         <v>5</v>
@@ -2737,15 +2737,15 @@
         <v>10</v>
       </c>
       <c r="H54" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="18.75">
       <c r="B55" s="1" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D55" s="7">
         <v>5</v>
@@ -2760,15 +2760,15 @@
         <v>10</v>
       </c>
       <c r="H55" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="18.75">
       <c r="B56" s="1" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D56" s="7">
         <v>4</v>
@@ -2783,15 +2783,15 @@
         <v>10</v>
       </c>
       <c r="H56" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="18.75">
       <c r="B57" s="1" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D57" s="7">
         <v>4</v>
@@ -2806,15 +2806,15 @@
         <v>10</v>
       </c>
       <c r="H57" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="2:8" ht="18.75">
       <c r="B58" s="1" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D58" s="7">
         <v>1</v>
@@ -2832,10 +2832,10 @@
     </row>
     <row r="59" spans="2:8" ht="18.75">
       <c r="B59" s="1" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D59" s="7">
         <v>2</v>
@@ -2850,15 +2850,15 @@
         <v>10</v>
       </c>
       <c r="H59" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="2:8" ht="18.75">
       <c r="B60" s="1" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D60" s="7">
         <v>5</v>
@@ -2873,15 +2873,15 @@
         <v>10</v>
       </c>
       <c r="H60" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="2:8" ht="18.75">
       <c r="B61" s="1" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D61" s="7">
         <v>2</v>
@@ -2908,10 +2908,10 @@
     </row>
     <row r="63" spans="2:8" ht="18.75">
       <c r="B63" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D63" s="4">
         <v>1</v>
@@ -2929,10 +2929,10 @@
     </row>
     <row r="64" spans="2:8" ht="18.75">
       <c r="B64" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C64" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D64" s="7">
         <v>1</v>
@@ -2950,10 +2950,10 @@
     </row>
     <row r="65" spans="2:8" ht="18.75">
       <c r="B65" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D65" s="7">
         <v>5</v>
@@ -2971,10 +2971,10 @@
     </row>
     <row r="66" spans="2:8" ht="18.75">
       <c r="B66" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D66" s="7">
         <v>1</v>
@@ -2992,10 +2992,10 @@
     </row>
     <row r="67" spans="2:8" ht="18.75">
       <c r="B67" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D67" s="7">
         <v>4</v>
@@ -3010,15 +3010,15 @@
         <v>10</v>
       </c>
       <c r="H67" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="2:8" ht="18.75">
       <c r="B68" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D68" s="7">
         <v>4</v>
@@ -3033,15 +3033,15 @@
         <v>10</v>
       </c>
       <c r="H68" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="2:8" ht="18.75">
       <c r="B69" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D69" s="7">
         <v>2</v>
@@ -3056,15 +3056,15 @@
         <v>10</v>
       </c>
       <c r="H69" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="2:8" ht="18.75">
       <c r="B70" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D70" s="7">
         <v>1</v>
@@ -3079,15 +3079,15 @@
         <v>10</v>
       </c>
       <c r="H70" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" spans="2:8" ht="18.75">
       <c r="B71" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D71" s="7">
         <f>0.5*8</f>
@@ -3103,15 +3103,15 @@
         <v>10</v>
       </c>
       <c r="H71" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="72" spans="2:8" ht="18.75">
       <c r="B72" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D72" s="7">
         <v>5</v>
@@ -3126,7 +3126,7 @@
         <v>10</v>
       </c>
       <c r="H72" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="2:8" ht="18.75">
@@ -3140,10 +3140,10 @@
     </row>
     <row r="74" spans="2:8" ht="18.75">
       <c r="B74" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D74" s="4">
         <v>2</v>
@@ -3158,15 +3158,15 @@
         <v>10</v>
       </c>
       <c r="H74" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" spans="2:8" ht="18.75">
       <c r="B75" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D75" s="7">
         <v>2</v>
@@ -3181,15 +3181,15 @@
         <v>10</v>
       </c>
       <c r="H75" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76" spans="2:8" ht="18.75">
       <c r="B76" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D76" s="7">
         <v>3</v>
@@ -3204,15 +3204,15 @@
         <v>10</v>
       </c>
       <c r="H76" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" spans="2:8" ht="18.75">
       <c r="B77" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D77" s="7">
         <v>4</v>
@@ -3227,15 +3227,15 @@
         <v>10</v>
       </c>
       <c r="H77" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="78" spans="2:8" ht="18.75">
       <c r="B78" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D78" s="7">
         <v>2</v>
@@ -3250,38 +3250,38 @@
         <v>10</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" spans="2:8" ht="18.75">
       <c r="B79" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C79" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D79" s="7">
+        <v>9</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G79" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H79" s="15" t="s">
         <v>71</v>
-      </c>
-      <c r="D79" s="7">
-        <v>9</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F79" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G79" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H79" s="15" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="80" spans="2:8" ht="18.75">
       <c r="B80" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D80" s="7">
         <v>1</v>
@@ -3299,10 +3299,10 @@
     </row>
     <row r="81" spans="2:8" ht="18.75">
       <c r="B81" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D81" s="7">
         <v>3</v>
@@ -3317,15 +3317,15 @@
         <v>10</v>
       </c>
       <c r="H81" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="82" spans="2:8" ht="18.75">
       <c r="B82" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D82" s="7">
         <v>1</v>
@@ -3340,15 +3340,15 @@
         <v>10</v>
       </c>
       <c r="H82" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="2:8" ht="18.75">
       <c r="B83" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D83" s="7">
         <v>2</v>
@@ -3363,15 +3363,15 @@
         <v>10</v>
       </c>
       <c r="H83" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="2:8" ht="18.75">
       <c r="B84" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D84" s="7">
         <v>5</v>
@@ -3386,7 +3386,7 @@
         <v>10</v>
       </c>
       <c r="H84" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85" spans="2:8" ht="18.75">
@@ -3400,10 +3400,10 @@
     </row>
     <row r="86" spans="2:8" ht="18.75">
       <c r="B86" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D86" s="8">
         <v>2</v>
@@ -3421,10 +3421,10 @@
     </row>
     <row r="87" spans="2:8" ht="18.75">
       <c r="B87" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="D87" s="7">
         <v>2</v>
@@ -3442,10 +3442,10 @@
     </row>
     <row r="88" spans="2:8" ht="18.75">
       <c r="B88" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D88" s="7">
         <v>2</v>
@@ -3463,10 +3463,10 @@
     </row>
     <row r="89" spans="2:8" ht="18.75">
       <c r="B89" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D89" s="7">
         <v>2</v>
@@ -3493,10 +3493,10 @@
     </row>
     <row r="91" spans="2:8" ht="18.75">
       <c r="B91" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="D91" s="4">
         <v>1</v>
@@ -3514,10 +3514,10 @@
     </row>
     <row r="92" spans="2:8" ht="18.75">
       <c r="B92" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D92" s="7">
         <v>1</v>
@@ -3535,10 +3535,10 @@
     </row>
     <row r="93" spans="2:8" ht="18.75">
       <c r="B93" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D93" s="7">
         <v>1</v>
@@ -3556,10 +3556,10 @@
     </row>
     <row r="94" spans="2:8" ht="18.75">
       <c r="B94" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D94" s="7">
         <v>2</v>
@@ -3586,10 +3586,10 @@
     </row>
     <row r="96" spans="2:8" ht="18.75">
       <c r="B96" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="D96" s="4">
         <v>2</v>
@@ -3604,15 +3604,15 @@
         <v>10</v>
       </c>
       <c r="H96" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="2:8" ht="18.75">
       <c r="B97" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D97" s="7">
         <v>1</v>
@@ -3630,10 +3630,10 @@
     </row>
     <row r="98" spans="2:8" ht="18.75">
       <c r="B98" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D98" s="7">
         <v>1</v>
@@ -3648,15 +3648,15 @@
         <v>10</v>
       </c>
       <c r="H98" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="99" spans="2:8" ht="18.75">
       <c r="B99" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D99" s="7">
         <v>1</v>
@@ -3674,10 +3674,10 @@
     </row>
     <row r="100" spans="2:8" ht="18.75">
       <c r="B100" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D100" s="7">
         <v>1</v>
@@ -3695,10 +3695,10 @@
     </row>
     <row r="101" spans="2:8" ht="18.75">
       <c r="B101" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D101" s="7">
         <v>1</v>
@@ -3980,13 +3980,14 @@
   <dimension ref="B2:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="21.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="48.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.75" customWidth="1"/>
@@ -4001,7 +4002,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F2" s="35" t="s">
         <v>29</v>
@@ -4086,14 +4087,14 @@
     </row>
     <row r="6" spans="2:9" ht="19.5">
       <c r="B6" s="18" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="C6" s="19">
         <f>SUMIF(コスト表!B:B, B6, コスト表!D:D)</f>
         <v>33</v>
       </c>
       <c r="D6" s="45">
-        <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "敵3(酸を飛ばすゾンビ)", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "敵3(酸を飛ばすゾンビ)") * 100,1)</f>
+        <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "敵3(遠距離型ゾンビ)", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "敵3(遠距離型ゾンビ)") * 100,1)</f>
         <v>0</v>
       </c>
       <c r="F6" s="39" t="s">
@@ -4108,7 +4109,7 @@
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C7" s="19">
         <f>SUMIF(コスト表!B:B, B7, コスト表!D:D)</f>
@@ -4125,7 +4126,7 @@
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="19">
         <f>SUMIF(コスト表!B:B, B8, コスト表!D:D)</f>
@@ -4146,7 +4147,7 @@
     </row>
     <row r="9" spans="2:9" ht="24">
       <c r="B9" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C9" s="19">
         <f>SUMIF(コスト表!B:B, B9, コスト表!D:D)</f>
@@ -4157,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G9" s="34">
         <f>DATE(2025,7,23)</f>
@@ -4174,7 +4175,7 @@
     </row>
     <row r="10" spans="2:9" ht="19.5">
       <c r="B10" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C10" s="19">
         <f>SUMIF(コスト表!B:B, B10, コスト表!D:D)</f>
@@ -4202,7 +4203,7 @@
     </row>
     <row r="11" spans="2:9" ht="19.5">
       <c r="B11" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C11" s="19">
         <f>SUMIF(コスト表!B:B, B11, コスト表!D:D)</f>
@@ -4230,7 +4231,7 @@
     </row>
     <row r="12" spans="2:9" ht="19.5">
       <c r="B12" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C12" s="19">
         <f>SUMIF(コスト表!B:B, B12, コスト表!D:D)</f>
@@ -4269,7 +4270,7 @@
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="46" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="45">
@@ -4280,10 +4281,10 @@
         <v>4</v>
       </c>
       <c r="G14" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="H14" s="47" t="s">
         <v>119</v>
-      </c>
-      <c r="H14" s="47" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="15" spans="2:9">
@@ -4424,7 +4425,7 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>27</v>
@@ -4440,6 +4441,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006836AD0B55474E4CAD520F1DEB8FB579" ma:contentTypeVersion="3" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="078ba6c1f7b5b638bb57eb024ae572f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="187a6309-4c0c-49e3-bd2d-e8130eb88270" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5f182963113af090d1b42042cf04cb6" ns2:_="">
     <xsd:import namespace="187a6309-4c0c-49e3-bd2d-e8130eb88270"/>
@@ -4577,22 +4593,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A1D85CE-B20E-4841-A55B-779E85453EF9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4608,21 +4626,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ゾンビシューターゲームコスト表.xlsx
+++ b/ゾンビシューターゲームコスト表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sho24\OneDrive\デスクトップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\由留部 瑛人\Documents\MyGame3D2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDB1AEF-3C0C-4C36-8028-7AB2A3CCDFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36387C2A-F3E6-4F0B-B014-62D88C888CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="1725" windowWidth="21510" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6090" yWindow="2205" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コスト表" sheetId="1" r:id="rId1"/>
@@ -1607,9 +1607,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -1711,7 +1711,7 @@
         <v>9</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5" s="15"/>
     </row>
@@ -1946,7 +1946,7 @@
         <v>13</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H16" s="15"/>
     </row>
@@ -3979,7 +3979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -4024,14 +4024,14 @@
       </c>
       <c r="D3" s="45">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "プレイヤー", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "プレイヤー") * 100,1)</f>
-        <v>31.5</v>
+        <v>42.1</v>
       </c>
       <c r="F3" s="36" t="s">
         <v>30</v>
       </c>
       <c r="G3" s="28">
         <f>SUMIF(コスト表!G:G,"完了",コスト表!D:D)</f>
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="H3" s="28" t="s">
         <v>31</v>
@@ -4055,11 +4055,11 @@
       </c>
       <c r="G4" s="28">
         <f ca="1">NETWORKDAYS(G5,G6)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4" s="30">
         <f ca="1" xml:space="preserve"> G3 / G4</f>
-        <v>0.35714285714285715</v>
+        <v>0.40909090909090912</v>
       </c>
       <c r="I4" s="28"/>
     </row>
@@ -4102,7 +4102,7 @@
       </c>
       <c r="G6" s="29">
         <f ca="1">TODAY()</f>
-        <v>45809</v>
+        <v>45810</v>
       </c>
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
@@ -4170,7 +4170,7 @@
       </c>
       <c r="I9" s="7">
         <f ca="1">($G$2 - $G$3) / H9</f>
-        <v>5.5657894736842106</v>
+        <v>5.5263157894736841</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="19.5">
@@ -4198,7 +4198,7 @@
       </c>
       <c r="I10" s="30">
         <f ca="1">($G$2 - $G$3) / H10</f>
-        <v>4.1470588235294121</v>
+        <v>4.117647058823529</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="19.5">
@@ -4226,7 +4226,7 @@
       </c>
       <c r="I11" s="30">
         <f ca="1">($G$2 - $G$3) / H11</f>
-        <v>3.8454545454545452</v>
+        <v>3.8181818181818183</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="19.5">
@@ -4254,7 +4254,7 @@
       </c>
       <c r="I12" s="30">
         <f ca="1">($G$2 - $G$3) / H12</f>
-        <v>3.2045454545454546</v>
+        <v>3.1818181818181817</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -4275,7 +4275,7 @@
       <c r="C14" s="9"/>
       <c r="D14" s="45">
         <f>ROUNDDOWN(COUNTIF(コスト表!G:G, "完了") / COUNTA(コスト表!G:G) * 100,1)</f>
-        <v>7.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="F14" s="47" t="s">
         <v>4</v>
@@ -4299,7 +4299,7 @@
       </c>
       <c r="H15" s="48">
         <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "プロト", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "プロト") * 100,1)</f>
-        <v>6</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="16" spans="2:9">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="H16" s="48">
         <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "アルファ", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "アルファ") * 100,1)</f>
-        <v>10.7</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="17" spans="4:8">
@@ -4441,21 +4441,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006836AD0B55474E4CAD520F1DEB8FB579" ma:contentTypeVersion="3" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="078ba6c1f7b5b638bb57eb024ae572f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="187a6309-4c0c-49e3-bd2d-e8130eb88270" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5f182963113af090d1b42042cf04cb6" ns2:_="">
     <xsd:import namespace="187a6309-4c0c-49e3-bd2d-e8130eb88270"/>
@@ -4593,24 +4578,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A1D85CE-B20E-4841-A55B-779E85453EF9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4626,4 +4609,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ゾンビシューターゲームコスト表.xlsx
+++ b/ゾンビシューターゲームコスト表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\由留部 瑛人\Documents\MyGame3D2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\由留部\Documents\MyGame3D2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36387C2A-F3E6-4F0B-B014-62D88C888CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5FD6D4-FDFD-4CA0-BED5-D382C00A8BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6090" yWindow="2205" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="2625" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コスト表" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="その他" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">コスト表!$E$2:$G$132</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">分類別コスト集計!$B$2:$D$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">コスト表!$E$2:$G$109</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">分類別コスト集計!$B$2:$D$18</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="147">
   <si>
     <t>分類</t>
   </si>
@@ -275,58 +275,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>待機状態</t>
-    <rPh sb="0" eb="2">
-      <t>タイキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>歩き</t>
-    <rPh sb="0" eb="1">
-      <t>アル</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>死亡</t>
-    <rPh sb="0" eb="2">
-      <t>シボウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>攻撃(近接攻撃)</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キンセツ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プレイヤー検知（視野 or 範囲）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プレイヤーを見つけるまで歩き状態で徘徊し
-見つけるとダッシュ状態に入る</t>
-    <rPh sb="21" eb="22">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ハイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -411,19 +360,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>攻撃(遠距離攻撃)</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>エンキョリ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>攻撃</t>
     <rPh sb="0" eb="2">
       <t>コウゲキ</t>
@@ -547,18 +483,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アイテムドロップ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ヒットエフェクト・リアクション</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アイテムドロップエフェクト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -762,6 +686,191 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵基底クラス</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>キテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当たり判定処理</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="7" eb="12">
+      <t>ショキカショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの弾や攻撃を受ける処理</t>
+    <rPh sb="6" eb="7">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状態管理</t>
+    <rPh sb="0" eb="4">
+      <t>ジョウタイカンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>待機、移動、攻撃、死亡などの状態管理</t>
+    <rPh sb="0" eb="2">
+      <t>タイキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>ジョウタイカンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナビゲーション・移動処理</t>
+    <rPh sb="8" eb="12">
+      <t>イドウショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー追尾、壁回避</t>
+    <rPh sb="5" eb="7">
+      <t>ツイビ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>カベカイヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボス(ゾンビを召喚)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムドロップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未着手</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アニメーション制御</t>
+    <rPh sb="7" eb="9">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状態に応じたアニメーション切り替え</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エフェクト管理</t>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒットエフェクト、アイテムドロップエフェクトなど</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵基底クラス</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>キテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アニメーション実装</t>
+    <rPh sb="7" eb="9">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動速度調整</t>
+    <rPh sb="0" eb="4">
+      <t>イドウソクド</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダッシュ機能実装</t>
+    <rPh sb="4" eb="8">
+      <t>キノウジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>近接攻撃実装</t>
+    <rPh sb="0" eb="4">
+      <t>キンセツコウゲキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遠距離攻撃実装</t>
+    <rPh sb="0" eb="3">
+      <t>エンキョリ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>コウゲキジッソウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1112,7 +1221,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1204,12 +1313,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1263,6 +1366,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1605,11 +1711,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I132"/>
+  <dimension ref="B1:I109"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6:C9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -1626,7 +1732,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" customHeight="1">
       <c r="B1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="2:8" ht="18.75">
@@ -1720,7 +1826,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D6" s="7">
         <v>3</v>
@@ -1785,7 +1891,7 @@
         <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D9" s="7">
         <v>3</v>
@@ -1824,10 +1930,10 @@
     </row>
     <row r="11" spans="2:8" ht="18.75">
       <c r="B11" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D11" s="7">
         <v>2</v>
@@ -1845,10 +1951,10 @@
     </row>
     <row r="12" spans="2:8" ht="18.75">
       <c r="B12" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D12" s="7">
         <v>1</v>
@@ -1863,7 +1969,7 @@
         <v>14</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="18.75">
@@ -1871,7 +1977,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D13" s="7">
         <v>3</v>
@@ -2015,10 +2121,10 @@
     </row>
     <row r="20" spans="2:8" ht="18.75">
       <c r="B20" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D20" s="7">
         <v>0.5</v>
@@ -2039,7 +2145,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D21" s="7">
         <v>2</v>
@@ -2056,44 +2162,46 @@
       <c r="H21" s="15"/>
     </row>
     <row r="22" spans="2:8" ht="18.75">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="16"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="15"/>
     </row>
     <row r="23" spans="2:8" ht="18.75">
-      <c r="B23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="4">
-        <v>1</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="15"/>
+      <c r="B23" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="8">
+        <v>5</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="24" spans="2:8" ht="18.75">
       <c r="B24" s="1" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="D24" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>8</v>
@@ -2104,17 +2212,19 @@
       <c r="G24" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H24" s="15"/>
+      <c r="H24" s="15" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="25" spans="2:8" ht="18.75">
       <c r="B25" s="1" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="D25" s="7">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>8</v>
@@ -2125,17 +2235,19 @@
       <c r="G25" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="15"/>
+      <c r="H25" s="15" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="26" spans="2:8" ht="18.75">
       <c r="B26" s="1" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="D26" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>8</v>
@@ -2144,88 +2256,74 @@
         <v>9</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="H26" s="15"/>
     </row>
     <row r="27" spans="2:8" ht="18.75">
       <c r="B27" s="1" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="D27" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>10</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="18.75">
       <c r="B28" s="1" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="D28" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>10</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="18.75">
-      <c r="B29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="7">
-        <v>4</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>67</v>
-      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="16"/>
     </row>
     <row r="30" spans="2:8" ht="18.75">
       <c r="B30" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="7">
-        <v>4</v>
+        <v>145</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1.5</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>8</v>
@@ -2236,16 +2334,14 @@
       <c r="G30" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H30" s="15" t="s">
-        <v>66</v>
-      </c>
+      <c r="H30" s="15"/>
     </row>
     <row r="31" spans="2:8" ht="18.75">
       <c r="B31" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="D31" s="7">
         <v>1</v>
@@ -2266,13 +2362,13 @@
         <v>52</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="D32" s="7">
         <v>2</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>13</v>
@@ -2280,136 +2376,118 @@
       <c r="G32" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H32" s="15" t="s">
-        <v>69</v>
-      </c>
+      <c r="H32" s="15"/>
     </row>
     <row r="33" spans="2:8" ht="18.75">
-      <c r="B33" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33" s="7">
-        <v>5</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H33" s="15" t="s">
-        <v>73</v>
-      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="15"/>
     </row>
     <row r="34" spans="2:8" ht="18.75">
-      <c r="B34" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D34" s="7">
-        <v>2</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H34" s="15"/>
+      <c r="B34" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D34" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="49"/>
     </row>
     <row r="35" spans="2:8" ht="18.75">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
+      <c r="B35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="H35" s="15"/>
     </row>
     <row r="36" spans="2:8" ht="18.75">
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D36" s="4">
+      <c r="C36" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D36" s="7">
         <v>1</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H36" s="14"/>
+      <c r="E36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="15"/>
     </row>
     <row r="37" spans="2:8" ht="18.75">
       <c r="B37" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>56</v>
+        <v>142</v>
       </c>
       <c r="D37" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G37" s="11" t="s">
         <v>10</v>
       </c>
       <c r="H37" s="15"/>
     </row>
-    <row r="38" spans="2:8" ht="35.1" customHeight="1">
-      <c r="B38" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H38" s="31" t="s">
-        <v>60</v>
-      </c>
+    <row r="38" spans="2:8" ht="18.75">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="16"/>
     </row>
     <row r="39" spans="2:8" ht="18.75">
       <c r="B39" s="1" t="s">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D39" s="7">
+        <v>146</v>
+      </c>
+      <c r="D39" s="4">
         <v>1.5</v>
       </c>
       <c r="E39" s="5" t="s">
@@ -2425,10 +2503,10 @@
     </row>
     <row r="40" spans="2:8" ht="18.75">
       <c r="B40" s="1" t="s">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>57</v>
+        <v>143</v>
       </c>
       <c r="D40" s="7">
         <v>1</v>
@@ -2446,79 +2524,61 @@
     </row>
     <row r="41" spans="2:8" ht="18.75">
       <c r="B41" s="1" t="s">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="D41" s="7">
+        <v>2</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" s="15"/>
+    </row>
+    <row r="42" spans="2:8" ht="18.75">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="15"/>
+    </row>
+    <row r="43" spans="2:8" ht="18.75">
+      <c r="B43" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="8">
         <v>5</v>
       </c>
-      <c r="E41" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H41" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" ht="18.75">
-      <c r="B42" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D42" s="7">
-        <v>5</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H42" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" ht="18.75">
-      <c r="B43" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D43" s="7">
-        <v>4</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H43" s="15" t="s">
-        <v>67</v>
-      </c>
+      <c r="E43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" s="14"/>
     </row>
     <row r="44" spans="2:8" ht="18.75">
       <c r="B44" s="1" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D44" s="7">
         <v>4</v>
@@ -2533,18 +2593,18 @@
         <v>10</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="2:8" ht="18.75">
       <c r="B45" s="1" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="D45" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>8</v>
@@ -2555,20 +2615,22 @@
       <c r="G45" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H45" s="15"/>
+      <c r="H45" s="15" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="46" spans="2:8" ht="18.75">
       <c r="B46" s="1" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="D46" s="7">
         <v>2</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>13</v>
@@ -2577,44 +2639,45 @@
         <v>10</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="18.75">
       <c r="B47" s="1" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="D47" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G47" s="11" t="s">
         <v>10</v>
       </c>
       <c r="H47" s="15" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="2:8" ht="18.75">
       <c r="B48" s="1" t="s">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="D48" s="7">
-        <v>2</v>
+        <f>0.5*8</f>
+        <v>4</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F48" s="11" t="s">
         <v>13</v>
@@ -2622,47 +2685,51 @@
       <c r="G48" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H48" s="15"/>
+      <c r="H48" s="15" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="49" spans="2:8" ht="18.75">
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="16"/>
+      <c r="B49" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" s="7">
+        <v>5</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="50" spans="2:8" ht="18.75">
-      <c r="B50" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D50" s="4">
-        <v>1</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H50" s="15"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="16"/>
     </row>
     <row r="51" spans="2:8" ht="18.75">
       <c r="B51" s="1" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D51" s="7">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="D51" s="4">
+        <v>2</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>8</v>
@@ -2673,14 +2740,16 @@
       <c r="G51" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H51" s="15"/>
+      <c r="H51" s="15" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="52" spans="2:8" ht="18.75">
       <c r="B52" s="1" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D52" s="7">
         <v>2</v>
@@ -2694,17 +2763,19 @@
       <c r="G52" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H52" s="15"/>
+      <c r="H52" s="15" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="53" spans="2:8" ht="18.75">
       <c r="B53" s="1" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="D53" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>8</v>
@@ -2715,17 +2786,19 @@
       <c r="G53" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H53" s="15"/>
+      <c r="H53" s="15" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="54" spans="2:8" ht="18.75">
       <c r="B54" s="1" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D54" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>8</v>
@@ -2737,18 +2810,18 @@
         <v>10</v>
       </c>
       <c r="H54" s="15" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="18.75">
       <c r="B55" s="1" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="D55" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>8</v>
@@ -2760,18 +2833,18 @@
         <v>10</v>
       </c>
       <c r="H55" s="15" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="18.75">
       <c r="B56" s="1" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D56" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>8</v>
@@ -2783,18 +2856,18 @@
         <v>10</v>
       </c>
       <c r="H56" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="18.75">
       <c r="B57" s="1" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D57" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>8</v>
@@ -2805,19 +2878,17 @@
       <c r="G57" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H57" s="15" t="s">
-        <v>66</v>
-      </c>
+      <c r="H57" s="15"/>
     </row>
     <row r="58" spans="2:8" ht="18.75">
       <c r="B58" s="1" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D58" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>8</v>
@@ -2828,17 +2899,19 @@
       <c r="G58" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H58" s="15"/>
+      <c r="H58" s="15" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="59" spans="2:8" ht="18.75">
       <c r="B59" s="1" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D59" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>16</v>
@@ -2850,21 +2923,21 @@
         <v>10</v>
       </c>
       <c r="H59" s="15" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="2:8" ht="18.75">
       <c r="B60" s="1" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D60" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F60" s="11" t="s">
         <v>13</v>
@@ -2873,29 +2946,31 @@
         <v>10</v>
       </c>
       <c r="H60" s="15" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="2:8" ht="18.75">
       <c r="B61" s="1" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D61" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G61" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H61" s="15"/>
+      <c r="H61" s="15" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="62" spans="2:8" ht="18.75">
       <c r="B62" s="1"/>
@@ -2908,18 +2983,18 @@
     </row>
     <row r="63" spans="2:8" ht="18.75">
       <c r="B63" s="3" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D63" s="4">
-        <v>1</v>
+        <v>115</v>
+      </c>
+      <c r="D63" s="8">
+        <v>2</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="F63" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G63" s="10" t="s">
@@ -2929,13 +3004,13 @@
     </row>
     <row r="64" spans="2:8" ht="18.75">
       <c r="B64" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C64" s="32" t="s">
-        <v>56</v>
+        <v>116</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="D64" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>8</v>
@@ -2950,19 +3025,19 @@
     </row>
     <row r="65" spans="2:8" ht="18.75">
       <c r="B65" s="1" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="D65" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G65" s="11" t="s">
         <v>10</v>
@@ -2971,19 +3046,19 @@
     </row>
     <row r="66" spans="2:8" ht="18.75">
       <c r="B66" s="1" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="D66" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G66" s="11" t="s">
         <v>10</v>
@@ -2991,80 +3066,62 @@
       <c r="H66" s="15"/>
     </row>
     <row r="67" spans="2:8" ht="18.75">
-      <c r="B67" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D67" s="7">
-        <v>4</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F67" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G67" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H67" s="15" t="s">
-        <v>67</v>
-      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="16"/>
     </row>
     <row r="68" spans="2:8" ht="18.75">
       <c r="B68" s="1" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D68" s="7">
-        <v>4</v>
+        <v>96</v>
+      </c>
+      <c r="D68" s="4">
+        <v>1</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="G68" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H68" s="15" t="s">
-        <v>66</v>
-      </c>
+      <c r="H68" s="15"/>
     </row>
     <row r="69" spans="2:8" ht="18.75">
       <c r="B69" s="1" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="D69" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H69" s="15" t="s">
-        <v>69</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H69" s="15"/>
     </row>
     <row r="70" spans="2:8" ht="18.75">
       <c r="B70" s="1" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="D70" s="7">
         <v>1</v>
@@ -3073,28 +3130,25 @@
         <v>16</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G70" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H70" s="15" t="s">
-        <v>62</v>
-      </c>
+      <c r="H70" s="15"/>
     </row>
     <row r="71" spans="2:8" ht="18.75">
       <c r="B71" s="1" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="D71" s="7">
-        <f>0.5*8</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F71" s="11" t="s">
         <v>13</v>
@@ -3102,51 +3156,49 @@
       <c r="G71" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H71" s="15" t="s">
-        <v>63</v>
-      </c>
+      <c r="H71" s="15"/>
     </row>
     <row r="72" spans="2:8" ht="18.75">
-      <c r="B72" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D72" s="7">
-        <v>5</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G72" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H72" s="15" t="s">
-        <v>73</v>
-      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="15"/>
     </row>
     <row r="73" spans="2:8" ht="18.75">
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="16"/>
+      <c r="B73" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D73" s="4">
+        <v>2</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H73" s="14" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="74" spans="2:8" ht="18.75">
       <c r="B74" s="1" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D74" s="4">
-        <v>2</v>
+        <v>103</v>
+      </c>
+      <c r="D74" s="7">
+        <v>1</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>8</v>
@@ -3157,19 +3209,17 @@
       <c r="G74" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H74" s="15" t="s">
-        <v>79</v>
-      </c>
+      <c r="H74" s="15"/>
     </row>
     <row r="75" spans="2:8" ht="18.75">
       <c r="B75" s="1" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="D75" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>8</v>
@@ -3181,18 +3231,18 @@
         <v>10</v>
       </c>
       <c r="H75" s="15" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
     </row>
     <row r="76" spans="2:8" ht="18.75">
       <c r="B76" s="1" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="D76" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>8</v>
@@ -3203,88 +3253,68 @@
       <c r="G76" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H76" s="15" t="s">
-        <v>83</v>
-      </c>
+      <c r="H76" s="15"/>
     </row>
     <row r="77" spans="2:8" ht="18.75">
       <c r="B77" s="1" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="D77" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G77" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H77" s="15" t="s">
-        <v>85</v>
-      </c>
+      <c r="H77" s="15"/>
     </row>
     <row r="78" spans="2:8" ht="18.75">
       <c r="B78" s="1" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D78" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G78" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H78" s="15" t="s">
-        <v>98</v>
-      </c>
+      <c r="H78" s="15"/>
     </row>
     <row r="79" spans="2:8" ht="18.75">
-      <c r="B79" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D79" s="7">
-        <v>9</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F79" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G79" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H79" s="15" t="s">
-        <v>71</v>
-      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="16"/>
     </row>
     <row r="80" spans="2:8" ht="18.75">
       <c r="B80" s="1" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D80" s="7">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="D80" s="4">
+        <v>4</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>8</v>
@@ -3299,13 +3329,13 @@
     </row>
     <row r="81" spans="2:8" ht="18.75">
       <c r="B81" s="1" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="D81" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>8</v>
@@ -3316,635 +3346,188 @@
       <c r="G81" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H81" s="15" t="s">
-        <v>89</v>
-      </c>
+      <c r="H81" s="15"/>
     </row>
     <row r="82" spans="2:8" ht="18.75">
       <c r="B82" s="1" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="D82" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G82" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H82" s="15" t="s">
-        <v>91</v>
-      </c>
+      <c r="H82" s="15"/>
     </row>
     <row r="83" spans="2:8" ht="18.75">
       <c r="B83" s="1" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="D83" s="7">
         <v>2</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G83" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H83" s="15" t="s">
-        <v>95</v>
-      </c>
+      <c r="H83" s="15"/>
     </row>
     <row r="84" spans="2:8" ht="18.75">
-      <c r="B84" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D84" s="7">
-        <v>5</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F84" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G84" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H84" s="15" t="s">
-        <v>93</v>
-      </c>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="15"/>
     </row>
     <row r="85" spans="2:8" ht="18.75">
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11"/>
-      <c r="H85" s="15"/>
+      <c r="B85" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G85" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H85" s="14"/>
     </row>
     <row r="86" spans="2:8" ht="18.75">
-      <c r="B86" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D86" s="8">
-        <v>2</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F86" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G86" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H86" s="14"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="16"/>
     </row>
     <row r="87" spans="2:8" ht="18.75">
-      <c r="B87" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D87" s="7">
-        <v>2</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F87" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G87" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H87" s="15"/>
+      <c r="C87"/>
+      <c r="D87" s="7"/>
+      <c r="H87" s="13"/>
     </row>
     <row r="88" spans="2:8" ht="18.75">
-      <c r="B88" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D88" s="7">
-        <v>2</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F88" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G88" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H88" s="15"/>
+      <c r="C88"/>
+      <c r="D88" s="7"/>
+      <c r="H88" s="13"/>
     </row>
     <row r="89" spans="2:8" ht="18.75">
-      <c r="B89" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D89" s="7">
-        <v>2</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F89" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G89" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H89" s="15"/>
+      <c r="C89"/>
+      <c r="D89" s="7"/>
+      <c r="H89" s="13"/>
     </row>
     <row r="90" spans="2:8" ht="18.75">
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
+      <c r="C90"/>
       <c r="D90" s="7"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="12"/>
-      <c r="H90" s="16"/>
+      <c r="H90" s="13"/>
     </row>
     <row r="91" spans="2:8" ht="18.75">
-      <c r="B91" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D91" s="4">
-        <v>1</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G91" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H91" s="15"/>
+      <c r="C91"/>
+      <c r="D91" s="7"/>
+      <c r="H91" s="13"/>
     </row>
     <row r="92" spans="2:8" ht="18.75">
-      <c r="B92" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D92" s="7">
-        <v>1</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F92" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G92" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H92" s="15"/>
+      <c r="C92"/>
+      <c r="D92" s="7"/>
+      <c r="H92" s="13"/>
     </row>
     <row r="93" spans="2:8" ht="18.75">
-      <c r="B93" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D93" s="7">
-        <v>1</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F93" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G93" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H93" s="15"/>
+      <c r="C93"/>
+      <c r="D93" s="7"/>
+      <c r="H93" s="13"/>
     </row>
     <row r="94" spans="2:8" ht="18.75">
-      <c r="B94" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D94" s="7">
-        <v>2</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F94" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G94" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H94" s="15"/>
+      <c r="C94"/>
+      <c r="D94" s="7"/>
+      <c r="H94" s="13"/>
     </row>
     <row r="95" spans="2:8" ht="18.75">
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
+      <c r="C95"/>
       <c r="D95" s="7"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="11"/>
-      <c r="G95" s="11"/>
-      <c r="H95" s="15"/>
+      <c r="H95" s="13"/>
     </row>
     <row r="96" spans="2:8" ht="18.75">
-      <c r="B96" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D96" s="4">
-        <v>2</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G96" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H96" s="14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="97" spans="2:8" ht="18.75">
-      <c r="B97" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D97" s="7">
-        <v>1</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F97" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G97" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H97" s="15"/>
-    </row>
-    <row r="98" spans="2:8" ht="18.75">
-      <c r="B98" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D98" s="7">
-        <v>1</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F98" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G98" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H98" s="15" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="99" spans="2:8" ht="18.75">
-      <c r="B99" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D99" s="7">
-        <v>1</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F99" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G99" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H99" s="15"/>
-    </row>
-    <row r="100" spans="2:8" ht="18.75">
-      <c r="B100" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D100" s="7">
-        <v>1</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F100" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H100" s="15"/>
-    </row>
-    <row r="101" spans="2:8" ht="18.75">
-      <c r="B101" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D101" s="7">
-        <v>1</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F101" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G101" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H101" s="15"/>
-    </row>
-    <row r="102" spans="2:8" ht="18.75">
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="12"/>
-      <c r="G102" s="12"/>
-      <c r="H102" s="16"/>
-    </row>
-    <row r="103" spans="2:8" ht="18.75">
-      <c r="B103" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D103" s="4">
-        <v>4</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F103" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G103" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H103" s="15"/>
-    </row>
-    <row r="104" spans="2:8" ht="18.75">
-      <c r="B104" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D104" s="7">
-        <v>2</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F104" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G104" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H104" s="15"/>
-    </row>
-    <row r="105" spans="2:8" ht="18.75">
-      <c r="B105" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D105" s="7">
-        <v>2</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F105" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G105" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H105" s="15"/>
-    </row>
-    <row r="106" spans="2:8" ht="18.75">
-      <c r="B106" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D106" s="7">
-        <v>2</v>
-      </c>
-      <c r="E106" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F106" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G106" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H106" s="15"/>
-    </row>
-    <row r="107" spans="2:8" ht="18.75">
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
+      <c r="C96"/>
+      <c r="D96" s="7"/>
+      <c r="H96" s="13"/>
+    </row>
+    <row r="97" spans="3:8" ht="18.75">
+      <c r="C97"/>
+      <c r="D97" s="7"/>
+      <c r="H97" s="13"/>
+    </row>
+    <row r="98" spans="3:8" ht="18.75">
+      <c r="C98"/>
+      <c r="D98" s="7"/>
+      <c r="H98" s="13"/>
+    </row>
+    <row r="99" spans="3:8" ht="18.75"/>
+    <row r="100" spans="3:8" ht="18.75"/>
+    <row r="101" spans="3:8" ht="18.75"/>
+    <row r="102" spans="3:8" ht="18.75"/>
+    <row r="103" spans="3:8" ht="18.75">
+      <c r="C103"/>
+      <c r="D103" s="7"/>
+      <c r="H103" s="13"/>
+    </row>
+    <row r="104" spans="3:8" ht="18.75">
+      <c r="C104"/>
+      <c r="D104" s="7"/>
+      <c r="H104" s="13"/>
+    </row>
+    <row r="105" spans="3:8" ht="18.75">
+      <c r="H105" s="13"/>
+    </row>
+    <row r="106" spans="3:8" ht="18.75">
+      <c r="C106"/>
+      <c r="D106" s="7"/>
+      <c r="H106" s="13"/>
+    </row>
+    <row r="107" spans="3:8" ht="18.75">
+      <c r="C107"/>
       <c r="D107" s="7"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="11"/>
-      <c r="G107" s="11"/>
-      <c r="H107" s="15"/>
-    </row>
-    <row r="108" spans="2:8" ht="18.75">
-      <c r="B108" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G108" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H108" s="14"/>
-    </row>
-    <row r="109" spans="2:8" ht="18.75">
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="12"/>
-      <c r="G109" s="12"/>
-      <c r="H109" s="16"/>
-    </row>
-    <row r="110" spans="2:8" ht="18.75">
-      <c r="C110"/>
-      <c r="D110" s="7"/>
-      <c r="H110" s="13"/>
-    </row>
-    <row r="111" spans="2:8" ht="18.75">
-      <c r="C111"/>
-      <c r="D111" s="7"/>
-      <c r="H111" s="13"/>
-    </row>
-    <row r="112" spans="2:8" ht="18.75">
-      <c r="C112"/>
-      <c r="D112" s="7"/>
-      <c r="H112" s="13"/>
-    </row>
-    <row r="113" spans="3:8" ht="18.75">
-      <c r="C113"/>
-      <c r="D113" s="7"/>
-      <c r="H113" s="13"/>
-    </row>
-    <row r="114" spans="3:8" ht="18.75">
-      <c r="C114"/>
-      <c r="D114" s="7"/>
-      <c r="H114" s="13"/>
-    </row>
-    <row r="115" spans="3:8" ht="18.75">
-      <c r="C115"/>
-      <c r="D115" s="7"/>
-      <c r="H115" s="13"/>
-    </row>
-    <row r="116" spans="3:8" ht="18.75">
-      <c r="C116"/>
-      <c r="D116" s="7"/>
-      <c r="H116" s="13"/>
-    </row>
-    <row r="117" spans="3:8" ht="18.75">
-      <c r="C117"/>
-      <c r="D117" s="7"/>
-      <c r="H117" s="13"/>
-    </row>
-    <row r="118" spans="3:8" ht="18.75">
-      <c r="C118"/>
-      <c r="D118" s="7"/>
-      <c r="H118" s="13"/>
-    </row>
-    <row r="119" spans="3:8" ht="18.75">
-      <c r="C119"/>
-      <c r="D119" s="7"/>
-      <c r="H119" s="13"/>
-    </row>
-    <row r="120" spans="3:8" ht="18.75">
-      <c r="C120"/>
-      <c r="D120" s="7"/>
-      <c r="H120" s="13"/>
-    </row>
-    <row r="121" spans="3:8" ht="18.75">
-      <c r="C121"/>
-      <c r="D121" s="7"/>
-      <c r="H121" s="13"/>
-    </row>
-    <row r="122" spans="3:8" ht="18.75"/>
-    <row r="123" spans="3:8" ht="18.75"/>
-    <row r="124" spans="3:8" ht="18.75"/>
-    <row r="125" spans="3:8" ht="18.75"/>
-    <row r="126" spans="3:8" ht="18.75">
-      <c r="C126"/>
-      <c r="D126" s="7"/>
-      <c r="H126" s="13"/>
-    </row>
-    <row r="127" spans="3:8" ht="18.75">
-      <c r="C127"/>
-      <c r="D127" s="7"/>
-      <c r="H127" s="13"/>
-    </row>
-    <row r="128" spans="3:8" ht="18.75">
-      <c r="H128" s="13"/>
-    </row>
-    <row r="129" spans="3:8" ht="18.75">
-      <c r="C129"/>
-      <c r="D129" s="7"/>
-      <c r="H129" s="13"/>
-    </row>
-    <row r="130" spans="3:8" ht="18.75">
-      <c r="C130"/>
-      <c r="D130" s="7"/>
-      <c r="H130" s="13"/>
-    </row>
-    <row r="131" spans="3:8" ht="18.75">
-      <c r="C131"/>
-      <c r="D131" s="7"/>
-      <c r="H131" s="13"/>
-    </row>
-    <row r="132" spans="3:8" ht="18.75">
-      <c r="C132"/>
-      <c r="D132" s="7"/>
-      <c r="H132" s="13"/>
+      <c r="H107" s="13"/>
+    </row>
+    <row r="108" spans="3:8" ht="18.75">
+      <c r="C108"/>
+      <c r="D108" s="7"/>
+      <c r="H108" s="13"/>
+    </row>
+    <row r="109" spans="3:8" ht="18.75">
+      <c r="C109"/>
+      <c r="D109" s="7"/>
+      <c r="H109" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="E2:G132" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="E2:G109" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
@@ -3955,19 +3538,19 @@
           <x14:formula1>
             <xm:f>その他!$B$3:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>G126:G127 G129:G1048576 G1:G121</xm:sqref>
+          <xm:sqref>G103:G104 G106:G1048576 G1:G98</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{66D8840C-D443-486F-BC72-01200775D285}">
           <x14:formula1>
             <xm:f>その他!$D$3:$D$6</xm:f>
           </x14:formula1>
-          <xm:sqref>F126:F127 F129:F1048576 F1:F121</xm:sqref>
+          <xm:sqref>F103:F104 F106:F1048576 F1:F98</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D61B1C0A-2748-4606-B0EE-00EEC89A23C6}">
           <x14:formula1>
             <xm:f>その他!$F$3:$F$6</xm:f>
           </x14:formula1>
-          <xm:sqref>E126:E127 E129:E1048576 E1:E121</xm:sqref>
+          <xm:sqref>E103:E104 E106:E1048576 E1:E98</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3977,10 +3560,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:I23"/>
+  <dimension ref="B2:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3995,21 +3578,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="19.5">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="F2" s="35" t="s">
+      <c r="D2" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="33" t="s">
         <v>29</v>
       </c>
       <c r="G2" s="28">
         <f>SUM(C:C)</f>
-        <v>219</v>
+        <v>157.5</v>
       </c>
       <c r="H2" s="28"/>
       <c r="I2" s="28"/>
@@ -4022,11 +3605,11 @@
         <f>SUMIF(コスト表!B:B, B3, コスト表!D:D)</f>
         <v>27.5</v>
       </c>
-      <c r="D3" s="45">
+      <c r="D3" s="43">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "プレイヤー", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "プレイヤー") * 100,1)</f>
         <v>42.1</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="34" t="s">
         <v>30</v>
       </c>
       <c r="G3" s="28">
@@ -4040,327 +3623,344 @@
     </row>
     <row r="4" spans="2:9" ht="19.5">
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="C4" s="19">
         <f>SUMIF(コスト表!B:B, B4, コスト表!D:D)</f>
-        <v>32.5</v>
-      </c>
-      <c r="D4" s="45">
+        <v>26</v>
+      </c>
+      <c r="D4" s="43">
+        <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "敵基底クラス", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "敵基底クラス") * 100,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="34"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+    </row>
+    <row r="5" spans="2:9" ht="19.5">
+      <c r="B5" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="19">
+        <f>SUMIF(コスト表!B:B, B5, コスト表!D:D)</f>
+        <v>4.5</v>
+      </c>
+      <c r="D5" s="43">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "敵1(通常ゾンビ)", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "敵1(通常ゾンビ)") * 100,1)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F5" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="28">
-        <f ca="1">NETWORKDAYS(G5,G6)</f>
+      <c r="G5" s="28">
+        <f ca="1">NETWORKDAYS(G6,G7)</f>
         <v>22</v>
       </c>
-      <c r="H4" s="30">
-        <f ca="1" xml:space="preserve"> G3 / G4</f>
+      <c r="H5" s="30">
+        <f ca="1" xml:space="preserve"> G3 / G5</f>
         <v>0.40909090909090912</v>
       </c>
-      <c r="I4" s="28"/>
-    </row>
-    <row r="5" spans="2:9" ht="19.5">
-      <c r="B5" s="18" t="s">
+      <c r="I5" s="28"/>
+    </row>
+    <row r="6" spans="2:9" ht="19.5">
+      <c r="B6" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="19">
-        <f>SUMIF(コスト表!B:B, B5, コスト表!D:D)</f>
-        <v>34</v>
-      </c>
-      <c r="D5" s="45">
+      <c r="C6" s="19">
+        <f>SUMIF(コスト表!B:B, B6, コスト表!D:D)</f>
+        <v>6</v>
+      </c>
+      <c r="D6" s="43">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "敵2(ランナーゾンビ)", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "敵2(ランナーゾンビ)") * 100,1)</f>
         <v>0</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F6" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G6" s="29">
         <f>DATE(2025,5,2)</f>
         <v>45779</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-    </row>
-    <row r="6" spans="2:9" ht="19.5">
-      <c r="B6" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="C6" s="19">
-        <f>SUMIF(コスト表!B:B, B6, コスト表!D:D)</f>
-        <v>33</v>
-      </c>
-      <c r="D6" s="45">
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+    </row>
+    <row r="7" spans="2:9" ht="19.5">
+      <c r="B7" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="19">
+        <f>SUMIF(コスト表!B:B, B7, コスト表!D:D)</f>
+        <v>4.5</v>
+      </c>
+      <c r="D7" s="43">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "敵3(遠距離型ゾンビ)", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "敵3(遠距離型ゾンビ)") * 100,1)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="F7" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G7" s="29">
         <f ca="1">TODAY()</f>
         <v>45810</v>
       </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" s="19">
-        <f>SUMIF(コスト表!B:B, B7, コスト表!D:D)</f>
-        <v>28</v>
-      </c>
-      <c r="D7" s="45">
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="19">
+        <f>SUMIF(コスト表!B:B, B8, コスト表!D:D)</f>
+        <v>25</v>
+      </c>
+      <c r="D8" s="43">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "ボス(ゾンビを召喚)", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "ボス(ゾンビを召喚)") * 100,1)</f>
         <v>0</v>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="19">
-        <f>SUMIF(コスト表!B:B, B8, コスト表!D:D)</f>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="19">
+        <f>SUMIF(コスト表!B:B, B9, コスト表!D:D)</f>
         <v>34</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D9" s="43">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "ウェーブ管理システム", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "ウェーブ管理システム") * 100,1)</f>
         <v>0</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28" t="s">
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I9" s="28" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="24">
-      <c r="B9" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="19">
-        <f>SUMIF(コスト表!B:B, B9, コスト表!D:D)</f>
-        <v>8</v>
-      </c>
-      <c r="D9" s="45">
+    <row r="10" spans="2:9" ht="24">
+      <c r="B10" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="19">
+        <f>SUMIF(コスト表!B:B, B10, コスト表!D:D)</f>
+        <v>8</v>
+      </c>
+      <c r="D10" s="43">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "アイテム", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "アイテム") * 100,1)</f>
         <v>0</v>
       </c>
-      <c r="F9" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="G9" s="34">
+      <c r="F10" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="32">
         <f>DATE(2025,7,23)</f>
         <v>45861</v>
       </c>
-      <c r="H9" s="50">
-        <f ca="1">NETWORKDAYS(TODAY(),G9)</f>
+      <c r="H10" s="48">
+        <f ca="1">NETWORKDAYS(TODAY(),G10)</f>
         <v>38</v>
       </c>
-      <c r="I9" s="7">
-        <f ca="1">($G$2 - $G$3) / H9</f>
-        <v>5.5263157894736841</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="19.5">
-      <c r="B10" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="19">
-        <f>SUMIF(コスト表!B:B, B10, コスト表!D:D)</f>
+      <c r="I10" s="7">
+        <f ca="1">($G$2 - $G$3) / H10</f>
+        <v>3.9078947368421053</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="19.5">
+      <c r="B11" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="19">
+        <f>SUMIF(コスト表!B:B, B11, コスト表!D:D)</f>
         <v>5</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D11" s="43">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "タイトル", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "タイトル") * 100,1)</f>
         <v>25</v>
       </c>
-      <c r="F10" s="35" t="s">
+      <c r="F11" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G11" s="29">
         <f>DATE(2025,8,11)</f>
         <v>45880</v>
       </c>
-      <c r="H10" s="49">
-        <f ca="1">NETWORKDAYS(TODAY(),G10)</f>
+      <c r="H11" s="47">
+        <f ca="1">NETWORKDAYS(TODAY(),G11)</f>
         <v>51</v>
       </c>
-      <c r="I10" s="30">
-        <f ca="1">($G$2 - $G$3) / H10</f>
-        <v>4.117647058823529</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="19.5">
-      <c r="B11" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="19">
-        <f>SUMIF(コスト表!B:B, B11, コスト表!D:D)</f>
+      <c r="I11" s="30">
+        <f ca="1">($G$2 - $G$3) / H11</f>
+        <v>2.9117647058823528</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="19.5">
+      <c r="B12" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="19">
+        <f>SUMIF(コスト表!B:B, B12, コスト表!D:D)</f>
         <v>7</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D12" s="43">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "オプション", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "オプション") * 100,1)</f>
         <v>0</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="F12" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G12" s="29">
         <f>DATE(2025,8,17)</f>
         <v>45886</v>
       </c>
-      <c r="H11" s="49">
-        <f ca="1">NETWORKDAYS(TODAY(),G11)</f>
+      <c r="H12" s="47">
+        <f ca="1">NETWORKDAYS(TODAY(),G12)</f>
         <v>55</v>
       </c>
-      <c r="I11" s="30">
-        <f ca="1">($G$2 - $G$3) / H11</f>
-        <v>3.8181818181818183</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="19.5">
-      <c r="B12" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="19">
-        <f>SUMIF(コスト表!B:B, B12, コスト表!D:D)</f>
-        <v>10</v>
-      </c>
-      <c r="D12" s="45">
+      <c r="I12" s="30">
+        <f ca="1">($G$2 - $G$3) / H12</f>
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="19.5">
+      <c r="B13" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="19">
+        <f>SUMIF(コスト表!B:B, B13, コスト表!D:D)</f>
+        <v>10</v>
+      </c>
+      <c r="D13" s="43">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "エフェクト", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "エフェクト") * 100,1)</f>
         <v>0</v>
       </c>
-      <c r="F12" s="37" t="s">
+      <c r="F13" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G13" s="29">
         <f>DATE(2025,9,1)</f>
         <v>45901</v>
       </c>
-      <c r="H12" s="49">
-        <f ca="1">NETWORKDAYS(TODAY(),G12)</f>
+      <c r="H13" s="47">
+        <f ca="1">NETWORKDAYS(TODAY(),G13)</f>
         <v>66</v>
       </c>
-      <c r="I12" s="30">
-        <f ca="1">($G$2 - $G$3) / H12</f>
-        <v>3.1818181818181817</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="18" t="s">
+      <c r="I13" s="30">
+        <f ca="1">($G$2 - $G$3) / H13</f>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C14" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="45">
+      <c r="D14" s="43">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="45">
+    <row r="15" spans="2:9">
+      <c r="B15" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="43">
         <f>ROUNDDOWN(COUNTIF(コスト表!G:G, "完了") / COUNTA(コスト表!G:G) * 100,1)</f>
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="F14" s="47" t="s">
+        <v>12.3</v>
+      </c>
+      <c r="F15" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="47" t="s">
-        <v>118</v>
-      </c>
-      <c r="H14" s="47" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="C15" s="7"/>
-      <c r="D15" s="43"/>
-      <c r="F15" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="48">
-        <f>SUMIF(コスト表!F:F, "プロト", コスト表!D:D)</f>
-        <v>157.5</v>
-      </c>
-      <c r="H15" s="48">
-        <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "プロト", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "プロト") * 100,1)</f>
-        <v>7.5</v>
+      <c r="G15" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="H15" s="45" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="2:9">
       <c r="C16" s="7"/>
-      <c r="D16" s="43"/>
-      <c r="F16" s="48" t="s">
+      <c r="D16" s="41"/>
+      <c r="F16" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="46">
+        <f>SUMIF(コスト表!F:F, "プロト", コスト表!D:D)</f>
+        <v>108</v>
+      </c>
+      <c r="H16" s="46">
+        <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "プロト", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "プロト") * 100,1)</f>
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8">
+      <c r="C17" s="7"/>
+      <c r="D17" s="41"/>
+      <c r="F17" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="48">
+      <c r="G17" s="46">
         <f>SUMIF(コスト表!F:F, "アルファ", コスト表!D:D)</f>
-        <v>55.5</v>
-      </c>
-      <c r="H16" s="48">
+        <v>43.5</v>
+      </c>
+      <c r="H17" s="46">
         <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "アルファ", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "アルファ") * 100,1)</f>
-        <v>14.2</v>
-      </c>
-    </row>
-    <row r="17" spans="4:8">
-      <c r="D17" s="43"/>
-      <c r="F17" s="48" t="s">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8">
+      <c r="D18" s="41"/>
+      <c r="F18" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="48">
+      <c r="G18" s="46">
         <f>SUMIF(コスト表!F:F, "ベータ", コスト表!D:D)</f>
         <v>6</v>
       </c>
-      <c r="H17" s="48" t="e">
+      <c r="H18" s="46" t="e">
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="4:8">
-      <c r="D18" s="43"/>
-      <c r="F18" s="48" t="s">
+    <row r="19" spans="3:8">
+      <c r="D19" s="41"/>
+      <c r="F19" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="48">
+      <c r="G19" s="46">
         <f>SUMIF(コスト表!F:F, "マスター", コスト表!D:D)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="48" t="e">
+      <c r="H19" s="46" t="e">
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="4:8">
-      <c r="D20" s="41"/>
-    </row>
-    <row r="21" spans="4:8">
-      <c r="D21" s="41"/>
-    </row>
-    <row r="22" spans="4:8">
-      <c r="D22" s="41"/>
-    </row>
-    <row r="23" spans="4:8">
-      <c r="D23" s="41"/>
+    <row r="21" spans="3:8">
+      <c r="D21" s="39"/>
+    </row>
+    <row r="22" spans="3:8">
+      <c r="D22" s="39"/>
+    </row>
+    <row r="23" spans="3:8">
+      <c r="D23" s="39"/>
+    </row>
+    <row r="24" spans="3:8">
+      <c r="D24" s="39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="D8 D10" formula="1"/>
+    <ignoredError sqref="D9 D11" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4380,13 +3980,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="38" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4425,7 +4025,7 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>27</v>
@@ -4441,6 +4041,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006836AD0B55474E4CAD520F1DEB8FB579" ma:contentTypeVersion="3" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="078ba6c1f7b5b638bb57eb024ae572f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="187a6309-4c0c-49e3-bd2d-e8130eb88270" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5f182963113af090d1b42042cf04cb6" ns2:_="">
     <xsd:import namespace="187a6309-4c0c-49e3-bd2d-e8130eb88270"/>
@@ -4578,22 +4193,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A1D85CE-B20E-4841-A55B-779E85453EF9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4609,21 +4226,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ゾンビシューターゲームコスト表.xlsx
+++ b/ゾンビシューターゲームコスト表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\由留部\Documents\MyGame3D2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sho24\OneDrive\ドキュメント\MyGame3D2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5FD6D4-FDFD-4CA0-BED5-D382C00A8BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{415C2DD6-289C-4A1B-BB76-389A6CCFCC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="2625" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コスト表" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,11 @@
     <sheet name="その他" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">コスト表!$E$2:$G$109</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">コスト表!$E$2:$G$105</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">分類別コスト集計!$B$2:$D$18</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="137">
   <si>
     <t>分類</t>
   </si>
@@ -331,10 +332,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve"> 難易度に応じたパラメータ設定</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>HP, 攻撃力, 移動速度など</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -389,18 +386,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>敵が全滅したとき</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>出現するゾンビの種類をウェーブごとに変更</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">例：Wave 3からランナーが出る等 </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>出現位置・タイミングの制御</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -410,54 +395,6 @@
   </si>
   <si>
     <t xml:space="preserve">出現数の動的調整 </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">最終ウェーブ終了時にボス戦へ遷移 </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ウェーブ間の「アイテム選択」時間の制御 </t>
-    <rPh sb="11" eb="13">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一定のウェーブ終了後3つのアイテムから1つ選択</t>
-    <rPh sb="0" eb="2">
-      <t>イッテイ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>シュウリョウゴ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ウェーブ開始演出（音・UI） </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 例：「Wave 4 Start!!」表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ウェーブ定義データの外部化</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JSONやCSVで柔軟に設定管理可能にする</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ウェーブ終了時のスコア表示・演出</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>評価ランク(S〜C評価)・報酬アイテム抽選表示</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -708,10 +645,7 @@
       <t>ハンテイ</t>
     </rPh>
     <rPh sb="5" eb="7">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="7" eb="12">
-      <t>ショキカショリ</t>
+      <t>ショリショキカショリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -872,6 +806,24 @@
     <rPh sb="3" eb="7">
       <t>コウゲキジッソウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>難易度に応じたパラメータ設定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ウェーブ開始/終了演出・スコア表示 </t>
+    <rPh sb="7" eb="9">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウェーブごとにゾンビの種類を変更</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1711,11 +1663,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I109"/>
+  <dimension ref="B1:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -1732,7 +1684,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" customHeight="1">
       <c r="B1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="2:8" ht="18.75">
@@ -1826,7 +1778,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="D6" s="7">
         <v>3</v>
@@ -1891,7 +1843,7 @@
         <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D9" s="7">
         <v>3</v>
@@ -1930,10 +1882,10 @@
     </row>
     <row r="11" spans="2:8" ht="18.75">
       <c r="B11" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="D11" s="7">
         <v>2</v>
@@ -1951,10 +1903,10 @@
     </row>
     <row r="12" spans="2:8" ht="18.75">
       <c r="B12" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="D12" s="7">
         <v>1</v>
@@ -1969,7 +1921,7 @@
         <v>14</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="18.75">
@@ -1977,7 +1929,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D13" s="7">
         <v>3</v>
@@ -2121,10 +2073,10 @@
     </row>
     <row r="20" spans="2:8" ht="18.75">
       <c r="B20" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D20" s="7">
         <v>0.5</v>
@@ -2145,7 +2097,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="7">
         <v>2</v>
@@ -2172,10 +2124,10 @@
     </row>
     <row r="23" spans="2:8" ht="18.75">
       <c r="B23" s="3" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="D23" s="8">
         <v>5</v>
@@ -2190,15 +2142,15 @@
         <v>10</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="18.75">
       <c r="B24" s="1" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="D24" s="7">
         <v>4</v>
@@ -2213,15 +2165,15 @@
         <v>10</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="18.75">
       <c r="B25" s="1" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="D25" s="7">
         <v>6</v>
@@ -2236,15 +2188,15 @@
         <v>10</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="18.75">
       <c r="B26" s="1" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="D26" s="7">
         <v>2</v>
@@ -2256,16 +2208,16 @@
         <v>9</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="H26" s="15"/>
     </row>
     <row r="27" spans="2:8" ht="18.75">
       <c r="B27" s="1" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="D27" s="7">
         <v>6</v>
@@ -2280,15 +2232,15 @@
         <v>10</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="18.75">
       <c r="B28" s="1" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D28" s="7">
         <v>3</v>
@@ -2303,7 +2255,7 @@
         <v>10</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="18.75">
@@ -2320,7 +2272,7 @@
         <v>52</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="D30" s="4">
         <v>1.5</v>
@@ -2341,7 +2293,7 @@
         <v>52</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="D31" s="7">
         <v>1</v>
@@ -2362,7 +2314,7 @@
         <v>52</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="D32" s="7">
         <v>2</v>
@@ -2392,7 +2344,7 @@
         <v>53</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="D34" s="8">
         <v>1.5</v>
@@ -2413,7 +2365,7 @@
         <v>53</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="D35" s="7">
         <v>1.5</v>
@@ -2434,7 +2386,7 @@
         <v>53</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="D36" s="7">
         <v>1</v>
@@ -2455,7 +2407,7 @@
         <v>53</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="D37" s="7">
         <v>2</v>
@@ -2482,10 +2434,10 @@
     </row>
     <row r="39" spans="2:8" ht="18.75">
       <c r="B39" s="1" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="D39" s="4">
         <v>1.5</v>
@@ -2503,10 +2455,10 @@
     </row>
     <row r="40" spans="2:8" ht="18.75">
       <c r="B40" s="1" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="D40" s="7">
         <v>1</v>
@@ -2524,10 +2476,10 @@
     </row>
     <row r="41" spans="2:8" ht="18.75">
       <c r="B41" s="1" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="D41" s="7">
         <v>2</v>
@@ -2554,10 +2506,10 @@
     </row>
     <row r="43" spans="2:8" ht="18.75">
       <c r="B43" s="3" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D43" s="8">
         <v>5</v>
@@ -2575,7 +2527,7 @@
     </row>
     <row r="44" spans="2:8" ht="18.75">
       <c r="B44" s="1" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>59</v>
@@ -2598,7 +2550,7 @@
     </row>
     <row r="45" spans="2:8" ht="18.75">
       <c r="B45" s="1" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>60</v>
@@ -2621,7 +2573,7 @@
     </row>
     <row r="46" spans="2:8" ht="18.75">
       <c r="B46" s="1" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>63</v>
@@ -2644,7 +2596,7 @@
     </row>
     <row r="47" spans="2:8" ht="18.75">
       <c r="B47" s="1" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>56</v>
@@ -2667,7 +2619,7 @@
     </row>
     <row r="48" spans="2:8" ht="18.75">
       <c r="B48" s="1" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>55</v>
@@ -2691,10 +2643,10 @@
     </row>
     <row r="49" spans="2:8" ht="18.75">
       <c r="B49" s="1" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D49" s="7">
         <v>5</v>
@@ -2709,7 +2661,7 @@
         <v>10</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="18.75">
@@ -2723,10 +2675,10 @@
     </row>
     <row r="51" spans="2:8" ht="18.75">
       <c r="B51" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D51" s="4">
         <v>2</v>
@@ -2741,15 +2693,15 @@
         <v>10</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="18.75">
       <c r="B52" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D52" s="7">
         <v>2</v>
@@ -2763,16 +2715,14 @@
       <c r="G52" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H52" s="15" t="s">
-        <v>75</v>
-      </c>
+      <c r="H52" s="15"/>
     </row>
     <row r="53" spans="2:8" ht="18.75">
       <c r="B53" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="D53" s="7">
         <v>3</v>
@@ -2786,16 +2736,14 @@
       <c r="G53" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H53" s="15" t="s">
-        <v>77</v>
-      </c>
+      <c r="H53" s="15"/>
     </row>
     <row r="54" spans="2:8" ht="18.75">
       <c r="B54" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D54" s="7">
         <v>4</v>
@@ -2810,15 +2758,15 @@
         <v>10</v>
       </c>
       <c r="H54" s="15" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="18.75">
       <c r="B55" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D55" s="7">
         <v>2</v>
@@ -2833,47 +2781,47 @@
         <v>10</v>
       </c>
       <c r="H55" s="15" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="18.75">
       <c r="B56" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D56" s="7">
+        <v>8</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H56" s="15" t="s">
         <v>65</v>
-      </c>
-      <c r="D56" s="7">
-        <v>9</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G56" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H56" s="15" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="18.75">
       <c r="B57" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="D57" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G57" s="11" t="s">
         <v>10</v>
@@ -2881,142 +2829,122 @@
       <c r="H57" s="15"/>
     </row>
     <row r="58" spans="2:8" ht="18.75">
-      <c r="B58" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D58" s="7">
-        <v>3</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G58" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H58" s="15" t="s">
-        <v>83</v>
-      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="15"/>
     </row>
     <row r="59" spans="2:8" ht="18.75">
-      <c r="B59" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D59" s="7">
-        <v>1</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F59" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H59" s="15" t="s">
-        <v>85</v>
-      </c>
+      <c r="B59" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D59" s="8">
+        <v>2</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H59" s="14"/>
     </row>
     <row r="60" spans="2:8" ht="18.75">
       <c r="B60" s="1" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="D60" s="7">
         <v>2</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G60" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H60" s="15" t="s">
-        <v>89</v>
-      </c>
+      <c r="H60" s="15"/>
     </row>
     <row r="61" spans="2:8" ht="18.75">
       <c r="B61" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="D61" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G61" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H61" s="15" t="s">
-        <v>87</v>
-      </c>
+      <c r="H61" s="15"/>
     </row>
     <row r="62" spans="2:8" ht="18.75">
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
+      <c r="B62" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D62" s="7">
+        <v>2</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="H62" s="15"/>
     </row>
     <row r="63" spans="2:8" ht="18.75">
-      <c r="B63" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D63" s="8">
-        <v>2</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F63" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G63" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H63" s="14"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="16"/>
     </row>
     <row r="64" spans="2:8" ht="18.75">
       <c r="B64" s="1" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D64" s="7">
-        <v>2</v>
+        <v>83</v>
+      </c>
+      <c r="D64" s="4">
+        <v>1</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="G64" s="11" t="s">
         <v>10</v>
@@ -3025,34 +2953,34 @@
     </row>
     <row r="65" spans="2:8" ht="18.75">
       <c r="B65" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="D65" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H65" s="15"/>
     </row>
     <row r="66" spans="2:8" ht="18.75">
       <c r="B66" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D66" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>16</v>
@@ -3066,71 +2994,73 @@
       <c r="H66" s="15"/>
     </row>
     <row r="67" spans="2:8" ht="18.75">
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="16"/>
+      <c r="B67" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D67" s="7">
+        <v>2</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H67" s="15"/>
     </row>
     <row r="68" spans="2:8" ht="18.75">
-      <c r="B68" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D68" s="4">
-        <v>1</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F68" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G68" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
       <c r="H68" s="15"/>
     </row>
     <row r="69" spans="2:8" ht="18.75">
-      <c r="B69" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D69" s="7">
-        <v>1</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G69" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H69" s="15"/>
+      <c r="B69" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D69" s="4">
+        <v>2</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H69" s="14" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="70" spans="2:8" ht="18.75">
       <c r="B70" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D70" s="7">
         <v>1</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G70" s="11" t="s">
         <v>10</v>
@@ -3139,72 +3069,84 @@
     </row>
     <row r="71" spans="2:8" ht="18.75">
       <c r="B71" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D71" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E71" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H71" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" ht="18.75">
+      <c r="B72" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D72" s="7">
+        <v>1</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H72" s="15"/>
+    </row>
+    <row r="73" spans="2:8" ht="18.75">
+      <c r="B73" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D73" s="7">
+        <v>1</v>
+      </c>
+      <c r="E73" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F71" s="11" t="s">
+      <c r="F73" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G71" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H71" s="15"/>
-    </row>
-    <row r="72" spans="2:8" ht="18.75">
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="15"/>
-    </row>
-    <row r="73" spans="2:8" ht="18.75">
-      <c r="B73" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D73" s="4">
-        <v>2</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G73" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H73" s="14" t="s">
-        <v>102</v>
-      </c>
+      <c r="G73" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H73" s="15"/>
     </row>
     <row r="74" spans="2:8" ht="18.75">
       <c r="B74" s="1" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D74" s="7">
         <v>1</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G74" s="11" t="s">
         <v>10</v>
@@ -3212,37 +3154,23 @@
       <c r="H74" s="15"/>
     </row>
     <row r="75" spans="2:8" ht="18.75">
-      <c r="B75" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D75" s="7">
-        <v>1</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F75" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G75" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H75" s="15" t="s">
-        <v>125</v>
-      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="16"/>
     </row>
     <row r="76" spans="2:8" ht="18.75">
       <c r="B76" s="1" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D76" s="7">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="D76" s="4">
+        <v>4</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>8</v>
@@ -3257,19 +3185,19 @@
     </row>
     <row r="77" spans="2:8" ht="18.75">
       <c r="B77" s="1" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="D77" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G77" s="11" t="s">
         <v>10</v>
@@ -3278,19 +3206,19 @@
     </row>
     <row r="78" spans="2:8" ht="18.75">
       <c r="B78" s="1" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="D78" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G78" s="11" t="s">
         <v>10</v>
@@ -3298,136 +3226,84 @@
       <c r="H78" s="15"/>
     </row>
     <row r="79" spans="2:8" ht="18.75">
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="16"/>
+      <c r="B79" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79" s="7">
+        <v>2</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G79" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H79" s="15"/>
     </row>
     <row r="80" spans="2:8" ht="18.75">
-      <c r="B80" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D80" s="4">
-        <v>4</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F80" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G80" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
       <c r="H80" s="15"/>
     </row>
     <row r="81" spans="2:8" ht="18.75">
-      <c r="B81" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D81" s="7">
-        <v>2</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F81" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G81" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H81" s="15"/>
+      <c r="B81" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G81" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H81" s="14"/>
     </row>
     <row r="82" spans="2:8" ht="18.75">
-      <c r="B82" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D82" s="7">
-        <v>2</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F82" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G82" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H82" s="15"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="16"/>
     </row>
     <row r="83" spans="2:8" ht="18.75">
-      <c r="B83" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D83" s="7">
-        <v>2</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F83" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G83" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H83" s="15"/>
+      <c r="C83"/>
+      <c r="D83" s="7"/>
+      <c r="H83" s="13"/>
     </row>
     <row r="84" spans="2:8" ht="18.75">
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
+      <c r="C84"/>
       <c r="D84" s="7"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11"/>
-      <c r="H84" s="15"/>
+      <c r="H84" s="13"/>
     </row>
     <row r="85" spans="2:8" ht="18.75">
-      <c r="B85" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G85" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H85" s="14"/>
+      <c r="C85"/>
+      <c r="D85" s="7"/>
+      <c r="H85" s="13"/>
     </row>
     <row r="86" spans="2:8" ht="18.75">
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="12"/>
-      <c r="H86" s="16"/>
+      <c r="C86"/>
+      <c r="D86" s="7"/>
+      <c r="H86" s="13"/>
     </row>
     <row r="87" spans="2:8" ht="18.75">
       <c r="C87"/>
@@ -3469,30 +3345,28 @@
       <c r="D94" s="7"/>
       <c r="H94" s="13"/>
     </row>
-    <row r="95" spans="2:8" ht="18.75">
-      <c r="C95"/>
-      <c r="D95" s="7"/>
-      <c r="H95" s="13"/>
-    </row>
-    <row r="96" spans="2:8" ht="18.75">
-      <c r="C96"/>
-      <c r="D96" s="7"/>
-      <c r="H96" s="13"/>
-    </row>
-    <row r="97" spans="3:8" ht="18.75">
-      <c r="C97"/>
-      <c r="D97" s="7"/>
-      <c r="H97" s="13"/>
-    </row>
-    <row r="98" spans="3:8" ht="18.75">
-      <c r="C98"/>
-      <c r="D98" s="7"/>
-      <c r="H98" s="13"/>
-    </row>
-    <row r="99" spans="3:8" ht="18.75"/>
-    <row r="100" spans="3:8" ht="18.75"/>
-    <row r="101" spans="3:8" ht="18.75"/>
-    <row r="102" spans="3:8" ht="18.75"/>
+    <row r="95" spans="2:8" ht="18.75"/>
+    <row r="96" spans="2:8" ht="18.75"/>
+    <row r="97" spans="3:8" ht="18.75"/>
+    <row r="98" spans="3:8" ht="18.75"/>
+    <row r="99" spans="3:8" ht="18.75">
+      <c r="C99"/>
+      <c r="D99" s="7"/>
+      <c r="H99" s="13"/>
+    </row>
+    <row r="100" spans="3:8" ht="18.75">
+      <c r="C100"/>
+      <c r="D100" s="7"/>
+      <c r="H100" s="13"/>
+    </row>
+    <row r="101" spans="3:8" ht="18.75">
+      <c r="H101" s="13"/>
+    </row>
+    <row r="102" spans="3:8" ht="18.75">
+      <c r="C102"/>
+      <c r="D102" s="7"/>
+      <c r="H102" s="13"/>
+    </row>
     <row r="103" spans="3:8" ht="18.75">
       <c r="C103"/>
       <c r="D103" s="7"/>
@@ -3504,30 +3378,12 @@
       <c r="H104" s="13"/>
     </row>
     <row r="105" spans="3:8" ht="18.75">
+      <c r="C105"/>
+      <c r="D105" s="7"/>
       <c r="H105" s="13"/>
     </row>
-    <row r="106" spans="3:8" ht="18.75">
-      <c r="C106"/>
-      <c r="D106" s="7"/>
-      <c r="H106" s="13"/>
-    </row>
-    <row r="107" spans="3:8" ht="18.75">
-      <c r="C107"/>
-      <c r="D107" s="7"/>
-      <c r="H107" s="13"/>
-    </row>
-    <row r="108" spans="3:8" ht="18.75">
-      <c r="C108"/>
-      <c r="D108" s="7"/>
-      <c r="H108" s="13"/>
-    </row>
-    <row r="109" spans="3:8" ht="18.75">
-      <c r="C109"/>
-      <c r="D109" s="7"/>
-      <c r="H109" s="13"/>
-    </row>
   </sheetData>
-  <autoFilter ref="E2:G109" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="E2:G105" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
@@ -3538,19 +3394,19 @@
           <x14:formula1>
             <xm:f>その他!$B$3:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>G103:G104 G106:G1048576 G1:G98</xm:sqref>
+          <xm:sqref>G99:G100 G102:G1048576 G1:G94</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{66D8840C-D443-486F-BC72-01200775D285}">
           <x14:formula1>
             <xm:f>その他!$D$3:$D$6</xm:f>
           </x14:formula1>
-          <xm:sqref>F103:F104 F106:F1048576 F1:F98</xm:sqref>
+          <xm:sqref>F99:F100 F102:F1048576 F1:F94</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D61B1C0A-2748-4606-B0EE-00EEC89A23C6}">
           <x14:formula1>
             <xm:f>その他!$F$3:$F$6</xm:f>
           </x14:formula1>
-          <xm:sqref>E103:E104 E106:E1048576 E1:E98</xm:sqref>
+          <xm:sqref>E99:E100 E102:E1048576 E1:E94</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3563,7 +3419,7 @@
   <dimension ref="B2:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3585,14 +3441,14 @@
         <v>2</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="F2" s="33" t="s">
         <v>29</v>
       </c>
       <c r="G2" s="28">
         <f>SUM(C:C)</f>
-        <v>157.5</v>
+        <v>147.5</v>
       </c>
       <c r="H2" s="28"/>
       <c r="I2" s="28"/>
@@ -3623,7 +3479,7 @@
     </row>
     <row r="4" spans="2:9" ht="19.5">
       <c r="B4" s="1" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="C4" s="19">
         <f>SUMIF(コスト表!B:B, B4, コスト表!D:D)</f>
@@ -3633,9 +3489,17 @@
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "敵基底クラス", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "敵基底クラス") * 100,1)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="F4" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="28">
+        <f ca="1">NETWORKDAYS(G5,G6)</f>
+        <v>22</v>
+      </c>
+      <c r="H4" s="30">
+        <f ca="1" xml:space="preserve"> G3 / G4</f>
+        <v>0.40909090909090912</v>
+      </c>
       <c r="I4" s="28"/>
     </row>
     <row r="5" spans="2:9" ht="19.5">
@@ -3650,17 +3514,14 @@
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "敵1(通常ゾンビ)", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "敵1(通常ゾンビ)") * 100,1)</f>
         <v>0</v>
       </c>
-      <c r="F5" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="28">
-        <f ca="1">NETWORKDAYS(G6,G7)</f>
-        <v>22</v>
-      </c>
-      <c r="H5" s="30">
-        <f ca="1" xml:space="preserve"> G3 / G5</f>
-        <v>0.40909090909090912</v>
-      </c>
+      <c r="F5" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="29">
+        <f>DATE(2025,5,2)</f>
+        <v>45779</v>
+      </c>
+      <c r="H5" s="28"/>
       <c r="I5" s="28"/>
     </row>
     <row r="6" spans="2:9" ht="19.5">
@@ -3675,19 +3536,19 @@
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "敵2(ランナーゾンビ)", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "敵2(ランナーゾンビ)") * 100,1)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="36" t="s">
-        <v>33</v>
+      <c r="F6" s="37" t="s">
+        <v>34</v>
       </c>
       <c r="G6" s="29">
-        <f>DATE(2025,5,2)</f>
-        <v>45779</v>
+        <f ca="1">TODAY()</f>
+        <v>45810</v>
       </c>
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
     </row>
-    <row r="7" spans="2:9" ht="19.5">
+    <row r="7" spans="2:9">
       <c r="B7" s="18" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="C7" s="19">
         <f>SUMIF(コスト表!B:B, B7, コスト表!D:D)</f>
@@ -3697,19 +3558,11 @@
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "敵3(遠距離型ゾンビ)", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "敵3(遠距離型ゾンビ)") * 100,1)</f>
         <v>0</v>
       </c>
-      <c r="F7" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="29">
-        <f ca="1">TODAY()</f>
-        <v>45810</v>
-      </c>
-      <c r="H7" s="28"/>
       <c r="I7" s="28"/>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="18" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C8" s="19">
         <f>SUMIF(コスト表!B:B, B8, コスト表!D:D)</f>
@@ -3721,33 +3574,44 @@
       </c>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-    </row>
-    <row r="9" spans="2:9">
+      <c r="H8" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="24">
       <c r="B9" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="19">
         <f>SUMIF(コスト表!B:B, B9, コスト表!D:D)</f>
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D9" s="43">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "ウェーブ管理システム", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "ウェーブ管理システム") * 100,1)</f>
         <v>0</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="24">
+      <c r="F9" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="32">
+        <f>DATE(2025,7,23)</f>
+        <v>45861</v>
+      </c>
+      <c r="H9" s="48">
+        <f ca="1">NETWORKDAYS(TODAY(),G9)</f>
+        <v>38</v>
+      </c>
+      <c r="I9" s="7">
+        <f ca="1">($G$2 - $G$3) / H9</f>
+        <v>3.6447368421052633</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="19.5">
       <c r="B10" s="18" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C10" s="19">
         <f>SUMIF(コスト表!B:B, B10, コスト表!D:D)</f>
@@ -3757,25 +3621,25 @@
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "アイテム", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "アイテム") * 100,1)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="G10" s="32">
-        <f>DATE(2025,7,23)</f>
-        <v>45861</v>
-      </c>
-      <c r="H10" s="48">
+      <c r="F10" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="29">
+        <f>DATE(2025,8,11)</f>
+        <v>45880</v>
+      </c>
+      <c r="H10" s="47">
         <f ca="1">NETWORKDAYS(TODAY(),G10)</f>
-        <v>38</v>
-      </c>
-      <c r="I10" s="7">
+        <v>51</v>
+      </c>
+      <c r="I10" s="30">
         <f ca="1">($G$2 - $G$3) / H10</f>
-        <v>3.9078947368421053</v>
+        <v>2.715686274509804</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="19.5">
       <c r="B11" s="18" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C11" s="19">
         <f>SUMIF(コスト表!B:B, B11, コスト表!D:D)</f>
@@ -3785,25 +3649,25 @@
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "タイトル", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "タイトル") * 100,1)</f>
         <v>25</v>
       </c>
-      <c r="F11" s="33" t="s">
-        <v>37</v>
+      <c r="F11" s="34" t="s">
+        <v>38</v>
       </c>
       <c r="G11" s="29">
-        <f>DATE(2025,8,11)</f>
-        <v>45880</v>
+        <f>DATE(2025,8,17)</f>
+        <v>45886</v>
       </c>
       <c r="H11" s="47">
         <f ca="1">NETWORKDAYS(TODAY(),G11)</f>
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I11" s="30">
         <f ca="1">($G$2 - $G$3) / H11</f>
-        <v>2.9117647058823528</v>
+        <v>2.5181818181818181</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="19.5">
       <c r="B12" s="18" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C12" s="19">
         <f>SUMIF(コスト表!B:B, B12, コスト表!D:D)</f>
@@ -3813,25 +3677,25 @@
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "オプション", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "オプション") * 100,1)</f>
         <v>0</v>
       </c>
-      <c r="F12" s="34" t="s">
-        <v>38</v>
+      <c r="F12" s="35" t="s">
+        <v>39</v>
       </c>
       <c r="G12" s="29">
-        <f>DATE(2025,8,17)</f>
-        <v>45886</v>
+        <f>DATE(2025,9,1)</f>
+        <v>45901</v>
       </c>
       <c r="H12" s="47">
         <f ca="1">NETWORKDAYS(TODAY(),G12)</f>
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="I12" s="30">
         <f ca="1">($G$2 - $G$3) / H12</f>
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="19.5">
+        <v>2.0984848484848486</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
       <c r="B13" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="19">
         <f>SUMIF(コスト表!B:B, B13, コスト表!D:D)</f>
@@ -3841,21 +3705,6 @@
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "エフェクト", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "エフェクト") * 100,1)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="29">
-        <f>DATE(2025,9,1)</f>
-        <v>45901</v>
-      </c>
-      <c r="H13" s="47">
-        <f ca="1">NETWORKDAYS(TODAY(),G13)</f>
-        <v>66</v>
-      </c>
-      <c r="I13" s="30">
-        <f ca="1">($G$2 - $G$3) / H13</f>
-        <v>2.25</v>
-      </c>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="18" t="s">
@@ -3867,64 +3716,75 @@
       <c r="D14" s="43">
         <v>0</v>
       </c>
+      <c r="F14" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" s="45" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="44" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="43">
         <f>ROUNDDOWN(COUNTIF(コスト表!G:G, "完了") / COUNTA(コスト表!G:G) * 100,1)</f>
-        <v>12.3</v>
-      </c>
-      <c r="F15" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="H15" s="45" t="s">
-        <v>110</v>
+        <v>13</v>
+      </c>
+      <c r="F15" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="46">
+        <f>SUMIF(コスト表!F:F, "プロト", コスト表!D:D)</f>
+        <v>103</v>
+      </c>
+      <c r="H15" s="46">
+        <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "プロト", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "プロト") * 100,1)</f>
+        <v>11.3</v>
       </c>
     </row>
     <row r="16" spans="2:9">
       <c r="C16" s="7"/>
       <c r="D16" s="41"/>
       <c r="F16" s="46" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G16" s="46">
-        <f>SUMIF(コスト表!F:F, "プロト", コスト表!D:D)</f>
-        <v>108</v>
+        <f>SUMIF(コスト表!F:F, "アルファ", コスト表!D:D)</f>
+        <v>43.5</v>
       </c>
       <c r="H16" s="46">
-        <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "プロト", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "プロト") * 100,1)</f>
-        <v>10.8</v>
+        <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "アルファ", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "アルファ") * 100,1)</f>
+        <v>17.3</v>
       </c>
     </row>
     <row r="17" spans="3:8">
       <c r="C17" s="7"/>
       <c r="D17" s="41"/>
       <c r="F17" s="46" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G17" s="46">
-        <f>SUMIF(コスト表!F:F, "アルファ", コスト表!D:D)</f>
-        <v>43.5</v>
+        <f>SUMIF(コスト表!F:F, "ベータ", コスト表!D:D)</f>
+        <v>1</v>
       </c>
       <c r="H17" s="46">
-        <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "アルファ", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "アルファ") * 100,1)</f>
-        <v>16.600000000000001</v>
+        <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "ベータ", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "ベータ") * 100,1)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="3:8">
       <c r="D18" s="41"/>
       <c r="F18" s="46" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G18" s="46">
-        <f>SUMIF(コスト表!F:F, "ベータ", コスト表!D:D)</f>
-        <v>6</v>
+        <f>SUMIF(コスト表!F:F, "マスター", コスト表!D:D)</f>
+        <v>0</v>
       </c>
       <c r="H18" s="46" t="e">
         <v>#DIV/0!</v>
@@ -3932,16 +3792,6 @@
     </row>
     <row r="19" spans="3:8">
       <c r="D19" s="41"/>
-      <c r="F19" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="46">
-        <f>SUMIF(コスト表!F:F, "マスター", コスト表!D:D)</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="46" t="e">
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="21" spans="3:8">
       <c r="D21" s="39"/>
@@ -4025,7 +3875,7 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>27</v>
@@ -4041,21 +3891,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006836AD0B55474E4CAD520F1DEB8FB579" ma:contentTypeVersion="3" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="078ba6c1f7b5b638bb57eb024ae572f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="187a6309-4c0c-49e3-bd2d-e8130eb88270" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5f182963113af090d1b42042cf04cb6" ns2:_="">
     <xsd:import namespace="187a6309-4c0c-49e3-bd2d-e8130eb88270"/>
@@ -4193,24 +4028,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A1D85CE-B20E-4841-A55B-779E85453EF9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4226,4 +4059,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ゾンビシューターゲームコスト表.xlsx
+++ b/ゾンビシューターゲームコスト表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sho24\OneDrive\ドキュメント\MyGame3D2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\由留部 瑛人\Documents\MyGame3D2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{415C2DD6-289C-4A1B-BB76-389A6CCFCC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F5C3F1-C89F-4C5C-9F22-66E8FB6CE946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8415" yWindow="2430" windowWidth="17205" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コスト表" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,10 @@
     <sheet name="その他" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">コスト表!$E$2:$G$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">コスト表!$E$2:$G$112</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">分類別コスト集計!$B$2:$D$18</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="140">
   <si>
     <t>分類</t>
   </si>
@@ -222,25 +221,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>キー入力、当たり判定処理を行う</t>
-    <rPh sb="2" eb="4">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>死亡アニメーション</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -276,91 +256,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プレイヤー検知（視野 or 範囲）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ナビゲーション・移動処理</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	プレイヤーを追尾する、壁などを避ける</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>視野角や距離で検知する仕組み</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>当たり判定(キャラクター本体)</t>
-    <rPh sb="0" eb="1">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ホンタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>攻撃時の当たり判定</t>
-    <rPh sb="0" eb="3">
-      <t>コウゲキジ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゾンビの攻撃がプレイヤーに届く処理</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">プレイヤーの弾や攻撃を受けるため </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ヒットエフェクト・リアクション</t>
-  </si>
-  <si>
-    <t>衝突時の演出</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HP, 攻撃力, 移動速度など</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アニメーション制御</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>それぞれの状態のアニメーションと切り替え</t>
-    <rPh sb="5" eb="7">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>エフェクト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>攻撃</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -824,6 +724,140 @@
   </si>
   <si>
     <t>ウェーブごとにゾンビの種類を変更</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クロスヘア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サウンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弾の発射音・武器切り替え音・空打ち音・足音・ジャンプ音・ダッシュ音・被弾音・死亡音</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了コスト</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘッドショット判定</t>
+    <rPh sb="7" eb="9">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダッシュ時の画面ブレ効果</t>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒットマーカー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弾が敵に当たった時に表示される視覚的なフィードバック、ダメージ量に応じた表示変化</t>
+    <rPh sb="31" eb="32">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="36" eb="40">
+      <t>ヒョウジヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HP・攻撃力・移動速度など</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵基底クラス</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>キテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サウンド管理</t>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サウンド実装</t>
+    <rPh sb="4" eb="6">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃パターン実装</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>召喚機能実装</t>
+    <rPh sb="0" eb="4">
+      <t>ショウカンキノウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー検知(視野 or 範囲)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1173,7 +1207,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1259,18 +1293,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1321,6 +1349,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1663,11 +1704,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I105"/>
+  <dimension ref="B1:I112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -1684,7 +1725,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" customHeight="1">
       <c r="B1" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="2:8" ht="18.75">
@@ -1754,22 +1795,22 @@
     </row>
     <row r="5" spans="2:8" ht="18.75">
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>123</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="D5" s="7">
         <v>1</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H5" s="15"/>
     </row>
@@ -1778,10 +1819,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="D6" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>8</v>
@@ -1790,21 +1831,19 @@
         <v>9</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>49</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H6" s="15"/>
     </row>
     <row r="7" spans="2:8" ht="18.75">
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="D7" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>8</v>
@@ -1822,10 +1861,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D8" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>8</v>
@@ -1840,13 +1879,13 @@
     </row>
     <row r="9" spans="2:8" ht="18.75">
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="D9" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>8</v>
@@ -1855,19 +1894,19 @@
         <v>9</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="2:8" ht="18.75">
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="D10" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>8</v>
@@ -1876,19 +1915,19 @@
         <v>9</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H10" s="15"/>
     </row>
     <row r="11" spans="2:8" ht="18.75">
       <c r="B11" s="1" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="D11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>8</v>
@@ -1903,13 +1942,13 @@
     </row>
     <row r="12" spans="2:8" ht="18.75">
       <c r="B12" s="1" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D12" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>8</v>
@@ -1918,21 +1957,19 @@
         <v>9</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>110</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H12" s="15"/>
     </row>
     <row r="13" spans="2:8" ht="18.75">
       <c r="B13" s="1" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="D13" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>8</v>
@@ -1941,88 +1978,92 @@
         <v>9</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="15"/>
+        <v>14</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="14" spans="2:8" ht="18.75">
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="D14" s="7">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H14" s="15"/>
     </row>
     <row r="15" spans="2:8" ht="18.75">
       <c r="B15" s="1" t="s">
-        <v>7</v>
+        <v>123</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="D15" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H15" s="15"/>
     </row>
     <row r="16" spans="2:8" ht="18.75">
       <c r="B16" s="1" t="s">
-        <v>7</v>
+        <v>123</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="D16" s="7">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="15"/>
+        <v>14</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="17" spans="2:8" ht="18.75">
       <c r="B17" s="1" t="s">
-        <v>7</v>
+        <v>123</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="D17" s="7">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>10</v>
@@ -2034,7 +2075,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D18" s="7">
         <v>0.5</v>
@@ -2046,7 +2087,7 @@
         <v>13</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H18" s="15"/>
     </row>
@@ -2055,7 +2096,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D19" s="7">
         <v>0.5</v>
@@ -2073,10 +2114,10 @@
     </row>
     <row r="20" spans="2:8" ht="18.75">
       <c r="B20" s="1" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="D20" s="7">
         <v>0.5</v>
@@ -2088,7 +2129,7 @@
         <v>13</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H20" s="15"/>
     </row>
@@ -2097,10 +2138,10 @@
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="D21" s="7">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>8</v>
@@ -2109,173 +2150,181 @@
         <v>13</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H21" s="15"/>
     </row>
     <row r="22" spans="2:8" ht="18.75">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="H22" s="15"/>
     </row>
     <row r="23" spans="2:8" ht="18.75">
-      <c r="B23" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D23" s="8">
-        <v>5</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>116</v>
-      </c>
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="15"/>
     </row>
     <row r="24" spans="2:8" ht="18.75">
       <c r="B24" s="1" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="D24" s="7">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H24" s="15" t="s">
-        <v>118</v>
-      </c>
+      <c r="H24" s="15"/>
     </row>
     <row r="25" spans="2:8" ht="18.75">
       <c r="B25" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D25" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="15" t="s">
-        <v>120</v>
+      <c r="H25" s="52" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="18.75">
       <c r="B26" s="1" t="s">
-        <v>114</v>
+        <v>7</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="D26" s="7">
         <v>2</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="H26" s="15"/>
+        <v>14</v>
+      </c>
+      <c r="H26" s="5"/>
     </row>
     <row r="27" spans="2:8" ht="18.75">
-      <c r="B27" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D27" s="7">
-        <v>6</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>125</v>
-      </c>
+      <c r="B27" s="42"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="6"/>
     </row>
     <row r="28" spans="2:8" ht="18.75">
-      <c r="B28" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D28" s="7">
-        <v>3</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>127</v>
+      <c r="B28" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="8">
+        <v>5</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="18.75">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="16"/>
+      <c r="B29" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" s="7">
+        <v>4</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="30" spans="2:8" ht="18.75">
       <c r="B30" s="1" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D30" s="4">
-        <v>1.5</v>
+        <v>105</v>
+      </c>
+      <c r="D30" s="7">
+        <v>6</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>8</v>
@@ -2286,17 +2335,19 @@
       <c r="G30" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H30" s="15"/>
+      <c r="H30" s="15" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="31" spans="2:8" ht="18.75">
       <c r="B31" s="1" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="D31" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>8</v>
@@ -2305,19 +2356,19 @@
         <v>9</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H31" s="15"/>
     </row>
     <row r="32" spans="2:8" ht="18.75">
       <c r="B32" s="1" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="D32" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>8</v>
@@ -2328,68 +2379,72 @@
       <c r="G32" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H32" s="15"/>
+      <c r="H32" s="15" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="33" spans="2:8" ht="18.75">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="15"/>
+      <c r="B33" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" s="7">
+        <v>3</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="34" spans="2:8" ht="18.75">
-      <c r="B34" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D34" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H34" s="49"/>
+      <c r="B34" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" s="7">
+        <v>3</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="15"/>
     </row>
     <row r="35" spans="2:8" ht="18.75">
-      <c r="B35" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D35" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H35" s="15"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="16"/>
     </row>
     <row r="36" spans="2:8" ht="18.75">
       <c r="B36" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D36" s="7">
-        <v>1</v>
+        <v>118</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1.5</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>8</v>
@@ -2404,159 +2459,169 @@
     </row>
     <row r="37" spans="2:8" ht="18.75">
       <c r="B37" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D37" s="7">
+        <v>1</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" s="15"/>
+    </row>
+    <row r="38" spans="2:8" ht="18.75">
+      <c r="B38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" s="7">
         <v>2</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" s="11" t="s">
+      <c r="E38" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H37" s="15"/>
-    </row>
-    <row r="38" spans="2:8" ht="18.75">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="16"/>
+      <c r="G38" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" s="15"/>
     </row>
     <row r="39" spans="2:8" ht="18.75">
       <c r="B39" s="1" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D39" s="4">
+        <v>135</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" s="15"/>
+    </row>
+    <row r="40" spans="2:8" ht="18.75">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="15"/>
+    </row>
+    <row r="41" spans="2:8" ht="18.75">
+      <c r="B41" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D41" s="8">
+        <v>1</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" s="47"/>
+    </row>
+    <row r="42" spans="2:8" ht="18.75">
+      <c r="B42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" s="7">
         <v>1.5</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H39" s="15"/>
-    </row>
-    <row r="40" spans="2:8" ht="18.75">
-      <c r="B40" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D40" s="7">
+      <c r="E42" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="15"/>
+    </row>
+    <row r="43" spans="2:8" ht="18.75">
+      <c r="B43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43" s="7">
         <v>1</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H40" s="15"/>
-    </row>
-    <row r="41" spans="2:8" ht="18.75">
-      <c r="B41" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D41" s="7">
-        <v>2</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H41" s="15"/>
-    </row>
-    <row r="42" spans="2:8" ht="18.75">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="15"/>
-    </row>
-    <row r="43" spans="2:8" ht="18.75">
-      <c r="B43" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D43" s="8">
-        <v>5</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H43" s="14"/>
+      <c r="E43" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" s="15"/>
     </row>
     <row r="44" spans="2:8" ht="18.75">
       <c r="B44" s="1" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="D44" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G44" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H44" s="15" t="s">
-        <v>62</v>
-      </c>
+      <c r="H44" s="15"/>
     </row>
     <row r="45" spans="2:8" ht="18.75">
       <c r="B45" s="1" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="D45" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>8</v>
@@ -2567,45 +2632,29 @@
       <c r="G45" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H45" s="15" t="s">
-        <v>61</v>
-      </c>
+      <c r="H45" s="15"/>
     </row>
     <row r="46" spans="2:8" ht="18.75">
-      <c r="B46" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D46" s="7">
-        <v>2</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H46" s="15" t="s">
-        <v>64</v>
-      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="16"/>
     </row>
     <row r="47" spans="2:8" ht="18.75">
       <c r="B47" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D47" s="7">
-        <v>1</v>
+        <v>119</v>
+      </c>
+      <c r="D47" s="4">
+        <v>1.5</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F47" s="11" t="s">
         <v>9</v>
@@ -2613,43 +2662,38 @@
       <c r="G47" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H47" s="15" t="s">
-        <v>57</v>
-      </c>
+      <c r="H47" s="15"/>
     </row>
     <row r="48" spans="2:8" ht="18.75">
       <c r="B48" s="1" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="D48" s="7">
-        <f>0.5*8</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G48" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H48" s="15" t="s">
-        <v>58</v>
-      </c>
+      <c r="H48" s="15"/>
     </row>
     <row r="49" spans="2:8" ht="18.75">
       <c r="B49" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="D49" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>8</v>
@@ -2660,72 +2704,68 @@
       <c r="G49" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H49" s="15" t="s">
-        <v>67</v>
-      </c>
+      <c r="H49" s="15"/>
     </row>
     <row r="50" spans="2:8" ht="18.75">
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="16"/>
+      <c r="B50" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D50" s="7">
+        <v>1</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H50" s="15"/>
     </row>
     <row r="51" spans="2:8" ht="18.75">
-      <c r="B51" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D51" s="4">
-        <v>2</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H51" s="15" t="s">
-        <v>72</v>
-      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="15"/>
     </row>
     <row r="52" spans="2:8" ht="18.75">
-      <c r="B52" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D52" s="7">
-        <v>2</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H52" s="15"/>
+      <c r="B52" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D52" s="8">
+        <v>5</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" s="14"/>
     </row>
     <row r="53" spans="2:8" ht="18.75">
       <c r="B53" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D53" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>8</v>
@@ -2740,13 +2780,13 @@
     </row>
     <row r="54" spans="2:8" ht="18.75">
       <c r="B54" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="D54" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>8</v>
@@ -2757,116 +2797,114 @@
       <c r="G54" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H54" s="15" t="s">
-        <v>75</v>
-      </c>
+      <c r="H54" s="15"/>
     </row>
     <row r="55" spans="2:8" ht="18.75">
       <c r="B55" s="1" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="D55" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G55" s="11" t="s">
         <v>10</v>
       </c>
       <c r="H55" s="15" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="18.75">
       <c r="B56" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="D56" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G56" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H56" s="15" t="s">
-        <v>65</v>
-      </c>
+      <c r="H56" s="15"/>
     </row>
     <row r="57" spans="2:8" ht="18.75">
-      <c r="B57" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D57" s="7">
-        <v>3</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F57" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H57" s="15"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="16"/>
     </row>
     <row r="58" spans="2:8" ht="18.75">
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="15"/>
+      <c r="B58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D58" s="4">
+        <v>2</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H58" s="15" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="59" spans="2:8" ht="18.75">
-      <c r="B59" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D59" s="8">
+      <c r="B59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D59" s="7">
         <v>2</v>
       </c>
-      <c r="E59" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H59" s="14"/>
+      <c r="E59" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H59" s="15"/>
     </row>
     <row r="60" spans="2:8" ht="18.75">
       <c r="B60" s="1" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="D60" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>8</v>
@@ -2881,70 +2919,88 @@
     </row>
     <row r="61" spans="2:8" ht="18.75">
       <c r="B61" s="1" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="D61" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G61" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H61" s="15"/>
+      <c r="H61" s="15" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="62" spans="2:8" ht="18.75">
       <c r="B62" s="1" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="D62" s="7">
         <v>2</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G62" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H62" s="15"/>
+      <c r="H62" s="15" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="63" spans="2:8" ht="18.75">
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="16"/>
+      <c r="B63" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D63" s="7">
+        <v>8</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63" s="15" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="64" spans="2:8" ht="18.75">
       <c r="B64" s="1" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D64" s="4">
-        <v>1</v>
+        <v>121</v>
+      </c>
+      <c r="D64" s="7">
+        <v>3</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G64" s="11" t="s">
         <v>10</v>
@@ -2952,150 +3008,134 @@
       <c r="H64" s="15"/>
     </row>
     <row r="65" spans="2:8" ht="18.75">
-      <c r="B65" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D65" s="7">
-        <v>1</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F65" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G65" s="11" t="s">
-        <v>15</v>
-      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
       <c r="H65" s="15"/>
     </row>
     <row r="66" spans="2:8" ht="18.75">
-      <c r="B66" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D66" s="7">
-        <v>1</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F66" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H66" s="15"/>
+      <c r="B66" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D66" s="8">
+        <v>2</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H66" s="14"/>
     </row>
     <row r="67" spans="2:8" ht="18.75">
       <c r="B67" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D67" s="7">
         <v>2</v>
       </c>
       <c r="E67" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H67" s="15"/>
+    </row>
+    <row r="68" spans="2:8" ht="18.75">
+      <c r="B68" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D68" s="7">
+        <v>2</v>
+      </c>
+      <c r="E68" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F67" s="11" t="s">
+      <c r="F68" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G67" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H67" s="15"/>
-    </row>
-    <row r="68" spans="2:8" ht="18.75">
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
+      <c r="G68" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="H68" s="15"/>
     </row>
     <row r="69" spans="2:8" ht="18.75">
-      <c r="B69" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D69" s="4">
+      <c r="B69" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D69" s="7">
         <v>2</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="E69" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F69" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G69" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H69" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="F69" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H69" s="15"/>
     </row>
     <row r="70" spans="2:8" ht="18.75">
-      <c r="B70" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D70" s="7">
-        <v>1</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F70" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G70" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H70" s="15"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="16"/>
     </row>
     <row r="71" spans="2:8" ht="18.75">
       <c r="B71" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D71" s="7">
+        <v>69</v>
+      </c>
+      <c r="D71" s="4">
         <v>1</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="G71" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H71" s="15" t="s">
-        <v>112</v>
-      </c>
+      <c r="H71" s="15"/>
     </row>
     <row r="72" spans="2:8" ht="18.75">
       <c r="B72" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D72" s="7">
         <v>1</v>
@@ -3107,16 +3147,16 @@
         <v>9</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H72" s="15"/>
     </row>
     <row r="73" spans="2:8" ht="18.75">
       <c r="B73" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D73" s="7">
         <v>1</v>
@@ -3134,13 +3174,13 @@
     </row>
     <row r="74" spans="2:8" ht="18.75">
       <c r="B74" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D74" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>16</v>
@@ -3154,44 +3194,46 @@
       <c r="H74" s="15"/>
     </row>
     <row r="75" spans="2:8" ht="18.75">
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
       <c r="D75" s="7"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="16"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="15"/>
     </row>
     <row r="76" spans="2:8" ht="18.75">
-      <c r="B76" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>18</v>
+      <c r="B76" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="D76" s="4">
-        <v>4</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F76" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G76" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H76" s="15"/>
+        <v>2</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G76" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H76" s="14" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="77" spans="2:8" ht="18.75">
       <c r="B77" s="1" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="D77" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>8</v>
@@ -3206,13 +3248,13 @@
     </row>
     <row r="78" spans="2:8" ht="18.75">
       <c r="B78" s="1" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D78" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>8</v>
@@ -3223,17 +3265,19 @@
       <c r="G78" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H78" s="15"/>
+      <c r="H78" s="15" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="79" spans="2:8" ht="18.75">
       <c r="B79" s="1" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="D79" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>8</v>
@@ -3247,78 +3291,178 @@
       <c r="H79" s="15"/>
     </row>
     <row r="80" spans="2:8" ht="18.75">
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
+      <c r="B80" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D80" s="7">
+        <v>1</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F80" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="H80" s="15"/>
     </row>
     <row r="81" spans="2:8" ht="18.75">
-      <c r="B81" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G81" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H81" s="14"/>
+      <c r="B81" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D81" s="7">
+        <v>1</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F81" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G81" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H81" s="15"/>
     </row>
     <row r="82" spans="2:8" ht="18.75">
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
-      <c r="D82" s="9"/>
+      <c r="D82" s="7"/>
       <c r="E82" s="6"/>
       <c r="F82" s="12"/>
       <c r="G82" s="12"/>
       <c r="H82" s="16"/>
     </row>
     <row r="83" spans="2:8" ht="18.75">
-      <c r="C83"/>
-      <c r="D83" s="7"/>
-      <c r="H83" s="13"/>
+      <c r="B83" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" s="4">
+        <v>4</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G83" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H83" s="15"/>
     </row>
     <row r="84" spans="2:8" ht="18.75">
-      <c r="C84"/>
-      <c r="D84" s="7"/>
-      <c r="H84" s="13"/>
+      <c r="B84" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" s="7">
+        <v>2</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H84" s="15"/>
     </row>
     <row r="85" spans="2:8" ht="18.75">
-      <c r="C85"/>
-      <c r="D85" s="7"/>
-      <c r="H85" s="13"/>
+      <c r="B85" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" s="7">
+        <v>2</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H85" s="15"/>
     </row>
     <row r="86" spans="2:8" ht="18.75">
-      <c r="C86"/>
-      <c r="D86" s="7"/>
-      <c r="H86" s="13"/>
+      <c r="B86" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D86" s="7">
+        <v>2</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H86" s="15"/>
     </row>
     <row r="87" spans="2:8" ht="18.75">
-      <c r="C87"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
       <c r="D87" s="7"/>
-      <c r="H87" s="13"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="15"/>
     </row>
     <row r="88" spans="2:8" ht="18.75">
-      <c r="C88"/>
-      <c r="D88" s="7"/>
-      <c r="H88" s="13"/>
+      <c r="B88" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G88" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H88" s="14"/>
     </row>
     <row r="89" spans="2:8" ht="18.75">
-      <c r="C89"/>
-      <c r="D89" s="7"/>
-      <c r="H89" s="13"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="16"/>
     </row>
     <row r="90" spans="2:8" ht="18.75">
       <c r="C90"/>
@@ -3345,10 +3489,26 @@
       <c r="D94" s="7"/>
       <c r="H94" s="13"/>
     </row>
-    <row r="95" spans="2:8" ht="18.75"/>
-    <row r="96" spans="2:8" ht="18.75"/>
-    <row r="97" spans="3:8" ht="18.75"/>
-    <row r="98" spans="3:8" ht="18.75"/>
+    <row r="95" spans="2:8" ht="18.75">
+      <c r="C95"/>
+      <c r="D95" s="7"/>
+      <c r="H95" s="13"/>
+    </row>
+    <row r="96" spans="2:8" ht="18.75">
+      <c r="C96"/>
+      <c r="D96" s="7"/>
+      <c r="H96" s="13"/>
+    </row>
+    <row r="97" spans="3:8" ht="18.75">
+      <c r="C97"/>
+      <c r="D97" s="7"/>
+      <c r="H97" s="13"/>
+    </row>
+    <row r="98" spans="3:8" ht="18.75">
+      <c r="C98"/>
+      <c r="D98" s="7"/>
+      <c r="H98" s="13"/>
+    </row>
     <row r="99" spans="3:8" ht="18.75">
       <c r="C99"/>
       <c r="D99" s="7"/>
@@ -3360,30 +3520,49 @@
       <c r="H100" s="13"/>
     </row>
     <row r="101" spans="3:8" ht="18.75">
+      <c r="C101"/>
+      <c r="D101" s="7"/>
       <c r="H101" s="13"/>
     </row>
-    <row r="102" spans="3:8" ht="18.75">
-      <c r="C102"/>
-      <c r="D102" s="7"/>
-      <c r="H102" s="13"/>
-    </row>
-    <row r="103" spans="3:8" ht="18.75">
-      <c r="C103"/>
-      <c r="D103" s="7"/>
-      <c r="H103" s="13"/>
-    </row>
-    <row r="104" spans="3:8" ht="18.75">
-      <c r="C104"/>
-      <c r="D104" s="7"/>
-      <c r="H104" s="13"/>
-    </row>
-    <row r="105" spans="3:8" ht="18.75">
-      <c r="C105"/>
-      <c r="D105" s="7"/>
-      <c r="H105" s="13"/>
+    <row r="102" spans="3:8" ht="18.75"/>
+    <row r="103" spans="3:8" ht="18.75"/>
+    <row r="104" spans="3:8" ht="18.75"/>
+    <row r="105" spans="3:8" ht="18.75"/>
+    <row r="106" spans="3:8" ht="18.75">
+      <c r="C106"/>
+      <c r="D106" s="7"/>
+      <c r="H106" s="13"/>
+    </row>
+    <row r="107" spans="3:8" ht="18.75">
+      <c r="C107"/>
+      <c r="D107" s="7"/>
+      <c r="H107" s="13"/>
+    </row>
+    <row r="108" spans="3:8" ht="18.75">
+      <c r="H108" s="13"/>
+    </row>
+    <row r="109" spans="3:8" ht="18.75">
+      <c r="C109"/>
+      <c r="D109" s="7"/>
+      <c r="H109" s="13"/>
+    </row>
+    <row r="110" spans="3:8" ht="18.75">
+      <c r="C110"/>
+      <c r="D110" s="7"/>
+      <c r="H110" s="13"/>
+    </row>
+    <row r="111" spans="3:8" ht="18.75">
+      <c r="C111"/>
+      <c r="D111" s="7"/>
+      <c r="H111" s="13"/>
+    </row>
+    <row r="112" spans="3:8" ht="18.75">
+      <c r="C112"/>
+      <c r="D112" s="7"/>
+      <c r="H112" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="E2:G105" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="E2:G112" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
@@ -3394,19 +3573,19 @@
           <x14:formula1>
             <xm:f>その他!$B$3:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>G99:G100 G102:G1048576 G1:G94</xm:sqref>
+          <xm:sqref>G106:G107 G109:G1048576 G1:G26 G28:G101</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{66D8840C-D443-486F-BC72-01200775D285}">
           <x14:formula1>
             <xm:f>その他!$D$3:$D$6</xm:f>
           </x14:formula1>
-          <xm:sqref>F99:F100 F102:F1048576 F1:F94</xm:sqref>
+          <xm:sqref>F106:F107 F109:F1048576 F1:F26 F28:F101</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D61B1C0A-2748-4606-B0EE-00EEC89A23C6}">
           <x14:formula1>
             <xm:f>その他!$F$3:$F$6</xm:f>
           </x14:formula1>
-          <xm:sqref>E99:E100 E102:E1048576 E1:E94</xm:sqref>
+          <xm:sqref>E106:E107 E109:E1048576 E1:E26 E28:E101</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3416,10 +3595,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:I24"/>
+  <dimension ref="B2:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3428,147 +3607,151 @@
     <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="48.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.75" customWidth="1"/>
-    <col min="9" max="9" width="16.25" customWidth="1"/>
+    <col min="7" max="7" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.75" customWidth="1"/>
+    <col min="10" max="10" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="19.5">
-      <c r="B2" s="42" t="s">
+    <row r="2" spans="2:10" ht="19.5">
+      <c r="B2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="F2" s="33" t="s">
+      <c r="D2" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="29">
         <f>SUM(C:C)</f>
-        <v>147.5</v>
-      </c>
-      <c r="H2" s="28"/>
+        <v>153</v>
+      </c>
+      <c r="H2" s="29"/>
       <c r="I2" s="28"/>
-    </row>
-    <row r="3" spans="2:9" ht="19.5">
+      <c r="J2" s="28"/>
+    </row>
+    <row r="3" spans="2:10" ht="19.5">
       <c r="B3" s="18" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="19">
         <f>SUMIF(コスト表!B:B, B3, コスト表!D:D)</f>
-        <v>27.5</v>
-      </c>
-      <c r="D3" s="43">
+        <v>34.5</v>
+      </c>
+      <c r="D3" s="41">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "プレイヤー", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "プレイヤー") * 100,1)</f>
-        <v>42.1</v>
-      </c>
-      <c r="F3" s="34" t="s">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="F3" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="29">
         <f>SUMIF(コスト表!G:G,"完了",コスト表!D:D)</f>
         <v>9</v>
       </c>
       <c r="H3" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="28"/>
-    </row>
-    <row r="4" spans="2:9" ht="19.5">
+      <c r="J3" s="28"/>
+    </row>
+    <row r="4" spans="2:10" ht="19.5">
       <c r="B4" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="C4" s="19">
         <f>SUMIF(コスト表!B:B, B4, コスト表!D:D)</f>
-        <v>26</v>
-      </c>
-      <c r="D4" s="43">
+        <v>29</v>
+      </c>
+      <c r="D4" s="41">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "敵基底クラス", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "敵基底クラス") * 100,1)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="29">
         <f ca="1">NETWORKDAYS(G5,G6)</f>
-        <v>22</v>
-      </c>
-      <c r="H4" s="30">
-        <f ca="1" xml:space="preserve"> G3 / G4</f>
-        <v>0.40909090909090912</v>
-      </c>
-      <c r="I4" s="28"/>
-    </row>
-    <row r="5" spans="2:9" ht="19.5">
+        <v>23</v>
+      </c>
+      <c r="H4" s="29">
+        <f ca="1" xml:space="preserve"> ROUNDDOWN(G3 / G4,1)</f>
+        <v>0.3</v>
+      </c>
+      <c r="J4" s="28"/>
+    </row>
+    <row r="5" spans="2:10" ht="19.5">
       <c r="B5" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="19">
         <f>SUMIF(コスト表!B:B, B5, コスト表!D:D)</f>
-        <v>4.5</v>
-      </c>
-      <c r="D5" s="43">
+        <v>5.5</v>
+      </c>
+      <c r="D5" s="41">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "敵1(通常ゾンビ)", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "敵1(通常ゾンビ)") * 100,1)</f>
         <v>0</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="48">
         <f>DATE(2025,5,2)</f>
         <v>45779</v>
       </c>
-      <c r="H5" s="28"/>
+      <c r="H5" s="48"/>
       <c r="I5" s="28"/>
-    </row>
-    <row r="6" spans="2:9" ht="19.5">
+      <c r="J5" s="28"/>
+    </row>
+    <row r="6" spans="2:10" ht="19.5">
       <c r="B6" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="19">
         <f>SUMIF(コスト表!B:B, B6, コスト表!D:D)</f>
-        <v>6</v>
-      </c>
-      <c r="D6" s="43">
+        <v>6.5</v>
+      </c>
+      <c r="D6" s="41">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "敵2(ランナーゾンビ)", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "敵2(ランナーゾンビ)") * 100,1)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="48">
         <f ca="1">TODAY()</f>
-        <v>45810</v>
-      </c>
-      <c r="H6" s="28"/>
+        <v>45811</v>
+      </c>
+      <c r="H6" s="48"/>
       <c r="I6" s="28"/>
-    </row>
-    <row r="7" spans="2:9">
+      <c r="J6" s="28"/>
+    </row>
+    <row r="7" spans="2:10">
       <c r="B7" s="18" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C7" s="19">
         <f>SUMIF(コスト表!B:B, B7, コスト表!D:D)</f>
-        <v>4.5</v>
-      </c>
-      <c r="D7" s="43">
+        <v>5.5</v>
+      </c>
+      <c r="D7" s="41">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "敵3(遠距離型ゾンビ)", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "敵3(遠距離型ゾンビ)") * 100,1)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="28"/>
-    </row>
-    <row r="8" spans="2:9">
+      <c r="J7" s="28"/>
+    </row>
+    <row r="8" spans="2:10">
       <c r="B8" s="18" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C8" s="19">
         <f>SUMIF(コスト表!B:B, B8, コスト表!D:D)</f>
-        <v>25</v>
-      </c>
-      <c r="D8" s="43">
+        <v>18</v>
+      </c>
+      <c r="D8" s="41">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "ボス(ゾンビを召喚)", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "ボス(ゾンビを召喚)") * 100,1)</f>
         <v>0</v>
       </c>
@@ -3581,229 +3764,242 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="24">
+    <row r="9" spans="2:10" ht="24">
       <c r="B9" s="1" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C9" s="19">
         <f>SUMIF(コスト表!B:B, B9, コスト表!D:D)</f>
         <v>24</v>
       </c>
-      <c r="D9" s="43">
+      <c r="D9" s="41">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "ウェーブ管理システム", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "ウェーブ管理システム") * 100,1)</f>
         <v>0</v>
       </c>
-      <c r="F9" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="G9" s="32">
+      <c r="F9" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="49">
         <f>DATE(2025,7,23)</f>
         <v>45861</v>
       </c>
-      <c r="H9" s="48">
+      <c r="H9" s="46">
         <f ca="1">NETWORKDAYS(TODAY(),G9)</f>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I9" s="7">
-        <f ca="1">($G$2 - $G$3) / H9</f>
-        <v>3.6447368421052633</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="19.5">
+        <f ca="1">ROUNDDOWN(($G$2-$G$3)/H9, 1)</f>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="19.5">
       <c r="B10" s="18" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C10" s="19">
         <f>SUMIF(コスト表!B:B, B10, コスト表!D:D)</f>
         <v>8</v>
       </c>
-      <c r="D10" s="43">
+      <c r="D10" s="41">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "アイテム", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "アイテム") * 100,1)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="48">
         <f>DATE(2025,8,11)</f>
         <v>45880</v>
       </c>
-      <c r="H10" s="47">
+      <c r="H10" s="45">
         <f ca="1">NETWORKDAYS(TODAY(),G10)</f>
-        <v>51</v>
-      </c>
-      <c r="I10" s="30">
-        <f ca="1">($G$2 - $G$3) / H10</f>
-        <v>2.715686274509804</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="19.5">
+        <v>50</v>
+      </c>
+      <c r="I10" s="29">
+        <f ca="1">ROUNDDOWN(($G$2 - $G$3) / H10,1)</f>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="19.5">
       <c r="B11" s="18" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C11" s="19">
         <f>SUMIF(コスト表!B:B, B11, コスト表!D:D)</f>
         <v>5</v>
       </c>
-      <c r="D11" s="43">
+      <c r="D11" s="41">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "タイトル", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "タイトル") * 100,1)</f>
         <v>25</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="48">
         <f>DATE(2025,8,17)</f>
         <v>45886</v>
       </c>
-      <c r="H11" s="47">
+      <c r="H11" s="45">
         <f ca="1">NETWORKDAYS(TODAY(),G11)</f>
-        <v>55</v>
-      </c>
-      <c r="I11" s="30">
-        <f ca="1">($G$2 - $G$3) / H11</f>
-        <v>2.5181818181818181</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="19.5">
+        <v>54</v>
+      </c>
+      <c r="I11" s="29">
+        <f ca="1">ROUNDDOWN(($G$2 - $G$3) / H11,1)</f>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="19.5">
       <c r="B12" s="18" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C12" s="19">
         <f>SUMIF(コスト表!B:B, B12, コスト表!D:D)</f>
         <v>7</v>
       </c>
-      <c r="D12" s="43">
+      <c r="D12" s="41">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "オプション", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "オプション") * 100,1)</f>
         <v>0</v>
       </c>
-      <c r="F12" s="35" t="s">
+      <c r="F12" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="48">
         <f>DATE(2025,9,1)</f>
         <v>45901</v>
       </c>
-      <c r="H12" s="47">
+      <c r="H12" s="45">
         <f ca="1">NETWORKDAYS(TODAY(),G12)</f>
-        <v>66</v>
-      </c>
-      <c r="I12" s="30">
-        <f ca="1">($G$2 - $G$3) / H12</f>
-        <v>2.0984848484848486</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9">
+        <v>65</v>
+      </c>
+      <c r="I12" s="29">
+        <f ca="1">ROUNDDOWN(($G$2 - $G$3) / H12,1)</f>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
       <c r="B13" s="18" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C13" s="19">
         <f>SUMIF(コスト表!B:B, B13, コスト表!D:D)</f>
         <v>10</v>
       </c>
-      <c r="D13" s="43">
+      <c r="D13" s="41">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "エフェクト", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "エフェクト") * 100,1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:10">
       <c r="B14" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="43">
+      <c r="D14" s="41">
         <v>0</v>
       </c>
-      <c r="F14" s="45" t="s">
+      <c r="F14" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="H14" s="45" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="44" t="s">
-        <v>95</v>
+      <c r="G14" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="I14" s="43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="42" t="s">
+        <v>81</v>
       </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="43">
+      <c r="D15" s="41">
         <f>ROUNDDOWN(COUNTIF(コスト表!G:G, "完了") / COUNTA(コスト表!G:G) * 100,1)</f>
+        <v>11.8</v>
+      </c>
+      <c r="F15" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="44">
+        <f>SUMIF(コスト表!F:F, "プロト", コスト表!D:D)</f>
+        <v>109.5</v>
+      </c>
+      <c r="H15" s="44">
+        <f>SUMIFS(コスト表!D:D, コスト表!F:F, "プロト", コスト表!G:G, "完了")</f>
+        <v>7</v>
+      </c>
+      <c r="I15" s="44">
+        <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "プロト", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "プロト") * 100,1)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="C16" s="7"/>
+      <c r="D16" s="39"/>
+      <c r="F16" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="46">
-        <f>SUMIF(コスト表!F:F, "プロト", コスト表!D:D)</f>
-        <v>103</v>
-      </c>
-      <c r="H15" s="46">
-        <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "プロト", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "プロト") * 100,1)</f>
-        <v>11.3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9">
-      <c r="C16" s="7"/>
-      <c r="D16" s="41"/>
-      <c r="F16" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="46">
+      <c r="G16" s="44">
         <f>SUMIF(コスト表!F:F, "アルファ", コスト表!D:D)</f>
-        <v>43.5</v>
-      </c>
-      <c r="H16" s="46">
+        <v>42.5</v>
+      </c>
+      <c r="H16" s="44">
+        <f>SUMIFS(コスト表!D:D, コスト表!F:F, "アルファ", コスト表!G:G, "完了")</f>
+        <v>2</v>
+      </c>
+      <c r="I16" s="44">
         <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "アルファ", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "アルファ") * 100,1)</f>
-        <v>17.3</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9">
       <c r="C17" s="7"/>
-      <c r="D17" s="41"/>
-      <c r="F17" s="46" t="s">
+      <c r="D17" s="39"/>
+      <c r="F17" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="46">
+      <c r="G17" s="44">
         <f>SUMIF(コスト表!F:F, "ベータ", コスト表!D:D)</f>
         <v>1</v>
       </c>
-      <c r="H17" s="46">
+      <c r="H17" s="44"/>
+      <c r="I17" s="44">
         <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "ベータ", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "ベータ") * 100,1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:8">
-      <c r="D18" s="41"/>
-      <c r="F18" s="46" t="s">
+    <row r="18" spans="3:9">
+      <c r="D18" s="39"/>
+      <c r="F18" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="46">
+      <c r="G18" s="44">
         <f>SUMIF(コスト表!F:F, "マスター", コスト表!D:D)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="46" t="e">
+      <c r="H18" s="44"/>
+      <c r="I18" s="44" t="e">
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="3:8">
-      <c r="D19" s="41"/>
-    </row>
-    <row r="21" spans="3:8">
-      <c r="D21" s="39"/>
-    </row>
-    <row r="22" spans="3:8">
-      <c r="D22" s="39"/>
-    </row>
-    <row r="23" spans="3:8">
-      <c r="D23" s="39"/>
-    </row>
-    <row r="24" spans="3:8">
-      <c r="D24" s="39"/>
+    <row r="19" spans="3:9">
+      <c r="D19" s="39"/>
+    </row>
+    <row r="21" spans="3:9">
+      <c r="D21" s="37"/>
+    </row>
+    <row r="22" spans="3:9">
+      <c r="D22" s="37"/>
+    </row>
+    <row r="23" spans="3:9">
+      <c r="D23" s="37"/>
+    </row>
+    <row r="24" spans="3:9">
+      <c r="D24" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3830,13 +4026,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="36" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3875,7 +4071,7 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>27</v>
@@ -3891,6 +4087,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006836AD0B55474E4CAD520F1DEB8FB579" ma:contentTypeVersion="3" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="078ba6c1f7b5b638bb57eb024ae572f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="187a6309-4c0c-49e3-bd2d-e8130eb88270" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5f182963113af090d1b42042cf04cb6" ns2:_="">
     <xsd:import namespace="187a6309-4c0c-49e3-bd2d-e8130eb88270"/>
@@ -4028,22 +4239,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A1D85CE-B20E-4841-A55B-779E85453EF9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4059,21 +4272,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ゾンビシューターゲームコスト表.xlsx
+++ b/ゾンビシューターゲームコスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\由留部 瑛人\Documents\MyGame3D2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F5C3F1-C89F-4C5C-9F22-66E8FB6CE946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D3D3CD-8C0C-41E1-A7E6-6EB028E53706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8415" yWindow="2430" windowWidth="17205" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6885" yWindow="1005" windowWidth="17205" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コスト表" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="その他" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">コスト表!$E$2:$G$112</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">分類別コスト集計!$B$2:$D$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">コスト表!$E$2:$G$120</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">分類別コスト集計!$B$2:$D$19</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="142">
   <si>
     <t>分類</t>
   </si>
@@ -98,25 +98,7 @@
     <t>エフェクト</t>
   </si>
   <si>
-    <t>生成</t>
-  </si>
-  <si>
-    <t>ループ</t>
-  </si>
-  <si>
     <t>停止</t>
-  </si>
-  <si>
-    <t>削除</t>
-  </si>
-  <si>
-    <t>素材</t>
-  </si>
-  <si>
-    <t>検索</t>
-  </si>
-  <si>
-    <t>∞</t>
   </si>
   <si>
     <t>進捗段階</t>
@@ -305,10 +287,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ウェーブごとに増加（例：5体 → 10体）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>エフェクト</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -651,10 +629,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ヒットエフェクト、アイテムドロップエフェクトなど</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>敵基底クラス</t>
     <rPh sb="0" eb="1">
       <t>テキ</t>
@@ -735,10 +709,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>サウンド</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>弾の発射音・武器切り替え音・空打ち音・足音・ジャンプ音・ダッシュ音・被弾音・死亡音</t>
     <rPh sb="0" eb="1">
       <t>タマ</t>
@@ -858,6 +828,86 @@
   </si>
   <si>
     <t>プレイヤー検知(視野 or 範囲)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実装</t>
+    <rPh sb="0" eb="2">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>座標回転と拡大</t>
+    <rPh sb="0" eb="4">
+      <t>ザヒョウカイテン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再生</t>
+    <rPh sb="0" eb="2">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップ設計</t>
+    <rPh sb="3" eb="5">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配置データの保存</t>
+    <rPh sb="0" eb="2">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配置データの読み込み</t>
+    <rPh sb="0" eb="2">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップ実装</t>
+    <rPh sb="3" eb="5">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エフェクト実装</t>
+    <rPh sb="5" eb="7">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウェーブごとに増加(例：5体 → 10体)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1207,7 +1257,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1362,6 +1412,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1704,11 +1763,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I112"/>
+  <dimension ref="B1:I120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <pane ySplit="2" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -1725,7 +1784,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" customHeight="1">
       <c r="B1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="2:8" ht="18.75">
@@ -1756,7 +1815,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D3" s="8">
         <v>1</v>
@@ -1777,7 +1836,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D4" s="7">
         <v>1</v>
@@ -1795,10 +1854,10 @@
     </row>
     <row r="5" spans="2:8" ht="18.75">
       <c r="B5" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D5" s="7">
         <v>1</v>
@@ -1819,7 +1878,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D6" s="7">
         <v>1</v>
@@ -1840,7 +1899,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D7" s="7">
         <v>3</v>
@@ -1861,7 +1920,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D8" s="7">
         <v>4</v>
@@ -1882,7 +1941,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D9" s="7">
         <v>2</v>
@@ -1900,10 +1959,10 @@
     </row>
     <row r="10" spans="2:8" ht="18.75">
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D10" s="7">
         <v>3</v>
@@ -1942,10 +2001,10 @@
     </row>
     <row r="12" spans="2:8" ht="18.75">
       <c r="B12" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D12" s="7">
         <v>2</v>
@@ -1963,10 +2022,10 @@
     </row>
     <row r="13" spans="2:8" ht="18.75">
       <c r="B13" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D13" s="7">
         <v>1</v>
@@ -1981,7 +2040,7 @@
         <v>14</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="18.75">
@@ -1989,7 +2048,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D14" s="7">
         <v>3</v>
@@ -2007,10 +2066,10 @@
     </row>
     <row r="15" spans="2:8" ht="18.75">
       <c r="B15" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D15" s="7">
         <v>1</v>
@@ -2028,10 +2087,10 @@
     </row>
     <row r="16" spans="2:8" ht="18.75">
       <c r="B16" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="D16" s="7">
         <v>2</v>
@@ -2046,15 +2105,15 @@
         <v>14</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="18.75">
       <c r="B17" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D17" s="7">
         <v>2</v>
@@ -2075,7 +2134,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D18" s="7">
         <v>0.5</v>
@@ -2096,7 +2155,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D19" s="7">
         <v>0.5</v>
@@ -2117,7 +2176,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D20" s="7">
         <v>0.5</v>
@@ -2138,7 +2197,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D21" s="7">
         <v>0.5</v>
@@ -2159,7 +2218,7 @@
         <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D22" s="7">
         <v>0.5</v>
@@ -2180,7 +2239,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D23" s="7">
         <v>0.5</v>
@@ -2198,10 +2257,10 @@
     </row>
     <row r="24" spans="2:8" ht="18.75">
       <c r="B24" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D24" s="7">
         <v>0.5</v>
@@ -2219,10 +2278,10 @@
     </row>
     <row r="25" spans="2:8" ht="18.75">
       <c r="B25" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D25" s="7">
         <v>1</v>
@@ -2237,7 +2296,7 @@
         <v>10</v>
       </c>
       <c r="H25" s="52" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="18.75">
@@ -2245,7 +2304,7 @@
         <v>7</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D26" s="7">
         <v>2</v>
@@ -2272,10 +2331,10 @@
     </row>
     <row r="28" spans="2:8" ht="18.75">
       <c r="B28" s="3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D28" s="8">
         <v>5</v>
@@ -2290,15 +2349,15 @@
         <v>10</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="18.75">
       <c r="B29" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D29" s="7">
         <v>4</v>
@@ -2313,15 +2372,15 @@
         <v>10</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="18.75">
       <c r="B30" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D30" s="7">
         <v>6</v>
@@ -2336,15 +2395,15 @@
         <v>10</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="18.75">
       <c r="B31" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D31" s="7">
         <v>2</v>
@@ -2356,16 +2415,16 @@
         <v>9</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H31" s="15"/>
     </row>
     <row r="32" spans="2:8" ht="18.75">
       <c r="B32" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D32" s="7">
         <v>6</v>
@@ -2380,15 +2439,15 @@
         <v>10</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="18.75">
       <c r="B33" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D33" s="7">
         <v>3</v>
@@ -2402,16 +2461,14 @@
       <c r="G33" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H33" s="15" t="s">
-        <v>113</v>
-      </c>
+      <c r="H33" s="15"/>
     </row>
     <row r="34" spans="2:8" ht="18.75">
       <c r="B34" s="1" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D34" s="7">
         <v>3</v>
@@ -2438,10 +2495,10 @@
     </row>
     <row r="36" spans="2:8" ht="18.75">
       <c r="B36" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D36" s="4">
         <v>1.5</v>
@@ -2459,10 +2516,10 @@
     </row>
     <row r="37" spans="2:8" ht="18.75">
       <c r="B37" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D37" s="7">
         <v>1</v>
@@ -2480,10 +2537,10 @@
     </row>
     <row r="38" spans="2:8" ht="18.75">
       <c r="B38" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D38" s="7">
         <v>2</v>
@@ -2501,85 +2558,85 @@
     </row>
     <row r="39" spans="2:8" ht="18.75">
       <c r="B39" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D39" s="7">
+        <v>2</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" s="15"/>
+    </row>
+    <row r="40" spans="2:8" ht="18.75">
+      <c r="B40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D40" s="7">
         <v>1</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H39" s="15"/>
-    </row>
-    <row r="40" spans="2:8" ht="18.75">
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
+      <c r="E40" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="H40" s="15"/>
     </row>
     <row r="41" spans="2:8" ht="18.75">
-      <c r="B41" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D41" s="8">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="15"/>
+    </row>
+    <row r="42" spans="2:8" ht="18.75">
+      <c r="B42" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" s="8">
         <v>1</v>
       </c>
-      <c r="E41" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H41" s="47"/>
-    </row>
-    <row r="42" spans="2:8" ht="18.75">
-      <c r="B42" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D42" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H42" s="15"/>
+      <c r="E42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="47"/>
     </row>
     <row r="43" spans="2:8" ht="18.75">
       <c r="B43" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D43" s="7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>8</v>
@@ -2594,19 +2651,19 @@
     </row>
     <row r="44" spans="2:8" ht="18.75">
       <c r="B44" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D44" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G44" s="11" t="s">
         <v>10</v>
@@ -2615,19 +2672,19 @@
     </row>
     <row r="45" spans="2:8" ht="18.75">
       <c r="B45" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="D45" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G45" s="11" t="s">
         <v>10</v>
@@ -2635,23 +2692,35 @@
       <c r="H45" s="15"/>
     </row>
     <row r="46" spans="2:8" ht="18.75">
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="16"/>
+      <c r="B46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D46" s="7">
+        <v>2</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" s="15"/>
     </row>
     <row r="47" spans="2:8" ht="18.75">
       <c r="B47" s="1" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D47" s="4">
-        <v>1.5</v>
+        <v>126</v>
+      </c>
+      <c r="D47" s="7">
+        <v>1</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>8</v>
@@ -2665,41 +2734,29 @@
       <c r="H47" s="15"/>
     </row>
     <row r="48" spans="2:8" ht="18.75">
-      <c r="B48" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D48" s="7">
-        <v>1</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H48" s="15"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="16"/>
     </row>
     <row r="49" spans="2:8" ht="18.75">
       <c r="B49" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D49" s="7">
-        <v>2</v>
+        <v>111</v>
+      </c>
+      <c r="D49" s="4">
+        <v>1.5</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G49" s="11" t="s">
         <v>10</v>
@@ -2708,10 +2765,10 @@
     </row>
     <row r="50" spans="2:8" ht="18.75">
       <c r="B50" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="D50" s="7">
         <v>1</v>
@@ -2728,44 +2785,56 @@
       <c r="H50" s="15"/>
     </row>
     <row r="51" spans="2:8" ht="18.75">
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
+      <c r="B51" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" s="7">
+        <v>2</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="H51" s="15"/>
     </row>
     <row r="52" spans="2:8" ht="18.75">
-      <c r="B52" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D52" s="8">
-        <v>5</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G52" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H52" s="14"/>
+      <c r="B52" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D52" s="7">
+        <v>2</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" s="15"/>
     </row>
     <row r="53" spans="2:8" ht="18.75">
       <c r="B53" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D53" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>8</v>
@@ -2779,64 +2848,50 @@
       <c r="H53" s="15"/>
     </row>
     <row r="54" spans="2:8" ht="18.75">
-      <c r="B54" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D54" s="7">
-        <v>1</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G54" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
       <c r="H54" s="15"/>
     </row>
     <row r="55" spans="2:8" ht="18.75">
-      <c r="B55" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D55" s="7">
+      <c r="B55" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D55" s="8">
         <v>5</v>
       </c>
-      <c r="E55" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H55" s="15" t="s">
-        <v>54</v>
-      </c>
+      <c r="E55" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55" s="14"/>
     </row>
     <row r="56" spans="2:8" ht="18.75">
       <c r="B56" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="D56" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G56" s="11" t="s">
         <v>10</v>
@@ -2844,52 +2899,64 @@
       <c r="H56" s="15"/>
     </row>
     <row r="57" spans="2:8" ht="18.75">
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="16"/>
+      <c r="B57" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D57" s="7">
+        <v>1</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57" s="15"/>
     </row>
     <row r="58" spans="2:8" ht="18.75">
       <c r="B58" s="1" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D58" s="4">
-        <v>2</v>
+        <v>130</v>
+      </c>
+      <c r="D58" s="7">
+        <v>5</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G58" s="11" t="s">
         <v>10</v>
       </c>
       <c r="H58" s="15" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="2:8" ht="18.75">
       <c r="B59" s="1" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="D59" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G59" s="11" t="s">
         <v>10</v>
@@ -2898,19 +2965,19 @@
     </row>
     <row r="60" spans="2:8" ht="18.75">
       <c r="B60" s="1" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D60" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G60" s="11" t="s">
         <v>10</v>
@@ -2919,13 +2986,13 @@
     </row>
     <row r="61" spans="2:8" ht="18.75">
       <c r="B61" s="1" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="D61" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>8</v>
@@ -2936,42 +3003,26 @@
       <c r="G61" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H61" s="15" t="s">
-        <v>61</v>
-      </c>
+      <c r="H61" s="15"/>
     </row>
     <row r="62" spans="2:8" ht="18.75">
-      <c r="B62" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D62" s="7">
-        <v>2</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G62" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H62" s="15" t="s">
-        <v>65</v>
-      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="16"/>
     </row>
     <row r="63" spans="2:8" ht="18.75">
       <c r="B63" s="1" t="s">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D63" s="7">
-        <v>8</v>
+        <v>135</v>
+      </c>
+      <c r="D63" s="4">
+        <v>1</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>8</v>
@@ -2982,25 +3033,23 @@
       <c r="G63" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H63" s="15" t="s">
-        <v>132</v>
-      </c>
+      <c r="H63" s="15"/>
     </row>
     <row r="64" spans="2:8" ht="18.75">
       <c r="B64" s="1" t="s">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D64" s="7">
-        <v>3</v>
+        <v>136</v>
+      </c>
+      <c r="D64" s="54">
+        <v>1</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G64" s="11" t="s">
         <v>10</v>
@@ -3008,92 +3057,94 @@
       <c r="H64" s="15"/>
     </row>
     <row r="65" spans="2:8" ht="18.75">
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
+      <c r="B65" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D65" s="54">
+        <v>1</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="H65" s="15"/>
     </row>
     <row r="66" spans="2:8" ht="18.75">
-      <c r="B66" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D66" s="8">
+      <c r="B66" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D66" s="54">
+        <v>1</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H66" s="15"/>
+    </row>
+    <row r="67" spans="2:8" ht="18.75">
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="15"/>
+    </row>
+    <row r="68" spans="2:8" ht="18.75">
+      <c r="B68" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D68" s="4">
         <v>2</v>
       </c>
-      <c r="E66" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F66" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G66" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H66" s="14"/>
-    </row>
-    <row r="67" spans="2:8" ht="18.75">
-      <c r="B67" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D67" s="7">
-        <v>2</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F67" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G67" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H67" s="15"/>
-    </row>
-    <row r="68" spans="2:8" ht="18.75">
-      <c r="B68" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D68" s="7">
-        <v>2</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F68" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H68" s="15"/>
+      <c r="E68" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H68" s="14" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="69" spans="2:8" ht="18.75">
       <c r="B69" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D69" s="7">
         <v>2</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G69" s="11" t="s">
         <v>10</v>
@@ -3101,44 +3152,58 @@
       <c r="H69" s="15"/>
     </row>
     <row r="70" spans="2:8" ht="18.75">
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="16"/>
+      <c r="B70" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D70" s="7">
+        <v>3</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H70" s="15"/>
     </row>
     <row r="71" spans="2:8" ht="18.75">
       <c r="B71" s="1" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D71" s="4">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="D71" s="7">
+        <v>4</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="G71" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H71" s="15"/>
+      <c r="H71" s="15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="72" spans="2:8" ht="18.75">
       <c r="B72" s="1" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D72" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>8</v>
@@ -3147,40 +3212,44 @@
         <v>9</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H72" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="H72" s="15" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="73" spans="2:8" ht="18.75">
       <c r="B73" s="1" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="D73" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G73" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H73" s="15"/>
+      <c r="H73" s="15" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="74" spans="2:8" ht="18.75">
       <c r="B74" s="1" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="D74" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>16</v>
@@ -3204,36 +3273,34 @@
     </row>
     <row r="76" spans="2:8" ht="18.75">
       <c r="B76" s="3" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D76" s="4">
+        <v>81</v>
+      </c>
+      <c r="D76" s="8">
         <v>2</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F76" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G76" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H76" s="14" t="s">
-        <v>75</v>
-      </c>
+      <c r="H76" s="14"/>
     </row>
     <row r="77" spans="2:8" ht="18.75">
       <c r="B77" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D77" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>8</v>
@@ -3248,42 +3315,40 @@
     </row>
     <row r="78" spans="2:8" ht="18.75">
       <c r="B78" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D78" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G78" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H78" s="15" t="s">
-        <v>98</v>
-      </c>
+      <c r="H78" s="15"/>
     </row>
     <row r="79" spans="2:8" ht="18.75">
       <c r="B79" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D79" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G79" s="11" t="s">
         <v>10</v>
@@ -3291,41 +3356,29 @@
       <c r="H79" s="15"/>
     </row>
     <row r="80" spans="2:8" ht="18.75">
-      <c r="B80" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D80" s="7">
-        <v>1</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F80" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G80" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H80" s="15"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="16"/>
     </row>
     <row r="81" spans="2:8" ht="18.75">
       <c r="B81" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D81" s="7">
+        <v>62</v>
+      </c>
+      <c r="D81" s="4">
         <v>1</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G81" s="11" t="s">
         <v>10</v>
@@ -3333,29 +3386,41 @@
       <c r="H81" s="15"/>
     </row>
     <row r="82" spans="2:8" ht="18.75">
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="16"/>
+      <c r="B82" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D82" s="7">
+        <v>1</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G82" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H82" s="15"/>
     </row>
     <row r="83" spans="2:8" ht="18.75">
       <c r="B83" s="1" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D83" s="4">
-        <v>4</v>
+        <v>64</v>
+      </c>
+      <c r="D83" s="7">
+        <v>1</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G83" s="11" t="s">
         <v>10</v>
@@ -3364,19 +3429,19 @@
     </row>
     <row r="84" spans="2:8" ht="18.75">
       <c r="B84" s="1" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="D84" s="7">
         <v>2</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G84" s="11" t="s">
         <v>10</v>
@@ -3384,185 +3449,345 @@
       <c r="H84" s="15"/>
     </row>
     <row r="85" spans="2:8" ht="18.75">
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="15"/>
+    </row>
+    <row r="86" spans="2:8" ht="18.75">
+      <c r="B86" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D86" s="4">
+        <v>2</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G86" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H86" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" ht="18.75">
+      <c r="B87" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D87" s="7">
+        <v>1</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G87" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H87" s="15"/>
+    </row>
+    <row r="88" spans="2:8" ht="18.75">
+      <c r="B88" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D88" s="7">
+        <v>1</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G88" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H88" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" ht="18.75">
+      <c r="B89" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D89" s="7">
+        <v>1</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G89" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H89" s="15"/>
+    </row>
+    <row r="90" spans="2:8" ht="18.75">
+      <c r="B90" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D90" s="7">
+        <v>1</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F90" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G90" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H90" s="15"/>
+    </row>
+    <row r="91" spans="2:8" ht="18.75">
+      <c r="B91" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D91" s="7">
+        <v>1</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F91" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G91" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H91" s="15"/>
+    </row>
+    <row r="92" spans="2:8" ht="18.75">
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="16"/>
+    </row>
+    <row r="93" spans="2:8" ht="18.75">
+      <c r="B93" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D85" s="7">
+      <c r="C93" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D93" s="4">
+        <v>1</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F93" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G93" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H93" s="15"/>
+    </row>
+    <row r="94" spans="2:8" ht="18.75">
+      <c r="B94" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D94" s="7">
+        <v>4</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F94" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G94" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H94" s="15"/>
+    </row>
+    <row r="95" spans="2:8" ht="18.75">
+      <c r="B95" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D95" s="7">
+        <v>1</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F95" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G95" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H95" s="15"/>
+    </row>
+    <row r="96" spans="2:8" ht="18.75">
+      <c r="B96" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D96" s="7">
         <v>2</v>
       </c>
-      <c r="E85" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F85" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G85" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H85" s="15"/>
-    </row>
-    <row r="86" spans="2:8" ht="18.75">
-      <c r="B86" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D86" s="7">
-        <v>2</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F86" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G86" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H86" s="15"/>
-    </row>
-    <row r="87" spans="2:8" ht="18.75">
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="15"/>
-    </row>
-    <row r="88" spans="2:8" ht="18.75">
-      <c r="B88" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G88" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H88" s="14"/>
-    </row>
-    <row r="89" spans="2:8" ht="18.75">
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="12"/>
-      <c r="G89" s="12"/>
-      <c r="H89" s="16"/>
-    </row>
-    <row r="90" spans="2:8" ht="18.75">
-      <c r="C90"/>
-      <c r="D90" s="7"/>
-      <c r="H90" s="13"/>
-    </row>
-    <row r="91" spans="2:8" ht="18.75">
-      <c r="C91"/>
-      <c r="D91" s="7"/>
-      <c r="H91" s="13"/>
-    </row>
-    <row r="92" spans="2:8" ht="18.75">
-      <c r="C92"/>
-      <c r="D92" s="7"/>
-      <c r="H92" s="13"/>
-    </row>
-    <row r="93" spans="2:8" ht="18.75">
-      <c r="C93"/>
-      <c r="D93" s="7"/>
-      <c r="H93" s="13"/>
-    </row>
-    <row r="94" spans="2:8" ht="18.75">
-      <c r="C94"/>
-      <c r="D94" s="7"/>
-      <c r="H94" s="13"/>
-    </row>
-    <row r="95" spans="2:8" ht="18.75">
-      <c r="C95"/>
-      <c r="D95" s="7"/>
-      <c r="H95" s="13"/>
-    </row>
-    <row r="96" spans="2:8" ht="18.75">
-      <c r="C96"/>
-      <c r="D96" s="7"/>
-      <c r="H96" s="13"/>
-    </row>
-    <row r="97" spans="3:8" ht="18.75">
-      <c r="C97"/>
-      <c r="D97" s="7"/>
-      <c r="H97" s="13"/>
-    </row>
-    <row r="98" spans="3:8" ht="18.75">
+      <c r="E96" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F96" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G96" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H96" s="15"/>
+    </row>
+    <row r="97" spans="2:8" ht="18.75">
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="16"/>
+    </row>
+    <row r="98" spans="2:8" ht="18.75">
       <c r="C98"/>
       <c r="D98" s="7"/>
       <c r="H98" s="13"/>
     </row>
-    <row r="99" spans="3:8" ht="18.75">
+    <row r="99" spans="2:8" ht="18.75">
       <c r="C99"/>
       <c r="D99" s="7"/>
       <c r="H99" s="13"/>
     </row>
-    <row r="100" spans="3:8" ht="18.75">
+    <row r="100" spans="2:8" ht="18.75">
       <c r="C100"/>
       <c r="D100" s="7"/>
       <c r="H100" s="13"/>
     </row>
-    <row r="101" spans="3:8" ht="18.75">
+    <row r="101" spans="2:8" ht="18.75">
       <c r="C101"/>
       <c r="D101" s="7"/>
       <c r="H101" s="13"/>
     </row>
-    <row r="102" spans="3:8" ht="18.75"/>
-    <row r="103" spans="3:8" ht="18.75"/>
-    <row r="104" spans="3:8" ht="18.75"/>
-    <row r="105" spans="3:8" ht="18.75"/>
-    <row r="106" spans="3:8" ht="18.75">
+    <row r="102" spans="2:8" ht="18.75">
+      <c r="C102"/>
+      <c r="D102" s="7"/>
+      <c r="H102" s="13"/>
+    </row>
+    <row r="103" spans="2:8" ht="18.75">
+      <c r="C103"/>
+      <c r="D103" s="7"/>
+      <c r="H103" s="13"/>
+    </row>
+    <row r="104" spans="2:8" ht="18.75">
+      <c r="C104"/>
+      <c r="D104" s="7"/>
+      <c r="H104" s="13"/>
+    </row>
+    <row r="105" spans="2:8" ht="18.75">
+      <c r="C105"/>
+      <c r="D105" s="7"/>
+      <c r="H105" s="13"/>
+    </row>
+    <row r="106" spans="2:8" ht="18.75">
       <c r="C106"/>
       <c r="D106" s="7"/>
       <c r="H106" s="13"/>
     </row>
-    <row r="107" spans="3:8" ht="18.75">
+    <row r="107" spans="2:8" ht="18.75">
       <c r="C107"/>
       <c r="D107" s="7"/>
       <c r="H107" s="13"/>
     </row>
-    <row r="108" spans="3:8" ht="18.75">
+    <row r="108" spans="2:8" ht="18.75">
+      <c r="C108"/>
+      <c r="D108" s="7"/>
       <c r="H108" s="13"/>
     </row>
-    <row r="109" spans="3:8" ht="18.75">
+    <row r="109" spans="2:8" ht="18.75">
       <c r="C109"/>
       <c r="D109" s="7"/>
       <c r="H109" s="13"/>
     </row>
-    <row r="110" spans="3:8" ht="18.75">
-      <c r="C110"/>
-      <c r="D110" s="7"/>
-      <c r="H110" s="13"/>
-    </row>
-    <row r="111" spans="3:8" ht="18.75">
-      <c r="C111"/>
-      <c r="D111" s="7"/>
-      <c r="H111" s="13"/>
-    </row>
-    <row r="112" spans="3:8" ht="18.75">
-      <c r="C112"/>
-      <c r="D112" s="7"/>
-      <c r="H112" s="13"/>
+    <row r="110" spans="2:8" ht="18.75"/>
+    <row r="111" spans="2:8" ht="18.75"/>
+    <row r="112" spans="2:8" ht="18.75"/>
+    <row r="113" spans="3:8" ht="18.75"/>
+    <row r="114" spans="3:8" ht="18.75">
+      <c r="C114"/>
+      <c r="D114" s="7"/>
+      <c r="H114" s="13"/>
+    </row>
+    <row r="115" spans="3:8" ht="18.75">
+      <c r="C115"/>
+      <c r="D115" s="7"/>
+      <c r="H115" s="13"/>
+    </row>
+    <row r="116" spans="3:8" ht="18.75">
+      <c r="H116" s="13"/>
+    </row>
+    <row r="117" spans="3:8" ht="18.75">
+      <c r="C117"/>
+      <c r="D117" s="7"/>
+      <c r="H117" s="13"/>
+    </row>
+    <row r="118" spans="3:8" ht="18.75">
+      <c r="C118"/>
+      <c r="D118" s="7"/>
+      <c r="H118" s="13"/>
+    </row>
+    <row r="119" spans="3:8" ht="18.75">
+      <c r="C119"/>
+      <c r="D119" s="7"/>
+      <c r="H119" s="13"/>
+    </row>
+    <row r="120" spans="3:8" ht="18.75">
+      <c r="C120"/>
+      <c r="D120" s="7"/>
+      <c r="H120" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="E2:G112" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="E2:G120" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
@@ -3573,19 +3798,19 @@
           <x14:formula1>
             <xm:f>その他!$B$3:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>G106:G107 G109:G1048576 G1:G26 G28:G101</xm:sqref>
+          <xm:sqref>G114:G115 G117:G1048576 G1:G26 G28:G109</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{66D8840C-D443-486F-BC72-01200775D285}">
           <x14:formula1>
             <xm:f>その他!$D$3:$D$6</xm:f>
           </x14:formula1>
-          <xm:sqref>F106:F107 F109:F1048576 F1:F26 F28:F101</xm:sqref>
+          <xm:sqref>F114:F115 F117:F1048576 F1:F26 F28:F109</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D61B1C0A-2748-4606-B0EE-00EEC89A23C6}">
           <x14:formula1>
             <xm:f>その他!$F$3:$F$6</xm:f>
           </x14:formula1>
-          <xm:sqref>E106:E107 E109:E1048576 E1:E26 E28:E101</xm:sqref>
+          <xm:sqref>E114:E115 E117:E1048576 E1:E26 E28:E109</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3595,10 +3820,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:J24"/>
+  <dimension ref="B2:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3621,14 +3846,14 @@
         <v>2</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G2" s="29">
         <f>SUM(C:C)</f>
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="H2" s="29"/>
       <c r="I2" s="28"/>
@@ -3647,20 +3872,20 @@
         <v>33.299999999999997</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G3" s="29">
         <f>SUMIF(コスト表!G:G,"完了",コスト表!D:D)</f>
         <v>9</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J3" s="28"/>
     </row>
     <row r="4" spans="2:10" ht="19.5">
       <c r="B4" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C4" s="19">
         <f>SUMIF(コスト表!B:B, B4, コスト表!D:D)</f>
@@ -3671,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G4" s="29">
         <f ca="1">NETWORKDAYS(G5,G6)</f>
@@ -3685,18 +3910,18 @@
     </row>
     <row r="5" spans="2:10" ht="19.5">
       <c r="B5" s="18" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C5" s="19">
         <f>SUMIF(コスト表!B:B, B5, コスト表!D:D)</f>
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="D5" s="41">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "敵1(通常ゾンビ)", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "敵1(通常ゾンビ)") * 100,1)</f>
         <v>0</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G5" s="48">
         <f>DATE(2025,5,2)</f>
@@ -3708,18 +3933,18 @@
     </row>
     <row r="6" spans="2:10" ht="19.5">
       <c r="B6" s="18" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C6" s="19">
         <f>SUMIF(コスト表!B:B, B6, コスト表!D:D)</f>
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="D6" s="41">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "敵2(ランナーゾンビ)", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "敵2(ランナーゾンビ)") * 100,1)</f>
         <v>0</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G6" s="48">
         <f ca="1">TODAY()</f>
@@ -3731,11 +3956,11 @@
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="18" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C7" s="19">
         <f>SUMIF(コスト表!B:B, B7, コスト表!D:D)</f>
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="D7" s="41">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "敵3(遠距離型ゾンビ)", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "敵3(遠距離型ゾンビ)") * 100,1)</f>
@@ -3745,11 +3970,11 @@
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="18" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C8" s="19">
         <f>SUMIF(コスト表!B:B, B8, コスト表!D:D)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D8" s="41">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "ボス(ゾンビを召喚)", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "ボス(ゾンビを召喚)") * 100,1)</f>
@@ -3758,26 +3983,26 @@
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
       <c r="H8" s="28" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I8" s="28" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="24">
       <c r="B9" s="1" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
       <c r="C9" s="19">
         <f>SUMIF(コスト表!B:B, B9, コスト表!D:D)</f>
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D9" s="41">
-        <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "ウェーブ管理システム", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "ウェーブ管理システム") * 100,1)</f>
+        <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "マップ", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "マップ") * 100,1)</f>
         <v>0</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G9" s="49">
         <f>DATE(2025,7,23)</f>
@@ -3789,23 +4014,23 @@
       </c>
       <c r="I9" s="7">
         <f ca="1">ROUNDDOWN(($G$2-$G$3)/H9, 1)</f>
-        <v>3.8</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="19.5">
       <c r="B10" s="18" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C10" s="19">
         <f>SUMIF(コスト表!B:B, B10, コスト表!D:D)</f>
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D10" s="41">
-        <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "アイテム", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "アイテム") * 100,1)</f>
+        <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "ウェーブ管理システム", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "ウェーブ管理システム") * 100,1)</f>
         <v>0</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G10" s="48">
         <f>DATE(2025,8,11)</f>
@@ -3817,23 +4042,23 @@
       </c>
       <c r="I10" s="29">
         <f ca="1">ROUNDDOWN(($G$2 - $G$3) / H10,1)</f>
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="19.5">
       <c r="B11" s="18" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C11" s="19">
         <f>SUMIF(コスト表!B:B, B11, コスト表!D:D)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D11" s="41">
-        <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "タイトル", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "タイトル") * 100,1)</f>
-        <v>25</v>
+        <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "アイテム", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "アイテム") * 100,1)</f>
+        <v>0</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G11" s="48">
         <f>DATE(2025,8,17)</f>
@@ -3845,23 +4070,23 @@
       </c>
       <c r="I11" s="29">
         <f ca="1">ROUNDDOWN(($G$2 - $G$3) / H11,1)</f>
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="19.5">
       <c r="B12" s="18" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C12" s="19">
         <f>SUMIF(コスト表!B:B, B12, コスト表!D:D)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D12" s="41">
-        <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "オプション", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "オプション") * 100,1)</f>
-        <v>0</v>
+        <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "タイトル", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "タイトル") * 100,1)</f>
+        <v>25</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G12" s="48">
         <f>DATE(2025,9,1)</f>
@@ -3873,140 +4098,145 @@
       </c>
       <c r="I12" s="29">
         <f ca="1">ROUNDDOWN(($G$2 - $G$3) / H12,1)</f>
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="18" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C13" s="19">
         <f>SUMIF(コスト表!B:B, B13, コスト表!D:D)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D13" s="41">
+        <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "オプション", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "オプション") * 100,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="19">
+        <f>SUMIF(コスト表!B:B, B14, コスト表!D:D)</f>
+        <v>8</v>
+      </c>
+      <c r="D14" s="41">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "エフェクト", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "エフェクト") * 100,1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
-      <c r="B14" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="41">
-        <v>0</v>
-      </c>
-      <c r="F14" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="H14" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="I14" s="43" t="s">
-        <v>83</v>
-      </c>
-    </row>
     <row r="15" spans="2:10">
       <c r="B15" s="42" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="41">
         <f>ROUNDDOWN(COUNTIF(コスト表!G:G, "完了") / COUNTA(コスト表!G:G) * 100,1)</f>
-        <v>11.8</v>
-      </c>
-      <c r="F15" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="44">
+        <v>10.7</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="I15" s="43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="F16" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="44">
         <f>SUMIF(コスト表!F:F, "プロト", コスト表!D:D)</f>
-        <v>109.5</v>
-      </c>
-      <c r="H15" s="44">
+        <v>104.5</v>
+      </c>
+      <c r="H16" s="44">
         <f>SUMIFS(コスト表!D:D, コスト表!F:F, "プロト", コスト表!G:G, "完了")</f>
         <v>7</v>
       </c>
-      <c r="I15" s="44">
+      <c r="I16" s="44">
         <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "プロト", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "プロト") * 100,1)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
-      <c r="C16" s="7"/>
-      <c r="D16" s="39"/>
-      <c r="F16" s="44" t="s">
+    <row r="17" spans="2:9">
+      <c r="B17" s="53"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="55"/>
+      <c r="F17" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="44">
+      <c r="G17" s="44">
         <f>SUMIF(コスト表!F:F, "アルファ", コスト表!D:D)</f>
-        <v>42.5</v>
-      </c>
-      <c r="H16" s="44">
+        <v>58.5</v>
+      </c>
+      <c r="H17" s="44">
         <f>SUMIFS(コスト表!D:D, コスト表!F:F, "アルファ", コスト表!G:G, "完了")</f>
         <v>2</v>
       </c>
-      <c r="I16" s="44">
+      <c r="I17" s="44">
         <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "アルファ", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "アルファ") * 100,1)</f>
-        <v>16.600000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9">
-      <c r="C17" s="7"/>
-      <c r="D17" s="39"/>
-      <c r="F17" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="44">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="C18" s="7"/>
+      <c r="D18" s="39"/>
+      <c r="F18" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="44">
         <f>SUMIF(コスト表!F:F, "ベータ", コスト表!D:D)</f>
         <v>1</v>
       </c>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44">
+      <c r="H18" s="44"/>
+      <c r="I18" s="44">
         <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "ベータ", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "ベータ") * 100,1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:9">
-      <c r="D18" s="39"/>
-      <c r="F18" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="44">
+    <row r="19" spans="2:9">
+      <c r="D19" s="39"/>
+      <c r="F19" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="44">
         <f>SUMIF(コスト表!F:F, "マスター", コスト表!D:D)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44" t="e">
+      <c r="H19" s="44"/>
+      <c r="I19" s="44" t="e">
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="3:9">
-      <c r="D19" s="39"/>
-    </row>
-    <row r="21" spans="3:9">
-      <c r="D21" s="37"/>
-    </row>
-    <row r="22" spans="3:9">
+    <row r="20" spans="2:9">
+      <c r="D20" s="39"/>
+    </row>
+    <row r="22" spans="2:9">
       <c r="D22" s="37"/>
     </row>
-    <row r="23" spans="3:9">
+    <row r="23" spans="2:9">
       <c r="D23" s="37"/>
     </row>
-    <row r="24" spans="3:9">
+    <row r="24" spans="2:9">
       <c r="D24" s="37"/>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="D25" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="D9 D11" formula="1"/>
+    <ignoredError sqref="D10 D12" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4027,7 +4257,7 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="36" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D2" s="36" t="s">
         <v>4</v>
@@ -4063,7 +4293,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>11</v>
@@ -4071,13 +4301,13 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -4087,21 +4317,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006836AD0B55474E4CAD520F1DEB8FB579" ma:contentTypeVersion="3" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="078ba6c1f7b5b638bb57eb024ae572f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="187a6309-4c0c-49e3-bd2d-e8130eb88270" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5f182963113af090d1b42042cf04cb6" ns2:_="">
     <xsd:import namespace="187a6309-4c0c-49e3-bd2d-e8130eb88270"/>
@@ -4239,24 +4454,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A1D85CE-B20E-4841-A55B-779E85453EF9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4272,4 +4485,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ゾンビシューターゲームコスト表.xlsx
+++ b/ゾンビシューターゲームコスト表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\由留部 瑛人\Documents\MyGame3D2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D3D3CD-8C0C-41E1-A7E6-6EB028E53706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CE1DBC-E7E4-4367-9F72-F9766B4638F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6885" yWindow="1005" windowWidth="17205" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">コスト表!$E$2:$G$120</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">分類別コスト集計!$B$2:$D$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">分類別コスト集計!$B$2:$E$19</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="143">
   <si>
     <t>分類</t>
   </si>
@@ -250,13 +250,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ウェーブ管理システム</t>
-    <rPh sb="4" eb="6">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>現在のウェーブ番号・敵最大数の保持</t>
     <rPh sb="10" eb="11">
       <t>テキ</t>
@@ -908,6 +901,20 @@
   </si>
   <si>
     <t>ウェーブごとに増加(例：5体 → 10体)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コスト合計</t>
+    <rPh sb="3" eb="5">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウェーブ管理</t>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1257,7 +1264,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1413,13 +1420,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1766,8 +1770,8 @@
   <dimension ref="B1:I120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <pane ySplit="2" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H83" sqref="H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -1784,7 +1788,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" customHeight="1">
       <c r="B1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="2:8" ht="18.75">
@@ -1854,10 +1858,10 @@
     </row>
     <row r="5" spans="2:8" ht="18.75">
       <c r="B5" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D5" s="7">
         <v>1</v>
@@ -1899,7 +1903,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D7" s="7">
         <v>3</v>
@@ -1962,7 +1966,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" s="7">
         <v>3</v>
@@ -2001,10 +2005,10 @@
     </row>
     <row r="12" spans="2:8" ht="18.75">
       <c r="B12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="D12" s="7">
         <v>2</v>
@@ -2022,10 +2026,10 @@
     </row>
     <row r="13" spans="2:8" ht="18.75">
       <c r="B13" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D13" s="7">
         <v>1</v>
@@ -2040,7 +2044,7 @@
         <v>14</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="18.75">
@@ -2048,7 +2052,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="7">
         <v>3</v>
@@ -2066,10 +2070,10 @@
     </row>
     <row r="15" spans="2:8" ht="18.75">
       <c r="B15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="D15" s="7">
         <v>1</v>
@@ -2087,10 +2091,10 @@
     </row>
     <row r="16" spans="2:8" ht="18.75">
       <c r="B16" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D16" s="7">
         <v>2</v>
@@ -2105,15 +2109,15 @@
         <v>14</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="18.75">
       <c r="B17" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D17" s="7">
         <v>2</v>
@@ -2257,10 +2261,10 @@
     </row>
     <row r="24" spans="2:8" ht="18.75">
       <c r="B24" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D24" s="7">
         <v>0.5</v>
@@ -2278,10 +2282,10 @@
     </row>
     <row r="25" spans="2:8" ht="18.75">
       <c r="B25" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D25" s="7">
         <v>1</v>
@@ -2296,7 +2300,7 @@
         <v>10</v>
       </c>
       <c r="H25" s="52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="18.75">
@@ -2331,10 +2335,10 @@
     </row>
     <row r="28" spans="2:8" ht="18.75">
       <c r="B28" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="D28" s="8">
         <v>5</v>
@@ -2349,15 +2353,15 @@
         <v>10</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="18.75">
       <c r="B29" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D29" s="7">
         <v>4</v>
@@ -2372,15 +2376,15 @@
         <v>10</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="18.75">
       <c r="B30" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D30" s="7">
         <v>6</v>
@@ -2395,15 +2399,15 @@
         <v>10</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="18.75">
       <c r="B31" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D31" s="7">
         <v>2</v>
@@ -2415,16 +2419,16 @@
         <v>9</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H31" s="15"/>
     </row>
     <row r="32" spans="2:8" ht="18.75">
       <c r="B32" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="7">
         <v>6</v>
@@ -2439,15 +2443,15 @@
         <v>10</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="18.75">
       <c r="B33" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="7">
         <v>3</v>
@@ -2465,10 +2469,10 @@
     </row>
     <row r="34" spans="2:8" ht="18.75">
       <c r="B34" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="D34" s="7">
         <v>3</v>
@@ -2498,7 +2502,7 @@
         <v>45</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="4">
         <v>1.5</v>
@@ -2519,7 +2523,7 @@
         <v>45</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D37" s="7">
         <v>1</v>
@@ -2540,7 +2544,7 @@
         <v>45</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D38" s="7">
         <v>2</v>
@@ -2561,7 +2565,7 @@
         <v>45</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D39" s="7">
         <v>2</v>
@@ -2582,7 +2586,7 @@
         <v>45</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="7">
         <v>1</v>
@@ -2591,7 +2595,7 @@
         <v>8</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G40" s="11" t="s">
         <v>10</v>
@@ -2612,7 +2616,7 @@
         <v>46</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D42" s="8">
         <v>1</v>
@@ -2633,7 +2637,7 @@
         <v>46</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D43" s="7">
         <v>1.5</v>
@@ -2654,7 +2658,7 @@
         <v>46</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D44" s="7">
         <v>1</v>
@@ -2675,7 +2679,7 @@
         <v>46</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D45" s="7">
         <v>2</v>
@@ -2696,7 +2700,7 @@
         <v>46</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="7">
         <v>2</v>
@@ -2717,7 +2721,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D47" s="7">
         <v>1</v>
@@ -2744,10 +2748,10 @@
     </row>
     <row r="49" spans="2:8" ht="18.75">
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D49" s="4">
         <v>1.5</v>
@@ -2765,10 +2769,10 @@
     </row>
     <row r="50" spans="2:8" ht="18.75">
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D50" s="7">
         <v>1</v>
@@ -2786,10 +2790,10 @@
     </row>
     <row r="51" spans="2:8" ht="18.75">
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D51" s="7">
         <v>2</v>
@@ -2807,10 +2811,10 @@
     </row>
     <row r="52" spans="2:8" ht="18.75">
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D52" s="7">
         <v>2</v>
@@ -2828,10 +2832,10 @@
     </row>
     <row r="53" spans="2:8" ht="18.75">
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D53" s="7">
         <v>1</v>
@@ -2858,10 +2862,10 @@
     </row>
     <row r="55" spans="2:8" ht="18.75">
       <c r="B55" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D55" s="8">
         <v>5</v>
@@ -2879,10 +2883,10 @@
     </row>
     <row r="56" spans="2:8" ht="18.75">
       <c r="B56" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D56" s="7">
         <v>4</v>
@@ -2900,10 +2904,10 @@
     </row>
     <row r="57" spans="2:8" ht="18.75">
       <c r="B57" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D57" s="7">
         <v>1</v>
@@ -2921,10 +2925,10 @@
     </row>
     <row r="58" spans="2:8" ht="18.75">
       <c r="B58" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D58" s="7">
         <v>5</v>
@@ -2944,10 +2948,10 @@
     </row>
     <row r="59" spans="2:8" ht="18.75">
       <c r="B59" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D59" s="7">
         <v>3</v>
@@ -2965,10 +2969,10 @@
     </row>
     <row r="60" spans="2:8" ht="18.75">
       <c r="B60" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D60" s="7">
         <v>2</v>
@@ -2986,10 +2990,10 @@
     </row>
     <row r="61" spans="2:8" ht="18.75">
       <c r="B61" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D61" s="7">
         <v>1</v>
@@ -3016,10 +3020,10 @@
     </row>
     <row r="63" spans="2:8" ht="18.75">
       <c r="B63" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="D63" s="4">
         <v>1</v>
@@ -3037,12 +3041,12 @@
     </row>
     <row r="64" spans="2:8" ht="18.75">
       <c r="B64" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D64" s="54">
+        <v>135</v>
+      </c>
+      <c r="D64" s="7">
         <v>1</v>
       </c>
       <c r="E64" s="5" t="s">
@@ -3058,12 +3062,12 @@
     </row>
     <row r="65" spans="2:8" ht="18.75">
       <c r="B65" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D65" s="54">
+        <v>136</v>
+      </c>
+      <c r="D65" s="7">
         <v>1</v>
       </c>
       <c r="E65" s="5" t="s">
@@ -3079,12 +3083,12 @@
     </row>
     <row r="66" spans="2:8" ht="18.75">
       <c r="B66" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D66" s="54">
+        <v>137</v>
+      </c>
+      <c r="D66" s="7">
         <v>1</v>
       </c>
       <c r="E66" s="5" t="s">
@@ -3109,7 +3113,7 @@
     </row>
     <row r="68" spans="2:8" ht="18.75">
       <c r="B68" s="3" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>50</v>
@@ -3127,15 +3131,15 @@
         <v>10</v>
       </c>
       <c r="H68" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69" spans="2:8" ht="18.75">
       <c r="B69" s="1" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D69" s="7">
         <v>2</v>
@@ -3153,10 +3157,10 @@
     </row>
     <row r="70" spans="2:8" ht="18.75">
       <c r="B70" s="1" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D70" s="7">
         <v>3</v>
@@ -3174,10 +3178,10 @@
     </row>
     <row r="71" spans="2:8" ht="18.75">
       <c r="B71" s="1" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D71" s="7">
         <v>4</v>
@@ -3192,15 +3196,15 @@
         <v>10</v>
       </c>
       <c r="H71" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="72" spans="2:8" ht="18.75">
       <c r="B72" s="1" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D72" s="7">
         <v>2</v>
@@ -3215,15 +3219,15 @@
         <v>10</v>
       </c>
       <c r="H72" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="73" spans="2:8" ht="18.75">
       <c r="B73" s="1" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D73" s="7">
         <v>8</v>
@@ -3238,15 +3242,15 @@
         <v>10</v>
       </c>
       <c r="H73" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74" spans="2:8" ht="18.75">
       <c r="B74" s="1" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D74" s="7">
         <v>3</v>
@@ -3273,10 +3277,10 @@
     </row>
     <row r="76" spans="2:8" ht="18.75">
       <c r="B76" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D76" s="8">
         <v>2</v>
@@ -3294,10 +3298,10 @@
     </row>
     <row r="77" spans="2:8" ht="18.75">
       <c r="B77" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D77" s="7">
         <v>2</v>
@@ -3315,10 +3319,10 @@
     </row>
     <row r="78" spans="2:8" ht="18.75">
       <c r="B78" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D78" s="7">
         <v>2</v>
@@ -3336,10 +3340,10 @@
     </row>
     <row r="79" spans="2:8" ht="18.75">
       <c r="B79" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D79" s="7">
         <v>2</v>
@@ -3366,10 +3370,10 @@
     </row>
     <row r="81" spans="2:8" ht="18.75">
       <c r="B81" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -3387,10 +3391,10 @@
     </row>
     <row r="82" spans="2:8" ht="18.75">
       <c r="B82" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D82" s="7">
         <v>1</v>
@@ -3408,10 +3412,10 @@
     </row>
     <row r="83" spans="2:8" ht="18.75">
       <c r="B83" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D83" s="7">
         <v>1</v>
@@ -3429,10 +3433,10 @@
     </row>
     <row r="84" spans="2:8" ht="18.75">
       <c r="B84" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D84" s="7">
         <v>2</v>
@@ -3459,10 +3463,10 @@
     </row>
     <row r="86" spans="2:8" ht="18.75">
       <c r="B86" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="D86" s="4">
         <v>2</v>
@@ -3477,15 +3481,15 @@
         <v>10</v>
       </c>
       <c r="H86" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="18.75">
       <c r="B87" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D87" s="7">
         <v>1</v>
@@ -3503,10 +3507,10 @@
     </row>
     <row r="88" spans="2:8" ht="18.75">
       <c r="B88" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D88" s="7">
         <v>1</v>
@@ -3521,15 +3525,15 @@
         <v>10</v>
       </c>
       <c r="H88" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="18.75">
       <c r="B89" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D89" s="7">
         <v>1</v>
@@ -3547,10 +3551,10 @@
     </row>
     <row r="90" spans="2:8" ht="18.75">
       <c r="B90" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D90" s="7">
         <v>1</v>
@@ -3568,10 +3572,10 @@
     </row>
     <row r="91" spans="2:8" ht="18.75">
       <c r="B91" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D91" s="7">
         <v>1</v>
@@ -3601,7 +3605,7 @@
         <v>17</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -3622,7 +3626,7 @@
         <v>17</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D94" s="7">
         <v>4</v>
@@ -3664,7 +3668,7 @@
         <v>17</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D96" s="7">
         <v>2</v>
@@ -3820,46 +3824,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:J25"/>
+  <dimension ref="B2:K25"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.75" customWidth="1"/>
-    <col min="10" max="10" width="16.25" customWidth="1"/>
+    <col min="2" max="2" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.75" customWidth="1"/>
+    <col min="11" max="11" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="19.5">
+    <row r="2" spans="2:11" ht="19.5">
       <c r="B2" s="40" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="29">
+      <c r="H2" s="29">
         <f>SUM(C:C)</f>
         <v>164</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="28"/>
+      <c r="I2" s="29"/>
       <c r="J2" s="28"/>
-    </row>
-    <row r="3" spans="2:10" ht="19.5">
+      <c r="K2" s="28"/>
+    </row>
+    <row r="3" spans="2:11" ht="19.5">
       <c r="B3" s="18" t="s">
         <v>7</v>
       </c>
@@ -3867,48 +3874,56 @@
         <f>SUMIF(コスト表!B:B, B3, コスト表!D:D)</f>
         <v>34.5</v>
       </c>
-      <c r="D3" s="41">
+      <c r="D3" s="54">
+        <f>SUMIFS(コスト表!D:D, コスト表!B:B, "プレイヤー", コスト表!G:G, "完了")</f>
+        <v>8</v>
+      </c>
+      <c r="E3" s="41">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "プレイヤー", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "プレイヤー") * 100,1)</f>
         <v>33.299999999999997</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="G3" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="29">
+      <c r="H3" s="29">
         <f>SUMIF(コスト表!G:G,"完了",コスト表!D:D)</f>
         <v>9</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="I3" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="28"/>
-    </row>
-    <row r="4" spans="2:10" ht="19.5">
+      <c r="K3" s="28"/>
+    </row>
+    <row r="4" spans="2:11" ht="19.5">
       <c r="B4" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C4" s="19">
         <f>SUMIF(コスト表!B:B, B4, コスト表!D:D)</f>
         <v>29</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="54">
+        <f>SUMIFS(コスト表!D:D, コスト表!B:B, "敵基底クラス", コスト表!G:G, "完了")</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="41">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "敵基底クラス", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "敵基底クラス") * 100,1)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="G4" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="29">
-        <f ca="1">NETWORKDAYS(G5,G6)</f>
+      <c r="H4" s="29">
+        <f ca="1">NETWORKDAYS(H5,H6)</f>
         <v>23</v>
       </c>
-      <c r="H4" s="29">
-        <f ca="1" xml:space="preserve"> ROUNDDOWN(G3 / G4,1)</f>
+      <c r="I4" s="29">
+        <f ca="1" xml:space="preserve"> ROUNDDOWN(H3 / H4,1)</f>
         <v>0.3</v>
       </c>
-      <c r="J4" s="28"/>
-    </row>
-    <row r="5" spans="2:10" ht="19.5">
+      <c r="K4" s="28"/>
+    </row>
+    <row r="5" spans="2:11" ht="19.5">
       <c r="B5" s="18" t="s">
         <v>45</v>
       </c>
@@ -3916,22 +3931,26 @@
         <f>SUMIF(コスト表!B:B, B5, コスト表!D:D)</f>
         <v>7.5</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="54">
+        <f>SUMIFS(コスト表!D:D, コスト表!B:B, "敵1(通常ゾンビ)", コスト表!G:G, "完了")</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="41">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "敵1(通常ゾンビ)", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "敵1(通常ゾンビ)") * 100,1)</f>
         <v>0</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="G5" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="48">
+      <c r="H5" s="48">
         <f>DATE(2025,5,2)</f>
         <v>45779</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="28"/>
+      <c r="I5" s="48"/>
       <c r="J5" s="28"/>
-    </row>
-    <row r="6" spans="2:10" ht="19.5">
+      <c r="K5" s="28"/>
+    </row>
+    <row r="6" spans="2:11" ht="19.5">
       <c r="B6" s="18" t="s">
         <v>46</v>
       </c>
@@ -3939,182 +3958,214 @@
         <f>SUMIF(コスト表!B:B, B6, コスト表!D:D)</f>
         <v>8.5</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="54">
+        <f>SUMIFS(コスト表!D:D, コスト表!B:B, "敵2(ランナーゾンビ)", コスト表!G:G, "完了")</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="41">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "敵2(ランナーゾンビ)", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "敵2(ランナーゾンビ)") * 100,1)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="G6" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="48">
+      <c r="H6" s="48">
         <f ca="1">TODAY()</f>
         <v>45811</v>
       </c>
-      <c r="H6" s="48"/>
-      <c r="I6" s="28"/>
+      <c r="I6" s="48"/>
       <c r="J6" s="28"/>
-    </row>
-    <row r="7" spans="2:10">
+      <c r="K6" s="28"/>
+    </row>
+    <row r="7" spans="2:11">
       <c r="B7" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" s="19">
         <f>SUMIF(コスト表!B:B, B7, コスト表!D:D)</f>
         <v>7.5</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="54">
+        <f>SUMIFS(コスト表!D:D, コスト表!B:B, "敵3(遠距離型ゾンビ)", コスト表!G:G, "完了")</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="41">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "敵3(遠距離型ゾンビ)", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "敵3(遠距離型ゾンビ)") * 100,1)</f>
         <v>0</v>
       </c>
-      <c r="J7" s="28"/>
-    </row>
-    <row r="8" spans="2:10">
+      <c r="K7" s="28"/>
+    </row>
+    <row r="8" spans="2:11">
       <c r="B8" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="19">
         <f>SUMIF(コスト表!B:B, B8, コスト表!D:D)</f>
         <v>21</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="54">
+        <f>SUMIFS(コスト表!D:D, コスト表!B:B, "ボス(ゾンビを召喚)", コスト表!G:G, "完了")</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="41">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "ボス(ゾンビを召喚)", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "ボス(ゾンビを召喚)") * 100,1)</f>
         <v>0</v>
       </c>
-      <c r="F8" s="28"/>
       <c r="G8" s="28"/>
-      <c r="H8" s="28" t="s">
+      <c r="H8" s="28"/>
+      <c r="I8" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="J8" s="28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="24">
+    <row r="9" spans="2:11" ht="24">
       <c r="B9" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C9" s="19">
         <f>SUMIF(コスト表!B:B, B9, コスト表!D:D)</f>
         <v>4</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="54">
+        <f>SUMIFS(コスト表!D:D, コスト表!B:B, "マップ", コスト表!G:G, "完了")</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="41">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "マップ", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "マップ") * 100,1)</f>
         <v>0</v>
       </c>
-      <c r="F9" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="49">
+      <c r="G9" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="49">
         <f>DATE(2025,7,23)</f>
         <v>45861</v>
       </c>
-      <c r="H9" s="46">
-        <f ca="1">NETWORKDAYS(TODAY(),G9)</f>
+      <c r="I9" s="46">
+        <f ca="1">NETWORKDAYS(TODAY(),H9)</f>
         <v>37</v>
       </c>
-      <c r="I9" s="7">
-        <f ca="1">ROUNDDOWN(($G$2-$G$3)/H9, 1)</f>
+      <c r="J9" s="7">
+        <f ca="1">ROUNDDOWN(($H$2-$H$3)/I9, 1)</f>
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="19.5">
+    <row r="10" spans="2:11" ht="19.5">
       <c r="B10" s="18" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="C10" s="19">
         <f>SUMIF(コスト表!B:B, B10, コスト表!D:D)</f>
         <v>24</v>
       </c>
-      <c r="D10" s="41">
-        <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "ウェーブ管理システム", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "ウェーブ管理システム") * 100,1)</f>
+      <c r="D10" s="54">
+        <f>SUMIFS(コスト表!D:D, コスト表!B:B, "ウェーブ管理", コスト表!G:G, "完了")</f>
         <v>0</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="E10" s="41">
+        <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "ウェーブ管理", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "ウェーブ管理") * 100,1)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="48">
+      <c r="H10" s="48">
         <f>DATE(2025,8,11)</f>
         <v>45880</v>
       </c>
-      <c r="H10" s="45">
-        <f ca="1">NETWORKDAYS(TODAY(),G10)</f>
+      <c r="I10" s="45">
+        <f ca="1">NETWORKDAYS(TODAY(),H10)</f>
         <v>50</v>
       </c>
-      <c r="I10" s="29">
-        <f ca="1">ROUNDDOWN(($G$2 - $G$3) / H10,1)</f>
+      <c r="J10" s="29">
+        <f ca="1">ROUNDDOWN(($H$2 - $H$3) / I10,1)</f>
         <v>3.1</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="19.5">
+    <row r="11" spans="2:11" ht="19.5">
       <c r="B11" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" s="19">
         <f>SUMIF(コスト表!B:B, B11, コスト表!D:D)</f>
         <v>8</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="54">
+        <f>SUMIFS(コスト表!D:D, コスト表!B:B, "アイテム", コスト表!G:G, "完了")</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="41">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "アイテム", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "アイテム") * 100,1)</f>
         <v>0</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="G11" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="48">
+      <c r="H11" s="48">
         <f>DATE(2025,8,17)</f>
         <v>45886</v>
       </c>
-      <c r="H11" s="45">
-        <f ca="1">NETWORKDAYS(TODAY(),G11)</f>
+      <c r="I11" s="45">
+        <f ca="1">NETWORKDAYS(TODAY(),H11)</f>
         <v>54</v>
       </c>
-      <c r="I11" s="29">
-        <f ca="1">ROUNDDOWN(($G$2 - $G$3) / H11,1)</f>
+      <c r="J11" s="29">
+        <f ca="1">ROUNDDOWN(($H$2 - $H$3) / I11,1)</f>
         <v>2.8</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="19.5">
+    <row r="12" spans="2:11" ht="19.5">
       <c r="B12" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" s="19">
         <f>SUMIF(コスト表!B:B, B12, コスト表!D:D)</f>
         <v>5</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="54">
+        <f>SUMIFS(コスト表!D:D, コスト表!B:B, "タイトル", コスト表!G:G, "完了")</f>
+        <v>1</v>
+      </c>
+      <c r="E12" s="41">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "タイトル", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "タイトル") * 100,1)</f>
         <v>25</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="G12" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="48">
+      <c r="H12" s="48">
         <f>DATE(2025,9,1)</f>
         <v>45901</v>
       </c>
-      <c r="H12" s="45">
-        <f ca="1">NETWORKDAYS(TODAY(),G12)</f>
+      <c r="I12" s="45">
+        <f ca="1">NETWORKDAYS(TODAY(),H12)</f>
         <v>65</v>
       </c>
-      <c r="I12" s="29">
-        <f ca="1">ROUNDDOWN(($G$2 - $G$3) / H12,1)</f>
+      <c r="J12" s="29">
+        <f ca="1">ROUNDDOWN(($H$2 - $H$3) / I12,1)</f>
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:11">
       <c r="B13" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="19">
         <f>SUMIF(コスト表!B:B, B13, コスト表!D:D)</f>
         <v>7</v>
       </c>
-      <c r="D13" s="41">
+      <c r="D13" s="54">
+        <f>SUMIFS(コスト表!D:D, コスト表!B:B, "オプション", コスト表!G:G, "完了")</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="41">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "オプション", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "オプション") * 100,1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:11">
       <c r="B14" s="18" t="s">
         <v>49</v>
       </c>
@@ -4122,121 +4173,134 @@
         <f>SUMIF(コスト表!B:B, B14, コスト表!D:D)</f>
         <v>8</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="54">
+        <f>SUMIFS(コスト表!D:D, コスト表!B:B, "エフェクト", コスト表!G:G, "完了")</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="41">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "エフェクト", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "エフェクト") * 100,1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:11">
       <c r="B15" s="42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="41">
+      <c r="D15" s="9"/>
+      <c r="E15" s="41">
         <f>ROUNDDOWN(COUNTIF(コスト表!G:G, "完了") / COUNTA(コスト表!G:G) * 100,1)</f>
         <v>10.7</v>
       </c>
-      <c r="F15" s="43" t="s">
+      <c r="G15" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="43" t="s">
+      <c r="H15" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="J15" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="H15" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="I15" s="43" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="F16" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="44">
+    </row>
+    <row r="16" spans="2:11">
+      <c r="G16" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="44">
         <f>SUMIF(コスト表!F:F, "プロト", コスト表!D:D)</f>
         <v>104.5</v>
       </c>
-      <c r="H16" s="44">
+      <c r="I16" s="44">
         <f>SUMIFS(コスト表!D:D, コスト表!F:F, "プロト", コスト表!G:G, "完了")</f>
         <v>7</v>
       </c>
-      <c r="I16" s="44">
+      <c r="J16" s="44">
         <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "プロト", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "プロト") * 100,1)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="53"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="55"/>
-      <c r="F17" s="44" t="s">
+    <row r="17" spans="3:10">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="39"/>
+      <c r="G17" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="44">
+      <c r="H17" s="44">
         <f>SUMIF(コスト表!F:F, "アルファ", コスト表!D:D)</f>
         <v>58.5</v>
       </c>
-      <c r="H17" s="44">
+      <c r="I17" s="44">
         <f>SUMIFS(コスト表!D:D, コスト表!F:F, "アルファ", コスト表!G:G, "完了")</f>
         <v>2</v>
       </c>
-      <c r="I17" s="44">
+      <c r="J17" s="44">
         <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "アルファ", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "アルファ") * 100,1)</f>
         <v>12.5</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="3:10">
       <c r="C18" s="7"/>
-      <c r="D18" s="39"/>
-      <c r="F18" s="44" t="s">
+      <c r="D18" s="7"/>
+      <c r="E18" s="39"/>
+      <c r="G18" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="44">
+      <c r="H18" s="44">
         <f>SUMIF(コスト表!F:F, "ベータ", コスト表!D:D)</f>
         <v>1</v>
       </c>
-      <c r="H18" s="44"/>
       <c r="I18" s="44">
+        <f>SUMIFS(コスト表!D:D, コスト表!F:F, "ベータ", コスト表!G:G, "完了")</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="44">
         <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "ベータ", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "ベータ") * 100,1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
-      <c r="D19" s="39"/>
-      <c r="F19" s="44" t="s">
+    <row r="19" spans="3:10">
+      <c r="E19" s="39"/>
+      <c r="G19" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="44">
+      <c r="H19" s="44">
         <f>SUMIF(コスト表!F:F, "マスター", コスト表!D:D)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44" t="e">
+      <c r="I19" s="44">
+        <f>SUMIFS(コスト表!D:D, コスト表!F:F, "マスター", コスト表!G:G, "完了")</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="44" t="e">
+        <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "マスター", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "マスター") * 100,1)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
-      <c r="D20" s="39"/>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="D22" s="37"/>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="D23" s="37"/>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="D24" s="37"/>
-    </row>
-    <row r="25" spans="2:9">
-      <c r="D25" s="37"/>
+    <row r="20" spans="3:10">
+      <c r="E20" s="39"/>
+    </row>
+    <row r="22" spans="3:10">
+      <c r="E22" s="37"/>
+    </row>
+    <row r="23" spans="3:10">
+      <c r="E23" s="37"/>
+    </row>
+    <row r="24" spans="3:10">
+      <c r="E24" s="37"/>
+    </row>
+    <row r="25" spans="3:10">
+      <c r="E25" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="D10 D12" formula="1"/>
+    <ignoredError sqref="E12" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4301,7 +4365,7 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>21</v>
@@ -4317,6 +4381,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006836AD0B55474E4CAD520F1DEB8FB579" ma:contentTypeVersion="3" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="078ba6c1f7b5b638bb57eb024ae572f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="187a6309-4c0c-49e3-bd2d-e8130eb88270" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5f182963113af090d1b42042cf04cb6" ns2:_="">
     <xsd:import namespace="187a6309-4c0c-49e3-bd2d-e8130eb88270"/>
@@ -4454,22 +4533,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A1D85CE-B20E-4841-A55B-779E85453EF9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4485,21 +4566,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ゾンビシューターゲームコスト表.xlsx
+++ b/ゾンビシューターゲームコスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\由留部 瑛人\Documents\MyGame3D2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CE1DBC-E7E4-4367-9F72-F9766B4638F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0256A2E1-D8B5-4D95-B1C6-C91C440F41E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6885" yWindow="1005" windowWidth="17205" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2550" yWindow="1800" windowWidth="19935" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コスト表" sheetId="1" r:id="rId1"/>
@@ -445,29 +445,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>弾</t>
-    <rPh sb="0" eb="1">
-      <t>タマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>弾の描画、当たり判定</t>
-    <rPh sb="0" eb="1">
-      <t>タマ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ビョウガ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>盾</t>
     <rPh sb="0" eb="1">
       <t>タテ</t>
@@ -914,6 +891,26 @@
     <t>ウェーブ管理</t>
     <rPh sb="4" eb="6">
       <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弾の発射処理</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハッシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rayを飛ばして判定</t>
+    <rPh sb="8" eb="10">
+      <t>ハンテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1770,8 +1767,8 @@
   <dimension ref="B1:I120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H83" sqref="H83"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -1858,10 +1855,10 @@
     </row>
     <row r="5" spans="2:8" ht="18.75">
       <c r="B5" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D5" s="7">
         <v>1</v>
@@ -1903,7 +1900,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D7" s="7">
         <v>3</v>
@@ -2029,7 +2026,7 @@
         <v>84</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="D13" s="7">
         <v>1</v>
@@ -2041,10 +2038,10 @@
         <v>9</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="18.75">
@@ -2070,10 +2067,10 @@
     </row>
     <row r="15" spans="2:8" ht="18.75">
       <c r="B15" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D15" s="7">
         <v>1</v>
@@ -2091,7 +2088,7 @@
     </row>
     <row r="16" spans="2:8" ht="18.75">
       <c r="B16" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>66</v>
@@ -2109,15 +2106,15 @@
         <v>14</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="18.75">
       <c r="B17" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D17" s="7">
         <v>2</v>
@@ -2282,10 +2279,10 @@
     </row>
     <row r="25" spans="2:8" ht="18.75">
       <c r="B25" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D25" s="7">
         <v>1</v>
@@ -2300,7 +2297,7 @@
         <v>10</v>
       </c>
       <c r="H25" s="52" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="18.75">
@@ -2335,10 +2332,10 @@
     </row>
     <row r="28" spans="2:8" ht="18.75">
       <c r="B28" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8">
         <v>5</v>
@@ -2353,15 +2350,15 @@
         <v>10</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="18.75">
       <c r="B29" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D29" s="7">
         <v>4</v>
@@ -2376,15 +2373,15 @@
         <v>10</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="18.75">
       <c r="B30" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D30" s="7">
         <v>6</v>
@@ -2399,15 +2396,15 @@
         <v>10</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="18.75">
       <c r="B31" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D31" s="7">
         <v>2</v>
@@ -2419,16 +2416,16 @@
         <v>9</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H31" s="15"/>
     </row>
     <row r="32" spans="2:8" ht="18.75">
       <c r="B32" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D32" s="7">
         <v>6</v>
@@ -2443,15 +2440,15 @@
         <v>10</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="18.75">
       <c r="B33" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D33" s="7">
         <v>3</v>
@@ -2469,10 +2466,10 @@
     </row>
     <row r="34" spans="2:8" ht="18.75">
       <c r="B34" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D34" s="7">
         <v>3</v>
@@ -2502,7 +2499,7 @@
         <v>45</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D36" s="4">
         <v>1.5</v>
@@ -2523,7 +2520,7 @@
         <v>45</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D37" s="7">
         <v>1</v>
@@ -2544,7 +2541,7 @@
         <v>45</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D38" s="7">
         <v>2</v>
@@ -2565,7 +2562,7 @@
         <v>45</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D39" s="7">
         <v>2</v>
@@ -2586,7 +2583,7 @@
         <v>45</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D40" s="7">
         <v>1</v>
@@ -2595,7 +2592,7 @@
         <v>8</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G40" s="11" t="s">
         <v>10</v>
@@ -2616,7 +2613,7 @@
         <v>46</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D42" s="8">
         <v>1</v>
@@ -2637,7 +2634,7 @@
         <v>46</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D43" s="7">
         <v>1.5</v>
@@ -2658,7 +2655,7 @@
         <v>46</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D44" s="7">
         <v>1</v>
@@ -2679,7 +2676,7 @@
         <v>46</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D45" s="7">
         <v>2</v>
@@ -2700,7 +2697,7 @@
         <v>46</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D46" s="7">
         <v>2</v>
@@ -2721,7 +2718,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D47" s="7">
         <v>1</v>
@@ -2748,10 +2745,10 @@
     </row>
     <row r="49" spans="2:8" ht="18.75">
       <c r="B49" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D49" s="4">
         <v>1.5</v>
@@ -2769,10 +2766,10 @@
     </row>
     <row r="50" spans="2:8" ht="18.75">
       <c r="B50" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D50" s="7">
         <v>1</v>
@@ -2790,10 +2787,10 @@
     </row>
     <row r="51" spans="2:8" ht="18.75">
       <c r="B51" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D51" s="7">
         <v>2</v>
@@ -2811,10 +2808,10 @@
     </row>
     <row r="52" spans="2:8" ht="18.75">
       <c r="B52" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D52" s="7">
         <v>2</v>
@@ -2832,10 +2829,10 @@
     </row>
     <row r="53" spans="2:8" ht="18.75">
       <c r="B53" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D53" s="7">
         <v>1</v>
@@ -2865,7 +2862,7 @@
         <v>77</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D55" s="8">
         <v>5</v>
@@ -2886,7 +2883,7 @@
         <v>77</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D56" s="7">
         <v>4</v>
@@ -2907,7 +2904,7 @@
         <v>77</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D57" s="7">
         <v>1</v>
@@ -2925,10 +2922,10 @@
     </row>
     <row r="58" spans="2:8" ht="18.75">
       <c r="B58" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D58" s="7">
         <v>5</v>
@@ -2951,7 +2948,7 @@
         <v>77</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D59" s="7">
         <v>3</v>
@@ -2972,7 +2969,7 @@
         <v>77</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D60" s="7">
         <v>2</v>
@@ -2993,7 +2990,7 @@
         <v>77</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D61" s="7">
         <v>1</v>
@@ -3020,10 +3017,10 @@
     </row>
     <row r="63" spans="2:8" ht="18.75">
       <c r="B63" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D63" s="4">
         <v>1</v>
@@ -3041,10 +3038,10 @@
     </row>
     <row r="64" spans="2:8" ht="18.75">
       <c r="B64" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="D64" s="7">
         <v>1</v>
@@ -3062,10 +3059,10 @@
     </row>
     <row r="65" spans="2:8" ht="18.75">
       <c r="B65" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D65" s="7">
         <v>1</v>
@@ -3083,10 +3080,10 @@
     </row>
     <row r="66" spans="2:8" ht="18.75">
       <c r="B66" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D66" s="7">
         <v>1</v>
@@ -3113,7 +3110,7 @@
     </row>
     <row r="68" spans="2:8" ht="18.75">
       <c r="B68" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>50</v>
@@ -3136,7 +3133,7 @@
     </row>
     <row r="69" spans="2:8" ht="18.75">
       <c r="B69" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>52</v>
@@ -3157,10 +3154,10 @@
     </row>
     <row r="70" spans="2:8" ht="18.75">
       <c r="B70" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D70" s="7">
         <v>3</v>
@@ -3178,7 +3175,7 @@
     </row>
     <row r="71" spans="2:8" ht="18.75">
       <c r="B71" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>53</v>
@@ -3201,7 +3198,7 @@
     </row>
     <row r="72" spans="2:8" ht="18.75">
       <c r="B72" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>55</v>
@@ -3219,15 +3216,15 @@
         <v>10</v>
       </c>
       <c r="H72" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73" spans="2:8" ht="18.75">
       <c r="B73" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D73" s="7">
         <v>8</v>
@@ -3242,15 +3239,15 @@
         <v>10</v>
       </c>
       <c r="H73" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74" spans="2:8" ht="18.75">
       <c r="B74" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D74" s="7">
         <v>3</v>
@@ -3525,7 +3522,7 @@
         <v>10</v>
       </c>
       <c r="H88" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="18.75">
@@ -3605,7 +3602,7 @@
         <v>17</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -3626,7 +3623,7 @@
         <v>17</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D94" s="7">
         <v>4</v>
@@ -3668,7 +3665,7 @@
         <v>17</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D96" s="7">
         <v>2</v>
@@ -3847,10 +3844,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E2" s="38" t="s">
         <v>72</v>
@@ -3876,18 +3873,18 @@
       </c>
       <c r="D3" s="54">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "プレイヤー", コスト表!G:G, "完了")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="41">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "プレイヤー", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "プレイヤー") * 100,1)</f>
-        <v>33.299999999999997</v>
+        <v>37.5</v>
       </c>
       <c r="G3" s="32" t="s">
         <v>24</v>
       </c>
       <c r="H3" s="29">
         <f>SUMIF(コスト表!G:G,"完了",コスト表!D:D)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I3" s="28" t="s">
         <v>25</v>
@@ -3896,7 +3893,7 @@
     </row>
     <row r="4" spans="2:11" ht="19.5">
       <c r="B4" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C4" s="19">
         <f>SUMIF(コスト表!B:B, B4, コスト表!D:D)</f>
@@ -3915,11 +3912,11 @@
       </c>
       <c r="H4" s="29">
         <f ca="1">NETWORKDAYS(H5,H6)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I4" s="29">
         <f ca="1" xml:space="preserve"> ROUNDDOWN(H3 / H4,1)</f>
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="K4" s="28"/>
     </row>
@@ -3971,7 +3968,7 @@
       </c>
       <c r="H6" s="48">
         <f ca="1">TODAY()</f>
-        <v>45811</v>
+        <v>45812</v>
       </c>
       <c r="I6" s="48"/>
       <c r="J6" s="28"/>
@@ -3979,7 +3976,7 @@
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C7" s="19">
         <f>SUMIF(コスト表!B:B, B7, コスト表!D:D)</f>
@@ -4022,7 +4019,7 @@
     </row>
     <row r="9" spans="2:11" ht="24">
       <c r="B9" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C9" s="19">
         <f>SUMIF(コスト表!B:B, B9, コスト表!D:D)</f>
@@ -4045,16 +4042,16 @@
       </c>
       <c r="I9" s="46">
         <f ca="1">NETWORKDAYS(TODAY(),H9)</f>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J9" s="7">
         <f ca="1">ROUNDDOWN(($H$2-$H$3)/I9, 1)</f>
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="19.5">
       <c r="B10" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C10" s="19">
         <f>SUMIF(コスト表!B:B, B10, コスト表!D:D)</f>
@@ -4077,7 +4074,7 @@
       </c>
       <c r="I10" s="45">
         <f ca="1">NETWORKDAYS(TODAY(),H10)</f>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J10" s="29">
         <f ca="1">ROUNDDOWN(($H$2 - $H$3) / I10,1)</f>
@@ -4109,11 +4106,11 @@
       </c>
       <c r="I11" s="45">
         <f ca="1">NETWORKDAYS(TODAY(),H11)</f>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J11" s="29">
         <f ca="1">ROUNDDOWN(($H$2 - $H$3) / I11,1)</f>
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="19.5">
@@ -4141,11 +4138,11 @@
       </c>
       <c r="I12" s="45">
         <f ca="1">NETWORKDAYS(TODAY(),H12)</f>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J12" s="29">
         <f ca="1">ROUNDDOWN(($H$2 - $H$3) / I12,1)</f>
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="13" spans="2:11">
@@ -4190,7 +4187,7 @@
       <c r="D15" s="9"/>
       <c r="E15" s="41">
         <f>ROUNDDOWN(COUNTIF(コスト表!G:G, "完了") / COUNTA(コスト表!G:G) * 100,1)</f>
-        <v>10.7</v>
+        <v>11.9</v>
       </c>
       <c r="G15" s="43" t="s">
         <v>4</v>
@@ -4199,7 +4196,7 @@
         <v>74</v>
       </c>
       <c r="I15" s="43" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J15" s="43" t="s">
         <v>75</v>
@@ -4215,11 +4212,11 @@
       </c>
       <c r="I16" s="44">
         <f>SUMIFS(コスト表!D:D, コスト表!F:F, "プロト", コスト表!G:G, "完了")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J16" s="44">
         <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "プロト", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "プロト") * 100,1)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="3:10">
@@ -4381,21 +4378,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006836AD0B55474E4CAD520F1DEB8FB579" ma:contentTypeVersion="3" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="078ba6c1f7b5b638bb57eb024ae572f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="187a6309-4c0c-49e3-bd2d-e8130eb88270" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5f182963113af090d1b42042cf04cb6" ns2:_="">
     <xsd:import namespace="187a6309-4c0c-49e3-bd2d-e8130eb88270"/>
@@ -4533,24 +4515,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A1D85CE-B20E-4841-A55B-779E85453EF9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4566,4 +4546,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ゾンビシューターゲームコスト表.xlsx
+++ b/ゾンビシューターゲームコスト表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\由留部 瑛人\Documents\MyGame3D2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0256A2E1-D8B5-4D95-B1C6-C91C440F41E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE0B94A-96FA-405D-9108-734238735B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2550" yWindow="1800" windowWidth="19935" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="その他" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">コスト表!$E$2:$G$120</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">コスト表!$E$2:$G$124</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">分類別コスト集計!$B$2:$E$19</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="144">
   <si>
     <t>分類</t>
   </si>
@@ -911,6 +911,19 @@
     <t>Rayを飛ばして判定</t>
     <rPh sb="8" eb="10">
       <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当たり判定実装</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジッソウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1764,11 +1777,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I120"/>
+  <dimension ref="B1:I124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -2082,7 +2095,7 @@
         <v>9</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H15" s="15"/>
     </row>
@@ -2583,82 +2596,82 @@
         <v>45</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D40" s="7">
+        <v>3</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="15"/>
+    </row>
+    <row r="41" spans="2:8" ht="18.75">
+      <c r="B41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D41" s="7">
         <v>1</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" s="11" t="s">
+      <c r="E41" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="G40" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H40" s="15"/>
-    </row>
-    <row r="41" spans="2:8" ht="18.75">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
+      <c r="G41" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="H41" s="15"/>
     </row>
     <row r="42" spans="2:8" ht="18.75">
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="15"/>
+    </row>
+    <row r="43" spans="2:8" ht="18.75">
+      <c r="B43" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D43" s="8">
         <v>1</v>
       </c>
-      <c r="E42" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H42" s="47"/>
-    </row>
-    <row r="43" spans="2:8" ht="18.75">
-      <c r="B43" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D43" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H43" s="15"/>
+      <c r="E43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" s="47"/>
     </row>
     <row r="44" spans="2:8" ht="18.75">
       <c r="B44" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D44" s="7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>8</v>
@@ -2676,16 +2689,16 @@
         <v>46</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D45" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G45" s="11" t="s">
         <v>10</v>
@@ -2697,13 +2710,13 @@
         <v>46</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="D46" s="7">
         <v>2</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>13</v>
@@ -2718,16 +2731,16 @@
         <v>46</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="D47" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G47" s="11" t="s">
         <v>10</v>
@@ -2735,23 +2748,35 @@
       <c r="H47" s="15"/>
     </row>
     <row r="48" spans="2:8" ht="18.75">
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="16"/>
+      <c r="B48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" s="7">
+        <v>3</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" s="15"/>
     </row>
     <row r="49" spans="2:8" ht="18.75">
       <c r="B49" s="1" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D49" s="4">
-        <v>1.5</v>
+        <v>123</v>
+      </c>
+      <c r="D49" s="7">
+        <v>1</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>8</v>
@@ -2765,41 +2790,29 @@
       <c r="H49" s="15"/>
     </row>
     <row r="50" spans="2:8" ht="18.75">
-      <c r="B50" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D50" s="7">
-        <v>1</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H50" s="15"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="16"/>
     </row>
     <row r="51" spans="2:8" ht="18.75">
       <c r="B51" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D51" s="7">
-        <v>2</v>
+        <v>108</v>
+      </c>
+      <c r="D51" s="4">
+        <v>1.5</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G51" s="11" t="s">
         <v>10</v>
@@ -2811,16 +2824,16 @@
         <v>89</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="D52" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G52" s="11" t="s">
         <v>10</v>
@@ -2832,16 +2845,16 @@
         <v>89</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="D53" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G53" s="11" t="s">
         <v>10</v>
@@ -2849,115 +2862,113 @@
       <c r="H53" s="15"/>
     </row>
     <row r="54" spans="2:8" ht="18.75">
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
+      <c r="B54" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D54" s="7">
+        <v>2</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="H54" s="15"/>
     </row>
     <row r="55" spans="2:8" ht="18.75">
-      <c r="B55" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D55" s="8">
-        <v>5</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F55" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G55" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H55" s="14"/>
+      <c r="B55" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D55" s="7">
+        <v>3</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" s="15"/>
     </row>
     <row r="56" spans="2:8" ht="18.75">
       <c r="B56" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D56" s="7">
+        <v>1</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H56" s="15"/>
+    </row>
+    <row r="57" spans="2:8" ht="18.75">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="15"/>
+    </row>
+    <row r="58" spans="2:8" ht="18.75">
+      <c r="B58" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D56" s="7">
-        <v>4</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G56" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H56" s="15"/>
-    </row>
-    <row r="57" spans="2:8" ht="18.75">
-      <c r="B57" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D57" s="7">
-        <v>1</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H57" s="15"/>
-    </row>
-    <row r="58" spans="2:8" ht="18.75">
-      <c r="B58" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D58" s="7">
+      <c r="C58" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D58" s="8">
         <v>5</v>
       </c>
-      <c r="E58" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H58" s="15" t="s">
-        <v>48</v>
-      </c>
+      <c r="E58" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H58" s="14"/>
     </row>
     <row r="59" spans="2:8" ht="18.75">
       <c r="B59" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="D59" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G59" s="11" t="s">
         <v>10</v>
@@ -2969,16 +2980,16 @@
         <v>77</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="D60" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G60" s="11" t="s">
         <v>10</v>
@@ -2987,49 +2998,63 @@
     </row>
     <row r="61" spans="2:8" ht="18.75">
       <c r="B61" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D61" s="7">
+        <v>5</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" ht="18.75">
+      <c r="B62" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D61" s="7">
-        <v>1</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G61" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H61" s="15"/>
-    </row>
-    <row r="62" spans="2:8" ht="18.75">
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="16"/>
+      <c r="C62" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D62" s="7">
+        <v>3</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H62" s="15"/>
     </row>
     <row r="63" spans="2:8" ht="18.75">
       <c r="B63" s="1" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D63" s="4">
-        <v>1</v>
+        <v>137</v>
+      </c>
+      <c r="D63" s="7">
+        <v>2</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G63" s="11" t="s">
         <v>10</v>
@@ -3038,13 +3063,13 @@
     </row>
     <row r="64" spans="2:8" ht="18.75">
       <c r="B64" s="1" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="D64" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>8</v>
@@ -3053,16 +3078,16 @@
         <v>9</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H64" s="15"/>
     </row>
     <row r="65" spans="2:8" ht="18.75">
       <c r="B65" s="1" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D65" s="7">
         <v>1</v>
@@ -3079,67 +3104,65 @@
       <c r="H65" s="15"/>
     </row>
     <row r="66" spans="2:8" ht="18.75">
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="16"/>
+    </row>
+    <row r="67" spans="2:8" ht="18.75">
+      <c r="B67" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D66" s="7">
+      <c r="C67" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D67" s="4">
         <v>1</v>
       </c>
-      <c r="E66" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F66" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G66" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H66" s="15"/>
-    </row>
-    <row r="67" spans="2:8" ht="18.75">
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
+      <c r="E67" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="H67" s="15"/>
     </row>
     <row r="68" spans="2:8" ht="18.75">
-      <c r="B68" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D68" s="4">
-        <v>2</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F68" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G68" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H68" s="14" t="s">
-        <v>51</v>
-      </c>
+      <c r="B68" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D68" s="7">
+        <v>1</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H68" s="15"/>
     </row>
     <row r="69" spans="2:8" ht="18.75">
       <c r="B69" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>52</v>
+        <v>134</v>
       </c>
       <c r="D69" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>8</v>
@@ -3154,69 +3177,55 @@
     </row>
     <row r="70" spans="2:8" ht="18.75">
       <c r="B70" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D70" s="7">
+        <v>1</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H70" s="15"/>
+    </row>
+    <row r="71" spans="2:8" ht="18.75">
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="15"/>
+    </row>
+    <row r="72" spans="2:8" ht="18.75">
+      <c r="B72" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D70" s="7">
-        <v>3</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F70" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G70" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H70" s="15"/>
-    </row>
-    <row r="71" spans="2:8" ht="18.75">
-      <c r="B71" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D71" s="7">
-        <v>4</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F71" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G71" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H71" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" ht="18.75">
-      <c r="B72" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D72" s="7">
+      <c r="C72" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D72" s="4">
         <v>2</v>
       </c>
-      <c r="E72" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G72" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H72" s="15" t="s">
-        <v>138</v>
+      <c r="E72" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H72" s="14" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="73" spans="2:8" ht="18.75">
@@ -3224,10 +3233,10 @@
         <v>140</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="D73" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>8</v>
@@ -3238,25 +3247,23 @@
       <c r="G73" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H73" s="15" t="s">
-        <v>120</v>
-      </c>
+      <c r="H73" s="15"/>
     </row>
     <row r="74" spans="2:8" ht="18.75">
       <c r="B74" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D74" s="7">
         <v>3</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G74" s="11" t="s">
         <v>10</v>
@@ -3264,44 +3271,60 @@
       <c r="H74" s="15"/>
     </row>
     <row r="75" spans="2:8" ht="18.75">
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="15"/>
+      <c r="B75" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D75" s="7">
+        <v>4</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H75" s="15" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="76" spans="2:8" ht="18.75">
-      <c r="B76" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D76" s="8">
+      <c r="B76" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D76" s="7">
         <v>2</v>
       </c>
-      <c r="E76" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F76" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G76" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H76" s="14"/>
+      <c r="E76" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H76" s="15" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="77" spans="2:8" ht="18.75">
       <c r="B77" s="1" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="D77" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>8</v>
@@ -3312,17 +3335,19 @@
       <c r="G77" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H77" s="15"/>
+      <c r="H77" s="15" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="78" spans="2:8" ht="18.75">
       <c r="B78" s="1" t="s">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="D78" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>16</v>
@@ -3336,50 +3361,50 @@
       <c r="H78" s="15"/>
     </row>
     <row r="79" spans="2:8" ht="18.75">
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="15"/>
+    </row>
+    <row r="80" spans="2:8" ht="18.75">
+      <c r="B80" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D79" s="7">
+      <c r="C80" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D80" s="8">
         <v>2</v>
       </c>
-      <c r="E79" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F79" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H79" s="15"/>
-    </row>
-    <row r="80" spans="2:8" ht="18.75">
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="12"/>
-      <c r="H80" s="16"/>
+      <c r="E80" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G80" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H80" s="14"/>
     </row>
     <row r="81" spans="2:8" ht="18.75">
       <c r="B81" s="1" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D81" s="4">
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="D81" s="7">
+        <v>2</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G81" s="11" t="s">
         <v>10</v>
@@ -3388,34 +3413,34 @@
     </row>
     <row r="82" spans="2:8" ht="18.75">
       <c r="B82" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D82" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H82" s="15"/>
     </row>
     <row r="83" spans="2:8" ht="18.75">
       <c r="B83" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D83" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>16</v>
@@ -3429,73 +3454,71 @@
       <c r="H83" s="15"/>
     </row>
     <row r="84" spans="2:8" ht="18.75">
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="16"/>
+    </row>
+    <row r="85" spans="2:8" ht="18.75">
+      <c r="B85" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D84" s="7">
-        <v>2</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F84" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G84" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H84" s="15"/>
-    </row>
-    <row r="85" spans="2:8" ht="18.75">
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11"/>
+      <c r="C85" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D85" s="4">
+        <v>1</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="H85" s="15"/>
     </row>
     <row r="86" spans="2:8" ht="18.75">
-      <c r="B86" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D86" s="4">
-        <v>2</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G86" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H86" s="14" t="s">
-        <v>67</v>
-      </c>
+      <c r="B86" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D86" s="7">
+        <v>1</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H86" s="15"/>
     </row>
     <row r="87" spans="2:8" ht="18.75">
       <c r="B87" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D87" s="7">
         <v>1</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G87" s="11" t="s">
         <v>10</v>
@@ -3504,84 +3527,72 @@
     </row>
     <row r="88" spans="2:8" ht="18.75">
       <c r="B88" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D88" s="7">
+        <v>2</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F88" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G88" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H88" s="15"/>
+    </row>
+    <row r="89" spans="2:8" ht="18.75">
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="15"/>
+    </row>
+    <row r="90" spans="2:8" ht="18.75">
+      <c r="B90" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D88" s="7">
-        <v>1</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F88" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G88" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H88" s="15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8" ht="18.75">
-      <c r="B89" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D89" s="7">
-        <v>1</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F89" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G89" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H89" s="15"/>
-    </row>
-    <row r="90" spans="2:8" ht="18.75">
-      <c r="B90" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D90" s="7">
-        <v>1</v>
-      </c>
-      <c r="E90" s="5" t="s">
+      <c r="C90" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D90" s="4">
+        <v>2</v>
+      </c>
+      <c r="E90" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F90" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G90" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H90" s="15"/>
+      <c r="F90" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G90" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H90" s="14" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="91" spans="2:8" ht="18.75">
       <c r="B91" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D91" s="7">
         <v>1</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G91" s="11" t="s">
         <v>10</v>
@@ -3589,29 +3600,43 @@
       <c r="H91" s="15"/>
     </row>
     <row r="92" spans="2:8" ht="18.75">
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="12"/>
-      <c r="H92" s="16"/>
+      <c r="B92" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D92" s="7">
+        <v>1</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G92" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H92" s="15" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="93" spans="2:8" ht="18.75">
       <c r="B93" s="1" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D93" s="4">
+        <v>62</v>
+      </c>
+      <c r="D93" s="7">
         <v>1</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G93" s="11" t="s">
         <v>10</v>
@@ -3620,13 +3645,13 @@
     </row>
     <row r="94" spans="2:8" ht="18.75">
       <c r="B94" s="1" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="D94" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>16</v>
@@ -3641,10 +3666,10 @@
     </row>
     <row r="95" spans="2:8" ht="18.75">
       <c r="B95" s="1" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="D95" s="7">
         <v>1</v>
@@ -3661,54 +3686,106 @@
       <c r="H95" s="15"/>
     </row>
     <row r="96" spans="2:8" ht="18.75">
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="16"/>
+    </row>
+    <row r="97" spans="2:8" ht="18.75">
+      <c r="B97" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C97" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D97" s="4">
+        <v>1</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F97" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G97" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H97" s="15"/>
+    </row>
+    <row r="98" spans="2:8" ht="18.75">
+      <c r="B98" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D98" s="7">
+        <v>4</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F98" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G98" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H98" s="15"/>
+    </row>
+    <row r="99" spans="2:8" ht="18.75">
+      <c r="B99" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D99" s="7">
+        <v>1</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F99" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G99" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H99" s="15"/>
+    </row>
+    <row r="100" spans="2:8" ht="18.75">
+      <c r="B100" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D96" s="7">
+      <c r="D100" s="7">
         <v>2</v>
       </c>
-      <c r="E96" s="5" t="s">
+      <c r="E100" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F96" s="11" t="s">
+      <c r="F100" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G96" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H96" s="15"/>
-    </row>
-    <row r="97" spans="2:8" ht="18.75">
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="12"/>
-      <c r="G97" s="12"/>
-      <c r="H97" s="16"/>
-    </row>
-    <row r="98" spans="2:8" ht="18.75">
-      <c r="C98"/>
-      <c r="D98" s="7"/>
-      <c r="H98" s="13"/>
-    </row>
-    <row r="99" spans="2:8" ht="18.75">
-      <c r="C99"/>
-      <c r="D99" s="7"/>
-      <c r="H99" s="13"/>
-    </row>
-    <row r="100" spans="2:8" ht="18.75">
-      <c r="C100"/>
-      <c r="D100" s="7"/>
-      <c r="H100" s="13"/>
+      <c r="G100" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H100" s="15"/>
     </row>
     <row r="101" spans="2:8" ht="18.75">
-      <c r="C101"/>
-      <c r="D101" s="7"/>
-      <c r="H101" s="13"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="16"/>
     </row>
     <row r="102" spans="2:8" ht="18.75">
       <c r="C102"/>
@@ -3750,28 +3827,30 @@
       <c r="D109" s="7"/>
       <c r="H109" s="13"/>
     </row>
-    <row r="110" spans="2:8" ht="18.75"/>
-    <row r="111" spans="2:8" ht="18.75"/>
-    <row r="112" spans="2:8" ht="18.75"/>
-    <row r="113" spans="3:8" ht="18.75"/>
-    <row r="114" spans="3:8" ht="18.75">
-      <c r="C114"/>
-      <c r="D114" s="7"/>
-      <c r="H114" s="13"/>
-    </row>
-    <row r="115" spans="3:8" ht="18.75">
-      <c r="C115"/>
-      <c r="D115" s="7"/>
-      <c r="H115" s="13"/>
-    </row>
-    <row r="116" spans="3:8" ht="18.75">
-      <c r="H116" s="13"/>
-    </row>
-    <row r="117" spans="3:8" ht="18.75">
-      <c r="C117"/>
-      <c r="D117" s="7"/>
-      <c r="H117" s="13"/>
-    </row>
+    <row r="110" spans="2:8" ht="18.75">
+      <c r="C110"/>
+      <c r="D110" s="7"/>
+      <c r="H110" s="13"/>
+    </row>
+    <row r="111" spans="2:8" ht="18.75">
+      <c r="C111"/>
+      <c r="D111" s="7"/>
+      <c r="H111" s="13"/>
+    </row>
+    <row r="112" spans="2:8" ht="18.75">
+      <c r="C112"/>
+      <c r="D112" s="7"/>
+      <c r="H112" s="13"/>
+    </row>
+    <row r="113" spans="3:8" ht="18.75">
+      <c r="C113"/>
+      <c r="D113" s="7"/>
+      <c r="H113" s="13"/>
+    </row>
+    <row r="114" spans="3:8" ht="18.75"/>
+    <row r="115" spans="3:8" ht="18.75"/>
+    <row r="116" spans="3:8" ht="18.75"/>
+    <row r="117" spans="3:8" ht="18.75"/>
     <row r="118" spans="3:8" ht="18.75">
       <c r="C118"/>
       <c r="D118" s="7"/>
@@ -3783,12 +3862,30 @@
       <c r="H119" s="13"/>
     </row>
     <row r="120" spans="3:8" ht="18.75">
-      <c r="C120"/>
-      <c r="D120" s="7"/>
       <c r="H120" s="13"/>
     </row>
+    <row r="121" spans="3:8" ht="18.75">
+      <c r="C121"/>
+      <c r="D121" s="7"/>
+      <c r="H121" s="13"/>
+    </row>
+    <row r="122" spans="3:8" ht="18.75">
+      <c r="C122"/>
+      <c r="D122" s="7"/>
+      <c r="H122" s="13"/>
+    </row>
+    <row r="123" spans="3:8" ht="18.75">
+      <c r="C123"/>
+      <c r="D123" s="7"/>
+      <c r="H123" s="13"/>
+    </row>
+    <row r="124" spans="3:8" ht="18.75">
+      <c r="C124"/>
+      <c r="D124" s="7"/>
+      <c r="H124" s="13"/>
+    </row>
   </sheetData>
-  <autoFilter ref="E2:G120" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="E2:G124" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
@@ -3799,19 +3896,19 @@
           <x14:formula1>
             <xm:f>その他!$B$3:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>G114:G115 G117:G1048576 G1:G26 G28:G109</xm:sqref>
+          <xm:sqref>G118:G119 G121:G1048576 G1:G26 G28:G113</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{66D8840C-D443-486F-BC72-01200775D285}">
           <x14:formula1>
             <xm:f>その他!$D$3:$D$6</xm:f>
           </x14:formula1>
-          <xm:sqref>F114:F115 F117:F1048576 F1:F26 F28:F109</xm:sqref>
+          <xm:sqref>F118:F119 F121:F1048576 F1:F26 F28:F113</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D61B1C0A-2748-4606-B0EE-00EEC89A23C6}">
           <x14:formula1>
             <xm:f>その他!$F$3:$F$6</xm:f>
           </x14:formula1>
-          <xm:sqref>E114:E115 E117:E1048576 E1:E26 E28:E109</xm:sqref>
+          <xm:sqref>E118:E119 E121:E1048576 E1:E26 E28:E113</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3823,7 +3920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -3857,7 +3954,7 @@
       </c>
       <c r="H2" s="29">
         <f>SUM(C:C)</f>
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="I2" s="29"/>
       <c r="J2" s="28"/>
@@ -3873,18 +3970,18 @@
       </c>
       <c r="D3" s="54">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "プレイヤー", コスト表!G:G, "完了")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="41">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "プレイヤー", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "プレイヤー") * 100,1)</f>
-        <v>37.5</v>
+        <v>41.6</v>
       </c>
       <c r="G3" s="32" t="s">
         <v>24</v>
       </c>
       <c r="H3" s="29">
         <f>SUMIF(コスト表!G:G,"完了",コスト表!D:D)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I3" s="28" t="s">
         <v>25</v>
@@ -3926,7 +4023,7 @@
       </c>
       <c r="C5" s="19">
         <f>SUMIF(コスト表!B:B, B5, コスト表!D:D)</f>
-        <v>7.5</v>
+        <v>10.5</v>
       </c>
       <c r="D5" s="54">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "敵1(通常ゾンビ)", コスト表!G:G, "完了")</f>
@@ -3953,7 +4050,7 @@
       </c>
       <c r="C6" s="19">
         <f>SUMIF(コスト表!B:B, B6, コスト表!D:D)</f>
-        <v>8.5</v>
+        <v>11.5</v>
       </c>
       <c r="D6" s="54">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "敵2(ランナーゾンビ)", コスト表!G:G, "完了")</f>
@@ -3980,7 +4077,7 @@
       </c>
       <c r="C7" s="19">
         <f>SUMIF(コスト表!B:B, B7, コスト表!D:D)</f>
-        <v>7.5</v>
+        <v>10.5</v>
       </c>
       <c r="D7" s="54">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "敵3(遠距離型ゾンビ)", コスト表!G:G, "完了")</f>
@@ -3998,7 +4095,7 @@
       </c>
       <c r="C8" s="19">
         <f>SUMIF(コスト表!B:B, B8, コスト表!D:D)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D8" s="54">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "ボス(ゾンビを召喚)", コスト表!G:G, "完了")</f>
@@ -4046,7 +4143,7 @@
       </c>
       <c r="J9" s="7">
         <f ca="1">ROUNDDOWN(($H$2-$H$3)/I9, 1)</f>
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="19.5">
@@ -4078,7 +4175,7 @@
       </c>
       <c r="J10" s="29">
         <f ca="1">ROUNDDOWN(($H$2 - $H$3) / I10,1)</f>
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="19.5">
@@ -4110,7 +4207,7 @@
       </c>
       <c r="J11" s="29">
         <f ca="1">ROUNDDOWN(($H$2 - $H$3) / I11,1)</f>
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="19.5">
@@ -4142,7 +4239,7 @@
       </c>
       <c r="J12" s="29">
         <f ca="1">ROUNDDOWN(($H$2 - $H$3) / I12,1)</f>
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="13" spans="2:11">
@@ -4187,7 +4284,7 @@
       <c r="D15" s="9"/>
       <c r="E15" s="41">
         <f>ROUNDDOWN(COUNTIF(コスト表!G:G, "完了") / COUNTA(コスト表!G:G) * 100,1)</f>
-        <v>11.9</v>
+        <v>12.5</v>
       </c>
       <c r="G15" s="43" t="s">
         <v>4</v>
@@ -4208,15 +4305,15 @@
       </c>
       <c r="H16" s="44">
         <f>SUMIF(コスト表!F:F, "プロト", コスト表!D:D)</f>
-        <v>104.5</v>
+        <v>116.5</v>
       </c>
       <c r="I16" s="44">
         <f>SUMIFS(コスト表!D:D, コスト表!F:F, "プロト", コスト表!G:G, "完了")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J16" s="44">
         <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "プロト", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "プロト") * 100,1)</f>
-        <v>12</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="17" spans="3:10">
@@ -4378,6 +4475,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006836AD0B55474E4CAD520F1DEB8FB579" ma:contentTypeVersion="3" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="078ba6c1f7b5b638bb57eb024ae572f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="187a6309-4c0c-49e3-bd2d-e8130eb88270" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5f182963113af090d1b42042cf04cb6" ns2:_="">
     <xsd:import namespace="187a6309-4c0c-49e3-bd2d-e8130eb88270"/>
@@ -4515,22 +4627,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A1D85CE-B20E-4841-A55B-779E85453EF9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4546,21 +4660,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ゾンビシューターゲームコスト表.xlsx
+++ b/ゾンビシューターゲームコスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\由留部 瑛人\Documents\MyGame3D2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE0B94A-96FA-405D-9108-734238735B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32192024-3D57-4F0B-8FF7-A8FA1FA20620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="1800" windowWidth="19935" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2550" yWindow="1800" windowWidth="19935" windowHeight="13680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コスト表" sheetId="1" r:id="rId1"/>
@@ -1779,9 +1779,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H55" sqref="H55"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -3566,7 +3566,7 @@
         <v>2</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>9</v>
@@ -3920,7 +3920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:K25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -4009,7 +4009,7 @@
       </c>
       <c r="H4" s="29">
         <f ca="1">NETWORKDAYS(H5,H6)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I4" s="29">
         <f ca="1" xml:space="preserve"> ROUNDDOWN(H3 / H4,1)</f>
@@ -4065,7 +4065,7 @@
       </c>
       <c r="H6" s="48">
         <f ca="1">TODAY()</f>
-        <v>45812</v>
+        <v>45813</v>
       </c>
       <c r="I6" s="48"/>
       <c r="J6" s="28"/>
@@ -4139,11 +4139,11 @@
       </c>
       <c r="I9" s="46">
         <f ca="1">NETWORKDAYS(TODAY(),H9)</f>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J9" s="7">
         <f ca="1">ROUNDDOWN(($H$2-$H$3)/I9, 1)</f>
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="19.5">
@@ -4171,11 +4171,11 @@
       </c>
       <c r="I10" s="45">
         <f ca="1">NETWORKDAYS(TODAY(),H10)</f>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J10" s="29">
         <f ca="1">ROUNDDOWN(($H$2 - $H$3) / I10,1)</f>
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="19.5">
@@ -4203,7 +4203,7 @@
       </c>
       <c r="I11" s="45">
         <f ca="1">NETWORKDAYS(TODAY(),H11)</f>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J11" s="29">
         <f ca="1">ROUNDDOWN(($H$2 - $H$3) / I11,1)</f>
@@ -4235,11 +4235,11 @@
       </c>
       <c r="I12" s="45">
         <f ca="1">NETWORKDAYS(TODAY(),H12)</f>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J12" s="29">
         <f ca="1">ROUNDDOWN(($H$2 - $H$3) / I12,1)</f>
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="13" spans="2:11">
@@ -4475,21 +4475,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006836AD0B55474E4CAD520F1DEB8FB579" ma:contentTypeVersion="3" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="078ba6c1f7b5b638bb57eb024ae572f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="187a6309-4c0c-49e3-bd2d-e8130eb88270" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5f182963113af090d1b42042cf04cb6" ns2:_="">
     <xsd:import namespace="187a6309-4c0c-49e3-bd2d-e8130eb88270"/>
@@ -4627,24 +4612,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A1D85CE-B20E-4841-A55B-779E85453EF9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4660,4 +4643,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ゾンビシューターゲームコスト表.xlsx
+++ b/ゾンビシューターゲームコスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\由留部 瑛人\Documents\MyGame3D2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32192024-3D57-4F0B-8FF7-A8FA1FA20620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC62233-4C5F-440E-9CDC-3CF36DC46F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="1800" windowWidth="19935" windowHeight="13680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2550" yWindow="1800" windowWidth="19935" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コスト表" sheetId="1" r:id="rId1"/>
@@ -1779,9 +1779,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I124"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F91" sqref="F91"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -2139,7 +2139,7 @@
         <v>9</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H17" s="15"/>
     </row>
@@ -2360,7 +2360,7 @@
         <v>9</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H28" s="14" t="s">
         <v>92</v>
@@ -3120,7 +3120,7 @@
         <v>132</v>
       </c>
       <c r="D67" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>8</v>
@@ -3141,7 +3141,7 @@
         <v>133</v>
       </c>
       <c r="D68" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>8</v>
@@ -3162,7 +3162,7 @@
         <v>134</v>
       </c>
       <c r="D69" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>8</v>
@@ -3183,7 +3183,7 @@
         <v>135</v>
       </c>
       <c r="D70" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>8</v>
@@ -3920,8 +3920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3954,7 +3954,7 @@
       </c>
       <c r="H2" s="29">
         <f>SUM(C:C)</f>
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I2" s="29"/>
       <c r="J2" s="28"/>
@@ -3970,18 +3970,18 @@
       </c>
       <c r="D3" s="54">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "プレイヤー", コスト表!G:G, "完了")</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" s="41">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "プレイヤー", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "プレイヤー") * 100,1)</f>
-        <v>41.6</v>
+        <v>45.8</v>
       </c>
       <c r="G3" s="32" t="s">
         <v>24</v>
       </c>
       <c r="H3" s="29">
         <f>SUMIF(コスト表!G:G,"完了",コスト表!D:D)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I3" s="28" t="s">
         <v>25</v>
@@ -4013,7 +4013,7 @@
       </c>
       <c r="I4" s="29">
         <f ca="1" xml:space="preserve"> ROUNDDOWN(H3 / H4,1)</f>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="K4" s="28"/>
     </row>
@@ -4120,7 +4120,7 @@
       </c>
       <c r="C9" s="19">
         <f>SUMIF(コスト表!B:B, B9, コスト表!D:D)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D9" s="54">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "マップ", コスト表!G:G, "完了")</f>
@@ -4207,7 +4207,7 @@
       </c>
       <c r="J11" s="29">
         <f ca="1">ROUNDDOWN(($H$2 - $H$3) / I11,1)</f>
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="19.5">
@@ -4284,7 +4284,7 @@
       <c r="D15" s="9"/>
       <c r="E15" s="41">
         <f>ROUNDDOWN(COUNTIF(コスト表!G:G, "完了") / COUNTA(コスト表!G:G) * 100,1)</f>
-        <v>12.5</v>
+        <v>13.6</v>
       </c>
       <c r="G15" s="43" t="s">
         <v>4</v>
@@ -4305,15 +4305,15 @@
       </c>
       <c r="H16" s="44">
         <f>SUMIF(コスト表!F:F, "プロト", コスト表!D:D)</f>
-        <v>116.5</v>
+        <v>120.5</v>
       </c>
       <c r="I16" s="44">
         <f>SUMIFS(コスト表!D:D, コスト表!F:F, "プロト", コスト表!G:G, "完了")</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J16" s="44">
         <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "プロト", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "プロト") * 100,1)</f>
-        <v>12.9</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="17" spans="3:10">
@@ -4475,6 +4475,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006836AD0B55474E4CAD520F1DEB8FB579" ma:contentTypeVersion="3" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="078ba6c1f7b5b638bb57eb024ae572f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="187a6309-4c0c-49e3-bd2d-e8130eb88270" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5f182963113af090d1b42042cf04cb6" ns2:_="">
     <xsd:import namespace="187a6309-4c0c-49e3-bd2d-e8130eb88270"/>
@@ -4612,22 +4627,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A1D85CE-B20E-4841-A55B-779E85453EF9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4643,21 +4660,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ゾンビシューターゲームコスト表.xlsx
+++ b/ゾンビシューターゲームコスト表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\由留部 瑛人\Documents\MyGame3D2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC62233-4C5F-440E-9CDC-3CF36DC46F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AAE5F1-978F-4642-89C9-0179C39F8866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2550" yWindow="1800" windowWidth="19935" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,8 +18,8 @@
     <sheet name="その他" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">コスト表!$E$2:$G$124</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">分類別コスト集計!$B$2:$E$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">コスト表!$E$2:$G$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">分類別コスト集計!$B$2:$E$20</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="154">
   <si>
     <t>分類</t>
   </si>
@@ -926,13 +926,54 @@
       <t>ジッソウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルト</t>
+  </si>
+  <si>
+    <t>リザルト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サウンド実装</t>
+    <rPh sb="4" eb="6">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成績データの収集</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウェーブ中のキル数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果UIのスキップ処理</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	ボタン押下で早送り・スキップするUI対応</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェード</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -971,14 +1012,6 @@
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1021,15 +1054,59 @@
       <charset val="128"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFC00000"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFA20000"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1084,8 +1161,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1268,13 +1351,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1363,64 +1455,55 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="56" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1434,6 +1517,42 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1777,11 +1896,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I124"/>
+  <dimension ref="B1:I133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
+      <pane ySplit="2" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -1797,7 +1916,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B1" t="s">
+      <c r="B1" s="55" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2309,7 +2428,7 @@
       <c r="G25" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="52" t="s">
+      <c r="H25" s="49" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2335,12 +2454,12 @@
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="2:8" ht="18.75">
-      <c r="B27" s="42"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="2:8" ht="18.75">
@@ -2661,7 +2780,7 @@
       <c r="G43" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H43" s="47"/>
+      <c r="H43" s="45"/>
     </row>
     <row r="44" spans="2:8" ht="18.75">
       <c r="B44" s="1" t="s">
@@ -3301,7 +3420,7 @@
         <v>55</v>
       </c>
       <c r="D76" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>8</v>
@@ -3324,7 +3443,7 @@
         <v>109</v>
       </c>
       <c r="D77" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>8</v>
@@ -3454,53 +3573,53 @@
       <c r="H83" s="15"/>
     </row>
     <row r="84" spans="2:8" ht="18.75">
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="12"/>
-      <c r="H84" s="16"/>
+      <c r="B84" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D84" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H84" s="15"/>
     </row>
     <row r="85" spans="2:8" ht="18.75">
-      <c r="B85" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D85" s="4">
-        <v>1</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F85" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G85" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H85" s="15"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="16"/>
     </row>
     <row r="86" spans="2:8" ht="18.75">
       <c r="B86" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D86" s="7">
+        <v>61</v>
+      </c>
+      <c r="D86" s="4">
         <v>1</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H86" s="15"/>
     </row>
@@ -3509,19 +3628,19 @@
         <v>60</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D87" s="7">
         <v>1</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H87" s="15"/>
     </row>
@@ -3530,10 +3649,10 @@
         <v>60</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D88" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>16</v>
@@ -3547,93 +3666,89 @@
       <c r="H88" s="15"/>
     </row>
     <row r="89" spans="2:8" ht="18.75">
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11"/>
+      <c r="B89" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D89" s="7">
+        <v>1</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F89" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G89" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="H89" s="15"/>
     </row>
     <row r="90" spans="2:8" ht="18.75">
-      <c r="B90" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D90" s="4">
-        <v>2</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G90" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H90" s="14" t="s">
-        <v>67</v>
-      </c>
+      <c r="B90" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D90" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G90" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H90" s="15"/>
     </row>
     <row r="91" spans="2:8" ht="18.75">
-      <c r="B91" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D91" s="7">
-        <v>1</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G91" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
       <c r="H91" s="15"/>
     </row>
     <row r="92" spans="2:8" ht="18.75">
-      <c r="B92" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D92" s="7">
-        <v>1</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F92" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G92" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H92" s="15" t="s">
-        <v>88</v>
-      </c>
+      <c r="B92" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D92" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G92" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H92" s="14"/>
     </row>
     <row r="93" spans="2:8" ht="18.75">
       <c r="B93" s="1" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D93" s="7">
+        <v>148</v>
+      </c>
+      <c r="D93" s="54">
         <v>1</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F93" s="11" t="s">
         <v>9</v>
@@ -3641,23 +3756,25 @@
       <c r="G93" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H93" s="15"/>
+      <c r="H93" s="15" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="94" spans="2:8" ht="18.75">
       <c r="B94" s="1" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D94" s="7">
+        <v>62</v>
+      </c>
+      <c r="D94" s="54">
         <v>1</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G94" s="11" t="s">
         <v>10</v>
@@ -3666,12 +3783,12 @@
     </row>
     <row r="95" spans="2:8" ht="18.75">
       <c r="B95" s="1" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D95" s="7">
+        <v>153</v>
+      </c>
+      <c r="D95" s="54">
         <v>1</v>
       </c>
       <c r="E95" s="5" t="s">
@@ -3686,151 +3803,289 @@
       <c r="H95" s="15"/>
     </row>
     <row r="96" spans="2:8" ht="18.75">
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="12"/>
-      <c r="G96" s="12"/>
-      <c r="H96" s="16"/>
+      <c r="B96" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C96" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="D96" s="7">
+        <v>1</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F96" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G96" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H96" s="15" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="97" spans="2:8" ht="18.75">
       <c r="B97" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D97" s="4">
+        <v>145</v>
+      </c>
+      <c r="C97" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="D97" s="52">
         <v>1</v>
       </c>
-      <c r="E97" s="5" t="s">
+      <c r="E97" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="F97" s="11" t="s">
+      <c r="F97" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="G97" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H97" s="15"/>
+      <c r="G97" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H97" s="49"/>
     </row>
     <row r="98" spans="2:8" ht="18.75">
-      <c r="B98" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D98" s="7">
-        <v>4</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F98" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G98" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
       <c r="H98" s="15"/>
     </row>
     <row r="99" spans="2:8" ht="18.75">
-      <c r="B99" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D99" s="7">
-        <v>1</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F99" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G99" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H99" s="15"/>
+      <c r="B99" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D99" s="4">
+        <v>2</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G99" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H99" s="14" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="100" spans="2:8" ht="18.75">
       <c r="B100" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" s="7">
+        <v>1</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G100" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H100" s="15"/>
+    </row>
+    <row r="101" spans="2:8" ht="18.75">
+      <c r="B101" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D101" s="7">
+        <v>1</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G101" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H101" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" ht="18.75">
+      <c r="B102" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D102" s="7">
+        <v>1</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G102" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H102" s="15"/>
+    </row>
+    <row r="103" spans="2:8" ht="18.75">
+      <c r="B103" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D103" s="7">
+        <v>1</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F103" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G103" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H103" s="15"/>
+    </row>
+    <row r="104" spans="2:8" ht="18.75">
+      <c r="B104" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D104" s="7">
+        <v>1</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F104" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G104" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H104" s="15"/>
+    </row>
+    <row r="105" spans="2:8" ht="18.75">
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="16"/>
+    </row>
+    <row r="106" spans="2:8" ht="18.75">
+      <c r="B106" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C106" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D106" s="4">
+        <v>1</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F106" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G106" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H106" s="15"/>
+    </row>
+    <row r="107" spans="2:8" ht="18.75">
+      <c r="B107" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D107" s="7">
+        <v>4</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F107" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G107" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H107" s="15"/>
+    </row>
+    <row r="108" spans="2:8" ht="18.75">
+      <c r="B108" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D108" s="7">
+        <v>1</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F108" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G108" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H108" s="15"/>
+    </row>
+    <row r="109" spans="2:8" ht="18.75">
+      <c r="B109" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D100" s="7">
+      <c r="D109" s="7">
         <v>2</v>
       </c>
-      <c r="E100" s="5" t="s">
+      <c r="E109" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F100" s="11" t="s">
+      <c r="F109" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G100" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H100" s="15"/>
-    </row>
-    <row r="101" spans="2:8" ht="18.75">
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="9"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="12"/>
-      <c r="G101" s="12"/>
-      <c r="H101" s="16"/>
-    </row>
-    <row r="102" spans="2:8" ht="18.75">
-      <c r="C102"/>
-      <c r="D102" s="7"/>
-      <c r="H102" s="13"/>
-    </row>
-    <row r="103" spans="2:8" ht="18.75">
-      <c r="C103"/>
-      <c r="D103" s="7"/>
-      <c r="H103" s="13"/>
-    </row>
-    <row r="104" spans="2:8" ht="18.75">
-      <c r="C104"/>
-      <c r="D104" s="7"/>
-      <c r="H104" s="13"/>
-    </row>
-    <row r="105" spans="2:8" ht="18.75">
-      <c r="C105"/>
-      <c r="D105" s="7"/>
-      <c r="H105" s="13"/>
-    </row>
-    <row r="106" spans="2:8" ht="18.75">
-      <c r="C106"/>
-      <c r="D106" s="7"/>
-      <c r="H106" s="13"/>
-    </row>
-    <row r="107" spans="2:8" ht="18.75">
-      <c r="C107"/>
-      <c r="D107" s="7"/>
-      <c r="H107" s="13"/>
-    </row>
-    <row r="108" spans="2:8" ht="18.75">
-      <c r="C108"/>
-      <c r="D108" s="7"/>
-      <c r="H108" s="13"/>
-    </row>
-    <row r="109" spans="2:8" ht="18.75">
-      <c r="C109"/>
-      <c r="D109" s="7"/>
-      <c r="H109" s="13"/>
+      <c r="G109" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H109" s="15"/>
     </row>
     <row r="110" spans="2:8" ht="18.75">
-      <c r="C110"/>
-      <c r="D110" s="7"/>
-      <c r="H110" s="13"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="16"/>
     </row>
     <row r="111" spans="2:8" ht="18.75">
       <c r="C111"/>
@@ -3847,10 +4102,26 @@
       <c r="D113" s="7"/>
       <c r="H113" s="13"/>
     </row>
-    <row r="114" spans="3:8" ht="18.75"/>
-    <row r="115" spans="3:8" ht="18.75"/>
-    <row r="116" spans="3:8" ht="18.75"/>
-    <row r="117" spans="3:8" ht="18.75"/>
+    <row r="114" spans="3:8" ht="18.75">
+      <c r="C114"/>
+      <c r="D114" s="7"/>
+      <c r="H114" s="13"/>
+    </row>
+    <row r="115" spans="3:8" ht="18.75">
+      <c r="C115"/>
+      <c r="D115" s="7"/>
+      <c r="H115" s="13"/>
+    </row>
+    <row r="116" spans="3:8" ht="18.75">
+      <c r="C116"/>
+      <c r="D116" s="7"/>
+      <c r="H116" s="13"/>
+    </row>
+    <row r="117" spans="3:8" ht="18.75">
+      <c r="C117"/>
+      <c r="D117" s="7"/>
+      <c r="H117" s="13"/>
+    </row>
     <row r="118" spans="3:8" ht="18.75">
       <c r="C118"/>
       <c r="D118" s="7"/>
@@ -3862,6 +4133,8 @@
       <c r="H119" s="13"/>
     </row>
     <row r="120" spans="3:8" ht="18.75">
+      <c r="C120"/>
+      <c r="D120" s="7"/>
       <c r="H120" s="13"/>
     </row>
     <row r="121" spans="3:8" ht="18.75">
@@ -3874,18 +4147,45 @@
       <c r="D122" s="7"/>
       <c r="H122" s="13"/>
     </row>
-    <row r="123" spans="3:8" ht="18.75">
-      <c r="C123"/>
-      <c r="D123" s="7"/>
-      <c r="H123" s="13"/>
-    </row>
-    <row r="124" spans="3:8" ht="18.75">
-      <c r="C124"/>
-      <c r="D124" s="7"/>
-      <c r="H124" s="13"/>
+    <row r="123" spans="3:8" ht="18.75"/>
+    <row r="124" spans="3:8" ht="18.75"/>
+    <row r="125" spans="3:8" ht="18.75"/>
+    <row r="126" spans="3:8" ht="18.75"/>
+    <row r="127" spans="3:8" ht="18.75">
+      <c r="C127"/>
+      <c r="D127" s="7"/>
+      <c r="H127" s="13"/>
+    </row>
+    <row r="128" spans="3:8" ht="18.75">
+      <c r="C128"/>
+      <c r="D128" s="7"/>
+      <c r="H128" s="13"/>
+    </row>
+    <row r="129" spans="3:8" ht="18.75">
+      <c r="H129" s="13"/>
+    </row>
+    <row r="130" spans="3:8" ht="18.75">
+      <c r="C130"/>
+      <c r="D130" s="7"/>
+      <c r="H130" s="13"/>
+    </row>
+    <row r="131" spans="3:8" ht="18.75">
+      <c r="C131"/>
+      <c r="D131" s="7"/>
+      <c r="H131" s="13"/>
+    </row>
+    <row r="132" spans="3:8" ht="18.75">
+      <c r="C132"/>
+      <c r="D132" s="7"/>
+      <c r="H132" s="13"/>
+    </row>
+    <row r="133" spans="3:8" ht="18.75">
+      <c r="C133"/>
+      <c r="D133" s="7"/>
+      <c r="H133" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="E2:G124" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="E2:G133" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
@@ -3896,19 +4196,19 @@
           <x14:formula1>
             <xm:f>その他!$B$3:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>G118:G119 G121:G1048576 G1:G26 G28:G113</xm:sqref>
+          <xm:sqref>G127:G128 G130:G1048576 G1:G26 G28:G122</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{66D8840C-D443-486F-BC72-01200775D285}">
           <x14:formula1>
             <xm:f>その他!$D$3:$D$6</xm:f>
           </x14:formula1>
-          <xm:sqref>F118:F119 F121:F1048576 F1:F26 F28:F113</xm:sqref>
+          <xm:sqref>F127:F128 F130:F1048576 F1:F26 F28:F122</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D61B1C0A-2748-4606-B0EE-00EEC89A23C6}">
           <x14:formula1>
             <xm:f>その他!$F$3:$F$6</xm:f>
           </x14:formula1>
-          <xm:sqref>E118:E119 E121:E1048576 E1:E26 E28:E113</xm:sqref>
+          <xm:sqref>E127:E128 E130:E1048576 E1:E26 E28:E122</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3918,10 +4218,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:K25"/>
+  <dimension ref="B2:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3937,24 +4237,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="19.5">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="30" t="s">
         <v>23</v>
       </c>
       <c r="H2" s="29">
         <f>SUM(C:C)</f>
-        <v>180</v>
+        <v>184.5</v>
       </c>
       <c r="I2" s="29"/>
       <c r="J2" s="28"/>
@@ -3968,15 +4268,15 @@
         <f>SUMIF(コスト表!B:B, B3, コスト表!D:D)</f>
         <v>34.5</v>
       </c>
-      <c r="D3" s="54">
+      <c r="D3" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "プレイヤー", コスト表!G:G, "完了")</f>
         <v>12</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="40">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "プレイヤー", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "プレイヤー") * 100,1)</f>
         <v>45.8</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="31" t="s">
         <v>24</v>
       </c>
       <c r="H3" s="29">
@@ -3996,15 +4296,15 @@
         <f>SUMIF(コスト表!B:B, B4, コスト表!D:D)</f>
         <v>29</v>
       </c>
-      <c r="D4" s="54">
+      <c r="D4" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "敵基底クラス", コスト表!G:G, "完了")</f>
         <v>0</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="40">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "敵基底クラス", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "敵基底クラス") * 100,1)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="32" t="s">
         <v>26</v>
       </c>
       <c r="H4" s="29">
@@ -4025,22 +4325,22 @@
         <f>SUMIF(コスト表!B:B, B5, コスト表!D:D)</f>
         <v>10.5</v>
       </c>
-      <c r="D5" s="54">
+      <c r="D5" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "敵1(通常ゾンビ)", コスト表!G:G, "完了")</f>
         <v>0</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="40">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "敵1(通常ゾンビ)", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "敵1(通常ゾンビ)") * 100,1)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="48">
+      <c r="H5" s="46">
         <f>DATE(2025,5,2)</f>
         <v>45779</v>
       </c>
-      <c r="I5" s="48"/>
+      <c r="I5" s="46"/>
       <c r="J5" s="28"/>
       <c r="K5" s="28"/>
     </row>
@@ -4052,22 +4352,22 @@
         <f>SUMIF(コスト表!B:B, B6, コスト表!D:D)</f>
         <v>11.5</v>
       </c>
-      <c r="D6" s="54">
+      <c r="D6" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "敵2(ランナーゾンビ)", コスト表!G:G, "完了")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="40">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "敵2(ランナーゾンビ)", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "敵2(ランナーゾンビ)") * 100,1)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="48">
+      <c r="H6" s="46">
         <f ca="1">TODAY()</f>
         <v>45813</v>
       </c>
-      <c r="I6" s="48"/>
+      <c r="I6" s="46"/>
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
     </row>
@@ -4079,11 +4379,11 @@
         <f>SUMIF(コスト表!B:B, B7, コスト表!D:D)</f>
         <v>10.5</v>
       </c>
-      <c r="D7" s="54">
+      <c r="D7" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "敵3(遠距離型ゾンビ)", コスト表!G:G, "完了")</f>
         <v>0</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="40">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "敵3(遠距離型ゾンビ)", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "敵3(遠距離型ゾンビ)") * 100,1)</f>
         <v>0</v>
       </c>
@@ -4097,11 +4397,11 @@
         <f>SUMIF(コスト表!B:B, B8, コスト表!D:D)</f>
         <v>24</v>
       </c>
-      <c r="D8" s="54">
+      <c r="D8" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "ボス(ゾンビを召喚)", コスト表!G:G, "完了")</f>
         <v>0</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="40">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "ボス(ゾンビを召喚)", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "ボス(ゾンビを召喚)") * 100,1)</f>
         <v>0</v>
       </c>
@@ -4122,28 +4422,28 @@
         <f>SUMIF(コスト表!B:B, B9, コスト表!D:D)</f>
         <v>8</v>
       </c>
-      <c r="D9" s="54">
+      <c r="D9" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "マップ", コスト表!G:G, "完了")</f>
         <v>0</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="40">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "マップ", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "マップ") * 100,1)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="G9" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="49">
+      <c r="H9" s="62">
         <f>DATE(2025,7,23)</f>
         <v>45861</v>
       </c>
-      <c r="I9" s="46">
+      <c r="I9" s="58">
         <f ca="1">NETWORKDAYS(TODAY(),H9)</f>
         <v>35</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="60">
         <f ca="1">ROUNDDOWN(($H$2-$H$3)/I9, 1)</f>
-        <v>4.7</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="19.5">
@@ -4152,30 +4452,30 @@
       </c>
       <c r="C10" s="19">
         <f>SUMIF(コスト表!B:B, B10, コスト表!D:D)</f>
-        <v>24</v>
-      </c>
-      <c r="D10" s="54">
+        <v>23</v>
+      </c>
+      <c r="D10" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "ウェーブ管理", コスト表!G:G, "完了")</f>
         <v>0</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="40">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "ウェーブ管理", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "ウェーブ管理") * 100,1)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="48">
+      <c r="H10" s="63">
         <f>DATE(2025,8,11)</f>
         <v>45880</v>
       </c>
-      <c r="I10" s="45">
+      <c r="I10" s="59">
         <f ca="1">NETWORKDAYS(TODAY(),H10)</f>
         <v>48</v>
       </c>
-      <c r="J10" s="29">
+      <c r="J10" s="61">
         <f ca="1">ROUNDDOWN(($H$2 - $H$3) / I10,1)</f>
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="19.5">
@@ -4184,28 +4484,28 @@
       </c>
       <c r="C11" s="19">
         <f>SUMIF(コスト表!B:B, B11, コスト表!D:D)</f>
-        <v>8</v>
-      </c>
-      <c r="D11" s="54">
+        <v>8.5</v>
+      </c>
+      <c r="D11" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "アイテム", コスト表!G:G, "完了")</f>
         <v>0</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="40">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "アイテム", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "アイテム") * 100,1)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="48">
+      <c r="H11" s="63">
         <f>DATE(2025,8,17)</f>
         <v>45886</v>
       </c>
-      <c r="I11" s="45">
+      <c r="I11" s="59">
         <f ca="1">NETWORKDAYS(TODAY(),H11)</f>
         <v>52</v>
       </c>
-      <c r="J11" s="29">
+      <c r="J11" s="61">
         <f ca="1">ROUNDDOWN(($H$2 - $H$3) / I11,1)</f>
         <v>3.2</v>
       </c>
@@ -4216,186 +4516,203 @@
       </c>
       <c r="C12" s="19">
         <f>SUMIF(コスト表!B:B, B12, コスト表!D:D)</f>
-        <v>5</v>
-      </c>
-      <c r="D12" s="54">
+        <v>4.5</v>
+      </c>
+      <c r="D12" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "タイトル", コスト表!G:G, "完了")</f>
         <v>1</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="40">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "タイトル", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "タイトル") * 100,1)</f>
-        <v>25</v>
-      </c>
-      <c r="G12" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="48">
+      <c r="H12" s="63">
         <f>DATE(2025,9,1)</f>
         <v>45901</v>
       </c>
-      <c r="I12" s="45">
+      <c r="I12" s="59">
         <f ca="1">NETWORKDAYS(TODAY(),H12)</f>
         <v>63</v>
       </c>
-      <c r="J12" s="29">
+      <c r="J12" s="61">
         <f ca="1">ROUNDDOWN(($H$2 - $H$3) / I12,1)</f>
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="18" t="s">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="C13" s="19">
         <f>SUMIF(コスト表!B:B, B13, コスト表!D:D)</f>
+        <v>5.5</v>
+      </c>
+      <c r="D13" s="51">
+        <f>SUMIFS(コスト表!D:D, コスト表!B:B, "リザルト", コスト表!G:G, "完了")</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="40">
+        <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "リザルト", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "リザルト") * 100,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="46"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="29"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="19">
+        <f>SUMIF(コスト表!B:B, B14, コスト表!D:D)</f>
         <v>7</v>
       </c>
-      <c r="D13" s="54">
+      <c r="D14" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "オプション", コスト表!G:G, "完了")</f>
         <v>0</v>
       </c>
-      <c r="E13" s="41">
+      <c r="E14" s="40">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "オプション", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "オプション") * 100,1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:11">
-      <c r="B14" s="18" t="s">
+    <row r="15" spans="2:11">
+      <c r="B15" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="19">
-        <f>SUMIF(コスト表!B:B, B14, コスト表!D:D)</f>
-        <v>8</v>
-      </c>
-      <c r="D14" s="54">
+      <c r="C15" s="19">
+        <f>SUMIF(コスト表!B:B, B15, コスト表!D:D)</f>
+        <v>8</v>
+      </c>
+      <c r="D15" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "エフェクト", コスト表!G:G, "完了")</f>
         <v>0</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E15" s="40">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "エフェクト", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "エフェクト") * 100,1)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:11">
-      <c r="B15" s="42" t="s">
+      <c r="G15" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="J15" s="42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="41">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="40">
         <f>ROUNDDOWN(COUNTIF(コスト表!G:G, "完了") / COUNTA(コスト表!G:G) * 100,1)</f>
-        <v>13.6</v>
-      </c>
-      <c r="G15" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="I15" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="J15" s="43" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="G16" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" s="44">
+        <v>12.5</v>
+      </c>
+      <c r="G16" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="43">
         <f>SUMIF(コスト表!F:F, "プロト", コスト表!D:D)</f>
-        <v>120.5</v>
-      </c>
-      <c r="I16" s="44">
+        <v>123</v>
+      </c>
+      <c r="I16" s="43">
         <f>SUMIFS(コスト表!D:D, コスト表!F:F, "プロト", コスト表!G:G, "完了")</f>
         <v>11</v>
       </c>
-      <c r="J16" s="44">
+      <c r="J16" s="43">
         <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "プロト", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "プロト") * 100,1)</f>
-        <v>14.8</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="17" spans="3:10">
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="39"/>
-      <c r="G17" s="44" t="s">
+      <c r="G17" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="44">
+      <c r="H17" s="43">
         <f>SUMIF(コスト表!F:F, "アルファ", コスト表!D:D)</f>
-        <v>58.5</v>
-      </c>
-      <c r="I17" s="44">
+        <v>60.5</v>
+      </c>
+      <c r="I17" s="43">
         <f>SUMIFS(コスト表!D:D, コスト表!F:F, "アルファ", コスト表!G:G, "完了")</f>
         <v>2</v>
       </c>
-      <c r="J17" s="44">
+      <c r="J17" s="43">
         <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "アルファ", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "アルファ") * 100,1)</f>
-        <v>12.5</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="18" spans="3:10">
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="39"/>
-      <c r="G18" s="44" t="s">
+      <c r="E18" s="38"/>
+      <c r="G18" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="44">
+      <c r="H18" s="43">
         <f>SUMIF(コスト表!F:F, "ベータ", コスト表!D:D)</f>
         <v>1</v>
       </c>
-      <c r="I18" s="44">
+      <c r="I18" s="43">
         <f>SUMIFS(コスト表!D:D, コスト表!F:F, "ベータ", コスト表!G:G, "完了")</f>
         <v>0</v>
       </c>
-      <c r="J18" s="44">
+      <c r="J18" s="43">
         <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "ベータ", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "ベータ") * 100,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="3:10">
-      <c r="E19" s="39"/>
-      <c r="G19" s="44" t="s">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="38"/>
+      <c r="G19" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="44">
+      <c r="H19" s="43">
         <f>SUMIF(コスト表!F:F, "マスター", コスト表!D:D)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="44">
+      <c r="I19" s="43">
         <f>SUMIFS(コスト表!D:D, コスト表!F:F, "マスター", コスト表!G:G, "完了")</f>
         <v>0</v>
       </c>
-      <c r="J19" s="44" t="e">
+      <c r="J19" s="43" t="e">
         <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "マスター", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "マスター") * 100,1)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="3:10">
-      <c r="E20" s="39"/>
-    </row>
-    <row r="22" spans="3:10">
-      <c r="E22" s="37"/>
+      <c r="E20" s="38"/>
+    </row>
+    <row r="21" spans="3:10">
+      <c r="E21" s="38"/>
     </row>
     <row r="23" spans="3:10">
-      <c r="E23" s="37"/>
+      <c r="E23" s="36"/>
     </row>
     <row r="24" spans="3:10">
-      <c r="E24" s="37"/>
+      <c r="E24" s="36"/>
     </row>
     <row r="25" spans="3:10">
-      <c r="E25" s="37"/>
+      <c r="E25" s="36"/>
+    </row>
+    <row r="26" spans="3:10">
+      <c r="E26" s="36"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="E12" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -4414,13 +4731,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="35" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4475,21 +4792,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006836AD0B55474E4CAD520F1DEB8FB579" ma:contentTypeVersion="3" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="078ba6c1f7b5b638bb57eb024ae572f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="187a6309-4c0c-49e3-bd2d-e8130eb88270" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5f182963113af090d1b42042cf04cb6" ns2:_="">
     <xsd:import namespace="187a6309-4c0c-49e3-bd2d-e8130eb88270"/>
@@ -4627,24 +4929,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A1D85CE-B20E-4841-A55B-779E85453EF9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4660,4 +4960,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ゾンビシューターゲームコスト表.xlsx
+++ b/ゾンビシューターゲームコスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\由留部 瑛人\Documents\MyGame3D2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AAE5F1-978F-4642-89C9-0179C39F8866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAB88BE-CECF-4A4A-99F8-64893CA6E57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="1800" windowWidth="19935" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="16950" windowHeight="13680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コスト表" sheetId="1" r:id="rId1"/>
@@ -1366,7 +1366,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1524,9 +1524,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1898,9 +1895,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -1916,7 +1913,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="54" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2065,7 +2062,7 @@
         <v>9</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H8" s="15"/>
     </row>
@@ -2560,7 +2557,7 @@
         <v>100</v>
       </c>
       <c r="D32" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>8</v>
@@ -3744,7 +3741,7 @@
       <c r="C93" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D93" s="54">
+      <c r="D93" s="7">
         <v>1</v>
       </c>
       <c r="E93" s="5" t="s">
@@ -3767,7 +3764,7 @@
       <c r="C94" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D94" s="54">
+      <c r="D94" s="7">
         <v>1</v>
       </c>
       <c r="E94" s="5" t="s">
@@ -3788,7 +3785,7 @@
       <c r="C95" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D95" s="54">
+      <c r="D95" s="7">
         <v>1</v>
       </c>
       <c r="E95" s="5" t="s">
@@ -4220,7 +4217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -4254,7 +4251,7 @@
       </c>
       <c r="H2" s="29">
         <f>SUM(C:C)</f>
-        <v>184.5</v>
+        <v>182.5</v>
       </c>
       <c r="I2" s="29"/>
       <c r="J2" s="28"/>
@@ -4294,7 +4291,7 @@
       </c>
       <c r="C4" s="19">
         <f>SUMIF(コスト表!B:B, B4, コスト表!D:D)</f>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "敵基底クラス", コスト表!G:G, "完了")</f>
@@ -4309,7 +4306,7 @@
       </c>
       <c r="H4" s="29">
         <f ca="1">NETWORKDAYS(H5,H6)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I4" s="29">
         <f ca="1" xml:space="preserve"> ROUNDDOWN(H3 / H4,1)</f>
@@ -4365,7 +4362,7 @@
       </c>
       <c r="H6" s="46">
         <f ca="1">TODAY()</f>
-        <v>45813</v>
+        <v>45814</v>
       </c>
       <c r="I6" s="46"/>
       <c r="J6" s="28"/>
@@ -4430,18 +4427,18 @@
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "マップ", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "マップ") * 100,1)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="56" t="s">
+      <c r="G9" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="62">
+      <c r="H9" s="61">
         <f>DATE(2025,7,23)</f>
         <v>45861</v>
       </c>
-      <c r="I9" s="58">
+      <c r="I9" s="57">
         <f ca="1">NETWORKDAYS(TODAY(),H9)</f>
-        <v>35</v>
-      </c>
-      <c r="J9" s="60">
+        <v>34</v>
+      </c>
+      <c r="J9" s="59">
         <f ca="1">ROUNDDOWN(($H$2-$H$3)/I9, 1)</f>
         <v>4.9000000000000004</v>
       </c>
@@ -4465,17 +4462,17 @@
       <c r="G10" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="63">
+      <c r="H10" s="62">
         <f>DATE(2025,8,11)</f>
         <v>45880</v>
       </c>
-      <c r="I10" s="59">
+      <c r="I10" s="58">
         <f ca="1">NETWORKDAYS(TODAY(),H10)</f>
-        <v>48</v>
-      </c>
-      <c r="J10" s="61">
+        <v>47</v>
+      </c>
+      <c r="J10" s="60">
         <f ca="1">ROUNDDOWN(($H$2 - $H$3) / I10,1)</f>
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="19.5">
@@ -4497,17 +4494,17 @@
       <c r="G11" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="63">
+      <c r="H11" s="62">
         <f>DATE(2025,8,17)</f>
         <v>45886</v>
       </c>
-      <c r="I11" s="59">
+      <c r="I11" s="58">
         <f ca="1">NETWORKDAYS(TODAY(),H11)</f>
-        <v>52</v>
-      </c>
-      <c r="J11" s="61">
+        <v>51</v>
+      </c>
+      <c r="J11" s="60">
         <f ca="1">ROUNDDOWN(($H$2 - $H$3) / I11,1)</f>
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="19.5">
@@ -4526,18 +4523,18 @@
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "タイトル", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "タイトル") * 100,1)</f>
         <v>20</v>
       </c>
-      <c r="G12" s="57" t="s">
+      <c r="G12" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="63">
+      <c r="H12" s="62">
         <f>DATE(2025,9,1)</f>
         <v>45901</v>
       </c>
-      <c r="I12" s="59">
+      <c r="I12" s="58">
         <f ca="1">NETWORKDAYS(TODAY(),H12)</f>
-        <v>63</v>
-      </c>
-      <c r="J12" s="61">
+        <v>62</v>
+      </c>
+      <c r="J12" s="60">
         <f ca="1">ROUNDDOWN(($H$2 - $H$3) / I12,1)</f>
         <v>2.7</v>
       </c>
@@ -4640,7 +4637,7 @@
       </c>
       <c r="H17" s="43">
         <f>SUMIF(コスト表!F:F, "アルファ", コスト表!D:D)</f>
-        <v>60.5</v>
+        <v>58.5</v>
       </c>
       <c r="I17" s="43">
         <f>SUMIFS(コスト表!D:D, コスト表!F:F, "アルファ", コスト表!G:G, "完了")</f>
@@ -4792,6 +4789,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006836AD0B55474E4CAD520F1DEB8FB579" ma:contentTypeVersion="3" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="078ba6c1f7b5b638bb57eb024ae572f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="187a6309-4c0c-49e3-bd2d-e8130eb88270" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5f182963113af090d1b42042cf04cb6" ns2:_="">
     <xsd:import namespace="187a6309-4c0c-49e3-bd2d-e8130eb88270"/>
@@ -4929,22 +4941,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A1D85CE-B20E-4841-A55B-779E85453EF9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4960,21 +4974,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ゾンビシューターゲームコスト表.xlsx
+++ b/ゾンビシューターゲームコスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\由留部 瑛人\Documents\MyGame3D2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAB88BE-CECF-4A4A-99F8-64893CA6E57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D10790-6D5A-446B-94E3-A19E7A09E70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="16950" windowHeight="13680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3780" yWindow="3195" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コスト表" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">コスト表!$E$2:$G$133</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">分類別コスト集計!$B$2:$E$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">分類別コスト集計!$B$2:$G$21</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="155">
   <si>
     <t>分類</t>
   </si>
@@ -80,9 +80,6 @@
     <t>B</t>
   </si>
   <si>
-    <t>死亡判定</t>
-  </si>
-  <si>
     <t>アルファ</t>
   </si>
   <si>
@@ -93,12 +90,6 @@
   </si>
   <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>エフェクト</t>
-  </si>
-  <si>
-    <t>停止</t>
   </si>
   <si>
     <t>進捗段階</t>
@@ -310,10 +301,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>UI</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>オプション</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -475,16 +462,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>敵基底クラス</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>キテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>当たり判定処理</t>
     <rPh sb="0" eb="1">
       <t>ア</t>
@@ -599,16 +576,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>敵基底クラス</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>キテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アニメーション実装</t>
     <rPh sb="7" eb="9">
       <t>ジッソウ</t>
@@ -749,16 +716,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>敵基底クラス</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>キテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>サウンド管理</t>
     <rPh sb="4" eb="6">
       <t>カンリ</t>
@@ -801,30 +758,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>実装</t>
-    <rPh sb="0" eb="2">
-      <t>ジッソウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>座標回転と拡大</t>
-    <rPh sb="0" eb="4">
-      <t>ザヒョウカイテン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カクダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>再生</t>
-    <rPh sb="0" eb="2">
-      <t>サイセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>マップ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -935,10 +868,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>UI</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>サウンド実装</t>
     <rPh sb="4" eb="6">
       <t>ジッソウ</t>
@@ -946,14 +875,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>成績データの収集</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ウェーブ中のキル数</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>リザルト</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -967,13 +888,91 @@
   </si>
   <si>
     <t>フェード</t>
+  </si>
+  <si>
+    <t>S：実装が必須</t>
+  </si>
+  <si>
+    <t>A：重要な要素</t>
+  </si>
+  <si>
+    <t>B：なくても問題ないがあるといい</t>
+  </si>
+  <si>
+    <t>C：なくても問題ない</t>
+  </si>
+  <si>
+    <t>敵ベース</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死亡</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業中コスト</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未着手コスト</t>
+    <rPh sb="0" eb="3">
+      <t>ミチャクシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームオーバー</t>
+  </si>
+  <si>
+    <t>ゲームオーバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI実装</t>
+    <rPh sb="2" eb="4">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウェーブ中のキル数、クリア時間、スコア</t>
+    <rPh sb="13" eb="15">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームオーバー時のキル数、時間、スコア</t>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームオーバー</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1105,8 +1104,16 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1167,8 +1174,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1360,13 +1373,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1550,6 +1576,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1895,9 +1929,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I133"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
+      <selection pane="bottomLeft" activeCell="H109" sqref="H109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -1914,7 +1948,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" customHeight="1">
       <c r="B1" s="54" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="2:8" ht="18.75">
@@ -1945,10 +1979,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D3" s="8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>8</v>
@@ -1957,7 +1991,7 @@
         <v>9</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3" s="14"/>
     </row>
@@ -1966,10 +2000,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D4" s="7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>8</v>
@@ -1978,25 +2012,25 @@
         <v>9</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4" s="15"/>
     </row>
     <row r="5" spans="2:8" ht="18.75">
       <c r="B5" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D5" s="7">
         <v>1</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>10</v>
@@ -2008,10 +2042,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D6" s="7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>8</v>
@@ -2020,7 +2054,7 @@
         <v>9</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6" s="15"/>
     </row>
@@ -2029,7 +2063,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D7" s="7">
         <v>3</v>
@@ -2041,7 +2075,7 @@
         <v>9</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H7" s="15"/>
     </row>
@@ -2050,7 +2084,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D8" s="7">
         <v>4</v>
@@ -2062,7 +2096,7 @@
         <v>9</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H8" s="15"/>
     </row>
@@ -2071,10 +2105,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D9" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>8</v>
@@ -2089,10 +2123,10 @@
     </row>
     <row r="10" spans="2:8" ht="18.75">
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D10" s="7">
         <v>3</v>
@@ -2104,7 +2138,7 @@
         <v>9</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10" s="15"/>
     </row>
@@ -2113,7 +2147,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="D11" s="7">
         <v>1</v>
@@ -2131,13 +2165,13 @@
     </row>
     <row r="12" spans="2:8" ht="18.75">
       <c r="B12" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D12" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>8</v>
@@ -2152,10 +2186,10 @@
     </row>
     <row r="13" spans="2:8" ht="18.75">
       <c r="B13" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D13" s="7">
         <v>1</v>
@@ -2167,10 +2201,10 @@
         <v>9</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="18.75">
@@ -2178,10 +2212,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D14" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>8</v>
@@ -2196,13 +2230,13 @@
     </row>
     <row r="15" spans="2:8" ht="18.75">
       <c r="B15" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D15" s="7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>8</v>
@@ -2211,16 +2245,16 @@
         <v>9</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H15" s="15"/>
     </row>
     <row r="16" spans="2:8" ht="18.75">
       <c r="B16" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D16" s="7">
         <v>2</v>
@@ -2232,30 +2266,30 @@
         <v>9</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="18.75">
       <c r="B17" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D17" s="7">
         <v>2</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>9</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H17" s="15"/>
     </row>
@@ -2264,7 +2298,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D18" s="7">
         <v>0.5</v>
@@ -2273,10 +2307,10 @@
         <v>8</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H18" s="15"/>
     </row>
@@ -2285,7 +2319,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D19" s="7">
         <v>0.5</v>
@@ -2294,10 +2328,10 @@
         <v>8</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H19" s="15"/>
     </row>
@@ -2306,7 +2340,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D20" s="7">
         <v>0.5</v>
@@ -2315,10 +2349,10 @@
         <v>8</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H20" s="15"/>
     </row>
@@ -2327,7 +2361,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D21" s="7">
         <v>0.5</v>
@@ -2336,7 +2370,7 @@
         <v>8</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>10</v>
@@ -2348,7 +2382,7 @@
         <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D22" s="7">
         <v>0.5</v>
@@ -2357,7 +2391,7 @@
         <v>8</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>10</v>
@@ -2369,7 +2403,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D23" s="7">
         <v>0.5</v>
@@ -2378,19 +2412,19 @@
         <v>8</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H23" s="15"/>
     </row>
     <row r="24" spans="2:8" ht="18.75">
       <c r="B24" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D24" s="7">
         <v>0.5</v>
@@ -2399,7 +2433,7 @@
         <v>8</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>10</v>
@@ -2408,10 +2442,10 @@
     </row>
     <row r="25" spans="2:8" ht="18.75">
       <c r="B25" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="D25" s="7">
         <v>1</v>
@@ -2420,13 +2454,13 @@
         <v>11</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>10</v>
       </c>
       <c r="H25" s="49" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="18.75">
@@ -2434,19 +2468,19 @@
         <v>7</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D26" s="7">
         <v>2</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F26" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="11" t="s">
         <v>13</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>14</v>
       </c>
       <c r="H26" s="5"/>
     </row>
@@ -2461,10 +2495,10 @@
     </row>
     <row r="28" spans="2:8" ht="18.75">
       <c r="B28" s="3" t="s">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8">
         <v>5</v>
@@ -2476,18 +2510,18 @@
         <v>9</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="18.75">
       <c r="B29" s="1" t="s">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D29" s="7">
         <v>4</v>
@@ -2502,15 +2536,15 @@
         <v>10</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="18.75">
       <c r="B30" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="D30" s="7">
         <v>6</v>
@@ -2525,15 +2559,15 @@
         <v>10</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="18.75">
       <c r="B31" s="1" t="s">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D31" s="7">
         <v>2</v>
@@ -2545,16 +2579,16 @@
         <v>9</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H31" s="15"/>
     </row>
     <row r="32" spans="2:8" ht="18.75">
       <c r="B32" s="1" t="s">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D32" s="7">
         <v>4</v>
@@ -2563,30 +2597,30 @@
         <v>8</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>10</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="18.75">
       <c r="B33" s="1" t="s">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D33" s="7">
         <v>3</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>10</v>
@@ -2595,10 +2629,10 @@
     </row>
     <row r="34" spans="2:8" ht="18.75">
       <c r="B34" s="1" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D34" s="7">
         <v>3</v>
@@ -2625,10 +2659,10 @@
     </row>
     <row r="36" spans="2:8" ht="18.75">
       <c r="B36" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D36" s="4">
         <v>1.5</v>
@@ -2646,10 +2680,10 @@
     </row>
     <row r="37" spans="2:8" ht="18.75">
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D37" s="7">
         <v>1</v>
@@ -2667,10 +2701,10 @@
     </row>
     <row r="38" spans="2:8" ht="18.75">
       <c r="B38" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D38" s="7">
         <v>2</v>
@@ -2679,7 +2713,7 @@
         <v>8</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>10</v>
@@ -2688,19 +2722,19 @@
     </row>
     <row r="39" spans="2:8" ht="18.75">
       <c r="B39" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D39" s="7">
         <v>2</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G39" s="11" t="s">
         <v>10</v>
@@ -2709,10 +2743,10 @@
     </row>
     <row r="40" spans="2:8" ht="18.75">
       <c r="B40" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D40" s="7">
         <v>3</v>
@@ -2724,16 +2758,16 @@
         <v>9</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H40" s="15"/>
     </row>
     <row r="41" spans="2:8" ht="18.75">
       <c r="B41" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D41" s="7">
         <v>1</v>
@@ -2742,7 +2776,7 @@
         <v>8</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="G41" s="11" t="s">
         <v>10</v>
@@ -2760,10 +2794,10 @@
     </row>
     <row r="43" spans="2:8" ht="18.75">
       <c r="B43" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D43" s="8">
         <v>1</v>
@@ -2781,10 +2815,10 @@
     </row>
     <row r="44" spans="2:8" ht="18.75">
       <c r="B44" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D44" s="7">
         <v>1.5</v>
@@ -2802,10 +2836,10 @@
     </row>
     <row r="45" spans="2:8" ht="18.75">
       <c r="B45" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D45" s="7">
         <v>1</v>
@@ -2823,10 +2857,10 @@
     </row>
     <row r="46" spans="2:8" ht="18.75">
       <c r="B46" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D46" s="7">
         <v>2</v>
@@ -2835,7 +2869,7 @@
         <v>8</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G46" s="11" t="s">
         <v>10</v>
@@ -2844,19 +2878,19 @@
     </row>
     <row r="47" spans="2:8" ht="18.75">
       <c r="B47" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D47" s="7">
         <v>2</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G47" s="11" t="s">
         <v>10</v>
@@ -2865,10 +2899,10 @@
     </row>
     <row r="48" spans="2:8" ht="18.75">
       <c r="B48" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D48" s="7">
         <v>3</v>
@@ -2880,16 +2914,16 @@
         <v>9</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H48" s="15"/>
     </row>
     <row r="49" spans="2:8" ht="18.75">
       <c r="B49" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D49" s="7">
         <v>1</v>
@@ -2916,10 +2950,10 @@
     </row>
     <row r="51" spans="2:8" ht="18.75">
       <c r="B51" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D51" s="4">
         <v>1.5</v>
@@ -2937,10 +2971,10 @@
     </row>
     <row r="52" spans="2:8" ht="18.75">
       <c r="B52" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D52" s="7">
         <v>1</v>
@@ -2958,10 +2992,10 @@
     </row>
     <row r="53" spans="2:8" ht="18.75">
       <c r="B53" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D53" s="7">
         <v>2</v>
@@ -2970,7 +3004,7 @@
         <v>8</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G53" s="11" t="s">
         <v>10</v>
@@ -2979,19 +3013,19 @@
     </row>
     <row r="54" spans="2:8" ht="18.75">
       <c r="B54" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D54" s="7">
         <v>2</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G54" s="11" t="s">
         <v>10</v>
@@ -3000,10 +3034,10 @@
     </row>
     <row r="55" spans="2:8" ht="18.75">
       <c r="B55" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D55" s="7">
         <v>3</v>
@@ -3015,16 +3049,16 @@
         <v>9</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H55" s="15"/>
     </row>
     <row r="56" spans="2:8" ht="18.75">
       <c r="B56" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D56" s="7">
         <v>1</v>
@@ -3051,10 +3085,10 @@
     </row>
     <row r="58" spans="2:8" ht="18.75">
       <c r="B58" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D58" s="8">
         <v>5</v>
@@ -3072,10 +3106,10 @@
     </row>
     <row r="59" spans="2:8" ht="18.75">
       <c r="B59" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D59" s="7">
         <v>4</v>
@@ -3093,10 +3127,10 @@
     </row>
     <row r="60" spans="2:8" ht="18.75">
       <c r="B60" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D60" s="7">
         <v>1</v>
@@ -3114,10 +3148,10 @@
     </row>
     <row r="61" spans="2:8" ht="18.75">
       <c r="B61" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D61" s="7">
         <v>5</v>
@@ -3126,21 +3160,21 @@
         <v>8</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G61" s="11" t="s">
         <v>10</v>
       </c>
       <c r="H61" s="15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="2:8" ht="18.75">
       <c r="B62" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D62" s="7">
         <v>3</v>
@@ -3149,7 +3183,7 @@
         <v>8</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G62" s="11" t="s">
         <v>10</v>
@@ -3158,19 +3192,19 @@
     </row>
     <row r="63" spans="2:8" ht="18.75">
       <c r="B63" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D63" s="7">
         <v>2</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G63" s="11" t="s">
         <v>10</v>
@@ -3179,10 +3213,10 @@
     </row>
     <row r="64" spans="2:8" ht="18.75">
       <c r="B64" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D64" s="7">
         <v>3</v>
@@ -3194,16 +3228,16 @@
         <v>9</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H64" s="15"/>
     </row>
     <row r="65" spans="2:8" ht="18.75">
       <c r="B65" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D65" s="7">
         <v>1</v>
@@ -3230,10 +3264,10 @@
     </row>
     <row r="67" spans="2:8" ht="18.75">
       <c r="B67" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D67" s="4">
         <v>2</v>
@@ -3251,10 +3285,10 @@
     </row>
     <row r="68" spans="2:8" ht="18.75">
       <c r="B68" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D68" s="7">
         <v>2</v>
@@ -3272,10 +3306,10 @@
     </row>
     <row r="69" spans="2:8" ht="18.75">
       <c r="B69" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D69" s="7">
         <v>2</v>
@@ -3293,10 +3327,10 @@
     </row>
     <row r="70" spans="2:8" ht="18.75">
       <c r="B70" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D70" s="7">
         <v>2</v>
@@ -3323,10 +3357,10 @@
     </row>
     <row r="72" spans="2:8" ht="18.75">
       <c r="B72" s="3" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D72" s="4">
         <v>2</v>
@@ -3341,15 +3375,15 @@
         <v>10</v>
       </c>
       <c r="H72" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" spans="2:8" ht="18.75">
       <c r="B73" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D73" s="7">
         <v>2</v>
@@ -3367,13 +3401,13 @@
     </row>
     <row r="74" spans="2:8" ht="18.75">
       <c r="B74" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D74" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>8</v>
@@ -3388,10 +3422,10 @@
     </row>
     <row r="75" spans="2:8" ht="18.75">
       <c r="B75" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D75" s="7">
         <v>4</v>
@@ -3406,18 +3440,18 @@
         <v>10</v>
       </c>
       <c r="H75" s="15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76" spans="2:8" ht="18.75">
       <c r="B76" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D76" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>8</v>
@@ -3429,15 +3463,15 @@
         <v>10</v>
       </c>
       <c r="H76" s="15" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="77" spans="2:8" ht="18.75">
       <c r="B77" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D77" s="7">
         <v>6</v>
@@ -3452,24 +3486,24 @@
         <v>10</v>
       </c>
       <c r="H77" s="15" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="78" spans="2:8" ht="18.75">
       <c r="B78" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D78" s="7">
         <v>3</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G78" s="11" t="s">
         <v>10</v>
@@ -3487,10 +3521,10 @@
     </row>
     <row r="80" spans="2:8" ht="18.75">
       <c r="B80" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D80" s="8">
         <v>2</v>
@@ -3508,10 +3542,10 @@
     </row>
     <row r="81" spans="2:8" ht="18.75">
       <c r="B81" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D81" s="7">
         <v>2</v>
@@ -3529,19 +3563,19 @@
     </row>
     <row r="82" spans="2:8" ht="18.75">
       <c r="B82" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D82" s="7">
         <v>2</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G82" s="11" t="s">
         <v>10</v>
@@ -3550,19 +3584,19 @@
     </row>
     <row r="83" spans="2:8" ht="18.75">
       <c r="B83" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D83" s="7">
         <v>2</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G83" s="11" t="s">
         <v>10</v>
@@ -3571,10 +3605,10 @@
     </row>
     <row r="84" spans="2:8" ht="18.75">
       <c r="B84" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D84" s="7">
         <v>0.5</v>
@@ -3601,10 +3635,10 @@
     </row>
     <row r="86" spans="2:8" ht="18.75">
       <c r="B86" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D86" s="4">
         <v>1</v>
@@ -3613,7 +3647,7 @@
         <v>8</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G86" s="11" t="s">
         <v>10</v>
@@ -3622,13 +3656,13 @@
     </row>
     <row r="87" spans="2:8" ht="18.75">
       <c r="B87" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D87" s="7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>8</v>
@@ -3637,25 +3671,25 @@
         <v>9</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H87" s="15"/>
     </row>
     <row r="88" spans="2:8" ht="18.75">
       <c r="B88" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="D88" s="7">
         <v>1</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G88" s="11" t="s">
         <v>10</v>
@@ -3664,19 +3698,19 @@
     </row>
     <row r="89" spans="2:8" ht="18.75">
       <c r="B89" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>64</v>
+        <v>151</v>
       </c>
       <c r="D89" s="7">
         <v>1</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G89" s="11" t="s">
         <v>10</v>
@@ -3685,10 +3719,10 @@
     </row>
     <row r="90" spans="2:8" ht="18.75">
       <c r="B90" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D90" s="7">
         <v>0.5</v>
@@ -3715,10 +3749,10 @@
     </row>
     <row r="92" spans="2:8" ht="18.75">
       <c r="B92" s="3" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D92" s="8">
         <v>0.5</v>
@@ -3736,16 +3770,16 @@
     </row>
     <row r="93" spans="2:8" ht="18.75">
       <c r="B93" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="D93" s="7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F93" s="11" t="s">
         <v>9</v>
@@ -3753,25 +3787,23 @@
       <c r="G93" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H93" s="15" t="s">
-        <v>149</v>
-      </c>
+      <c r="H93" s="15"/>
     </row>
     <row r="94" spans="2:8" ht="18.75">
       <c r="B94" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>62</v>
+        <v>140</v>
       </c>
       <c r="D94" s="7">
         <v>1</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G94" s="11" t="s">
         <v>10</v>
@@ -3780,42 +3812,44 @@
     </row>
     <row r="95" spans="2:8" ht="18.75">
       <c r="B95" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>153</v>
+        <v>135</v>
+      </c>
+      <c r="C95" s="49" t="s">
+        <v>138</v>
       </c>
       <c r="D95" s="7">
         <v>1</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G95" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H95" s="15"/>
+      <c r="H95" s="15" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="96" spans="2:8" ht="18.75">
       <c r="B96" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C96" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="C96" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="D96" s="7">
+      <c r="D96" s="52">
         <v>1</v>
       </c>
-      <c r="E96" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F96" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G96" s="11" t="s">
+      <c r="E96" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F96" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="G96" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H96" s="15" t="s">
@@ -3823,64 +3857,64 @@
       </c>
     </row>
     <row r="97" spans="2:8" ht="18.75">
-      <c r="B97" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C97" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="D97" s="52">
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="15"/>
+    </row>
+    <row r="98" spans="2:8" ht="18.75">
+      <c r="B98" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D98" s="4">
+        <v>2</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G98" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H98" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" ht="18.75">
+      <c r="B99" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D99" s="7">
         <v>1</v>
       </c>
-      <c r="E97" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="F97" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="G97" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H97" s="49"/>
-    </row>
-    <row r="98" spans="2:8" ht="18.75">
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="11"/>
-      <c r="G98" s="11"/>
-      <c r="H98" s="15"/>
-    </row>
-    <row r="99" spans="2:8" ht="18.75">
-      <c r="B99" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D99" s="4">
-        <v>2</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F99" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G99" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H99" s="14" t="s">
-        <v>67</v>
-      </c>
+      <c r="E99" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F99" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G99" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H99" s="15"/>
     </row>
     <row r="100" spans="2:8" ht="18.75">
       <c r="B100" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="D100" s="7">
         <v>1</v>
@@ -3894,17 +3928,19 @@
       <c r="G100" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H100" s="15"/>
+      <c r="H100" s="15" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="101" spans="2:8" ht="18.75">
       <c r="B101" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D101" s="7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E101" s="5" t="s">
         <v>8</v>
@@ -3915,25 +3951,23 @@
       <c r="G101" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H101" s="15" t="s">
-        <v>88</v>
-      </c>
+      <c r="H101" s="15"/>
     </row>
     <row r="102" spans="2:8" ht="18.75">
       <c r="B102" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D102" s="7">
         <v>1</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G102" s="11" t="s">
         <v>10</v>
@@ -3942,19 +3976,19 @@
     </row>
     <row r="103" spans="2:8" ht="18.75">
       <c r="B103" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="D103" s="7">
         <v>1</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G103" s="11" t="s">
         <v>10</v>
@@ -3962,50 +3996,50 @@
       <c r="H103" s="15"/>
     </row>
     <row r="104" spans="2:8" ht="18.75">
-      <c r="B104" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D104" s="7">
-        <v>1</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F104" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G104" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H104" s="15"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="16"/>
     </row>
     <row r="105" spans="2:8" ht="18.75">
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="12"/>
-      <c r="G105" s="12"/>
-      <c r="H105" s="16"/>
+      <c r="B105" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D105" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F105" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G105" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H105" s="15"/>
     </row>
     <row r="106" spans="2:8" ht="18.75">
       <c r="B106" s="1" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D106" s="4">
-        <v>1</v>
+        <v>59</v>
+      </c>
+      <c r="D106" s="7">
+        <v>0.5</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G106" s="11" t="s">
         <v>10</v>
@@ -4014,19 +4048,19 @@
     </row>
     <row r="107" spans="2:8" ht="18.75">
       <c r="B107" s="1" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c r="D107" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G107" s="11" t="s">
         <v>10</v>
@@ -4035,40 +4069,42 @@
     </row>
     <row r="108" spans="2:8" ht="18.75">
       <c r="B108" s="1" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="D108" s="7">
         <v>1</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F108" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G108" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H108" s="15"/>
+      <c r="H108" s="15" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="109" spans="2:8" ht="18.75">
       <c r="B109" s="1" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D109" s="7">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G109" s="11" t="s">
         <v>10</v>
@@ -4215,49 +4251,57 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:K26"/>
+  <dimension ref="B2:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="48.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.75" customWidth="1"/>
-    <col min="11" max="11" width="16.25" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="5" max="6" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="48.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.75" customWidth="1"/>
+    <col min="13" max="13" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="19.5">
+    <row r="2" spans="2:13" ht="19.5">
       <c r="B2" s="39" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="29">
+        <v>109</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="29">
         <f>SUM(C:C)</f>
-        <v>182.5</v>
-      </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-    </row>
-    <row r="3" spans="2:11" ht="19.5">
+        <v>177.5</v>
+      </c>
+      <c r="K2" s="29"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+    </row>
+    <row r="3" spans="2:13" ht="19.5">
       <c r="B3" s="18" t="s">
         <v>7</v>
       </c>
@@ -4267,56 +4311,72 @@
       </c>
       <c r="D3" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "プレイヤー", コスト表!G:G, "完了")</f>
-        <v>12</v>
-      </c>
-      <c r="E3" s="40">
+        <v>10</v>
+      </c>
+      <c r="E3" s="51">
+        <f>SUMIFS(コスト表!D:D, コスト表!B:B, "プレイヤー", コスト表!G:G, "作業中")</f>
+        <v>11</v>
+      </c>
+      <c r="F3" s="51">
+        <f>SUMIFS(コスト表!D:D, コスト表!B:B, "プレイヤー", コスト表!G:G, "未着手")</f>
+        <v>13.5</v>
+      </c>
+      <c r="G3" s="40">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "プレイヤー", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "プレイヤー") * 100,1)</f>
         <v>45.8</v>
       </c>
-      <c r="G3" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="29">
+      <c r="I3" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="29">
         <f>SUMIF(コスト表!G:G,"完了",コスト表!D:D)</f>
-        <v>13</v>
-      </c>
-      <c r="I3" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="28"/>
-    </row>
-    <row r="4" spans="2:11" ht="19.5">
+        <v>10.5</v>
+      </c>
+      <c r="K3" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="28"/>
+    </row>
+    <row r="4" spans="2:13" ht="19.5">
       <c r="B4" s="1" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="C4" s="19">
         <f>SUMIF(コスト表!B:B, B4, コスト表!D:D)</f>
         <v>27</v>
       </c>
       <c r="D4" s="51">
-        <f>SUMIFS(コスト表!D:D, コスト表!B:B, "敵基底クラス", コスト表!G:G, "完了")</f>
+        <f>SUMIFS(コスト表!D:D, コスト表!B:B, "敵ベース", コスト表!G:G, "完了")</f>
         <v>0</v>
       </c>
-      <c r="E4" s="40">
-        <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "敵基底クラス", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "敵基底クラス") * 100,1)</f>
+      <c r="E4" s="51">
+        <f>SUMIFS(コスト表!D:D, コスト表!B:B, "敵ベース", コスト表!G:G, "作業中")</f>
+        <v>5</v>
+      </c>
+      <c r="F4" s="51">
+        <f>SUMIFS(コスト表!D:D, コスト表!B:B, "敵ベース", コスト表!G:G, "未着手")</f>
+        <v>22</v>
+      </c>
+      <c r="G4" s="40">
+        <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "敵ベース", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "敵ベース") * 100,1)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="29">
-        <f ca="1">NETWORKDAYS(H5,H6)</f>
-        <v>26</v>
-      </c>
-      <c r="I4" s="29">
-        <f ca="1" xml:space="preserve"> ROUNDDOWN(H3 / H4,1)</f>
-        <v>0.5</v>
-      </c>
-      <c r="K4" s="28"/>
-    </row>
-    <row r="5" spans="2:11" ht="19.5">
+      <c r="I4" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="29">
+        <f ca="1">NETWORKDAYS(J5,J6)</f>
+        <v>28</v>
+      </c>
+      <c r="K4" s="29">
+        <f ca="1" xml:space="preserve"> ROUNDDOWN(J3 / J4,1)</f>
+        <v>0.3</v>
+      </c>
+      <c r="M4" s="28"/>
+    </row>
+    <row r="5" spans="2:13" ht="19.5">
       <c r="B5" s="18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C5" s="19">
         <f>SUMIF(コスト表!B:B, B5, コスト表!D:D)</f>
@@ -4326,24 +4386,32 @@
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "敵1(通常ゾンビ)", コスト表!G:G, "完了")</f>
         <v>0</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="51">
+        <f>SUMIFS(コスト表!D:D, コスト表!B:B, "敵1(通常ゾンビ)", コスト表!G:G, "作業中")</f>
+        <v>3</v>
+      </c>
+      <c r="F5" s="51">
+        <f>SUMIFS(コスト表!D:D, コスト表!B:B, "敵1(通常ゾンビ)", コスト表!G:G, "未着手")</f>
+        <v>7.5</v>
+      </c>
+      <c r="G5" s="40">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "敵1(通常ゾンビ)", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "敵1(通常ゾンビ)") * 100,1)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="46">
+      <c r="I5" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="46">
         <f>DATE(2025,5,2)</f>
         <v>45779</v>
       </c>
-      <c r="I5" s="46"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-    </row>
-    <row r="6" spans="2:11" ht="19.5">
+      <c r="K5" s="46"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+    </row>
+    <row r="6" spans="2:13" ht="19.5">
       <c r="B6" s="18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C6" s="19">
         <f>SUMIF(コスト表!B:B, B6, コスト表!D:D)</f>
@@ -4353,24 +4421,32 @@
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "敵2(ランナーゾンビ)", コスト表!G:G, "完了")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="51">
+        <f>SUMIFS(コスト表!D:D, コスト表!B:B, "敵2(ランナーゾンビ)", コスト表!G:G, "作業中")</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="51">
+        <f>SUMIFS(コスト表!D:D,コスト表!B:B,"敵2(ランナーゾンビ)",コスト表!G:G,"未着手")</f>
+        <v>11.5</v>
+      </c>
+      <c r="G6" s="40">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "敵2(ランナーゾンビ)", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "敵2(ランナーゾンビ)") * 100,1)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="46">
+      <c r="I6" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="46">
         <f ca="1">TODAY()</f>
-        <v>45814</v>
-      </c>
-      <c r="I6" s="46"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-    </row>
-    <row r="7" spans="2:11">
+        <v>45818</v>
+      </c>
+      <c r="K6" s="46"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+    </row>
+    <row r="7" spans="2:13">
       <c r="B7" s="18" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C7" s="19">
         <f>SUMIF(コスト表!B:B, B7, コスト表!D:D)</f>
@@ -4380,15 +4456,23 @@
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "敵3(遠距離型ゾンビ)", コスト表!G:G, "完了")</f>
         <v>0</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="51">
+        <f>SUMIFS(コスト表!D:D, コスト表!B:B, "敵3(遠距離型ゾンビ)", コスト表!G:G, "作業中")</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="51">
+        <f>SUMIFS(コスト表!D:D, コスト表!B:B, "敵3(遠距離型ゾンビ)", コスト表!G:G, "未着手")</f>
+        <v>10.5</v>
+      </c>
+      <c r="G7" s="40">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "敵3(遠距離型ゾンビ)", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "敵3(遠距離型ゾンビ)") * 100,1)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="28"/>
-    </row>
-    <row r="8" spans="2:11">
+      <c r="M7" s="28"/>
+    </row>
+    <row r="8" spans="2:13">
       <c r="B8" s="18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C8" s="19">
         <f>SUMIF(コスト表!B:B, B8, コスト表!D:D)</f>
@@ -4398,22 +4482,30 @@
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "ボス(ゾンビを召喚)", コスト表!G:G, "完了")</f>
         <v>0</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="51">
+        <f>SUMIFS(コスト表!D:D, コスト表!B:B, "ボス(ゾンビを召喚)", コスト表!G:G, "作業中")</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="51">
+        <f>SUMIFS(コスト表!D:D,コスト表!B:B,"ボス(ゾンビを召喚)",コスト表!G:G,"未着手")</f>
+        <v>24</v>
+      </c>
+      <c r="G8" s="40">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "ボス(ゾンビを召喚)", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "ボス(ゾンビを召喚)") * 100,1)</f>
         <v>0</v>
       </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" ht="24">
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="24">
       <c r="B9" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C9" s="19">
         <f>SUMIF(コスト表!B:B, B9, コスト表!D:D)</f>
@@ -4423,61 +4515,77 @@
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "マップ", コスト表!G:G, "完了")</f>
         <v>0</v>
       </c>
-      <c r="E9" s="40">
+      <c r="E9" s="51">
+        <f>SUMIFS(コスト表!D:D, コスト表!B:B, "マップ", コスト表!G:G, "作業中")</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="51">
+        <f>SUMIFS(コスト表!D:D, コスト表!B:B, "マップ", コスト表!G:G, "未着手")</f>
+        <v>8</v>
+      </c>
+      <c r="G9" s="40">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "マップ", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "マップ") * 100,1)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="H9" s="61">
+      <c r="I9" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="61">
         <f>DATE(2025,7,23)</f>
         <v>45861</v>
       </c>
-      <c r="I9" s="57">
-        <f ca="1">NETWORKDAYS(TODAY(),H9)</f>
-        <v>34</v>
-      </c>
-      <c r="J9" s="59">
-        <f ca="1">ROUNDDOWN(($H$2-$H$3)/I9, 1)</f>
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="19.5">
+      <c r="K9" s="57">
+        <f ca="1">NETWORKDAYS(TODAY(),J9)</f>
+        <v>32</v>
+      </c>
+      <c r="L9" s="59">
+        <f ca="1">ROUNDDOWN(($J$2-$J$3)/K9, 1)</f>
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="19.5">
       <c r="B10" s="18" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C10" s="19">
         <f>SUMIF(コスト表!B:B, B10, コスト表!D:D)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "ウェーブ管理", コスト表!G:G, "完了")</f>
         <v>0</v>
       </c>
-      <c r="E10" s="40">
+      <c r="E10" s="51">
+        <f>SUMIFS(コスト表!D:D, コスト表!B:B, "ウェーブ管理", コスト表!G:G, "作業中")</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="51">
+        <f>SUMIFS(コスト表!D:D, コスト表!B:B, "ウェーブ管理", コスト表!G:G, "未着手")</f>
+        <v>25</v>
+      </c>
+      <c r="G10" s="40">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "ウェーブ管理", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "ウェーブ管理") * 100,1)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="62">
+      <c r="I10" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="62">
         <f>DATE(2025,8,11)</f>
         <v>45880</v>
       </c>
-      <c r="I10" s="58">
-        <f ca="1">NETWORKDAYS(TODAY(),H10)</f>
-        <v>47</v>
-      </c>
-      <c r="J10" s="60">
-        <f ca="1">ROUNDDOWN(($H$2 - $H$3) / I10,1)</f>
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="19.5">
+      <c r="K10" s="58">
+        <f ca="1">NETWORKDAYS(TODAY(),J10)</f>
+        <v>45</v>
+      </c>
+      <c r="L10" s="60">
+        <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K10,1)</f>
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="19.5">
       <c r="B11" s="18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C11" s="19">
         <f>SUMIF(コスト表!B:B, B11, コスト表!D:D)</f>
@@ -4487,224 +4595,272 @@
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "アイテム", コスト表!G:G, "完了")</f>
         <v>0</v>
       </c>
-      <c r="E11" s="40">
+      <c r="E11" s="51">
+        <f>SUMIFS(コスト表!D:D, コスト表!B:B, "アイテム", コスト表!G:G, "作業中")</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="51">
+        <f>SUMIFS(コスト表!D:D, コスト表!B:B, "アイテム", コスト表!G:G, "未着手")</f>
+        <v>8.5</v>
+      </c>
+      <c r="G11" s="40">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "アイテム", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "アイテム") * 100,1)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="62">
+      <c r="I11" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="62">
         <f>DATE(2025,8,17)</f>
         <v>45886</v>
       </c>
-      <c r="I11" s="58">
-        <f ca="1">NETWORKDAYS(TODAY(),H11)</f>
-        <v>51</v>
-      </c>
-      <c r="J11" s="60">
-        <f ca="1">ROUNDDOWN(($H$2 - $H$3) / I11,1)</f>
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="19.5">
+      <c r="K11" s="58">
+        <f ca="1">NETWORKDAYS(TODAY(),J11)</f>
+        <v>49</v>
+      </c>
+      <c r="L11" s="60">
+        <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K11,1)</f>
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="19.5">
       <c r="B12" s="18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C12" s="19">
         <f>SUMIF(コスト表!B:B, B12, コスト表!D:D)</f>
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="D12" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "タイトル", コスト表!G:G, "完了")</f>
-        <v>1</v>
-      </c>
-      <c r="E12" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="51">
+        <f>SUMIFS(コスト表!D:D, コスト表!B:B, "タイトル", コスト表!G:G, "作業中")</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="51">
+        <f>SUMIFS(コスト表!D:D, コスト表!B:B, "タイトル", コスト表!G:G, "未着手")</f>
+        <v>3.5</v>
+      </c>
+      <c r="G12" s="40">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "タイトル", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "タイトル") * 100,1)</f>
         <v>20</v>
       </c>
-      <c r="G12" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="62">
+      <c r="I12" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="62">
         <f>DATE(2025,9,1)</f>
         <v>45901</v>
       </c>
-      <c r="I12" s="58">
-        <f ca="1">NETWORKDAYS(TODAY(),H12)</f>
-        <v>62</v>
-      </c>
-      <c r="J12" s="60">
-        <f ca="1">ROUNDDOWN(($H$2 - $H$3) / I12,1)</f>
+      <c r="K12" s="58">
+        <f ca="1">NETWORKDAYS(TODAY(),J12)</f>
+        <v>60</v>
+      </c>
+      <c r="L12" s="60">
+        <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K12,1)</f>
         <v>2.7</v>
       </c>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:13">
       <c r="B13" s="18" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C13" s="19">
         <f>SUMIF(コスト表!B:B, B13, コスト表!D:D)</f>
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "リザルト", コスト表!G:G, "完了")</f>
         <v>0</v>
       </c>
-      <c r="E13" s="40">
+      <c r="E13" s="51">
+        <f>SUMIFS(コスト表!D:D, コスト表!B:B, "リザルト", コスト表!G:G, "作業中")</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="51">
+        <f>SUMIFS(コスト表!D:D, コスト表!B:B, "リザルト", コスト表!G:G, "未着手")</f>
+        <v>4</v>
+      </c>
+      <c r="G13" s="40">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "リザルト", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "リザルト") * 100,1)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="46"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="29"/>
-    </row>
-    <row r="14" spans="2:11">
+      <c r="J13" s="46"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="29"/>
+    </row>
+    <row r="14" spans="2:13">
       <c r="B14" s="18" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C14" s="19">
         <f>SUMIF(コスト表!B:B, B14, コスト表!D:D)</f>
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="D14" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "オプション", コスト表!G:G, "完了")</f>
         <v>0</v>
       </c>
-      <c r="E14" s="40">
+      <c r="E14" s="51">
+        <f>SUMIFS(コスト表!D:D, コスト表!B:B, "オプション", コスト表!G:G, "作業中")</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="51">
+        <f>SUMIFS(コスト表!D:D,コスト表!B:B,"オプション",コスト表!G:G,"未着手")</f>
+        <v>6.5</v>
+      </c>
+      <c r="G14" s="40">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "オプション", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "オプション") * 100,1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:11">
-      <c r="B15" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="19">
+    <row r="15" spans="2:13">
+      <c r="B15" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" s="66">
         <f>SUMIF(コスト表!B:B, B15, コスト表!D:D)</f>
-        <v>8</v>
-      </c>
-      <c r="D15" s="51">
-        <f>SUMIFS(コスト表!D:D, コスト表!B:B, "エフェクト", コスト表!G:G, "完了")</f>
+        <v>3.5</v>
+      </c>
+      <c r="D15" s="66">
+        <f>SUMIFS(コスト表!D:D, コスト表!B:B, "ゲームオーバー", コスト表!G:G, "完了")</f>
         <v>0</v>
       </c>
-      <c r="E15" s="40">
-        <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "エフェクト", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "エフェクト") * 100,1)</f>
+      <c r="E15" s="66">
+        <f>SUMIFS(コスト表!D:D, コスト表!B:B, "ゲームオーバー", コスト表!G:G, "作業中")</f>
         <v>0</v>
       </c>
-      <c r="G15" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="I15" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="J15" s="42" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11">
+      <c r="F15" s="66">
+        <f>SUMIFS(コスト表!D:D, コスト表!B:B, "ゲームオーバー", コスト表!G:G, "未着手")</f>
+        <v>3.5</v>
+      </c>
+      <c r="G15" s="43">
+        <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "ゲームオーバー", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "ゲームオーバー") * 100,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
       <c r="B16" s="41" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="40">
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="40">
         <f>ROUNDDOWN(COUNTIF(コスト表!G:G, "完了") / COUNTA(コスト表!G:G) * 100,1)</f>
         <v>12.5</v>
       </c>
-      <c r="G16" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" s="43">
+      <c r="I16" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="K16" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="L16" s="42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12">
+      <c r="I17" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="43">
         <f>SUMIF(コスト表!F:F, "プロト", コスト表!D:D)</f>
-        <v>123</v>
-      </c>
-      <c r="I16" s="43">
+        <v>124</v>
+      </c>
+      <c r="K17" s="43">
         <f>SUMIFS(コスト表!D:D, コスト表!F:F, "プロト", コスト表!G:G, "完了")</f>
-        <v>11</v>
-      </c>
-      <c r="J16" s="43">
+        <v>8.5</v>
+      </c>
+      <c r="L17" s="43">
         <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "プロト", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "プロト") * 100,1)</f>
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10">
-      <c r="G17" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="43">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12">
+      <c r="I18" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="43">
         <f>SUMIF(コスト表!F:F, "アルファ", コスト表!D:D)</f>
-        <v>58.5</v>
-      </c>
-      <c r="I17" s="43">
+        <v>52.5</v>
+      </c>
+      <c r="K18" s="43">
         <f>SUMIFS(コスト表!D:D, コスト表!F:F, "アルファ", コスト表!G:G, "完了")</f>
         <v>2</v>
       </c>
-      <c r="J17" s="43">
+      <c r="L18" s="43">
         <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "アルファ", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "アルファ") * 100,1)</f>
-        <v>11.4</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10">
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="38"/>
-      <c r="G18" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="43">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="38"/>
+      <c r="I19" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="43">
         <f>SUMIF(コスト表!F:F, "ベータ", コスト表!D:D)</f>
         <v>1</v>
       </c>
-      <c r="I18" s="43">
+      <c r="K19" s="43">
         <f>SUMIFS(コスト表!D:D, コスト表!F:F, "ベータ", コスト表!G:G, "完了")</f>
         <v>0</v>
       </c>
-      <c r="J18" s="43">
+      <c r="L19" s="43">
         <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "ベータ", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "ベータ") * 100,1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:10">
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="38"/>
-      <c r="G19" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="43">
+    <row r="20" spans="3:12">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="38"/>
+      <c r="I20" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="43">
         <f>SUMIF(コスト表!F:F, "マスター", コスト表!D:D)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="43">
+      <c r="K20" s="43">
         <f>SUMIFS(コスト表!D:D, コスト表!F:F, "マスター", コスト表!G:G, "完了")</f>
         <v>0</v>
       </c>
-      <c r="J19" s="43" t="e">
+      <c r="L20" s="43" t="e">
         <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "マスター", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "マスター") * 100,1)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="3:10">
-      <c r="E20" s="38"/>
-    </row>
-    <row r="21" spans="3:10">
-      <c r="E21" s="38"/>
-    </row>
-    <row r="23" spans="3:10">
-      <c r="E23" s="36"/>
-    </row>
-    <row r="24" spans="3:10">
-      <c r="E24" s="36"/>
-    </row>
-    <row r="25" spans="3:10">
-      <c r="E25" s="36"/>
-    </row>
-    <row r="26" spans="3:10">
-      <c r="E26" s="36"/>
+    <row r="21" spans="3:12">
+      <c r="G21" s="38"/>
+    </row>
+    <row r="22" spans="3:12">
+      <c r="G22" s="38"/>
+    </row>
+    <row r="24" spans="3:12">
+      <c r="G24" s="36"/>
+    </row>
+    <row r="25" spans="3:12">
+      <c r="G25" s="36"/>
+    </row>
+    <row r="26" spans="3:12">
+      <c r="G26" s="36"/>
+    </row>
+    <row r="27" spans="3:12">
+      <c r="G27" s="36"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4715,21 +4871,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE868E3-33E5-43E7-9EF1-2BA63334710F}">
-  <dimension ref="B2:F6"/>
+  <dimension ref="B2:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="35" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D2" s="35" t="s">
         <v>4</v>
@@ -4751,21 +4907,21 @@
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>11</v>
@@ -4773,13 +4929,38 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="65" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="63" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="63" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="63" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="64" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4789,21 +4970,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006836AD0B55474E4CAD520F1DEB8FB579" ma:contentTypeVersion="3" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="078ba6c1f7b5b638bb57eb024ae572f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="187a6309-4c0c-49e3-bd2d-e8130eb88270" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5f182963113af090d1b42042cf04cb6" ns2:_="">
     <xsd:import namespace="187a6309-4c0c-49e3-bd2d-e8130eb88270"/>
@@ -4941,24 +5107,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A1D85CE-B20E-4841-A55B-779E85453EF9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4974,4 +5138,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ゾンビシューターゲームコスト表.xlsx
+++ b/ゾンビシューターゲームコスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\由留部 瑛人\Documents\MyGame3D2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D10790-6D5A-446B-94E3-A19E7A09E70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B226F3B-2C1F-4DA2-AB08-BE96A5CA0ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="3195" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3780" yWindow="3195" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コスト表" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="その他" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">コスト表!$E$2:$G$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">コスト表!$E$2:$G$132</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">分類別コスト集計!$B$2:$G$21</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="155">
   <si>
     <t>分類</t>
   </si>
@@ -175,25 +175,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>盾を構えた時の敵ロックオン処理</t>
-    <rPh sb="0" eb="1">
-      <t>タテ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>カマ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>死亡アニメーション</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -432,13 +413,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>盾</t>
-    <rPh sb="0" eb="1">
-      <t>タテ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>どのシーンからオプションシーンに遷移し、どのシーンに遷移するか</t>
     <rPh sb="16" eb="18">
       <t>センイ</t>
@@ -965,6 +939,23 @@
   </si>
   <si>
     <t>ゲームオーバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム大祭日程：8/22</t>
+    <rPh sb="3" eb="5">
+      <t>タイサイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>近接武器</t>
+    <rPh sb="0" eb="4">
+      <t>キンセツブキ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1927,11 +1918,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I133"/>
+  <dimension ref="B1:I132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H109" sqref="H109"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -1948,7 +1939,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" customHeight="1">
       <c r="B1" s="54" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="2:8" ht="18.75">
@@ -2018,10 +2009,10 @@
     </row>
     <row r="5" spans="2:8" ht="18.75">
       <c r="B5" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D5" s="7">
         <v>1</v>
@@ -2063,7 +2054,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>83</v>
+        <v>154</v>
       </c>
       <c r="D7" s="7">
         <v>3</v>
@@ -2084,10 +2075,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>8</v>
@@ -2096,19 +2087,19 @@
         <v>9</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H8" s="15"/>
     </row>
     <row r="9" spans="2:8" ht="18.75">
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="D9" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>8</v>
@@ -2117,19 +2108,19 @@
         <v>9</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="2:8" ht="18.75">
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c r="D10" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>8</v>
@@ -2138,19 +2129,19 @@
         <v>9</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H10" s="15"/>
     </row>
     <row r="11" spans="2:8" ht="18.75">
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D11" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>8</v>
@@ -2165,13 +2156,13 @@
     </row>
     <row r="12" spans="2:8" ht="18.75">
       <c r="B12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="D12" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>8</v>
@@ -2180,19 +2171,21 @@
         <v>9</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="15"/>
+        <v>14</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="13" spans="2:8" ht="18.75">
       <c r="B13" s="1" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>131</v>
+        <v>55</v>
       </c>
       <c r="D13" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>8</v>
@@ -2201,21 +2194,19 @@
         <v>9</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>132</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H13" s="15"/>
     </row>
     <row r="14" spans="2:8" ht="18.75">
       <c r="B14" s="1" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="D14" s="7">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>8</v>
@@ -2224,69 +2215,69 @@
         <v>9</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H14" s="15"/>
     </row>
     <row r="15" spans="2:8" ht="18.75">
       <c r="B15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="7">
+        <v>2</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="15"/>
     </row>
     <row r="16" spans="2:8" ht="18.75">
       <c r="B16" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="D16" s="7">
         <v>2</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>9</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>108</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H16" s="15"/>
     </row>
     <row r="17" spans="2:8" ht="18.75">
       <c r="B17" s="1" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="D17" s="7">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>14</v>
@@ -2298,7 +2289,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D18" s="7">
         <v>0.5</v>
@@ -2319,7 +2310,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D19" s="7">
         <v>0.5</v>
@@ -2340,7 +2331,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D20" s="7">
         <v>0.5</v>
@@ -2352,7 +2343,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H20" s="15"/>
     </row>
@@ -2361,7 +2352,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D21" s="7">
         <v>0.5</v>
@@ -2382,7 +2373,7 @@
         <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D22" s="7">
         <v>0.5</v>
@@ -2394,16 +2385,16 @@
         <v>12</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H22" s="15"/>
     </row>
     <row r="23" spans="2:8" ht="18.75">
       <c r="B23" s="1" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="D23" s="7">
         <v>0.5</v>
@@ -2415,22 +2406,22 @@
         <v>12</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H23" s="15"/>
     </row>
     <row r="24" spans="2:8" ht="18.75">
       <c r="B24" s="1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="D24" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>12</v>
@@ -2438,93 +2429,95 @@
       <c r="G24" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H24" s="15"/>
+      <c r="H24" s="49" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="25" spans="2:8" ht="18.75">
       <c r="B25" s="1" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="D25" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="49" t="s">
-        <v>113</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="H25" s="5"/>
     </row>
     <row r="26" spans="2:8" ht="18.75">
-      <c r="B26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="7">
-        <v>2</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="11" t="s">
+      <c r="B26" s="41"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="2:8" ht="18.75">
+      <c r="B27" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="8">
+        <v>5</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="2:8" ht="18.75">
-      <c r="B27" s="41"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="6"/>
+      <c r="H27" s="14" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="28" spans="2:8" ht="18.75">
-      <c r="B28" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C28" s="3" t="s">
+      <c r="B28" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="8">
-        <v>5</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="14" t="s">
+      <c r="D28" s="7">
+        <v>4</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="15" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="18.75">
       <c r="B29" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D29" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>8</v>
@@ -2541,13 +2534,13 @@
     </row>
     <row r="30" spans="2:8" ht="18.75">
       <c r="B30" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>8</v>
@@ -2556,42 +2549,42 @@
         <v>9</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>91</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="H30" s="15"/>
     </row>
     <row r="31" spans="2:8" ht="18.75">
       <c r="B31" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D31" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G31" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="H31" s="15"/>
     </row>
     <row r="32" spans="2:8" ht="18.75">
       <c r="B32" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>95</v>
       </c>
       <c r="D32" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>8</v>
@@ -2602,16 +2595,14 @@
       <c r="G32" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H32" s="15" t="s">
-        <v>96</v>
-      </c>
+      <c r="H32" s="15"/>
     </row>
     <row r="33" spans="2:8" ht="18.75">
       <c r="B33" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="D33" s="7">
         <v>3</v>
@@ -2620,7 +2611,7 @@
         <v>8</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>10</v>
@@ -2628,44 +2619,44 @@
       <c r="H33" s="15"/>
     </row>
     <row r="34" spans="2:8" ht="18.75">
-      <c r="B34" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D34" s="7">
-        <v>3</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H34" s="15"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="16"/>
     </row>
     <row r="35" spans="2:8" ht="18.75">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="16"/>
+      <c r="B35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" s="15"/>
     </row>
     <row r="36" spans="2:8" ht="18.75">
       <c r="B36" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D36" s="4">
-        <v>1.5</v>
+        <v>97</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>8</v>
@@ -2680,19 +2671,19 @@
     </row>
     <row r="37" spans="2:8" ht="18.75">
       <c r="B37" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D37" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G37" s="11" t="s">
         <v>10</v>
@@ -2701,10 +2692,10 @@
     </row>
     <row r="38" spans="2:8" ht="18.75">
       <c r="B38" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="D38" s="7">
         <v>2</v>
@@ -2722,106 +2713,106 @@
     </row>
     <row r="39" spans="2:8" ht="18.75">
       <c r="B39" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D39" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H39" s="15"/>
     </row>
     <row r="40" spans="2:8" ht="18.75">
       <c r="B40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" s="15"/>
+    </row>
+    <row r="41" spans="2:8" ht="18.75">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="15"/>
+    </row>
+    <row r="42" spans="2:8" ht="18.75">
+      <c r="B42" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D40" s="7">
-        <v>3</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" s="15"/>
-    </row>
-    <row r="41" spans="2:8" ht="18.75">
-      <c r="B41" s="1" t="s">
+      <c r="C42" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" s="8">
+        <v>1</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="45"/>
+    </row>
+    <row r="43" spans="2:8" ht="18.75">
+      <c r="B43" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D41" s="7">
-        <v>1</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H41" s="15"/>
-    </row>
-    <row r="42" spans="2:8" ht="18.75">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="15"/>
-    </row>
-    <row r="43" spans="2:8" ht="18.75">
-      <c r="B43" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D43" s="8">
-        <v>1</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H43" s="45"/>
+      <c r="C43" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" s="15"/>
     </row>
     <row r="44" spans="2:8" ht="18.75">
       <c r="B44" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D44" s="7">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>8</v>
@@ -2836,19 +2827,19 @@
     </row>
     <row r="45" spans="2:8" ht="18.75">
       <c r="B45" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D45" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G45" s="11" t="s">
         <v>10</v>
@@ -2857,10 +2848,10 @@
     </row>
     <row r="46" spans="2:8" ht="18.75">
       <c r="B46" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="D46" s="7">
         <v>2</v>
@@ -2878,19 +2869,19 @@
     </row>
     <row r="47" spans="2:8" ht="18.75">
       <c r="B47" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D47" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G47" s="11" t="s">
         <v>10</v>
@@ -2899,13 +2890,13 @@
     </row>
     <row r="48" spans="2:8" ht="18.75">
       <c r="B48" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="D48" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>8</v>
@@ -2919,44 +2910,44 @@
       <c r="H48" s="15"/>
     </row>
     <row r="49" spans="2:8" ht="18.75">
-      <c r="B49" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D49" s="7">
-        <v>1</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H49" s="15"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="16"/>
     </row>
     <row r="50" spans="2:8" ht="18.75">
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="16"/>
+      <c r="B50" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H50" s="15"/>
     </row>
     <row r="51" spans="2:8" ht="18.75">
       <c r="B51" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D51" s="4">
-        <v>1.5</v>
+        <v>97</v>
+      </c>
+      <c r="D51" s="7">
+        <v>1</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>8</v>
@@ -2971,19 +2962,19 @@
     </row>
     <row r="52" spans="2:8" ht="18.75">
       <c r="B52" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D52" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G52" s="11" t="s">
         <v>10</v>
@@ -2992,10 +2983,10 @@
     </row>
     <row r="53" spans="2:8" ht="18.75">
       <c r="B53" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="D53" s="7">
         <v>2</v>
@@ -3013,19 +3004,19 @@
     </row>
     <row r="54" spans="2:8" ht="18.75">
       <c r="B54" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D54" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G54" s="11" t="s">
         <v>10</v>
@@ -3034,13 +3025,13 @@
     </row>
     <row r="55" spans="2:8" ht="18.75">
       <c r="B55" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="D55" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>8</v>
@@ -3054,65 +3045,65 @@
       <c r="H55" s="15"/>
     </row>
     <row r="56" spans="2:8" ht="18.75">
-      <c r="B56" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C56" s="1" t="s">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="15"/>
+    </row>
+    <row r="57" spans="2:8" ht="18.75">
+      <c r="B57" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D56" s="7">
-        <v>1</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G56" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H56" s="15"/>
-    </row>
-    <row r="57" spans="2:8" ht="18.75">
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="15"/>
+      <c r="D57" s="8">
+        <v>5</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57" s="14"/>
     </row>
     <row r="58" spans="2:8" ht="18.75">
-      <c r="B58" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D58" s="8">
-        <v>5</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G58" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H58" s="14"/>
+      <c r="B58" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D58" s="7">
+        <v>4</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H58" s="15"/>
     </row>
     <row r="59" spans="2:8" ht="18.75">
       <c r="B59" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="D59" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>8</v>
@@ -3127,34 +3118,36 @@
     </row>
     <row r="60" spans="2:8" ht="18.75">
       <c r="B60" s="1" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="D60" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G60" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H60" s="15"/>
+      <c r="H60" s="15" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="61" spans="2:8" ht="18.75">
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="D61" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>8</v>
@@ -3165,19 +3158,17 @@
       <c r="G61" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H61" s="15" t="s">
-        <v>45</v>
-      </c>
+      <c r="H61" s="15"/>
     </row>
     <row r="62" spans="2:8" ht="18.75">
       <c r="B62" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="D62" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>8</v>
@@ -3192,19 +3183,19 @@
     </row>
     <row r="63" spans="2:8" ht="18.75">
       <c r="B63" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D63" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G63" s="11" t="s">
         <v>10</v>
@@ -3213,13 +3204,13 @@
     </row>
     <row r="64" spans="2:8" ht="18.75">
       <c r="B64" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="D64" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>8</v>
@@ -3233,43 +3224,43 @@
       <c r="H64" s="15"/>
     </row>
     <row r="65" spans="2:8" ht="18.75">
-      <c r="B65" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D65" s="7">
-        <v>1</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F65" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G65" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H65" s="15"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="16"/>
     </row>
     <row r="66" spans="2:8" ht="18.75">
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="16"/>
+      <c r="B66" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D66" s="4">
+        <v>2</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H66" s="15"/>
     </row>
     <row r="67" spans="2:8" ht="18.75">
       <c r="B67" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D67" s="4">
+      <c r="D67" s="7">
         <v>2</v>
       </c>
       <c r="E67" s="5" t="s">
@@ -3285,10 +3276,10 @@
     </row>
     <row r="68" spans="2:8" ht="18.75">
       <c r="B68" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D68" s="7">
         <v>2</v>
@@ -3306,10 +3297,10 @@
     </row>
     <row r="69" spans="2:8" ht="18.75">
       <c r="B69" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D69" s="7">
         <v>2</v>
@@ -3326,67 +3317,67 @@
       <c r="H69" s="15"/>
     </row>
     <row r="70" spans="2:8" ht="18.75">
-      <c r="B70" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D70" s="7">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="15"/>
+    </row>
+    <row r="71" spans="2:8" ht="18.75">
+      <c r="B71" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D71" s="4">
         <v>2</v>
       </c>
-      <c r="E70" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F70" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G70" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H70" s="15"/>
-    </row>
-    <row r="71" spans="2:8" ht="18.75">
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="15"/>
+      <c r="E71" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H71" s="14" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="72" spans="2:8" ht="18.75">
-      <c r="B72" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D72" s="4">
+      <c r="B72" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D72" s="7">
         <v>2</v>
       </c>
-      <c r="E72" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G72" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H72" s="14" t="s">
-        <v>48</v>
-      </c>
+      <c r="E72" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H72" s="15"/>
     </row>
     <row r="73" spans="2:8" ht="18.75">
       <c r="B73" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="D73" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>8</v>
@@ -3401,10 +3392,10 @@
     </row>
     <row r="74" spans="2:8" ht="18.75">
       <c r="B74" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="D74" s="7">
         <v>4</v>
@@ -3418,14 +3409,16 @@
       <c r="G74" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H74" s="15"/>
+      <c r="H74" s="15" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="75" spans="2:8" ht="18.75">
       <c r="B75" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D75" s="7">
         <v>4</v>
@@ -3440,18 +3433,18 @@
         <v>10</v>
       </c>
       <c r="H75" s="15" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76" spans="2:8" ht="18.75">
       <c r="B76" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="D76" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>8</v>
@@ -3463,89 +3456,87 @@
         <v>10</v>
       </c>
       <c r="H76" s="15" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="77" spans="2:8" ht="18.75">
       <c r="B77" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D77" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G77" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H77" s="15" t="s">
-        <v>114</v>
-      </c>
+      <c r="H77" s="15"/>
     </row>
     <row r="78" spans="2:8" ht="18.75">
-      <c r="B78" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D78" s="7">
-        <v>3</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F78" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G78" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
       <c r="H78" s="15"/>
     </row>
     <row r="79" spans="2:8" ht="18.75">
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="15"/>
+      <c r="B79" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D79" s="8">
+        <v>2</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G79" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H79" s="14"/>
     </row>
     <row r="80" spans="2:8" ht="18.75">
-      <c r="B80" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C80" s="3" t="s">
+      <c r="B80" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D80" s="8">
+      <c r="C80" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D80" s="7">
         <v>2</v>
       </c>
-      <c r="E80" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F80" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G80" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H80" s="14"/>
+      <c r="E80" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H80" s="15"/>
     </row>
     <row r="81" spans="2:8" ht="18.75">
       <c r="B81" s="1" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D81" s="7">
         <v>2</v>
@@ -3554,7 +3545,7 @@
         <v>8</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G81" s="11" t="s">
         <v>10</v>
@@ -3563,10 +3554,10 @@
     </row>
     <row r="82" spans="2:8" ht="18.75">
       <c r="B82" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="D82" s="7">
         <v>2</v>
@@ -3584,19 +3575,19 @@
     </row>
     <row r="83" spans="2:8" ht="18.75">
       <c r="B83" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="D83" s="7">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G83" s="11" t="s">
         <v>10</v>
@@ -3604,83 +3595,83 @@
       <c r="H83" s="15"/>
     </row>
     <row r="84" spans="2:8" ht="18.75">
-      <c r="B84" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D84" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F84" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G84" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H84" s="15"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="16"/>
     </row>
     <row r="85" spans="2:8" ht="18.75">
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="12"/>
-      <c r="G85" s="12"/>
-      <c r="H85" s="16"/>
+      <c r="B85" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D85" s="4">
+        <v>1</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H85" s="15"/>
     </row>
     <row r="86" spans="2:8" ht="18.75">
       <c r="B86" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D86" s="4">
-        <v>1</v>
+      <c r="D86" s="7">
+        <v>0.5</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H86" s="15"/>
     </row>
     <row r="87" spans="2:8" ht="18.75">
       <c r="B87" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D87" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H87" s="15"/>
     </row>
     <row r="88" spans="2:8" ht="18.75">
       <c r="B88" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>60</v>
+        <v>149</v>
       </c>
       <c r="D88" s="7">
         <v>1</v>
@@ -3698,19 +3689,19 @@
     </row>
     <row r="89" spans="2:8" ht="18.75">
       <c r="B89" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="D89" s="7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G89" s="11" t="s">
         <v>10</v>
@@ -3718,71 +3709,71 @@
       <c r="H89" s="15"/>
     </row>
     <row r="90" spans="2:8" ht="18.75">
-      <c r="B90" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D90" s="7">
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="15"/>
+    </row>
+    <row r="91" spans="2:8" ht="18.75">
+      <c r="B91" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D91" s="8">
         <v>0.5</v>
       </c>
-      <c r="E90" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F90" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G90" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H90" s="15"/>
-    </row>
-    <row r="91" spans="2:8" ht="18.75">
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
-      <c r="H91" s="15"/>
+      <c r="E91" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G91" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H91" s="14"/>
     </row>
     <row r="92" spans="2:8" ht="18.75">
-      <c r="B92" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D92" s="8">
+      <c r="B92" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D92" s="7">
         <v>0.5</v>
       </c>
-      <c r="E92" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F92" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G92" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H92" s="14"/>
+      <c r="E92" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G92" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H92" s="15"/>
     </row>
     <row r="93" spans="2:8" ht="18.75">
       <c r="B93" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="D93" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G93" s="11" t="s">
         <v>10</v>
@@ -3791,16 +3782,16 @@
     </row>
     <row r="94" spans="2:8" ht="18.75">
       <c r="B94" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
+      </c>
+      <c r="C94" s="49" t="s">
+        <v>136</v>
       </c>
       <c r="D94" s="7">
         <v>1</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F94" s="11" t="s">
         <v>12</v>
@@ -3808,89 +3799,89 @@
       <c r="G94" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H94" s="15"/>
+      <c r="H94" s="15" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="95" spans="2:8" ht="18.75">
       <c r="B95" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C95" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="D95" s="7">
+        <v>133</v>
+      </c>
+      <c r="C95" s="53" t="s">
+        <v>149</v>
+      </c>
+      <c r="D95" s="52">
         <v>1</v>
       </c>
-      <c r="E95" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F95" s="11" t="s">
+      <c r="E95" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F95" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="G95" s="11" t="s">
+      <c r="G95" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H95" s="15" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="18.75">
-      <c r="B96" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C96" s="53" t="s">
-        <v>151</v>
-      </c>
-      <c r="D96" s="52">
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="15"/>
+    </row>
+    <row r="97" spans="2:8" ht="18.75">
+      <c r="B97" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D97" s="4">
+        <v>2</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G97" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H97" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" ht="18.75">
+      <c r="B98" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D98" s="7">
         <v>1</v>
       </c>
-      <c r="E96" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="F96" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="G96" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H96" s="15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="97" spans="2:8" ht="18.75">
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="11"/>
-      <c r="G97" s="11"/>
-      <c r="H97" s="15"/>
-    </row>
-    <row r="98" spans="2:8" ht="18.75">
-      <c r="B98" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D98" s="4">
-        <v>2</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G98" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H98" s="14" t="s">
-        <v>63</v>
-      </c>
+      <c r="E98" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F98" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G98" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H98" s="15"/>
     </row>
     <row r="99" spans="2:8" ht="18.75">
       <c r="B99" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>64</v>
@@ -3907,17 +3898,19 @@
       <c r="G99" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H99" s="15"/>
+      <c r="H99" s="15" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="100" spans="2:8" ht="18.75">
       <c r="B100" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D100" s="7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>8</v>
@@ -3928,25 +3921,23 @@
       <c r="G100" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H100" s="15" t="s">
-        <v>84</v>
-      </c>
+      <c r="H100" s="15"/>
     </row>
     <row r="101" spans="2:8" ht="18.75">
       <c r="B101" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D101" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G101" s="11" t="s">
         <v>10</v>
@@ -3955,10 +3946,10 @@
     </row>
     <row r="102" spans="2:8" ht="18.75">
       <c r="B102" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>60</v>
+        <v>149</v>
       </c>
       <c r="D102" s="7">
         <v>1</v>
@@ -3975,71 +3966,71 @@
       <c r="H102" s="15"/>
     </row>
     <row r="103" spans="2:8" ht="18.75">
-      <c r="B103" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D103" s="7">
-        <v>1</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F103" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G103" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H103" s="15"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="16"/>
     </row>
     <row r="104" spans="2:8" ht="18.75">
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="12"/>
-      <c r="G104" s="12"/>
-      <c r="H104" s="16"/>
+      <c r="B104" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D104" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F104" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G104" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H104" s="15"/>
     </row>
     <row r="105" spans="2:8" ht="18.75">
       <c r="B105" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D105" s="8">
+        <v>147</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D105" s="7">
         <v>0.5</v>
       </c>
-      <c r="E105" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F105" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G105" s="10" t="s">
+      <c r="E105" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F105" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G105" s="11" t="s">
         <v>10</v>
       </c>
       <c r="H105" s="15"/>
     </row>
     <row r="106" spans="2:8" ht="18.75">
       <c r="B106" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D106" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G106" s="11" t="s">
         <v>10</v>
@@ -4048,10 +4039,10 @@
     </row>
     <row r="107" spans="2:8" ht="18.75">
       <c r="B107" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="D107" s="7">
         <v>1</v>
@@ -4065,60 +4056,44 @@
       <c r="G107" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H107" s="15"/>
+      <c r="H107" s="15" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="108" spans="2:8" ht="18.75">
       <c r="B108" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="D108" s="7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F108" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G108" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H108" s="15" t="s">
-        <v>153</v>
-      </c>
+      <c r="H108" s="15"/>
     </row>
     <row r="109" spans="2:8" ht="18.75">
-      <c r="B109" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D109" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F109" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G109" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H109" s="15"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="16"/>
     </row>
     <row r="110" spans="2:8" ht="18.75">
-      <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="6"/>
-      <c r="F110" s="12"/>
-      <c r="G110" s="12"/>
-      <c r="H110" s="16"/>
+      <c r="C110"/>
+      <c r="D110" s="7"/>
+      <c r="H110" s="13"/>
     </row>
     <row r="111" spans="2:8" ht="18.75">
       <c r="C111"/>
@@ -4175,26 +4150,26 @@
       <c r="D121" s="7"/>
       <c r="H121" s="13"/>
     </row>
-    <row r="122" spans="3:8" ht="18.75">
-      <c r="C122"/>
-      <c r="D122" s="7"/>
-      <c r="H122" s="13"/>
-    </row>
+    <row r="122" spans="3:8" ht="18.75"/>
     <row r="123" spans="3:8" ht="18.75"/>
     <row r="124" spans="3:8" ht="18.75"/>
     <row r="125" spans="3:8" ht="18.75"/>
-    <row r="126" spans="3:8" ht="18.75"/>
+    <row r="126" spans="3:8" ht="18.75">
+      <c r="C126"/>
+      <c r="D126" s="7"/>
+      <c r="H126" s="13"/>
+    </row>
     <row r="127" spans="3:8" ht="18.75">
       <c r="C127"/>
       <c r="D127" s="7"/>
       <c r="H127" s="13"/>
     </row>
     <row r="128" spans="3:8" ht="18.75">
-      <c r="C128"/>
-      <c r="D128" s="7"/>
       <c r="H128" s="13"/>
     </row>
     <row r="129" spans="3:8" ht="18.75">
+      <c r="C129"/>
+      <c r="D129" s="7"/>
       <c r="H129" s="13"/>
     </row>
     <row r="130" spans="3:8" ht="18.75">
@@ -4212,13 +4187,8 @@
       <c r="D132" s="7"/>
       <c r="H132" s="13"/>
     </row>
-    <row r="133" spans="3:8" ht="18.75">
-      <c r="C133"/>
-      <c r="D133" s="7"/>
-      <c r="H133" s="13"/>
-    </row>
   </sheetData>
-  <autoFilter ref="E2:G133" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="E2:G132" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
@@ -4229,19 +4199,19 @@
           <x14:formula1>
             <xm:f>その他!$B$3:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>G127:G128 G130:G1048576 G1:G26 G28:G122</xm:sqref>
+          <xm:sqref>G126:G127 G129:G1048576 G27:G121 G1:G25</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{66D8840C-D443-486F-BC72-01200775D285}">
           <x14:formula1>
             <xm:f>その他!$D$3:$D$6</xm:f>
           </x14:formula1>
-          <xm:sqref>F127:F128 F130:F1048576 F1:F26 F28:F122</xm:sqref>
+          <xm:sqref>F126:F127 F129:F1048576 F27:F121 F1:F25</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D61B1C0A-2748-4606-B0EE-00EEC89A23C6}">
           <x14:formula1>
             <xm:f>その他!$F$3:$F$6</xm:f>
           </x14:formula1>
-          <xm:sqref>E127:E128 E130:E1048576 E1:E26 E28:E122</xm:sqref>
+          <xm:sqref>E126:E127 E129:E1048576 E27:E121 E1:E25</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4253,8 +4223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:M27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4276,26 +4246,26 @@
         <v>0</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E2" s="50" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F2" s="50" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G2" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I2" s="30" t="s">
         <v>20</v>
       </c>
       <c r="J2" s="29">
         <f>SUM(C:C)</f>
-        <v>177.5</v>
+        <v>173.5</v>
       </c>
       <c r="K2" s="29"/>
       <c r="L2" s="28"/>
@@ -4307,7 +4277,7 @@
       </c>
       <c r="C3" s="19">
         <f>SUMIF(コスト表!B:B, B3, コスト表!D:D)</f>
-        <v>34.5</v>
+        <v>30.5</v>
       </c>
       <c r="D3" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "プレイヤー", コスト表!G:G, "完了")</f>
@@ -4315,7 +4285,7 @@
       </c>
       <c r="E3" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "プレイヤー", コスト表!G:G, "作業中")</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F3" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "プレイヤー", コスト表!G:G, "未着手")</f>
@@ -4323,7 +4293,7 @@
       </c>
       <c r="G3" s="40">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "プレイヤー", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "プレイヤー") * 100,1)</f>
-        <v>45.8</v>
+        <v>47.8</v>
       </c>
       <c r="I3" s="31" t="s">
         <v>21</v>
@@ -4339,7 +4309,7 @@
     </row>
     <row r="4" spans="2:13" ht="19.5">
       <c r="B4" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C4" s="19">
         <f>SUMIF(コスト表!B:B, B4, コスト表!D:D)</f>
@@ -4376,7 +4346,7 @@
     </row>
     <row r="5" spans="2:13" ht="19.5">
       <c r="B5" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="19">
         <f>SUMIF(コスト表!B:B, B5, コスト表!D:D)</f>
@@ -4411,7 +4381,7 @@
     </row>
     <row r="6" spans="2:13" ht="19.5">
       <c r="B6" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="19">
         <f>SUMIF(コスト表!B:B, B6, コスト表!D:D)</f>
@@ -4446,7 +4416,7 @@
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C7" s="19">
         <f>SUMIF(コスト表!B:B, B7, コスト表!D:D)</f>
@@ -4472,7 +4442,7 @@
     </row>
     <row r="8" spans="2:13">
       <c r="B8" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" s="19">
         <f>SUMIF(コスト表!B:B, B8, コスト表!D:D)</f>
@@ -4505,7 +4475,7 @@
     </row>
     <row r="9" spans="2:13" ht="24">
       <c r="B9" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C9" s="19">
         <f>SUMIF(コスト表!B:B, B9, コスト表!D:D)</f>
@@ -4528,7 +4498,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J9" s="61">
         <f>DATE(2025,7,23)</f>
@@ -4540,12 +4510,12 @@
       </c>
       <c r="L9" s="59">
         <f ca="1">ROUNDDOWN(($J$2-$J$3)/K9, 1)</f>
-        <v>5.2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="19.5">
       <c r="B10" s="18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C10" s="19">
         <f>SUMIF(コスト表!B:B, B10, コスト表!D:D)</f>
@@ -4571,12 +4541,12 @@
         <v>28</v>
       </c>
       <c r="J10" s="62">
-        <f>DATE(2025,8,11)</f>
-        <v>45880</v>
+        <f>DATE(2025,8,7)</f>
+        <v>45876</v>
       </c>
       <c r="K10" s="58">
         <f ca="1">NETWORKDAYS(TODAY(),J10)</f>
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L10" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K10,1)</f>
@@ -4585,7 +4555,7 @@
     </row>
     <row r="11" spans="2:13" ht="19.5">
       <c r="B11" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="19">
         <f>SUMIF(コスト表!B:B, B11, コスト表!D:D)</f>
@@ -4611,21 +4581,21 @@
         <v>29</v>
       </c>
       <c r="J11" s="62">
-        <f>DATE(2025,8,17)</f>
-        <v>45886</v>
+        <f>DATE(2025,8,14)</f>
+        <v>45883</v>
       </c>
       <c r="K11" s="58">
         <f ca="1">NETWORKDAYS(TODAY(),J11)</f>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L11" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K11,1)</f>
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="19.5">
       <c r="B12" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="19">
         <f>SUMIF(コスト表!B:B, B12, コスト表!D:D)</f>
@@ -4665,7 +4635,7 @@
     </row>
     <row r="13" spans="2:13">
       <c r="B13" s="18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C13" s="19">
         <f>SUMIF(コスト表!B:B, B13, コスト表!D:D)</f>
@@ -4693,7 +4663,7 @@
     </row>
     <row r="14" spans="2:13">
       <c r="B14" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="19">
         <f>SUMIF(コスト表!B:B, B14, コスト表!D:D)</f>
@@ -4715,10 +4685,22 @@
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "オプション", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "オプション") * 100,1)</f>
         <v>0</v>
       </c>
+      <c r="I14" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="L14" s="42" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="15" spans="2:13">
       <c r="B15" s="41" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C15" s="66">
         <f>SUMIF(コスト表!B:B, B15, コスト表!D:D)</f>
@@ -4740,10 +4722,25 @@
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "ゲームオーバー", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "ゲームオーバー") * 100,1)</f>
         <v>0</v>
       </c>
+      <c r="I15" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="43">
+        <f>SUMIF(コスト表!F:F, "プロト", コスト表!D:D)</f>
+        <v>120</v>
+      </c>
+      <c r="K15" s="43">
+        <f>SUMIFS(コスト表!D:D, コスト表!F:F, "プロト", コスト表!G:G, "完了")</f>
+        <v>8.5</v>
+      </c>
+      <c r="L15" s="43">
+        <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "プロト", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "プロト") * 100,1)</f>
+        <v>13.3</v>
+      </c>
     </row>
     <row r="16" spans="2:13">
       <c r="B16" s="41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -4751,53 +4748,56 @@
       <c r="F16" s="9"/>
       <c r="G16" s="40">
         <f>ROUNDDOWN(COUNTIF(コスト表!G:G, "完了") / COUNTA(コスト表!G:G) * 100,1)</f>
-        <v>12.5</v>
-      </c>
-      <c r="I16" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="J16" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="K16" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="L16" s="42" t="s">
-        <v>71</v>
+        <v>12.6</v>
+      </c>
+      <c r="I16" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="43">
+        <f>SUMIF(コスト表!F:F, "アルファ", コスト表!D:D)</f>
+        <v>52.5</v>
+      </c>
+      <c r="K16" s="43">
+        <f>SUMIFS(コスト表!D:D, コスト表!F:F, "アルファ", コスト表!G:G, "完了")</f>
+        <v>2</v>
+      </c>
+      <c r="L16" s="43">
+        <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "アルファ", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "アルファ") * 100,1)</f>
+        <v>12.1</v>
       </c>
     </row>
     <row r="17" spans="3:12">
       <c r="I17" s="43" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="J17" s="43">
-        <f>SUMIF(コスト表!F:F, "プロト", コスト表!D:D)</f>
-        <v>124</v>
+        <f>SUMIF(コスト表!F:F, "ベータ", コスト表!D:D)</f>
+        <v>1</v>
       </c>
       <c r="K17" s="43">
-        <f>SUMIFS(コスト表!D:D, コスト表!F:F, "プロト", コスト表!G:G, "完了")</f>
-        <v>8.5</v>
+        <f>SUMIFS(コスト表!D:D, コスト表!F:F, "ベータ", コスト表!G:G, "完了")</f>
+        <v>0</v>
       </c>
       <c r="L17" s="43">
-        <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "プロト", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "プロト") * 100,1)</f>
-        <v>13.1</v>
+        <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "ベータ", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "ベータ") * 100,1)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="3:12">
       <c r="I18" s="43" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J18" s="43">
-        <f>SUMIF(コスト表!F:F, "アルファ", コスト表!D:D)</f>
-        <v>52.5</v>
+        <f>SUMIF(コスト表!F:F, "マスター", コスト表!D:D)</f>
+        <v>0</v>
       </c>
       <c r="K18" s="43">
-        <f>SUMIFS(コスト表!D:D, コスト表!F:F, "アルファ", コスト表!G:G, "完了")</f>
-        <v>2</v>
-      </c>
-      <c r="L18" s="43">
-        <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "アルファ", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "アルファ") * 100,1)</f>
-        <v>12.1</v>
+        <f>SUMIFS(コスト表!D:D, コスト表!F:F, "マスター", コスト表!G:G, "完了")</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="43" t="e">
+        <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "マスター", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "マスター") * 100,1)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="3:12">
@@ -4806,21 +4806,6 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="38"/>
-      <c r="I19" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="43">
-        <f>SUMIF(コスト表!F:F, "ベータ", コスト表!D:D)</f>
-        <v>1</v>
-      </c>
-      <c r="K19" s="43">
-        <f>SUMIFS(コスト表!D:D, コスト表!F:F, "ベータ", コスト表!G:G, "完了")</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="43">
-        <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "ベータ", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "ベータ") * 100,1)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="20" spans="3:12">
       <c r="C20" s="7"/>
@@ -4828,21 +4813,6 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="38"/>
-      <c r="I20" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" s="43">
-        <f>SUMIF(コスト表!F:F, "マスター", コスト表!D:D)</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="43">
-        <f>SUMIFS(コスト表!D:D, コスト表!F:F, "マスター", コスト表!G:G, "完了")</f>
-        <v>0</v>
-      </c>
-      <c r="L20" s="43" t="e">
-        <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "マスター", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "マスター") * 100,1)</f>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="21" spans="3:12">
       <c r="G21" s="38"/>
@@ -4873,8 +4843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE868E3-33E5-43E7-9EF1-2BA63334710F}">
   <dimension ref="B2:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4929,7 +4899,7 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>18</v>
@@ -4942,25 +4912,28 @@
       <c r="B8" s="65" t="s">
         <v>3</v>
       </c>
+      <c r="D8" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="63" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="63" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="63" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="64" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4970,6 +4943,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006836AD0B55474E4CAD520F1DEB8FB579" ma:contentTypeVersion="3" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="078ba6c1f7b5b638bb57eb024ae572f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="187a6309-4c0c-49e3-bd2d-e8130eb88270" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5f182963113af090d1b42042cf04cb6" ns2:_="">
     <xsd:import namespace="187a6309-4c0c-49e3-bd2d-e8130eb88270"/>
@@ -5107,22 +5095,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A1D85CE-B20E-4841-A55B-779E85453EF9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5138,21 +5128,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ゾンビシューターゲームコスト表.xlsx
+++ b/ゾンビシューターゲームコスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\由留部 瑛人\Documents\MyGame3D2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B226F3B-2C1F-4DA2-AB08-BE96A5CA0ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0FB311-BB3C-40C9-8009-F72FC1F95A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="3195" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3780" yWindow="3195" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コスト表" sheetId="1" r:id="rId1"/>
@@ -168,13 +168,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>盾アニメーション</t>
-    <rPh sb="0" eb="1">
-      <t>タテ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>死亡アニメーション</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -952,9 +945,16 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>近接武器</t>
-    <rPh sb="0" eb="4">
-      <t>キンセツブキ</t>
+    <t>タックル攻撃</t>
+    <rPh sb="4" eb="6">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タックル攻撃アニメーション</t>
+    <rPh sb="4" eb="6">
+      <t>コウゲキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1920,9 +1920,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I132"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -1939,7 +1939,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" customHeight="1">
       <c r="B1" s="54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="2:8" ht="18.75">
@@ -2009,10 +2009,10 @@
     </row>
     <row r="5" spans="2:8" ht="18.75">
       <c r="B5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D5" s="7">
         <v>1</v>
@@ -2053,8 +2053,8 @@
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>154</v>
+      <c r="C7" s="15" t="s">
+        <v>153</v>
       </c>
       <c r="D7" s="7">
         <v>3</v>
@@ -2066,16 +2066,15 @@
         <v>9</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="15"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="2:8" ht="18.75">
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="7">
         <v>1</v>
@@ -2096,7 +2095,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9" s="7">
         <v>3</v>
@@ -2117,7 +2116,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
@@ -2135,10 +2134,10 @@
     </row>
     <row r="11" spans="2:8" ht="18.75">
       <c r="B11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="D11" s="7">
         <v>4</v>
@@ -2156,10 +2155,10 @@
     </row>
     <row r="12" spans="2:8" ht="18.75">
       <c r="B12" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D12" s="7">
         <v>1</v>
@@ -2174,7 +2173,7 @@
         <v>14</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="18.75">
@@ -2182,7 +2181,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" s="7">
         <v>4</v>
@@ -2200,10 +2199,10 @@
     </row>
     <row r="14" spans="2:8" ht="18.75">
       <c r="B14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="D14" s="7">
         <v>0.5</v>
@@ -2221,10 +2220,10 @@
     </row>
     <row r="15" spans="2:8" ht="18.75">
       <c r="B15" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="7">
         <v>2</v>
@@ -2239,15 +2238,15 @@
         <v>13</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="18.75">
       <c r="B16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D16" s="7">
         <v>2</v>
@@ -2331,7 +2330,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="D20" s="7">
         <v>0.5</v>
@@ -2352,7 +2351,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" s="7">
         <v>0.5</v>
@@ -2373,7 +2372,7 @@
         <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22" s="7">
         <v>0.5</v>
@@ -2391,10 +2390,10 @@
     </row>
     <row r="23" spans="2:8" ht="18.75">
       <c r="B23" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D23" s="7">
         <v>0.5</v>
@@ -2412,10 +2411,10 @@
     </row>
     <row r="24" spans="2:8" ht="18.75">
       <c r="B24" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D24" s="7">
         <v>1</v>
@@ -2430,7 +2429,7 @@
         <v>10</v>
       </c>
       <c r="H24" s="49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="18.75">
@@ -2438,7 +2437,7 @@
         <v>7</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D25" s="7">
         <v>2</v>
@@ -2465,10 +2464,10 @@
     </row>
     <row r="27" spans="2:8" ht="18.75">
       <c r="B27" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8">
         <v>5</v>
@@ -2483,15 +2482,15 @@
         <v>13</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="18.75">
       <c r="B28" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="7">
         <v>4</v>
@@ -2506,15 +2505,15 @@
         <v>10</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="18.75">
       <c r="B29" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="7">
         <v>6</v>
@@ -2529,15 +2528,15 @@
         <v>10</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="18.75">
       <c r="B30" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="7">
         <v>2</v>
@@ -2549,16 +2548,16 @@
         <v>9</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H30" s="15"/>
     </row>
     <row r="31" spans="2:8" ht="18.75">
       <c r="B31" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="7">
         <v>4</v>
@@ -2573,15 +2572,15 @@
         <v>10</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="18.75">
       <c r="B32" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" s="7">
         <v>3</v>
@@ -2599,10 +2598,10 @@
     </row>
     <row r="33" spans="2:8" ht="18.75">
       <c r="B33" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D33" s="7">
         <v>3</v>
@@ -2629,10 +2628,10 @@
     </row>
     <row r="35" spans="2:8" ht="18.75">
       <c r="B35" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D35" s="4">
         <v>1.5</v>
@@ -2650,10 +2649,10 @@
     </row>
     <row r="36" spans="2:8" ht="18.75">
       <c r="B36" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D36" s="7">
         <v>1</v>
@@ -2671,10 +2670,10 @@
     </row>
     <row r="37" spans="2:8" ht="18.75">
       <c r="B37" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D37" s="7">
         <v>2</v>
@@ -2692,10 +2691,10 @@
     </row>
     <row r="38" spans="2:8" ht="18.75">
       <c r="B38" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D38" s="7">
         <v>2</v>
@@ -2713,10 +2712,10 @@
     </row>
     <row r="39" spans="2:8" ht="18.75">
       <c r="B39" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D39" s="7">
         <v>3</v>
@@ -2734,10 +2733,10 @@
     </row>
     <row r="40" spans="2:8" ht="18.75">
       <c r="B40" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D40" s="7">
         <v>1</v>
@@ -2746,7 +2745,7 @@
         <v>8</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G40" s="11" t="s">
         <v>10</v>
@@ -2764,10 +2763,10 @@
     </row>
     <row r="42" spans="2:8" ht="18.75">
       <c r="B42" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D42" s="8">
         <v>1</v>
@@ -2785,10 +2784,10 @@
     </row>
     <row r="43" spans="2:8" ht="18.75">
       <c r="B43" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D43" s="7">
         <v>1.5</v>
@@ -2806,10 +2805,10 @@
     </row>
     <row r="44" spans="2:8" ht="18.75">
       <c r="B44" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D44" s="7">
         <v>1</v>
@@ -2827,10 +2826,10 @@
     </row>
     <row r="45" spans="2:8" ht="18.75">
       <c r="B45" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D45" s="7">
         <v>2</v>
@@ -2848,10 +2847,10 @@
     </row>
     <row r="46" spans="2:8" ht="18.75">
       <c r="B46" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D46" s="7">
         <v>2</v>
@@ -2869,10 +2868,10 @@
     </row>
     <row r="47" spans="2:8" ht="18.75">
       <c r="B47" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D47" s="7">
         <v>3</v>
@@ -2890,10 +2889,10 @@
     </row>
     <row r="48" spans="2:8" ht="18.75">
       <c r="B48" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D48" s="7">
         <v>1</v>
@@ -2920,10 +2919,10 @@
     </row>
     <row r="50" spans="2:8" ht="18.75">
       <c r="B50" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D50" s="4">
         <v>1.5</v>
@@ -2941,10 +2940,10 @@
     </row>
     <row r="51" spans="2:8" ht="18.75">
       <c r="B51" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D51" s="7">
         <v>1</v>
@@ -2962,10 +2961,10 @@
     </row>
     <row r="52" spans="2:8" ht="18.75">
       <c r="B52" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D52" s="7">
         <v>2</v>
@@ -2983,10 +2982,10 @@
     </row>
     <row r="53" spans="2:8" ht="18.75">
       <c r="B53" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D53" s="7">
         <v>2</v>
@@ -3004,10 +3003,10 @@
     </row>
     <row r="54" spans="2:8" ht="18.75">
       <c r="B54" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D54" s="7">
         <v>3</v>
@@ -3025,10 +3024,10 @@
     </row>
     <row r="55" spans="2:8" ht="18.75">
       <c r="B55" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D55" s="7">
         <v>1</v>
@@ -3055,10 +3054,10 @@
     </row>
     <row r="57" spans="2:8" ht="18.75">
       <c r="B57" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D57" s="8">
         <v>5</v>
@@ -3076,10 +3075,10 @@
     </row>
     <row r="58" spans="2:8" ht="18.75">
       <c r="B58" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D58" s="7">
         <v>4</v>
@@ -3097,10 +3096,10 @@
     </row>
     <row r="59" spans="2:8" ht="18.75">
       <c r="B59" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D59" s="7">
         <v>1</v>
@@ -3118,10 +3117,10 @@
     </row>
     <row r="60" spans="2:8" ht="18.75">
       <c r="B60" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D60" s="7">
         <v>5</v>
@@ -3136,15 +3135,15 @@
         <v>10</v>
       </c>
       <c r="H60" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="2:8" ht="18.75">
       <c r="B61" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D61" s="7">
         <v>3</v>
@@ -3162,10 +3161,10 @@
     </row>
     <row r="62" spans="2:8" ht="18.75">
       <c r="B62" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D62" s="7">
         <v>2</v>
@@ -3183,10 +3182,10 @@
     </row>
     <row r="63" spans="2:8" ht="18.75">
       <c r="B63" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D63" s="7">
         <v>3</v>
@@ -3204,10 +3203,10 @@
     </row>
     <row r="64" spans="2:8" ht="18.75">
       <c r="B64" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D64" s="7">
         <v>1</v>
@@ -3234,10 +3233,10 @@
     </row>
     <row r="66" spans="2:8" ht="18.75">
       <c r="B66" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="D66" s="4">
         <v>2</v>
@@ -3255,10 +3254,10 @@
     </row>
     <row r="67" spans="2:8" ht="18.75">
       <c r="B67" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D67" s="7">
         <v>2</v>
@@ -3276,10 +3275,10 @@
     </row>
     <row r="68" spans="2:8" ht="18.75">
       <c r="B68" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D68" s="7">
         <v>2</v>
@@ -3297,10 +3296,10 @@
     </row>
     <row r="69" spans="2:8" ht="18.75">
       <c r="B69" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D69" s="7">
         <v>2</v>
@@ -3327,10 +3326,10 @@
     </row>
     <row r="71" spans="2:8" ht="18.75">
       <c r="B71" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D71" s="4">
         <v>2</v>
@@ -3345,15 +3344,15 @@
         <v>10</v>
       </c>
       <c r="H71" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" spans="2:8" ht="18.75">
       <c r="B72" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D72" s="7">
         <v>2</v>
@@ -3371,10 +3370,10 @@
     </row>
     <row r="73" spans="2:8" ht="18.75">
       <c r="B73" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D73" s="7">
         <v>4</v>
@@ -3392,10 +3391,10 @@
     </row>
     <row r="74" spans="2:8" ht="18.75">
       <c r="B74" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D74" s="7">
         <v>4</v>
@@ -3410,15 +3409,15 @@
         <v>10</v>
       </c>
       <c r="H74" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75" spans="2:8" ht="18.75">
       <c r="B75" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D75" s="7">
         <v>4</v>
@@ -3433,15 +3432,15 @@
         <v>10</v>
       </c>
       <c r="H75" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="76" spans="2:8" ht="18.75">
       <c r="B76" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D76" s="7">
         <v>6</v>
@@ -3456,15 +3455,15 @@
         <v>10</v>
       </c>
       <c r="H76" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77" spans="2:8" ht="18.75">
       <c r="B77" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D77" s="7">
         <v>3</v>
@@ -3491,10 +3490,10 @@
     </row>
     <row r="79" spans="2:8" ht="18.75">
       <c r="B79" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D79" s="8">
         <v>2</v>
@@ -3512,10 +3511,10 @@
     </row>
     <row r="80" spans="2:8" ht="18.75">
       <c r="B80" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="D80" s="7">
         <v>2</v>
@@ -3533,10 +3532,10 @@
     </row>
     <row r="81" spans="2:8" ht="18.75">
       <c r="B81" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D81" s="7">
         <v>2</v>
@@ -3554,10 +3553,10 @@
     </row>
     <row r="82" spans="2:8" ht="18.75">
       <c r="B82" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D82" s="7">
         <v>2</v>
@@ -3575,10 +3574,10 @@
     </row>
     <row r="83" spans="2:8" ht="18.75">
       <c r="B83" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D83" s="7">
         <v>0.5</v>
@@ -3605,10 +3604,10 @@
     </row>
     <row r="85" spans="2:8" ht="18.75">
       <c r="B85" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="D85" s="4">
         <v>1</v>
@@ -3626,10 +3625,10 @@
     </row>
     <row r="86" spans="2:8" ht="18.75">
       <c r="B86" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D86" s="7">
         <v>0.5</v>
@@ -3647,10 +3646,10 @@
     </row>
     <row r="87" spans="2:8" ht="18.75">
       <c r="B87" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D87" s="7">
         <v>1</v>
@@ -3668,10 +3667,10 @@
     </row>
     <row r="88" spans="2:8" ht="18.75">
       <c r="B88" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D88" s="7">
         <v>1</v>
@@ -3689,10 +3688,10 @@
     </row>
     <row r="89" spans="2:8" ht="18.75">
       <c r="B89" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D89" s="7">
         <v>0.5</v>
@@ -3719,10 +3718,10 @@
     </row>
     <row r="91" spans="2:8" ht="18.75">
       <c r="B91" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>134</v>
       </c>
       <c r="D91" s="8">
         <v>0.5</v>
@@ -3740,10 +3739,10 @@
     </row>
     <row r="92" spans="2:8" ht="18.75">
       <c r="B92" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D92" s="7">
         <v>0.5</v>
@@ -3761,10 +3760,10 @@
     </row>
     <row r="93" spans="2:8" ht="18.75">
       <c r="B93" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D93" s="7">
         <v>1</v>
@@ -3782,10 +3781,10 @@
     </row>
     <row r="94" spans="2:8" ht="18.75">
       <c r="B94" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C94" s="49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D94" s="7">
         <v>1</v>
@@ -3800,15 +3799,15 @@
         <v>10</v>
       </c>
       <c r="H94" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="18.75">
       <c r="B95" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C95" s="53" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D95" s="52">
         <v>1</v>
@@ -3823,7 +3822,7 @@
         <v>10</v>
       </c>
       <c r="H95" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="18.75">
@@ -3837,10 +3836,10 @@
     </row>
     <row r="97" spans="2:8" ht="18.75">
       <c r="B97" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C97" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="D97" s="4">
         <v>2</v>
@@ -3855,15 +3854,15 @@
         <v>10</v>
       </c>
       <c r="H97" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="98" spans="2:8" ht="18.75">
       <c r="B98" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D98" s="7">
         <v>1</v>
@@ -3881,10 +3880,10 @@
     </row>
     <row r="99" spans="2:8" ht="18.75">
       <c r="B99" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D99" s="7">
         <v>1</v>
@@ -3899,15 +3898,15 @@
         <v>10</v>
       </c>
       <c r="H99" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="100" spans="2:8" ht="18.75">
       <c r="B100" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D100" s="7">
         <v>0.5</v>
@@ -3925,10 +3924,10 @@
     </row>
     <row r="101" spans="2:8" ht="18.75">
       <c r="B101" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D101" s="7">
         <v>1</v>
@@ -3946,10 +3945,10 @@
     </row>
     <row r="102" spans="2:8" ht="18.75">
       <c r="B102" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D102" s="7">
         <v>1</v>
@@ -3976,10 +3975,10 @@
     </row>
     <row r="104" spans="2:8" ht="18.75">
       <c r="B104" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D104" s="8">
         <v>0.5</v>
@@ -3997,10 +3996,10 @@
     </row>
     <row r="105" spans="2:8" ht="18.75">
       <c r="B105" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D105" s="7">
         <v>0.5</v>
@@ -4018,10 +4017,10 @@
     </row>
     <row r="106" spans="2:8" ht="18.75">
       <c r="B106" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D106" s="7">
         <v>1</v>
@@ -4039,10 +4038,10 @@
     </row>
     <row r="107" spans="2:8" ht="18.75">
       <c r="B107" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D107" s="7">
         <v>1</v>
@@ -4057,15 +4056,15 @@
         <v>10</v>
       </c>
       <c r="H107" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="108" spans="2:8" ht="18.75">
       <c r="B108" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D108" s="7">
         <v>0.5</v>
@@ -4223,7 +4222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:M27"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -4246,19 +4245,19 @@
         <v>0</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E2" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="50" t="s">
-        <v>146</v>
-      </c>
       <c r="G2" s="37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I2" s="30" t="s">
         <v>20</v>
@@ -4281,11 +4280,11 @@
       </c>
       <c r="D3" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "プレイヤー", コスト表!G:G, "完了")</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E3" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "プレイヤー", コスト表!G:G, "作業中")</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F3" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "プレイヤー", コスト表!G:G, "未着手")</f>
@@ -4293,14 +4292,14 @@
       </c>
       <c r="G3" s="40">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "プレイヤー", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "プレイヤー") * 100,1)</f>
-        <v>47.8</v>
+        <v>52.1</v>
       </c>
       <c r="I3" s="31" t="s">
         <v>21</v>
       </c>
       <c r="J3" s="29">
         <f>SUMIF(コスト表!G:G,"完了",コスト表!D:D)</f>
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="K3" s="28" t="s">
         <v>22</v>
@@ -4309,7 +4308,7 @@
     </row>
     <row r="4" spans="2:13" ht="19.5">
       <c r="B4" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C4" s="19">
         <f>SUMIF(コスト表!B:B, B4, コスト表!D:D)</f>
@@ -4336,17 +4335,17 @@
       </c>
       <c r="J4" s="29">
         <f ca="1">NETWORKDAYS(J5,J6)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K4" s="29">
         <f ca="1" xml:space="preserve"> ROUNDDOWN(J3 / J4,1)</f>
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="M4" s="28"/>
     </row>
     <row r="5" spans="2:13" ht="19.5">
       <c r="B5" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="19">
         <f>SUMIF(コスト表!B:B, B5, コスト表!D:D)</f>
@@ -4381,7 +4380,7 @@
     </row>
     <row r="6" spans="2:13" ht="19.5">
       <c r="B6" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="19">
         <f>SUMIF(コスト表!B:B, B6, コスト表!D:D)</f>
@@ -4408,7 +4407,7 @@
       </c>
       <c r="J6" s="46">
         <f ca="1">TODAY()</f>
-        <v>45818</v>
+        <v>45819</v>
       </c>
       <c r="K6" s="46"/>
       <c r="L6" s="28"/>
@@ -4416,7 +4415,7 @@
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="19">
         <f>SUMIF(コスト表!B:B, B7, コスト表!D:D)</f>
@@ -4442,7 +4441,7 @@
     </row>
     <row r="8" spans="2:13">
       <c r="B8" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" s="19">
         <f>SUMIF(コスト表!B:B, B8, コスト表!D:D)</f>
@@ -4475,7 +4474,7 @@
     </row>
     <row r="9" spans="2:13" ht="24">
       <c r="B9" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C9" s="19">
         <f>SUMIF(コスト表!B:B, B9, コスト表!D:D)</f>
@@ -4498,7 +4497,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="55" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J9" s="61">
         <f>DATE(2025,7,23)</f>
@@ -4506,16 +4505,16 @@
       </c>
       <c r="K9" s="57">
         <f ca="1">NETWORKDAYS(TODAY(),J9)</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L9" s="59">
         <f ca="1">ROUNDDOWN(($J$2-$J$3)/K9, 1)</f>
-        <v>5</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="19.5">
       <c r="B10" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C10" s="19">
         <f>SUMIF(コスト表!B:B, B10, コスト表!D:D)</f>
@@ -4546,16 +4545,16 @@
       </c>
       <c r="K10" s="58">
         <f ca="1">NETWORKDAYS(TODAY(),J10)</f>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L10" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K10,1)</f>
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="19.5">
       <c r="B11" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="19">
         <f>SUMIF(コスト表!B:B, B11, コスト表!D:D)</f>
@@ -4586,16 +4585,16 @@
       </c>
       <c r="K11" s="58">
         <f ca="1">NETWORKDAYS(TODAY(),J11)</f>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L11" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K11,1)</f>
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="19.5">
       <c r="B12" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="19">
         <f>SUMIF(コスト表!B:B, B12, コスト表!D:D)</f>
@@ -4626,7 +4625,7 @@
       </c>
       <c r="K12" s="58">
         <f ca="1">NETWORKDAYS(TODAY(),J12)</f>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L12" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K12,1)</f>
@@ -4635,7 +4634,7 @@
     </row>
     <row r="13" spans="2:13">
       <c r="B13" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C13" s="19">
         <f>SUMIF(コスト表!B:B, B13, コスト表!D:D)</f>
@@ -4663,7 +4662,7 @@
     </row>
     <row r="14" spans="2:13">
       <c r="B14" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="19">
         <f>SUMIF(コスト表!B:B, B14, コスト表!D:D)</f>
@@ -4689,18 +4688,18 @@
         <v>4</v>
       </c>
       <c r="J14" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="L14" s="42" t="s">
         <v>69</v>
-      </c>
-      <c r="K14" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="L14" s="42" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="15" spans="2:13">
       <c r="B15" s="41" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C15" s="66">
         <f>SUMIF(コスト表!B:B, B15, コスト表!D:D)</f>
@@ -4731,16 +4730,16 @@
       </c>
       <c r="K15" s="43">
         <f>SUMIFS(コスト表!D:D, コスト表!F:F, "プロト", コスト表!G:G, "完了")</f>
-        <v>8.5</v>
+        <v>11.5</v>
       </c>
       <c r="L15" s="43">
         <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "プロト", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "プロト") * 100,1)</f>
-        <v>13.3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="2:13">
       <c r="B16" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -4748,7 +4747,7 @@
       <c r="F16" s="9"/>
       <c r="G16" s="40">
         <f>ROUNDDOWN(COUNTIF(コスト表!G:G, "完了") / COUNTA(コスト表!G:G) * 100,1)</f>
-        <v>12.6</v>
+        <v>13.6</v>
       </c>
       <c r="I16" s="43" t="s">
         <v>12</v>
@@ -4843,7 +4842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE868E3-33E5-43E7-9EF1-2BA63334710F}">
   <dimension ref="B2:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -4899,7 +4898,7 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>18</v>
@@ -4913,27 +4912,27 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="63" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="63" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="63" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="64" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -4943,21 +4942,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006836AD0B55474E4CAD520F1DEB8FB579" ma:contentTypeVersion="3" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="078ba6c1f7b5b638bb57eb024ae572f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="187a6309-4c0c-49e3-bd2d-e8130eb88270" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5f182963113af090d1b42042cf04cb6" ns2:_="">
     <xsd:import namespace="187a6309-4c0c-49e3-bd2d-e8130eb88270"/>
@@ -5095,24 +5079,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A1D85CE-B20E-4841-A55B-779E85453EF9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5128,4 +5110,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ゾンビシューターゲームコスト表.xlsx
+++ b/ゾンビシューターゲームコスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\由留部 瑛人\Documents\MyGame3D2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0FB311-BB3C-40C9-8009-F72FC1F95A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270ACD50-D274-4D29-B7D7-DFEF15FCE4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="3195" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4785" yWindow="2430" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コスト表" sheetId="1" r:id="rId1"/>
@@ -1920,9 +1920,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -2057,7 +2057,7 @@
         <v>153</v>
       </c>
       <c r="D7" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>8</v>
@@ -2249,7 +2249,7 @@
         <v>107</v>
       </c>
       <c r="D16" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>15</v>
@@ -4264,7 +4264,7 @@
       </c>
       <c r="J2" s="29">
         <f>SUM(C:C)</f>
-        <v>173.5</v>
+        <v>176.5</v>
       </c>
       <c r="K2" s="29"/>
       <c r="L2" s="28"/>
@@ -4276,11 +4276,11 @@
       </c>
       <c r="C3" s="19">
         <f>SUMIF(コスト表!B:B, B3, コスト表!D:D)</f>
-        <v>30.5</v>
+        <v>33.5</v>
       </c>
       <c r="D3" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "プレイヤー", コスト表!G:G, "完了")</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E3" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "プレイヤー", コスト表!G:G, "作業中")</f>
@@ -4299,7 +4299,7 @@
       </c>
       <c r="J3" s="29">
         <f>SUMIF(コスト表!G:G,"完了",コスト表!D:D)</f>
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="K3" s="28" t="s">
         <v>22</v>
@@ -4335,11 +4335,11 @@
       </c>
       <c r="J4" s="29">
         <f ca="1">NETWORKDAYS(J5,J6)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K4" s="29">
         <f ca="1" xml:space="preserve"> ROUNDDOWN(J3 / J4,1)</f>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="M4" s="28"/>
     </row>
@@ -4407,7 +4407,7 @@
       </c>
       <c r="J6" s="46">
         <f ca="1">TODAY()</f>
-        <v>45819</v>
+        <v>45820</v>
       </c>
       <c r="K6" s="46"/>
       <c r="L6" s="28"/>
@@ -4505,11 +4505,11 @@
       </c>
       <c r="K9" s="57">
         <f ca="1">NETWORKDAYS(TODAY(),J9)</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L9" s="59">
         <f ca="1">ROUNDDOWN(($J$2-$J$3)/K9, 1)</f>
-        <v>5.0999999999999996</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="19.5">
@@ -4545,11 +4545,11 @@
       </c>
       <c r="K10" s="58">
         <f ca="1">NETWORKDAYS(TODAY(),J10)</f>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L10" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K10,1)</f>
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="19.5">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="K11" s="58">
         <f ca="1">NETWORKDAYS(TODAY(),J11)</f>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L11" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K11,1)</f>
@@ -4625,7 +4625,7 @@
       </c>
       <c r="K12" s="58">
         <f ca="1">NETWORKDAYS(TODAY(),J12)</f>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L12" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K12,1)</f>
@@ -4726,11 +4726,11 @@
       </c>
       <c r="J15" s="43">
         <f>SUMIF(コスト表!F:F, "プロト", コスト表!D:D)</f>
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K15" s="43">
         <f>SUMIFS(コスト表!D:D, コスト表!F:F, "プロト", コスト表!G:G, "完了")</f>
-        <v>11.5</v>
+        <v>14.5</v>
       </c>
       <c r="L15" s="43">
         <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "プロト", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "プロト") * 100,1)</f>
@@ -4942,6 +4942,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006836AD0B55474E4CAD520F1DEB8FB579" ma:contentTypeVersion="3" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="078ba6c1f7b5b638bb57eb024ae572f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="187a6309-4c0c-49e3-bd2d-e8130eb88270" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5f182963113af090d1b42042cf04cb6" ns2:_="">
     <xsd:import namespace="187a6309-4c0c-49e3-bd2d-e8130eb88270"/>
@@ -5079,22 +5094,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A1D85CE-B20E-4841-A55B-779E85453EF9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5110,21 +5127,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ゾンビシューターゲームコスト表.xlsx
+++ b/ゾンビシューターゲームコスト表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\由留部 瑛人\Documents\MyGame3D2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270ACD50-D274-4D29-B7D7-DFEF15FCE4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A377EAF-E799-442A-A116-5CC8B9212C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4785" yWindow="2430" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="156">
   <si>
     <t>分類</t>
   </si>
@@ -955,6 +955,22 @@
     <t>タックル攻撃アニメーション</t>
     <rPh sb="4" eb="6">
       <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>素材がないため仕様変更可能性大</t>
+    <rPh sb="0" eb="2">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>カノウセイダイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1920,9 +1936,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -2151,7 +2167,9 @@
       <c r="G11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="15"/>
+      <c r="H11" s="15" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="12" spans="2:8" ht="18.75">
       <c r="B12" s="1" t="s">
@@ -4942,21 +4960,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006836AD0B55474E4CAD520F1DEB8FB579" ma:contentTypeVersion="3" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="078ba6c1f7b5b638bb57eb024ae572f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="187a6309-4c0c-49e3-bd2d-e8130eb88270" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5f182963113af090d1b42042cf04cb6" ns2:_="">
     <xsd:import namespace="187a6309-4c0c-49e3-bd2d-e8130eb88270"/>
@@ -5094,24 +5097,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A1D85CE-B20E-4841-A55B-779E85453EF9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5127,4 +5128,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ゾンビシューターゲームコスト表.xlsx
+++ b/ゾンビシューターゲームコスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\由留部 瑛人\Documents\MyGame3D2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A377EAF-E799-442A-A116-5CC8B9212C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AFB427-7C9F-49A7-B33D-2A4C176A513D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4785" yWindow="2430" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2445" yWindow="2415" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コスト表" sheetId="1" r:id="rId1"/>
@@ -959,18 +959,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>素材がないため仕様変更可能性大</t>
+    <t>素材がない…</t>
     <rPh sb="0" eb="2">
       <t>ソザイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="11" eb="15">
-      <t>カノウセイダイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1938,7 +1929,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -4353,7 +4344,7 @@
       </c>
       <c r="J4" s="29">
         <f ca="1">NETWORKDAYS(J5,J6)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K4" s="29">
         <f ca="1" xml:space="preserve"> ROUNDDOWN(J3 / J4,1)</f>
@@ -4425,7 +4416,7 @@
       </c>
       <c r="J6" s="46">
         <f ca="1">TODAY()</f>
-        <v>45820</v>
+        <v>45821</v>
       </c>
       <c r="K6" s="46"/>
       <c r="L6" s="28"/>
@@ -4523,11 +4514,11 @@
       </c>
       <c r="K9" s="57">
         <f ca="1">NETWORKDAYS(TODAY(),J9)</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L9" s="59">
         <f ca="1">ROUNDDOWN(($J$2-$J$3)/K9, 1)</f>
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="19.5">
@@ -4563,11 +4554,11 @@
       </c>
       <c r="K10" s="58">
         <f ca="1">NETWORKDAYS(TODAY(),J10)</f>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L10" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K10,1)</f>
-        <v>3.9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="19.5">
@@ -4603,11 +4594,11 @@
       </c>
       <c r="K11" s="58">
         <f ca="1">NETWORKDAYS(TODAY(),J11)</f>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L11" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K11,1)</f>
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="19.5">
@@ -4643,11 +4634,11 @@
       </c>
       <c r="K12" s="58">
         <f ca="1">NETWORKDAYS(TODAY(),J12)</f>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L12" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K12,1)</f>
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="13" spans="2:13">
@@ -4960,6 +4951,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006836AD0B55474E4CAD520F1DEB8FB579" ma:contentTypeVersion="3" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="078ba6c1f7b5b638bb57eb024ae572f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="187a6309-4c0c-49e3-bd2d-e8130eb88270" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5f182963113af090d1b42042cf04cb6" ns2:_="">
     <xsd:import namespace="187a6309-4c0c-49e3-bd2d-e8130eb88270"/>
@@ -5097,22 +5103,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A1D85CE-B20E-4841-A55B-779E85453EF9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5128,21 +5136,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ゾンビシューターゲームコスト表.xlsx
+++ b/ゾンビシューターゲームコスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\由留部 瑛人\Documents\MyGame3D2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AFB427-7C9F-49A7-B33D-2A4C176A513D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C393D84-9772-4164-9BAA-1774B969C760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2445" yWindow="2415" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3735" yWindow="3405" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コスト表" sheetId="1" r:id="rId1"/>
@@ -1927,9 +1927,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -2488,7 +2488,7 @@
         <v>9</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" s="14" t="s">
         <v>84</v>
@@ -4231,8 +4231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:M27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="J3" s="29">
         <f>SUMIF(コスト表!G:G,"完了",コスト表!D:D)</f>
-        <v>16.5</v>
+        <v>21.5</v>
       </c>
       <c r="K3" s="28" t="s">
         <v>22</v>
@@ -4325,11 +4325,11 @@
       </c>
       <c r="D4" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "敵ベース", コスト表!G:G, "完了")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E4" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "敵ベース", コスト表!G:G, "作業中")</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F4" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "敵ベース", コスト表!G:G, "未着手")</f>
@@ -4337,18 +4337,18 @@
       </c>
       <c r="G4" s="40">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "敵ベース", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "敵ベース") * 100,1)</f>
-        <v>0</v>
+        <v>14.2</v>
       </c>
       <c r="I4" s="32" t="s">
         <v>23</v>
       </c>
       <c r="J4" s="29">
         <f ca="1">NETWORKDAYS(J5,J6)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K4" s="29">
         <f ca="1" xml:space="preserve"> ROUNDDOWN(J3 / J4,1)</f>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="M4" s="28"/>
     </row>
@@ -4416,7 +4416,7 @@
       </c>
       <c r="J6" s="46">
         <f ca="1">TODAY()</f>
-        <v>45821</v>
+        <v>45824</v>
       </c>
       <c r="K6" s="46"/>
       <c r="L6" s="28"/>
@@ -4514,7 +4514,7 @@
       </c>
       <c r="K9" s="57">
         <f ca="1">NETWORKDAYS(TODAY(),J9)</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L9" s="59">
         <f ca="1">ROUNDDOWN(($J$2-$J$3)/K9, 1)</f>
@@ -4554,11 +4554,11 @@
       </c>
       <c r="K10" s="58">
         <f ca="1">NETWORKDAYS(TODAY(),J10)</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L10" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K10,1)</f>
-        <v>4</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="19.5">
@@ -4594,7 +4594,7 @@
       </c>
       <c r="K11" s="58">
         <f ca="1">NETWORKDAYS(TODAY(),J11)</f>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L11" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K11,1)</f>
@@ -4634,11 +4634,11 @@
       </c>
       <c r="K12" s="58">
         <f ca="1">NETWORKDAYS(TODAY(),J12)</f>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L12" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K12,1)</f>
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="13" spans="2:13">
@@ -4739,11 +4739,11 @@
       </c>
       <c r="K15" s="43">
         <f>SUMIFS(コスト表!D:D, コスト表!F:F, "プロト", コスト表!G:G, "完了")</f>
-        <v>14.5</v>
+        <v>19.5</v>
       </c>
       <c r="L15" s="43">
         <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "プロト", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "プロト") * 100,1)</f>
-        <v>15</v>
+        <v>16.600000000000001</v>
       </c>
     </row>
     <row r="16" spans="2:13">
@@ -4756,7 +4756,7 @@
       <c r="F16" s="9"/>
       <c r="G16" s="40">
         <f>ROUNDDOWN(COUNTIF(コスト表!G:G, "完了") / COUNTA(コスト表!G:G) * 100,1)</f>
-        <v>13.6</v>
+        <v>14.7</v>
       </c>
       <c r="I16" s="43" t="s">
         <v>12</v>
@@ -4951,21 +4951,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006836AD0B55474E4CAD520F1DEB8FB579" ma:contentTypeVersion="3" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="078ba6c1f7b5b638bb57eb024ae572f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="187a6309-4c0c-49e3-bd2d-e8130eb88270" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5f182963113af090d1b42042cf04cb6" ns2:_="">
     <xsd:import namespace="187a6309-4c0c-49e3-bd2d-e8130eb88270"/>
@@ -5103,24 +5088,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A1D85CE-B20E-4841-A55B-779E85453EF9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5136,4 +5119,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ゾンビシューターゲームコスト表.xlsx
+++ b/ゾンビシューターゲームコスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\由留部 瑛人\Documents\MyGame3D2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C393D84-9772-4164-9BAA-1774B969C760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59DF68E-3D93-40BE-BC57-F2CA969B793E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="3405" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3735" yWindow="3405" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コスト表" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="その他" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">コスト表!$E$2:$G$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">コスト表!$E$2:$G$133</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">分類別コスト集計!$B$2:$G$21</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="158">
   <si>
     <t>分類</t>
   </si>
@@ -963,6 +963,20 @@
     <rPh sb="0" eb="2">
       <t>ソザイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当たり判定</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1925,11 +1939,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I132"/>
+  <dimension ref="B1:I133"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -2141,13 +2155,13 @@
     </row>
     <row r="11" spans="2:8" ht="18.75">
       <c r="B11" s="1" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>79</v>
+        <v>156</v>
       </c>
       <c r="D11" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>8</v>
@@ -2158,19 +2172,17 @@
       <c r="G11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="15" t="s">
-        <v>155</v>
-      </c>
+      <c r="H11" s="15"/>
     </row>
     <row r="12" spans="2:8" ht="18.75">
       <c r="B12" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="D12" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>8</v>
@@ -2179,21 +2191,21 @@
         <v>9</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="18.75">
       <c r="B13" s="1" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="D13" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>8</v>
@@ -2202,19 +2214,21 @@
         <v>9</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="15"/>
+        <v>14</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="14" spans="2:8" ht="18.75">
       <c r="B14" s="1" t="s">
-        <v>103</v>
+        <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="D14" s="7">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>8</v>
@@ -2223,7 +2237,7 @@
         <v>9</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H14" s="15"/>
     </row>
@@ -2232,10 +2246,10 @@
         <v>103</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="D15" s="7">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>8</v>
@@ -2244,48 +2258,48 @@
         <v>9</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>105</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H15" s="15"/>
     </row>
     <row r="16" spans="2:8" ht="18.75">
       <c r="B16" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="D16" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>9</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="15"/>
+        <v>13</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="17" spans="2:8" ht="18.75">
       <c r="B17" s="1" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="D17" s="7">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>14</v>
@@ -2297,7 +2311,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="7">
         <v>0.5</v>
@@ -2318,7 +2332,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="7">
         <v>0.5</v>
@@ -2339,7 +2353,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>154</v>
+        <v>37</v>
       </c>
       <c r="D20" s="7">
         <v>0.5</v>
@@ -2351,7 +2365,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H20" s="15"/>
     </row>
@@ -2360,7 +2374,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="D21" s="7">
         <v>0.5</v>
@@ -2381,7 +2395,7 @@
         <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D22" s="7">
         <v>0.5</v>
@@ -2393,16 +2407,16 @@
         <v>12</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H22" s="15"/>
     </row>
     <row r="23" spans="2:8" ht="18.75">
       <c r="B23" s="1" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="D23" s="7">
         <v>0.5</v>
@@ -2414,22 +2428,22 @@
         <v>12</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H23" s="15"/>
     </row>
     <row r="24" spans="2:8" ht="18.75">
       <c r="B24" s="1" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="D24" s="7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>12</v>
@@ -2437,84 +2451,82 @@
       <c r="G24" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H24" s="49" t="s">
-        <v>110</v>
-      </c>
+      <c r="H24" s="15"/>
     </row>
     <row r="25" spans="2:8" ht="18.75">
       <c r="B25" s="1" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="D25" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="49" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="18.75">
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="2:8" ht="18.75">
-      <c r="B26" s="41"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="6"/>
+      <c r="H26" s="5"/>
     </row>
     <row r="27" spans="2:8" ht="18.75">
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="41"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="2:8" ht="18.75">
+      <c r="B28" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D28" s="8">
         <v>5</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" s="10" t="s">
+      <c r="E28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H27" s="14" t="s">
+      <c r="H28" s="14" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="18.75">
-      <c r="B28" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="7">
-        <v>4</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="18.75">
@@ -2522,10 +2534,10 @@
         <v>142</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D29" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>8</v>
@@ -2537,7 +2549,7 @@
         <v>10</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="18.75">
@@ -2545,10 +2557,10 @@
         <v>142</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D30" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>8</v>
@@ -2557,42 +2569,42 @@
         <v>9</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="H30" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="31" spans="2:8" ht="18.75">
       <c r="B31" s="1" t="s">
         <v>142</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D31" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>93</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="H31" s="15"/>
     </row>
     <row r="32" spans="2:8" ht="18.75">
       <c r="B32" s="1" t="s">
         <v>142</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D32" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>8</v>
@@ -2603,14 +2615,16 @@
       <c r="G32" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H32" s="15"/>
+      <c r="H32" s="15" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="33" spans="2:8" ht="18.75">
       <c r="B33" s="1" t="s">
         <v>142</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="D33" s="7">
         <v>3</v>
@@ -2619,7 +2633,7 @@
         <v>8</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>10</v>
@@ -2627,44 +2641,44 @@
       <c r="H33" s="15"/>
     </row>
     <row r="34" spans="2:8" ht="18.75">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="16"/>
+      <c r="B34" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" s="7">
+        <v>3</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="15"/>
     </row>
     <row r="35" spans="2:8" ht="18.75">
-      <c r="B35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D35" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H35" s="15"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="16"/>
     </row>
     <row r="36" spans="2:8" ht="18.75">
       <c r="B36" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D36" s="7">
-        <v>1</v>
+        <v>98</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1.5</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>8</v>
@@ -2682,16 +2696,16 @@
         <v>40</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D37" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G37" s="11" t="s">
         <v>10</v>
@@ -2703,7 +2717,7 @@
         <v>40</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="D38" s="7">
         <v>2</v>
@@ -2724,19 +2738,19 @@
         <v>40</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D39" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H39" s="15"/>
     </row>
@@ -2745,82 +2759,82 @@
         <v>40</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D40" s="7">
+        <v>3</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="15"/>
+    </row>
+    <row r="41" spans="2:8" ht="18.75">
+      <c r="B41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D41" s="7">
         <v>1</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" s="11" t="s">
+      <c r="E41" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="G40" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H40" s="15"/>
-    </row>
-    <row r="41" spans="2:8" ht="18.75">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
+      <c r="G41" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="H41" s="15"/>
     </row>
     <row r="42" spans="2:8" ht="18.75">
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="15"/>
+    </row>
+    <row r="43" spans="2:8" ht="18.75">
+      <c r="B43" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D43" s="8">
         <v>1</v>
       </c>
-      <c r="E42" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H42" s="45"/>
-    </row>
-    <row r="43" spans="2:8" ht="18.75">
-      <c r="B43" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D43" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H43" s="15"/>
+      <c r="E43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" s="45"/>
     </row>
     <row r="44" spans="2:8" ht="18.75">
       <c r="B44" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D44" s="7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>8</v>
@@ -2838,16 +2852,16 @@
         <v>41</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D45" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G45" s="11" t="s">
         <v>10</v>
@@ -2859,7 +2873,7 @@
         <v>41</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="D46" s="7">
         <v>2</v>
@@ -2880,16 +2894,16 @@
         <v>41</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D47" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G47" s="11" t="s">
         <v>10</v>
@@ -2901,61 +2915,61 @@
         <v>41</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D48" s="7">
+        <v>3</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" s="15"/>
+    </row>
+    <row r="49" spans="2:8" ht="18.75">
+      <c r="B49" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D49" s="7">
         <v>1</v>
       </c>
-      <c r="E48" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H48" s="15"/>
-    </row>
-    <row r="49" spans="2:8" ht="18.75">
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="16"/>
+      <c r="E49" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" s="15"/>
     </row>
     <row r="50" spans="2:8" ht="18.75">
-      <c r="B50" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D50" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H50" s="15"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="16"/>
     </row>
     <row r="51" spans="2:8" ht="18.75">
       <c r="B51" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D51" s="7">
-        <v>1</v>
+        <v>99</v>
+      </c>
+      <c r="D51" s="4">
+        <v>1.5</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>8</v>
@@ -2973,16 +2987,16 @@
         <v>82</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D52" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G52" s="11" t="s">
         <v>10</v>
@@ -2994,7 +3008,7 @@
         <v>82</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="D53" s="7">
         <v>2</v>
@@ -3015,16 +3029,16 @@
         <v>82</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D54" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G54" s="11" t="s">
         <v>10</v>
@@ -3036,82 +3050,82 @@
         <v>82</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D55" s="7">
+        <v>3</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55" s="15"/>
+    </row>
+    <row r="56" spans="2:8" ht="18.75">
+      <c r="B56" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D56" s="7">
         <v>1</v>
       </c>
-      <c r="E55" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G55" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H55" s="15"/>
-    </row>
-    <row r="56" spans="2:8" ht="18.75">
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
+      <c r="E56" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="H56" s="15"/>
     </row>
     <row r="57" spans="2:8" ht="18.75">
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="15"/>
+    </row>
+    <row r="58" spans="2:8" ht="18.75">
+      <c r="B58" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C58" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D58" s="8">
         <v>5</v>
       </c>
-      <c r="E57" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H57" s="14"/>
-    </row>
-    <row r="58" spans="2:8" ht="18.75">
-      <c r="B58" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D58" s="7">
-        <v>4</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G58" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H58" s="15"/>
+      <c r="E58" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H58" s="14"/>
     </row>
     <row r="59" spans="2:8" ht="18.75">
       <c r="B59" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="D59" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>8</v>
@@ -3126,36 +3140,34 @@
     </row>
     <row r="60" spans="2:8" ht="18.75">
       <c r="B60" s="1" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="D60" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G60" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H60" s="15" t="s">
-        <v>43</v>
-      </c>
+      <c r="H60" s="15"/>
     </row>
     <row r="61" spans="2:8" ht="18.75">
       <c r="B61" s="1" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="D61" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>8</v>
@@ -3166,17 +3178,19 @@
       <c r="G61" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H61" s="15"/>
+      <c r="H61" s="15" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="62" spans="2:8" ht="18.75">
       <c r="B62" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="D62" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>8</v>
@@ -3194,16 +3208,16 @@
         <v>71</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D63" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G63" s="11" t="s">
         <v>10</v>
@@ -3215,60 +3229,60 @@
         <v>71</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D64" s="7">
+        <v>3</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H64" s="15"/>
+    </row>
+    <row r="65" spans="2:8" ht="18.75">
+      <c r="B65" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D64" s="7">
+      <c r="D65" s="7">
         <v>1</v>
       </c>
-      <c r="E64" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F64" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H64" s="15"/>
-    </row>
-    <row r="65" spans="2:8" ht="18.75">
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="16"/>
+      <c r="E65" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H65" s="15"/>
     </row>
     <row r="66" spans="2:8" ht="18.75">
-      <c r="B66" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D66" s="4">
-        <v>2</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F66" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G66" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H66" s="15"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="16"/>
     </row>
     <row r="67" spans="2:8" ht="18.75">
       <c r="B67" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D67" s="7">
+        <v>119</v>
+      </c>
+      <c r="D67" s="4">
         <v>2</v>
       </c>
       <c r="E67" s="5" t="s">
@@ -3287,7 +3301,7 @@
         <v>118</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D68" s="7">
         <v>2</v>
@@ -3308,7 +3322,7 @@
         <v>118</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D69" s="7">
         <v>2</v>
@@ -3325,67 +3339,67 @@
       <c r="H69" s="15"/>
     </row>
     <row r="70" spans="2:8" ht="18.75">
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
+      <c r="B70" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D70" s="7">
+        <v>2</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="H70" s="15"/>
     </row>
     <row r="71" spans="2:8" ht="18.75">
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="15"/>
+    </row>
+    <row r="72" spans="2:8" ht="18.75">
+      <c r="B72" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C72" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D71" s="4">
+      <c r="D72" s="4">
         <v>2</v>
       </c>
-      <c r="E71" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F71" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G71" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H71" s="14" t="s">
+      <c r="E72" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H72" s="14" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="72" spans="2:8" ht="18.75">
-      <c r="B72" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D72" s="7">
-        <v>2</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G72" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H72" s="15"/>
     </row>
     <row r="73" spans="2:8" ht="18.75">
       <c r="B73" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="D73" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>8</v>
@@ -3403,7 +3417,7 @@
         <v>127</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="D74" s="7">
         <v>4</v>
@@ -3417,16 +3431,14 @@
       <c r="G74" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H74" s="15" t="s">
-        <v>49</v>
-      </c>
+      <c r="H74" s="15"/>
     </row>
     <row r="75" spans="2:8" ht="18.75">
       <c r="B75" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D75" s="7">
         <v>4</v>
@@ -3441,7 +3453,7 @@
         <v>10</v>
       </c>
       <c r="H75" s="15" t="s">
-        <v>125</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76" spans="2:8" ht="18.75">
@@ -3449,10 +3461,10 @@
         <v>127</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D76" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>8</v>
@@ -3464,7 +3476,7 @@
         <v>10</v>
       </c>
       <c r="H76" s="15" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
     </row>
     <row r="77" spans="2:8" ht="18.75">
@@ -3472,79 +3484,81 @@
         <v>127</v>
       </c>
       <c r="C77" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D77" s="7">
+        <v>6</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H77" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" ht="18.75">
+      <c r="B78" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D77" s="7">
+      <c r="D78" s="7">
         <v>3</v>
       </c>
-      <c r="E77" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F77" s="11" t="s">
+      <c r="E78" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G77" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H77" s="15"/>
-    </row>
-    <row r="78" spans="2:8" ht="18.75">
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
+      <c r="G78" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="H78" s="15"/>
     </row>
     <row r="79" spans="2:8" ht="18.75">
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="15"/>
+    </row>
+    <row r="80" spans="2:8" ht="18.75">
+      <c r="B80" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C80" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D79" s="8">
+      <c r="D80" s="8">
         <v>2</v>
       </c>
-      <c r="E79" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F79" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G79" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H79" s="14"/>
-    </row>
-    <row r="80" spans="2:8" ht="18.75">
-      <c r="B80" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D80" s="7">
-        <v>2</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F80" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G80" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H80" s="15"/>
+      <c r="E80" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G80" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H80" s="14"/>
     </row>
     <row r="81" spans="2:8" ht="18.75">
       <c r="B81" s="1" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D81" s="7">
         <v>2</v>
@@ -3553,7 +3567,7 @@
         <v>8</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G81" s="11" t="s">
         <v>10</v>
@@ -3565,7 +3579,7 @@
         <v>51</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="D82" s="7">
         <v>2</v>
@@ -3586,70 +3600,70 @@
         <v>51</v>
       </c>
       <c r="C83" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D83" s="7">
+        <v>2</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H83" s="15"/>
+    </row>
+    <row r="84" spans="2:8" ht="18.75">
+      <c r="B84" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D83" s="7">
+      <c r="D84" s="7">
         <v>0.5</v>
       </c>
-      <c r="E83" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F83" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G83" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H83" s="15"/>
-    </row>
-    <row r="84" spans="2:8" ht="18.75">
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="12"/>
-      <c r="H84" s="16"/>
+      <c r="E84" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H84" s="15"/>
     </row>
     <row r="85" spans="2:8" ht="18.75">
-      <c r="B85" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D85" s="4">
-        <v>1</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F85" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G85" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H85" s="15"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="16"/>
     </row>
     <row r="86" spans="2:8" ht="18.75">
       <c r="B86" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D86" s="7">
-        <v>0.5</v>
+        <v>56</v>
+      </c>
+      <c r="D86" s="4">
+        <v>1</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H86" s="15"/>
     </row>
@@ -3658,19 +3672,19 @@
         <v>55</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D87" s="7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H87" s="15"/>
     </row>
@@ -3679,7 +3693,7 @@
         <v>55</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="D88" s="7">
         <v>1</v>
@@ -3700,88 +3714,88 @@
         <v>55</v>
       </c>
       <c r="C89" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D89" s="7">
+        <v>1</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F89" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G89" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H89" s="15"/>
+    </row>
+    <row r="90" spans="2:8" ht="18.75">
+      <c r="B90" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D89" s="7">
+      <c r="D90" s="7">
         <v>0.5</v>
       </c>
-      <c r="E89" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F89" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G89" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H89" s="15"/>
-    </row>
-    <row r="90" spans="2:8" ht="18.75">
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11"/>
+      <c r="E90" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G90" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="H90" s="15"/>
     </row>
     <row r="91" spans="2:8" ht="18.75">
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="15"/>
+    </row>
+    <row r="92" spans="2:8" ht="18.75">
+      <c r="B92" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C92" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D91" s="8">
+      <c r="D92" s="8">
         <v>0.5</v>
       </c>
-      <c r="E91" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G91" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H91" s="14"/>
-    </row>
-    <row r="92" spans="2:8" ht="18.75">
-      <c r="B92" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D92" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F92" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G92" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H92" s="15"/>
+      <c r="E92" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G92" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H92" s="14"/>
     </row>
     <row r="93" spans="2:8" ht="18.75">
       <c r="B93" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>137</v>
+        <v>57</v>
       </c>
       <c r="D93" s="7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G93" s="11" t="s">
         <v>10</v>
@@ -3790,16 +3804,16 @@
     </row>
     <row r="94" spans="2:8" ht="18.75">
       <c r="B94" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C94" s="49" t="s">
-        <v>135</v>
+        <v>131</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="D94" s="7">
         <v>1</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F94" s="11" t="s">
         <v>12</v>
@@ -3807,92 +3821,92 @@
       <c r="G94" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H94" s="15" t="s">
-        <v>136</v>
-      </c>
+      <c r="H94" s="15"/>
     </row>
     <row r="95" spans="2:8" ht="18.75">
       <c r="B95" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C95" s="53" t="s">
+      <c r="C95" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="D95" s="7">
+        <v>1</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F95" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G95" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H95" s="15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" ht="18.75">
+      <c r="B96" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C96" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="D95" s="52">
+      <c r="D96" s="52">
         <v>1</v>
       </c>
-      <c r="E95" s="52" t="s">
+      <c r="E96" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="F95" s="52" t="s">
+      <c r="F96" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="G95" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H95" s="15" t="s">
+      <c r="G96" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H96" s="15" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="96" spans="2:8" ht="18.75">
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="11"/>
-      <c r="G96" s="11"/>
-      <c r="H96" s="15"/>
-    </row>
     <row r="97" spans="2:8" ht="18.75">
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="15"/>
+    </row>
+    <row r="98" spans="2:8" ht="18.75">
+      <c r="B98" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C98" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D97" s="4">
+      <c r="D98" s="4">
         <v>2</v>
       </c>
-      <c r="E97" s="4" t="s">
+      <c r="E98" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F97" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G97" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H97" s="14" t="s">
+      <c r="F98" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G98" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H98" s="14" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="98" spans="2:8" ht="18.75">
-      <c r="B98" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D98" s="7">
-        <v>1</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F98" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G98" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H98" s="15"/>
     </row>
     <row r="99" spans="2:8" ht="18.75">
       <c r="B99" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D99" s="7">
         <v>1</v>
@@ -3906,19 +3920,17 @@
       <c r="G99" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H99" s="15" t="s">
-        <v>81</v>
-      </c>
+      <c r="H99" s="15"/>
     </row>
     <row r="100" spans="2:8" ht="18.75">
       <c r="B100" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D100" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>8</v>
@@ -3929,23 +3941,25 @@
       <c r="G100" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H100" s="15"/>
+      <c r="H100" s="15" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="101" spans="2:8" ht="18.75">
       <c r="B101" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D101" s="7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G101" s="11" t="s">
         <v>10</v>
@@ -3957,7 +3971,7 @@
         <v>59</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="D102" s="7">
         <v>1</v>
@@ -3974,52 +3988,52 @@
       <c r="H102" s="15"/>
     </row>
     <row r="103" spans="2:8" ht="18.75">
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="12"/>
-      <c r="G103" s="12"/>
-      <c r="H103" s="16"/>
+      <c r="B103" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D103" s="7">
+        <v>1</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F103" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G103" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H103" s="15"/>
     </row>
     <row r="104" spans="2:8" ht="18.75">
-      <c r="B104" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D104" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F104" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G104" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H104" s="15"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="16"/>
     </row>
     <row r="105" spans="2:8" ht="18.75">
       <c r="B105" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D105" s="7">
+        <v>147</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D105" s="8">
         <v>0.5</v>
       </c>
-      <c r="E105" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F105" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G105" s="11" t="s">
+      <c r="E105" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F105" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G105" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H105" s="15"/>
@@ -4029,16 +4043,16 @@
         <v>146</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D106" s="7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G106" s="11" t="s">
         <v>10</v>
@@ -4050,7 +4064,7 @@
         <v>146</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="D107" s="7">
         <v>1</v>
@@ -4064,44 +4078,60 @@
       <c r="G107" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H107" s="15" t="s">
-        <v>150</v>
-      </c>
+      <c r="H107" s="15"/>
     </row>
     <row r="108" spans="2:8" ht="18.75">
       <c r="B108" s="1" t="s">
         <v>146</v>
       </c>
       <c r="C108" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D108" s="7">
+        <v>1</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F108" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G108" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H108" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" ht="18.75">
+      <c r="B109" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D108" s="7">
+      <c r="D109" s="7">
         <v>0.5</v>
       </c>
-      <c r="E108" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F108" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G108" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H108" s="15"/>
-    </row>
-    <row r="109" spans="2:8" ht="18.75">
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="12"/>
-      <c r="G109" s="12"/>
-      <c r="H109" s="16"/>
+      <c r="E109" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F109" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G109" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H109" s="15"/>
     </row>
     <row r="110" spans="2:8" ht="18.75">
-      <c r="C110"/>
-      <c r="D110" s="7"/>
-      <c r="H110" s="13"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="16"/>
     </row>
     <row r="111" spans="2:8" ht="18.75">
       <c r="C111"/>
@@ -4158,26 +4188,26 @@
       <c r="D121" s="7"/>
       <c r="H121" s="13"/>
     </row>
-    <row r="122" spans="3:8" ht="18.75"/>
+    <row r="122" spans="3:8" ht="18.75">
+      <c r="C122"/>
+      <c r="D122" s="7"/>
+      <c r="H122" s="13"/>
+    </row>
     <row r="123" spans="3:8" ht="18.75"/>
     <row r="124" spans="3:8" ht="18.75"/>
     <row r="125" spans="3:8" ht="18.75"/>
-    <row r="126" spans="3:8" ht="18.75">
-      <c r="C126"/>
-      <c r="D126" s="7"/>
-      <c r="H126" s="13"/>
-    </row>
+    <row r="126" spans="3:8" ht="18.75"/>
     <row r="127" spans="3:8" ht="18.75">
       <c r="C127"/>
       <c r="D127" s="7"/>
       <c r="H127" s="13"/>
     </row>
     <row r="128" spans="3:8" ht="18.75">
+      <c r="C128"/>
+      <c r="D128" s="7"/>
       <c r="H128" s="13"/>
     </row>
     <row r="129" spans="3:8" ht="18.75">
-      <c r="C129"/>
-      <c r="D129" s="7"/>
       <c r="H129" s="13"/>
     </row>
     <row r="130" spans="3:8" ht="18.75">
@@ -4195,8 +4225,13 @@
       <c r="D132" s="7"/>
       <c r="H132" s="13"/>
     </row>
+    <row r="133" spans="3:8" ht="18.75">
+      <c r="C133"/>
+      <c r="D133" s="7"/>
+      <c r="H133" s="13"/>
+    </row>
   </sheetData>
-  <autoFilter ref="E2:G132" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="E2:G133" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
@@ -4207,19 +4242,19 @@
           <x14:formula1>
             <xm:f>その他!$B$3:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>G126:G127 G129:G1048576 G27:G121 G1:G25</xm:sqref>
+          <xm:sqref>G127:G128 G130:G1048576 G28:G122 G1:G26</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{66D8840C-D443-486F-BC72-01200775D285}">
           <x14:formula1>
             <xm:f>その他!$D$3:$D$6</xm:f>
           </x14:formula1>
-          <xm:sqref>F126:F127 F129:F1048576 F27:F121 F1:F25</xm:sqref>
+          <xm:sqref>F127:F128 F130:F1048576 F28:F122 F1:F26</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D61B1C0A-2748-4606-B0EE-00EEC89A23C6}">
           <x14:formula1>
             <xm:f>その他!$F$3:$F$6</xm:f>
           </x14:formula1>
-          <xm:sqref>E126:E127 E129:E1048576 E27:E121 E1:E25</xm:sqref>
+          <xm:sqref>E127:E128 E130:E1048576 E28:E122 E1:E26</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4231,8 +4266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4273,7 +4308,7 @@
       </c>
       <c r="J2" s="29">
         <f>SUM(C:C)</f>
-        <v>176.5</v>
+        <v>181.5</v>
       </c>
       <c r="K2" s="29"/>
       <c r="L2" s="28"/>
@@ -4285,7 +4320,7 @@
       </c>
       <c r="C3" s="19">
         <f>SUMIF(コスト表!B:B, B3, コスト表!D:D)</f>
-        <v>33.5</v>
+        <v>38.5</v>
       </c>
       <c r="D3" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "プレイヤー", コスト表!G:G, "完了")</f>
@@ -4297,11 +4332,11 @@
       </c>
       <c r="F3" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "プレイヤー", コスト表!G:G, "未着手")</f>
-        <v>13.5</v>
+        <v>18.5</v>
       </c>
       <c r="G3" s="40">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "プレイヤー", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "プレイヤー") * 100,1)</f>
-        <v>52.1</v>
+        <v>50</v>
       </c>
       <c r="I3" s="31" t="s">
         <v>21</v>
@@ -4518,7 +4553,7 @@
       </c>
       <c r="L9" s="59">
         <f ca="1">ROUNDDOWN(($J$2-$J$3)/K9, 1)</f>
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="19.5">
@@ -4558,7 +4593,7 @@
       </c>
       <c r="L10" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K10,1)</f>
-        <v>3.9</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="19.5">
@@ -4598,7 +4633,7 @@
       </c>
       <c r="L11" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K11,1)</f>
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="19.5">
@@ -4638,7 +4673,7 @@
       </c>
       <c r="L12" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K12,1)</f>
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="13" spans="2:13">
@@ -4735,7 +4770,7 @@
       </c>
       <c r="J15" s="43">
         <f>SUMIF(コスト表!F:F, "プロト", コスト表!D:D)</f>
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="K15" s="43">
         <f>SUMIFS(コスト表!D:D, コスト表!F:F, "プロト", コスト表!G:G, "完了")</f>
@@ -4743,7 +4778,7 @@
       </c>
       <c r="L15" s="43">
         <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "プロト", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "プロト") * 100,1)</f>
-        <v>16.600000000000001</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="16" spans="2:13">
@@ -4756,7 +4791,7 @@
       <c r="F16" s="9"/>
       <c r="G16" s="40">
         <f>ROUNDDOWN(COUNTIF(コスト表!G:G, "完了") / COUNTA(コスト表!G:G) * 100,1)</f>
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="I16" s="43" t="s">
         <v>12</v>
@@ -4951,6 +4986,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006836AD0B55474E4CAD520F1DEB8FB579" ma:contentTypeVersion="3" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="078ba6c1f7b5b638bb57eb024ae572f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="187a6309-4c0c-49e3-bd2d-e8130eb88270" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5f182963113af090d1b42042cf04cb6" ns2:_="">
     <xsd:import namespace="187a6309-4c0c-49e3-bd2d-e8130eb88270"/>
@@ -5088,22 +5138,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A1D85CE-B20E-4841-A55B-779E85453EF9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5119,21 +5171,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ゾンビシューターゲームコスト表.xlsx
+++ b/ゾンビシューターゲームコスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\由留部 瑛人\Documents\MyGame3D2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59DF68E-3D93-40BE-BC57-F2CA969B793E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DBB3AA-E7F6-498A-A9B9-0AECBA0B3BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="3405" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コスト表" sheetId="1" r:id="rId1"/>
@@ -1942,8 +1942,8 @@
   <dimension ref="B1:I133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -2078,7 +2078,7 @@
         <v>153</v>
       </c>
       <c r="D7" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>8</v>
@@ -2119,7 +2119,7 @@
         <v>64</v>
       </c>
       <c r="D9" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>8</v>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="J2" s="29">
         <f>SUM(C:C)</f>
-        <v>181.5</v>
+        <v>180.5</v>
       </c>
       <c r="K2" s="29"/>
       <c r="L2" s="28"/>
@@ -4320,11 +4320,11 @@
       </c>
       <c r="C3" s="19">
         <f>SUMIF(コスト表!B:B, B3, コスト表!D:D)</f>
-        <v>38.5</v>
+        <v>37.5</v>
       </c>
       <c r="D3" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "プレイヤー", コスト表!G:G, "完了")</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "プレイヤー", コスト表!G:G, "作業中")</f>
@@ -4343,7 +4343,7 @@
       </c>
       <c r="J3" s="29">
         <f>SUMIF(コスト表!G:G,"完了",コスト表!D:D)</f>
-        <v>21.5</v>
+        <v>20.5</v>
       </c>
       <c r="K3" s="28" t="s">
         <v>22</v>
@@ -4379,7 +4379,7 @@
       </c>
       <c r="J4" s="29">
         <f ca="1">NETWORKDAYS(J5,J6)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K4" s="29">
         <f ca="1" xml:space="preserve"> ROUNDDOWN(J3 / J4,1)</f>
@@ -4451,7 +4451,7 @@
       </c>
       <c r="J6" s="46">
         <f ca="1">TODAY()</f>
-        <v>45824</v>
+        <v>45825</v>
       </c>
       <c r="K6" s="46"/>
       <c r="L6" s="28"/>
@@ -4549,11 +4549,11 @@
       </c>
       <c r="K9" s="57">
         <f ca="1">NETWORKDAYS(TODAY(),J9)</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L9" s="59">
         <f ca="1">ROUNDDOWN(($J$2-$J$3)/K9, 1)</f>
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="19.5">
@@ -4589,11 +4589,11 @@
       </c>
       <c r="K10" s="58">
         <f ca="1">NETWORKDAYS(TODAY(),J10)</f>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L10" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K10,1)</f>
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="19.5">
@@ -4629,11 +4629,11 @@
       </c>
       <c r="K11" s="58">
         <f ca="1">NETWORKDAYS(TODAY(),J11)</f>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L11" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K11,1)</f>
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="19.5">
@@ -4669,11 +4669,11 @@
       </c>
       <c r="K12" s="58">
         <f ca="1">NETWORKDAYS(TODAY(),J12)</f>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L12" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K12,1)</f>
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="13" spans="2:13">
@@ -4770,11 +4770,11 @@
       </c>
       <c r="J15" s="43">
         <f>SUMIF(コスト表!F:F, "プロト", コスト表!D:D)</f>
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K15" s="43">
         <f>SUMIFS(コスト表!D:D, コスト表!F:F, "プロト", コスト表!G:G, "完了")</f>
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="L15" s="43">
         <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "プロト", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "プロト") * 100,1)</f>
@@ -4986,21 +4986,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006836AD0B55474E4CAD520F1DEB8FB579" ma:contentTypeVersion="3" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="078ba6c1f7b5b638bb57eb024ae572f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="187a6309-4c0c-49e3-bd2d-e8130eb88270" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5f182963113af090d1b42042cf04cb6" ns2:_="">
     <xsd:import namespace="187a6309-4c0c-49e3-bd2d-e8130eb88270"/>
@@ -5138,24 +5123,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A1D85CE-B20E-4841-A55B-779E85453EF9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5171,4 +5154,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ゾンビシューターゲームコスト表.xlsx
+++ b/ゾンビシューターゲームコスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\由留部 瑛人\Documents\MyGame3D2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DBB3AA-E7F6-498A-A9B9-0AECBA0B3BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C30D05-58AF-4C27-85A5-1907EE29B13E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="3405" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コスト表" sheetId="1" r:id="rId1"/>
@@ -1942,8 +1942,8 @@
   <dimension ref="B1:I133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <pane ySplit="2" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -2107,7 +2107,7 @@
         <v>9</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H8" s="15"/>
     </row>
@@ -2149,7 +2149,7 @@
         <v>9</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H10" s="15"/>
     </row>
@@ -2170,7 +2170,7 @@
         <v>9</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H11" s="15"/>
     </row>
@@ -2687,7 +2687,7 @@
         <v>9</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H36" s="15"/>
     </row>
@@ -2729,7 +2729,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H38" s="15"/>
     </row>
@@ -4266,8 +4266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:M27"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4328,11 +4328,11 @@
       </c>
       <c r="E3" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "プレイヤー", コスト表!G:G, "作業中")</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F3" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "プレイヤー", コスト表!G:G, "未着手")</f>
-        <v>18.5</v>
+        <v>11.5</v>
       </c>
       <c r="G3" s="40">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "プレイヤー", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "プレイヤー") * 100,1)</f>
@@ -4379,7 +4379,7 @@
       </c>
       <c r="J4" s="29">
         <f ca="1">NETWORKDAYS(J5,J6)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K4" s="29">
         <f ca="1" xml:space="preserve"> ROUNDDOWN(J3 / J4,1)</f>
@@ -4401,11 +4401,11 @@
       </c>
       <c r="E5" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "敵1(通常ゾンビ)", コスト表!G:G, "作業中")</f>
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="F5" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "敵1(通常ゾンビ)", コスト表!G:G, "未着手")</f>
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="G5" s="40">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "敵1(通常ゾンビ)", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "敵1(通常ゾンビ)") * 100,1)</f>
@@ -4451,7 +4451,7 @@
       </c>
       <c r="J6" s="46">
         <f ca="1">TODAY()</f>
-        <v>45825</v>
+        <v>45826</v>
       </c>
       <c r="K6" s="46"/>
       <c r="L6" s="28"/>
@@ -4549,11 +4549,11 @@
       </c>
       <c r="K9" s="57">
         <f ca="1">NETWORKDAYS(TODAY(),J9)</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L9" s="59">
         <f ca="1">ROUNDDOWN(($J$2-$J$3)/K9, 1)</f>
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="19.5">
@@ -4589,11 +4589,11 @@
       </c>
       <c r="K10" s="58">
         <f ca="1">NETWORKDAYS(TODAY(),J10)</f>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L10" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K10,1)</f>
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="19.5">
@@ -4629,11 +4629,11 @@
       </c>
       <c r="K11" s="58">
         <f ca="1">NETWORKDAYS(TODAY(),J11)</f>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L11" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K11,1)</f>
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="19.5">
@@ -4669,7 +4669,7 @@
       </c>
       <c r="K12" s="58">
         <f ca="1">NETWORKDAYS(TODAY(),J12)</f>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L12" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K12,1)</f>
@@ -4986,6 +4986,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006836AD0B55474E4CAD520F1DEB8FB579" ma:contentTypeVersion="3" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="078ba6c1f7b5b638bb57eb024ae572f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="187a6309-4c0c-49e3-bd2d-e8130eb88270" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5f182963113af090d1b42042cf04cb6" ns2:_="">
     <xsd:import namespace="187a6309-4c0c-49e3-bd2d-e8130eb88270"/>
@@ -5123,22 +5138,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A1D85CE-B20E-4841-A55B-779E85453EF9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5154,21 +5171,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ゾンビシューターゲームコスト表.xlsx
+++ b/ゾンビシューターゲームコスト表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\由留部 瑛人\Documents\MyGame3D2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C30D05-58AF-4C27-85A5-1907EE29B13E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A80B04-69DF-4632-9C1A-C1D024C1DB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="690" yWindow="3405" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1941,9 +1941,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -2185,7 +2185,7 @@
         <v>4</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>9</v>
@@ -4266,8 +4266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:M27"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G10" sqref="B10:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4379,11 +4379,11 @@
       </c>
       <c r="J4" s="29">
         <f ca="1">NETWORKDAYS(J5,J6)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K4" s="29">
         <f ca="1" xml:space="preserve"> ROUNDDOWN(J3 / J4,1)</f>
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="M4" s="28"/>
     </row>
@@ -4451,7 +4451,7 @@
       </c>
       <c r="J6" s="46">
         <f ca="1">TODAY()</f>
-        <v>45826</v>
+        <v>45827</v>
       </c>
       <c r="K6" s="46"/>
       <c r="L6" s="28"/>
@@ -4549,11 +4549,11 @@
       </c>
       <c r="K9" s="57">
         <f ca="1">NETWORKDAYS(TODAY(),J9)</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L9" s="59">
         <f ca="1">ROUNDDOWN(($J$2-$J$3)/K9, 1)</f>
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="19.5">
@@ -4589,11 +4589,11 @@
       </c>
       <c r="K10" s="58">
         <f ca="1">NETWORKDAYS(TODAY(),J10)</f>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L10" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K10,1)</f>
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="19.5">
@@ -4629,11 +4629,11 @@
       </c>
       <c r="K11" s="58">
         <f ca="1">NETWORKDAYS(TODAY(),J11)</f>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L11" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K11,1)</f>
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="19.5">
@@ -4669,11 +4669,11 @@
       </c>
       <c r="K12" s="58">
         <f ca="1">NETWORKDAYS(TODAY(),J12)</f>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L12" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K12,1)</f>
-        <v>2.9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="2:13">
@@ -4986,21 +4986,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006836AD0B55474E4CAD520F1DEB8FB579" ma:contentTypeVersion="3" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="078ba6c1f7b5b638bb57eb024ae572f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="187a6309-4c0c-49e3-bd2d-e8130eb88270" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5f182963113af090d1b42042cf04cb6" ns2:_="">
     <xsd:import namespace="187a6309-4c0c-49e3-bd2d-e8130eb88270"/>
@@ -5138,24 +5123,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A1D85CE-B20E-4841-A55B-779E85453EF9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5171,4 +5154,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ゾンビシューターゲームコスト表.xlsx
+++ b/ゾンビシューターゲームコスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\由留部 瑛人\Documents\MyGame3D2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A80B04-69DF-4632-9C1A-C1D024C1DB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E49415C-E061-4918-BE33-BA88C3CD1ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="3405" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2955" yWindow="3480" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コスト表" sheetId="1" r:id="rId1"/>
@@ -1941,9 +1941,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G106" sqref="G106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -2107,7 +2107,7 @@
         <v>9</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" s="15"/>
     </row>
@@ -2149,7 +2149,7 @@
         <v>9</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10" s="15"/>
     </row>
@@ -2170,7 +2170,7 @@
         <v>9</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H11" s="15"/>
     </row>
@@ -2687,7 +2687,7 @@
         <v>9</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" s="15"/>
     </row>
@@ -2771,7 +2771,7 @@
         <v>9</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40" s="15"/>
     </row>
@@ -4055,7 +4055,7 @@
         <v>9</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H106" s="15"/>
     </row>
@@ -4266,8 +4266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:M27"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G10" sqref="B10:G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4324,11 +4324,11 @@
       </c>
       <c r="D3" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "プレイヤー", コスト表!G:G, "完了")</f>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E3" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "プレイヤー", コスト表!G:G, "作業中")</f>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F3" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "プレイヤー", コスト表!G:G, "未着手")</f>
@@ -4336,14 +4336,14 @@
       </c>
       <c r="G3" s="40">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "プレイヤー", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "プレイヤー") * 100,1)</f>
-        <v>50</v>
+        <v>62.5</v>
       </c>
       <c r="I3" s="31" t="s">
         <v>21</v>
       </c>
       <c r="J3" s="29">
         <f>SUMIF(コスト表!G:G,"完了",コスト表!D:D)</f>
-        <v>20.5</v>
+        <v>32.5</v>
       </c>
       <c r="K3" s="28" t="s">
         <v>22</v>
@@ -4379,11 +4379,11 @@
       </c>
       <c r="J4" s="29">
         <f ca="1">NETWORKDAYS(J5,J6)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K4" s="29">
         <f ca="1" xml:space="preserve"> ROUNDDOWN(J3 / J4,1)</f>
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="M4" s="28"/>
     </row>
@@ -4397,11 +4397,11 @@
       </c>
       <c r="D5" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "敵1(通常ゾンビ)", コスト表!G:G, "完了")</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E5" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "敵1(通常ゾンビ)", コスト表!G:G, "作業中")</f>
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="F5" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "敵1(通常ゾンビ)", コスト表!G:G, "未着手")</f>
@@ -4409,7 +4409,7 @@
       </c>
       <c r="G5" s="40">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "敵1(通常ゾンビ)", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "敵1(通常ゾンビ)") * 100,1)</f>
-        <v>0</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="I5" s="33" t="s">
         <v>24</v>
@@ -4451,7 +4451,7 @@
       </c>
       <c r="J6" s="46">
         <f ca="1">TODAY()</f>
-        <v>45827</v>
+        <v>45828</v>
       </c>
       <c r="K6" s="46"/>
       <c r="L6" s="28"/>
@@ -4549,11 +4549,11 @@
       </c>
       <c r="K9" s="57">
         <f ca="1">NETWORKDAYS(TODAY(),J9)</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L9" s="59">
         <f ca="1">ROUNDDOWN(($J$2-$J$3)/K9, 1)</f>
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="19.5">
@@ -4589,11 +4589,11 @@
       </c>
       <c r="K10" s="58">
         <f ca="1">NETWORKDAYS(TODAY(),J10)</f>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L10" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K10,1)</f>
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="19.5">
@@ -4629,11 +4629,11 @@
       </c>
       <c r="K11" s="58">
         <f ca="1">NETWORKDAYS(TODAY(),J11)</f>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L11" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K11,1)</f>
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="19.5">
@@ -4669,11 +4669,11 @@
       </c>
       <c r="K12" s="58">
         <f ca="1">NETWORKDAYS(TODAY(),J12)</f>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L12" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K12,1)</f>
-        <v>3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="13" spans="2:13">
@@ -4751,7 +4751,7 @@
       </c>
       <c r="D15" s="66">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "ゲームオーバー", コスト表!G:G, "完了")</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E15" s="66">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "ゲームオーバー", コスト表!G:G, "作業中")</f>
@@ -4759,11 +4759,11 @@
       </c>
       <c r="F15" s="66">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "ゲームオーバー", コスト表!G:G, "未着手")</f>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="G15" s="43">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "ゲームオーバー", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "ゲームオーバー") * 100,1)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I15" s="43" t="s">
         <v>9</v>
@@ -4774,11 +4774,11 @@
       </c>
       <c r="K15" s="43">
         <f>SUMIFS(コスト表!D:D, コスト表!F:F, "プロト", コスト表!G:G, "完了")</f>
-        <v>18.5</v>
+        <v>30.5</v>
       </c>
       <c r="L15" s="43">
         <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "プロト", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "プロト") * 100,1)</f>
-        <v>16.3</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="16" spans="2:13">
@@ -4791,7 +4791,7 @@
       <c r="F16" s="9"/>
       <c r="G16" s="40">
         <f>ROUNDDOWN(COUNTIF(コスト表!G:G, "完了") / COUNTA(コスト表!G:G) * 100,1)</f>
-        <v>14.5</v>
+        <v>20.8</v>
       </c>
       <c r="I16" s="43" t="s">
         <v>12</v>
@@ -4986,6 +4986,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006836AD0B55474E4CAD520F1DEB8FB579" ma:contentTypeVersion="3" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="078ba6c1f7b5b638bb57eb024ae572f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="187a6309-4c0c-49e3-bd2d-e8130eb88270" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5f182963113af090d1b42042cf04cb6" ns2:_="">
     <xsd:import namespace="187a6309-4c0c-49e3-bd2d-e8130eb88270"/>
@@ -5123,22 +5138,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A1D85CE-B20E-4841-A55B-779E85453EF9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5154,21 +5171,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ゾンビシューターゲームコスト表.xlsx
+++ b/ゾンビシューターゲームコスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\由留部 瑛人\Documents\MyGame3D2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E49415C-E061-4918-BE33-BA88C3CD1ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26DF544-9BF3-4826-AFD5-415F7BEEED4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2955" yWindow="3480" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="12465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コスト表" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="157">
   <si>
     <t>分類</t>
   </si>
@@ -506,10 +506,6 @@
   </si>
   <si>
     <t>アイテムドロップ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>未着手</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1942,8 +1938,8 @@
   <dimension ref="B1:I133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G106" sqref="G106"/>
+      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -2030,10 +2026,10 @@
     </row>
     <row r="5" spans="2:8" ht="18.75">
       <c r="B5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D5" s="7">
         <v>1</v>
@@ -2075,7 +2071,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D7" s="7">
         <v>6</v>
@@ -2137,7 +2133,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
@@ -2155,10 +2151,10 @@
     </row>
     <row r="11" spans="2:8" ht="18.75">
       <c r="B11" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D11" s="7">
         <v>5</v>
@@ -2194,7 +2190,7 @@
         <v>10</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="18.75">
@@ -2202,7 +2198,7 @@
         <v>78</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D13" s="7">
         <v>1</v>
@@ -2217,7 +2213,7 @@
         <v>14</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="18.75">
@@ -2237,16 +2233,16 @@
         <v>9</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H14" s="15"/>
     </row>
     <row r="15" spans="2:8" ht="18.75">
       <c r="B15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="D15" s="7">
         <v>0.5</v>
@@ -2264,7 +2260,7 @@
     </row>
     <row r="16" spans="2:8" ht="18.75">
       <c r="B16" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>60</v>
@@ -2282,15 +2278,15 @@
         <v>13</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="18.75">
       <c r="B17" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D17" s="7">
         <v>3</v>
@@ -2374,7 +2370,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D21" s="7">
         <v>0.5</v>
@@ -2455,10 +2451,10 @@
     </row>
     <row r="25" spans="2:8" ht="18.75">
       <c r="B25" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D25" s="7">
         <v>1</v>
@@ -2473,7 +2469,7 @@
         <v>10</v>
       </c>
       <c r="H25" s="49" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="18.75">
@@ -2508,7 +2504,7 @@
     </row>
     <row r="28" spans="2:8" ht="18.75">
       <c r="B28" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>83</v>
@@ -2531,7 +2527,7 @@
     </row>
     <row r="29" spans="2:8" ht="18.75">
       <c r="B29" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>85</v>
@@ -2554,7 +2550,7 @@
     </row>
     <row r="30" spans="2:8" ht="18.75">
       <c r="B30" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>87</v>
@@ -2577,7 +2573,7 @@
     </row>
     <row r="31" spans="2:8" ht="18.75">
       <c r="B31" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>90</v>
@@ -2592,16 +2588,16 @@
         <v>9</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="H31" s="15"/>
     </row>
     <row r="32" spans="2:8" ht="18.75">
       <c r="B32" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D32" s="7">
         <v>4</v>
@@ -2616,15 +2612,15 @@
         <v>10</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="18.75">
       <c r="B33" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D33" s="7">
         <v>3</v>
@@ -2642,10 +2638,10 @@
     </row>
     <row r="34" spans="2:8" ht="18.75">
       <c r="B34" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D34" s="7">
         <v>3</v>
@@ -2675,7 +2671,7 @@
         <v>40</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D36" s="4">
         <v>1.5</v>
@@ -2696,7 +2692,7 @@
         <v>40</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D37" s="7">
         <v>1</v>
@@ -2717,7 +2713,7 @@
         <v>40</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D38" s="7">
         <v>2</v>
@@ -2738,7 +2734,7 @@
         <v>40</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D39" s="7">
         <v>2</v>
@@ -2759,7 +2755,7 @@
         <v>40</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D40" s="7">
         <v>3</v>
@@ -2780,7 +2776,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D41" s="7">
         <v>1</v>
@@ -2789,7 +2785,7 @@
         <v>8</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G41" s="11" t="s">
         <v>10</v>
@@ -2810,7 +2806,7 @@
         <v>41</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D43" s="8">
         <v>1</v>
@@ -2831,7 +2827,7 @@
         <v>41</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D44" s="7">
         <v>1.5</v>
@@ -2852,7 +2848,7 @@
         <v>41</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D45" s="7">
         <v>1</v>
@@ -2873,7 +2869,7 @@
         <v>41</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D46" s="7">
         <v>2</v>
@@ -2894,7 +2890,7 @@
         <v>41</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D47" s="7">
         <v>2</v>
@@ -2915,7 +2911,7 @@
         <v>41</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D48" s="7">
         <v>3</v>
@@ -2936,7 +2932,7 @@
         <v>41</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D49" s="7">
         <v>1</v>
@@ -2966,7 +2962,7 @@
         <v>82</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D51" s="4">
         <v>1.5</v>
@@ -2987,7 +2983,7 @@
         <v>82</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D52" s="7">
         <v>1</v>
@@ -3008,7 +3004,7 @@
         <v>82</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D53" s="7">
         <v>2</v>
@@ -3029,7 +3025,7 @@
         <v>82</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D54" s="7">
         <v>2</v>
@@ -3050,7 +3046,7 @@
         <v>82</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D55" s="7">
         <v>3</v>
@@ -3071,7 +3067,7 @@
         <v>82</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D56" s="7">
         <v>1</v>
@@ -3101,7 +3097,7 @@
         <v>71</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D58" s="8">
         <v>5</v>
@@ -3122,7 +3118,7 @@
         <v>71</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D59" s="7">
         <v>4</v>
@@ -3143,7 +3139,7 @@
         <v>71</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D60" s="7">
         <v>1</v>
@@ -3164,7 +3160,7 @@
         <v>89</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D61" s="7">
         <v>5</v>
@@ -3187,7 +3183,7 @@
         <v>71</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D62" s="7">
         <v>3</v>
@@ -3208,7 +3204,7 @@
         <v>71</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D63" s="7">
         <v>2</v>
@@ -3229,7 +3225,7 @@
         <v>71</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D64" s="7">
         <v>3</v>
@@ -3250,7 +3246,7 @@
         <v>71</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D65" s="7">
         <v>1</v>
@@ -3277,10 +3273,10 @@
     </row>
     <row r="67" spans="2:8" ht="18.75">
       <c r="B67" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="D67" s="4">
         <v>2</v>
@@ -3298,10 +3294,10 @@
     </row>
     <row r="68" spans="2:8" ht="18.75">
       <c r="B68" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D68" s="7">
         <v>2</v>
@@ -3319,10 +3315,10 @@
     </row>
     <row r="69" spans="2:8" ht="18.75">
       <c r="B69" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D69" s="7">
         <v>2</v>
@@ -3340,10 +3336,10 @@
     </row>
     <row r="70" spans="2:8" ht="18.75">
       <c r="B70" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D70" s="7">
         <v>2</v>
@@ -3370,7 +3366,7 @@
     </row>
     <row r="72" spans="2:8" ht="18.75">
       <c r="B72" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>45</v>
@@ -3393,7 +3389,7 @@
     </row>
     <row r="73" spans="2:8" ht="18.75">
       <c r="B73" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>47</v>
@@ -3414,10 +3410,10 @@
     </row>
     <row r="74" spans="2:8" ht="18.75">
       <c r="B74" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D74" s="7">
         <v>4</v>
@@ -3435,7 +3431,7 @@
     </row>
     <row r="75" spans="2:8" ht="18.75">
       <c r="B75" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>48</v>
@@ -3458,7 +3454,7 @@
     </row>
     <row r="76" spans="2:8" ht="18.75">
       <c r="B76" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>50</v>
@@ -3476,15 +3472,15 @@
         <v>10</v>
       </c>
       <c r="H76" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="77" spans="2:8" ht="18.75">
       <c r="B77" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D77" s="7">
         <v>6</v>
@@ -3499,15 +3495,15 @@
         <v>10</v>
       </c>
       <c r="H77" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78" spans="2:8" ht="18.75">
       <c r="B78" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D78" s="7">
         <v>3</v>
@@ -3621,7 +3617,7 @@
         <v>51</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D84" s="7">
         <v>0.5</v>
@@ -3714,7 +3710,7 @@
         <v>55</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D89" s="7">
         <v>1</v>
@@ -3735,7 +3731,7 @@
         <v>55</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D90" s="7">
         <v>0.5</v>
@@ -3762,10 +3758,10 @@
     </row>
     <row r="92" spans="2:8" ht="18.75">
       <c r="B92" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="D92" s="8">
         <v>0.5</v>
@@ -3783,7 +3779,7 @@
     </row>
     <row r="93" spans="2:8" ht="18.75">
       <c r="B93" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>57</v>
@@ -3804,10 +3800,10 @@
     </row>
     <row r="94" spans="2:8" ht="18.75">
       <c r="B94" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D94" s="7">
         <v>1</v>
@@ -3825,10 +3821,10 @@
     </row>
     <row r="95" spans="2:8" ht="18.75">
       <c r="B95" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C95" s="49" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D95" s="7">
         <v>1</v>
@@ -3843,15 +3839,15 @@
         <v>10</v>
       </c>
       <c r="H95" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="18.75">
       <c r="B96" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C96" s="53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D96" s="52">
         <v>1</v>
@@ -3866,7 +3862,7 @@
         <v>10</v>
       </c>
       <c r="H96" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="97" spans="2:8" ht="18.75">
@@ -3992,7 +3988,7 @@
         <v>59</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D103" s="7">
         <v>1</v>
@@ -4019,10 +4015,10 @@
     </row>
     <row r="105" spans="2:8" ht="18.75">
       <c r="B105" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D105" s="8">
         <v>0.5</v>
@@ -4040,7 +4036,7 @@
     </row>
     <row r="106" spans="2:8" ht="18.75">
       <c r="B106" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>57</v>
@@ -4061,7 +4057,7 @@
     </row>
     <row r="107" spans="2:8" ht="18.75">
       <c r="B107" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>58</v>
@@ -4082,10 +4078,10 @@
     </row>
     <row r="108" spans="2:8" ht="18.75">
       <c r="B108" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D108" s="7">
         <v>1</v>
@@ -4100,15 +4096,15 @@
         <v>10</v>
       </c>
       <c r="H108" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="109" spans="2:8" ht="18.75">
       <c r="B109" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D109" s="7">
         <v>0.5</v>
@@ -4289,16 +4285,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E2" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" s="50" t="s">
         <v>144</v>
-      </c>
-      <c r="F2" s="50" t="s">
-        <v>145</v>
       </c>
       <c r="G2" s="37" t="s">
         <v>66</v>
@@ -4328,11 +4324,11 @@
       </c>
       <c r="E3" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "プレイヤー", コスト表!G:G, "作業中")</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F3" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "プレイヤー", コスト表!G:G, "未着手")</f>
-        <v>11.5</v>
+        <v>7.5</v>
       </c>
       <c r="G3" s="40">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "プレイヤー", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "プレイヤー") * 100,1)</f>
@@ -4352,7 +4348,7 @@
     </row>
     <row r="4" spans="2:13" ht="19.5">
       <c r="B4" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C4" s="19">
         <f>SUMIF(コスト表!B:B, B4, コスト表!D:D)</f>
@@ -4364,11 +4360,11 @@
       </c>
       <c r="E4" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "敵ベース", コスト表!G:G, "作業中")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "敵ベース", コスト表!G:G, "未着手")</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G4" s="40">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "敵ベース", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "敵ベース") * 100,1)</f>
@@ -4379,11 +4375,11 @@
       </c>
       <c r="J4" s="29">
         <f ca="1">NETWORKDAYS(J5,J6)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K4" s="29">
         <f ca="1" xml:space="preserve"> ROUNDDOWN(J3 / J4,1)</f>
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="M4" s="28"/>
     </row>
@@ -4451,7 +4447,7 @@
       </c>
       <c r="J6" s="46">
         <f ca="1">TODAY()</f>
-        <v>45828</v>
+        <v>45831</v>
       </c>
       <c r="K6" s="46"/>
       <c r="L6" s="28"/>
@@ -4518,7 +4514,7 @@
     </row>
     <row r="9" spans="2:13" ht="24">
       <c r="B9" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C9" s="19">
         <f>SUMIF(コスト表!B:B, B9, コスト表!D:D)</f>
@@ -4549,16 +4545,16 @@
       </c>
       <c r="K9" s="57">
         <f ca="1">NETWORKDAYS(TODAY(),J9)</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L9" s="59">
         <f ca="1">ROUNDDOWN(($J$2-$J$3)/K9, 1)</f>
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="19.5">
       <c r="B10" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C10" s="19">
         <f>SUMIF(コスト表!B:B, B10, コスト表!D:D)</f>
@@ -4589,11 +4585,11 @@
       </c>
       <c r="K10" s="58">
         <f ca="1">NETWORKDAYS(TODAY(),J10)</f>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L10" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K10,1)</f>
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="19.5">
@@ -4629,7 +4625,7 @@
       </c>
       <c r="K11" s="58">
         <f ca="1">NETWORKDAYS(TODAY(),J11)</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K11,1)</f>
@@ -4669,16 +4665,16 @@
       </c>
       <c r="K12" s="58">
         <f ca="1">NETWORKDAYS(TODAY(),J12)</f>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L12" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K12,1)</f>
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="13" spans="2:13">
       <c r="B13" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C13" s="19">
         <f>SUMIF(コスト表!B:B, B13, コスト表!D:D)</f>
@@ -4735,7 +4731,7 @@
         <v>68</v>
       </c>
       <c r="K14" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L14" s="42" t="s">
         <v>69</v>
@@ -4743,7 +4739,7 @@
     </row>
     <row r="15" spans="2:13">
       <c r="B15" s="41" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C15" s="66">
         <f>SUMIF(コスト表!B:B, B15, コスト表!D:D)</f>
@@ -4956,27 +4952,27 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="63" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="63" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="63" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="64" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4986,21 +4982,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006836AD0B55474E4CAD520F1DEB8FB579" ma:contentTypeVersion="3" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="078ba6c1f7b5b638bb57eb024ae572f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="187a6309-4c0c-49e3-bd2d-e8130eb88270" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5f182963113af090d1b42042cf04cb6" ns2:_="">
     <xsd:import namespace="187a6309-4c0c-49e3-bd2d-e8130eb88270"/>
@@ -5138,24 +5119,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A1D85CE-B20E-4841-A55B-779E85453EF9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5171,4 +5150,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ゾンビシューターゲームコスト表.xlsx
+++ b/ゾンビシューターゲームコスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\由留部 瑛人\Documents\MyGame3D2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26DF544-9BF3-4826-AFD5-415F7BEEED4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793E5CAF-F283-40F7-A88C-8341064E7AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="12465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="390" yWindow="390" windowWidth="21600" windowHeight="12465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コスト表" sheetId="1" r:id="rId1"/>
@@ -1938,8 +1938,8 @@
   <dimension ref="B1:I133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -2233,7 +2233,7 @@
         <v>9</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H14" s="15"/>
     </row>
@@ -4262,7 +4262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:M27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -4320,11 +4320,11 @@
       </c>
       <c r="D3" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "プレイヤー", コスト表!G:G, "完了")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E3" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "プレイヤー", コスト表!G:G, "作業中")</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F3" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "プレイヤー", コスト表!G:G, "未着手")</f>
@@ -4332,14 +4332,14 @@
       </c>
       <c r="G3" s="40">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "プレイヤー", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "プレイヤー") * 100,1)</f>
-        <v>62.5</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="I3" s="31" t="s">
         <v>21</v>
       </c>
       <c r="J3" s="29">
         <f>SUMIF(コスト表!G:G,"完了",コスト表!D:D)</f>
-        <v>32.5</v>
+        <v>36.5</v>
       </c>
       <c r="K3" s="28" t="s">
         <v>22</v>
@@ -4379,7 +4379,7 @@
       </c>
       <c r="K4" s="29">
         <f ca="1" xml:space="preserve"> ROUNDDOWN(J3 / J4,1)</f>
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="M4" s="28"/>
     </row>
@@ -4549,7 +4549,7 @@
       </c>
       <c r="L9" s="59">
         <f ca="1">ROUNDDOWN(($J$2-$J$3)/K9, 1)</f>
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="19.5">
@@ -4589,7 +4589,7 @@
       </c>
       <c r="L10" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K10,1)</f>
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="19.5">
@@ -4629,7 +4629,7 @@
       </c>
       <c r="L11" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K11,1)</f>
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="19.5">
@@ -4669,7 +4669,7 @@
       </c>
       <c r="L12" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K12,1)</f>
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="13" spans="2:13">
@@ -4770,11 +4770,11 @@
       </c>
       <c r="K15" s="43">
         <f>SUMIFS(コスト表!D:D, コスト表!F:F, "プロト", コスト表!G:G, "完了")</f>
-        <v>30.5</v>
+        <v>34.5</v>
       </c>
       <c r="L15" s="43">
         <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "プロト", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "プロト") * 100,1)</f>
-        <v>26.2</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="16" spans="2:13">
@@ -4787,7 +4787,7 @@
       <c r="F16" s="9"/>
       <c r="G16" s="40">
         <f>ROUNDDOWN(COUNTIF(コスト表!G:G, "完了") / COUNTA(コスト表!G:G) * 100,1)</f>
-        <v>20.8</v>
+        <v>21.8</v>
       </c>
       <c r="I16" s="43" t="s">
         <v>12</v>
@@ -4982,6 +4982,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006836AD0B55474E4CAD520F1DEB8FB579" ma:contentTypeVersion="3" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="078ba6c1f7b5b638bb57eb024ae572f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="187a6309-4c0c-49e3-bd2d-e8130eb88270" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5f182963113af090d1b42042cf04cb6" ns2:_="">
     <xsd:import namespace="187a6309-4c0c-49e3-bd2d-e8130eb88270"/>
@@ -5119,22 +5134,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A1D85CE-B20E-4841-A55B-779E85453EF9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5150,21 +5167,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ゾンビシューターゲームコスト表.xlsx
+++ b/ゾンビシューターゲームコスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\由留部 瑛人\Documents\MyGame3D2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793E5CAF-F283-40F7-A88C-8341064E7AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFAE50F-6E94-4C5D-BEBF-CC750827C4FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="390" yWindow="390" windowWidth="21600" windowHeight="12465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コスト表" sheetId="1" r:id="rId1"/>
@@ -1937,9 +1937,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -3566,7 +3566,7 @@
         <v>9</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H81" s="15"/>
     </row>
@@ -4262,7 +4262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:M27"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D9" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -4339,7 +4339,7 @@
       </c>
       <c r="J3" s="29">
         <f>SUMIF(コスト表!G:G,"完了",コスト表!D:D)</f>
-        <v>36.5</v>
+        <v>38.5</v>
       </c>
       <c r="K3" s="28" t="s">
         <v>22</v>
@@ -4375,7 +4375,7 @@
       </c>
       <c r="J4" s="29">
         <f ca="1">NETWORKDAYS(J5,J6)</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K4" s="29">
         <f ca="1" xml:space="preserve"> ROUNDDOWN(J3 / J4,1)</f>
@@ -4447,7 +4447,7 @@
       </c>
       <c r="J6" s="46">
         <f ca="1">TODAY()</f>
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="K6" s="46"/>
       <c r="L6" s="28"/>
@@ -4545,11 +4545,11 @@
       </c>
       <c r="K9" s="57">
         <f ca="1">NETWORKDAYS(TODAY(),J9)</f>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L9" s="59">
         <f ca="1">ROUNDDOWN(($J$2-$J$3)/K9, 1)</f>
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="19.5">
@@ -4585,11 +4585,11 @@
       </c>
       <c r="K10" s="58">
         <f ca="1">NETWORKDAYS(TODAY(),J10)</f>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L10" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K10,1)</f>
-        <v>4.2</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="19.5">
@@ -4602,7 +4602,7 @@
       </c>
       <c r="D11" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "アイテム", コスト表!G:G, "完了")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "アイテム", コスト表!G:G, "作業中")</f>
@@ -4610,11 +4610,11 @@
       </c>
       <c r="F11" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "アイテム", コスト表!G:G, "未着手")</f>
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="G11" s="40">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "アイテム", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "アイテム") * 100,1)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I11" s="31" t="s">
         <v>29</v>
@@ -4625,11 +4625,11 @@
       </c>
       <c r="K11" s="58">
         <f ca="1">NETWORKDAYS(TODAY(),J11)</f>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L11" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K11,1)</f>
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="19.5">
@@ -4665,7 +4665,7 @@
       </c>
       <c r="K12" s="58">
         <f ca="1">NETWORKDAYS(TODAY(),J12)</f>
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L12" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K12,1)</f>
@@ -4770,11 +4770,11 @@
       </c>
       <c r="K15" s="43">
         <f>SUMIFS(コスト表!D:D, コスト表!F:F, "プロト", コスト表!G:G, "完了")</f>
-        <v>34.5</v>
+        <v>36.5</v>
       </c>
       <c r="L15" s="43">
         <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "プロト", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "プロト") * 100,1)</f>
-        <v>27.8</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="16" spans="2:13">
@@ -4787,7 +4787,7 @@
       <c r="F16" s="9"/>
       <c r="G16" s="40">
         <f>ROUNDDOWN(COUNTIF(コスト表!G:G, "完了") / COUNTA(コスト表!G:G) * 100,1)</f>
-        <v>21.8</v>
+        <v>22.9</v>
       </c>
       <c r="I16" s="43" t="s">
         <v>12</v>
@@ -4982,21 +4982,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006836AD0B55474E4CAD520F1DEB8FB579" ma:contentTypeVersion="3" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="078ba6c1f7b5b638bb57eb024ae572f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="187a6309-4c0c-49e3-bd2d-e8130eb88270" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5f182963113af090d1b42042cf04cb6" ns2:_="">
     <xsd:import namespace="187a6309-4c0c-49e3-bd2d-e8130eb88270"/>
@@ -5134,24 +5119,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A1D85CE-B20E-4841-A55B-779E85453EF9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5167,4 +5150,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ゾンビシューターゲームコスト表.xlsx
+++ b/ゾンビシューターゲームコスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\由留部 瑛人\Documents\MyGame3D2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFAE50F-6E94-4C5D-BEBF-CC750827C4FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D4742B-EC69-40C3-BAE9-D0BEBBCD23D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1590" yWindow="1905" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コスト表" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="その他" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">コスト表!$E$2:$G$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">コスト表!$E$2:$G$132</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">分類別コスト集計!$B$2:$G$21</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="157">
   <si>
     <t>分類</t>
   </si>
@@ -465,25 +465,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>待機、移動、攻撃、死亡などの状態管理</t>
-    <rPh sb="0" eb="2">
-      <t>タイキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シボウ</t>
-    </rPh>
-    <rPh sb="14" eb="18">
-      <t>ジョウタイカンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ナビゲーション・移動処理</t>
     <rPh sb="8" eb="12">
       <t>イドウショリ</t>
@@ -973,6 +954,22 @@
   </si>
   <si>
     <t>プレイヤー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動、攻撃、死亡などの状態管理</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ジョウタイカンリ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1935,11 +1932,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I133"/>
+  <dimension ref="B1:I132"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -2026,10 +2023,10 @@
     </row>
     <row r="5" spans="2:8" ht="18.75">
       <c r="B5" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D5" s="7">
         <v>1</v>
@@ -2071,7 +2068,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D7" s="7">
         <v>6</v>
@@ -2133,7 +2130,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
@@ -2151,10 +2148,10 @@
     </row>
     <row r="11" spans="2:8" ht="18.75">
       <c r="B11" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D11" s="7">
         <v>5</v>
@@ -2190,7 +2187,7 @@
         <v>10</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="18.75">
@@ -2198,7 +2195,7 @@
         <v>78</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D13" s="7">
         <v>1</v>
@@ -2213,7 +2210,7 @@
         <v>14</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="18.75">
@@ -2239,10 +2236,10 @@
     </row>
     <row r="15" spans="2:8" ht="18.75">
       <c r="B15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="D15" s="7">
         <v>0.5</v>
@@ -2260,7 +2257,7 @@
     </row>
     <row r="16" spans="2:8" ht="18.75">
       <c r="B16" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>60</v>
@@ -2278,15 +2275,15 @@
         <v>13</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="18.75">
       <c r="B17" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D17" s="7">
         <v>3</v>
@@ -2370,7 +2367,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D21" s="7">
         <v>0.5</v>
@@ -2451,10 +2448,10 @@
     </row>
     <row r="25" spans="2:8" ht="18.75">
       <c r="B25" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D25" s="7">
         <v>1</v>
@@ -2469,7 +2466,7 @@
         <v>10</v>
       </c>
       <c r="H25" s="49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="18.75">
@@ -2504,7 +2501,7 @@
     </row>
     <row r="28" spans="2:8" ht="18.75">
       <c r="B28" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>83</v>
@@ -2527,7 +2524,7 @@
     </row>
     <row r="29" spans="2:8" ht="18.75">
       <c r="B29" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>85</v>
@@ -2542,18 +2539,18 @@
         <v>9</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="18.75">
       <c r="B30" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D30" s="7">
         <v>6</v>
@@ -2565,18 +2562,18 @@
         <v>9</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="18.75">
       <c r="B31" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D31" s="7">
         <v>2</v>
@@ -2588,16 +2585,16 @@
         <v>9</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" s="15"/>
     </row>
     <row r="32" spans="2:8" ht="18.75">
       <c r="B32" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D32" s="7">
         <v>4</v>
@@ -2609,18 +2606,18 @@
         <v>12</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="18.75">
       <c r="B33" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D33" s="7">
         <v>3</v>
@@ -2638,10 +2635,10 @@
     </row>
     <row r="34" spans="2:8" ht="18.75">
       <c r="B34" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D34" s="7">
         <v>3</v>
@@ -2671,7 +2668,7 @@
         <v>40</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D36" s="4">
         <v>1.5</v>
@@ -2692,7 +2689,7 @@
         <v>40</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D37" s="7">
         <v>1</v>
@@ -2704,7 +2701,7 @@
         <v>9</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H37" s="15"/>
     </row>
@@ -2713,7 +2710,7 @@
         <v>40</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D38" s="7">
         <v>2</v>
@@ -2725,7 +2722,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" s="15"/>
     </row>
@@ -2734,7 +2731,7 @@
         <v>40</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" s="7">
         <v>2</v>
@@ -2755,7 +2752,7 @@
         <v>40</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D40" s="7">
         <v>3</v>
@@ -2776,7 +2773,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D41" s="7">
         <v>1</v>
@@ -2785,7 +2782,7 @@
         <v>8</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G41" s="11" t="s">
         <v>10</v>
@@ -2806,7 +2803,7 @@
         <v>41</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D43" s="8">
         <v>1</v>
@@ -2818,7 +2815,7 @@
         <v>9</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H43" s="45"/>
     </row>
@@ -2827,7 +2824,7 @@
         <v>41</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D44" s="7">
         <v>1.5</v>
@@ -2839,7 +2836,7 @@
         <v>9</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H44" s="15"/>
     </row>
@@ -2848,19 +2845,19 @@
         <v>41</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D45" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H45" s="15"/>
     </row>
@@ -2869,7 +2866,7 @@
         <v>41</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="D46" s="7">
         <v>2</v>
@@ -2890,19 +2887,19 @@
         <v>41</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D47" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H47" s="15"/>
     </row>
@@ -2911,10 +2908,10 @@
         <v>41</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="D48" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>8</v>
@@ -2928,44 +2925,44 @@
       <c r="H48" s="15"/>
     </row>
     <row r="49" spans="2:8" ht="18.75">
-      <c r="B49" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D49" s="7">
-        <v>1</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H49" s="15"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="16"/>
     </row>
     <row r="50" spans="2:8" ht="18.75">
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="16"/>
+      <c r="B50" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" s="15"/>
     </row>
     <row r="51" spans="2:8" ht="18.75">
       <c r="B51" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D51" s="4">
-        <v>1.5</v>
+        <v>94</v>
+      </c>
+      <c r="D51" s="7">
+        <v>1</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>8</v>
@@ -2974,7 +2971,7 @@
         <v>9</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H51" s="15"/>
     </row>
@@ -2983,19 +2980,19 @@
         <v>82</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D52" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H52" s="15"/>
     </row>
@@ -3004,7 +3001,7 @@
         <v>82</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="D53" s="7">
         <v>2</v>
@@ -3025,19 +3022,19 @@
         <v>82</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D54" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H54" s="15"/>
     </row>
@@ -3046,10 +3043,10 @@
         <v>82</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="D55" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>8</v>
@@ -3063,65 +3060,65 @@
       <c r="H55" s="15"/>
     </row>
     <row r="56" spans="2:8" ht="18.75">
-      <c r="B56" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D56" s="7">
-        <v>1</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G56" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
       <c r="H56" s="15"/>
     </row>
     <row r="57" spans="2:8" ht="18.75">
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="15"/>
+      <c r="B57" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D57" s="8">
+        <v>5</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57" s="14"/>
     </row>
     <row r="58" spans="2:8" ht="18.75">
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D58" s="8">
-        <v>5</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G58" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H58" s="14"/>
+      <c r="D58" s="7">
+        <v>4</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H58" s="15"/>
     </row>
     <row r="59" spans="2:8" ht="18.75">
       <c r="B59" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="D59" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>8</v>
@@ -3136,34 +3133,36 @@
     </row>
     <row r="60" spans="2:8" ht="18.75">
       <c r="B60" s="1" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="D60" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G60" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H60" s="15"/>
+      <c r="H60" s="15" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="61" spans="2:8" ht="18.75">
       <c r="B61" s="1" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="D61" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>8</v>
@@ -3174,19 +3173,17 @@
       <c r="G61" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H61" s="15" t="s">
-        <v>43</v>
-      </c>
+      <c r="H61" s="15"/>
     </row>
     <row r="62" spans="2:8" ht="18.75">
       <c r="B62" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="D62" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>8</v>
@@ -3204,16 +3201,16 @@
         <v>71</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D63" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G63" s="11" t="s">
         <v>10</v>
@@ -3225,10 +3222,10 @@
         <v>71</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="D64" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>8</v>
@@ -3242,43 +3239,43 @@
       <c r="H64" s="15"/>
     </row>
     <row r="65" spans="2:8" ht="18.75">
-      <c r="B65" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D65" s="7">
-        <v>1</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F65" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G65" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H65" s="15"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="16"/>
     </row>
     <row r="66" spans="2:8" ht="18.75">
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="16"/>
+      <c r="B66" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D66" s="4">
+        <v>2</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H66" s="15"/>
     </row>
     <row r="67" spans="2:8" ht="18.75">
       <c r="B67" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D67" s="7">
         <v>2</v>
       </c>
       <c r="E67" s="5" t="s">
@@ -3294,7 +3291,7 @@
     </row>
     <row r="68" spans="2:8" ht="18.75">
       <c r="B68" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>119</v>
@@ -3315,7 +3312,7 @@
     </row>
     <row r="69" spans="2:8" ht="18.75">
       <c r="B69" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>120</v>
@@ -3335,67 +3332,67 @@
       <c r="H69" s="15"/>
     </row>
     <row r="70" spans="2:8" ht="18.75">
-      <c r="B70" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D70" s="7">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="15"/>
+    </row>
+    <row r="71" spans="2:8" ht="18.75">
+      <c r="B71" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D71" s="4">
         <v>2</v>
       </c>
-      <c r="E70" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F70" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G70" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H70" s="15"/>
-    </row>
-    <row r="71" spans="2:8" ht="18.75">
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="15"/>
+      <c r="E71" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H71" s="14" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="72" spans="2:8" ht="18.75">
-      <c r="B72" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D72" s="4">
+      <c r="B72" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D72" s="7">
         <v>2</v>
       </c>
-      <c r="E72" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G72" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H72" s="14" t="s">
-        <v>46</v>
-      </c>
+      <c r="E72" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H72" s="15"/>
     </row>
     <row r="73" spans="2:8" ht="18.75">
       <c r="B73" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="D73" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>8</v>
@@ -3410,10 +3407,10 @@
     </row>
     <row r="74" spans="2:8" ht="18.75">
       <c r="B74" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="D74" s="7">
         <v>4</v>
@@ -3427,14 +3424,16 @@
       <c r="G74" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H74" s="15"/>
+      <c r="H74" s="15" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="75" spans="2:8" ht="18.75">
       <c r="B75" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D75" s="7">
         <v>4</v>
@@ -3449,18 +3448,18 @@
         <v>10</v>
       </c>
       <c r="H75" s="15" t="s">
-        <v>49</v>
+        <v>123</v>
       </c>
     </row>
     <row r="76" spans="2:8" ht="18.75">
       <c r="B76" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="D76" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>8</v>
@@ -3472,89 +3471,87 @@
         <v>10</v>
       </c>
       <c r="H76" s="15" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="77" spans="2:8" ht="18.75">
       <c r="B77" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>99</v>
       </c>
       <c r="D77" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G77" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H77" s="15" t="s">
-        <v>110</v>
-      </c>
+      <c r="H77" s="15"/>
     </row>
     <row r="78" spans="2:8" ht="18.75">
-      <c r="B78" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D78" s="7">
-        <v>3</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F78" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G78" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
       <c r="H78" s="15"/>
     </row>
     <row r="79" spans="2:8" ht="18.75">
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="15"/>
+      <c r="B79" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D79" s="8">
+        <v>2</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G79" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H79" s="14"/>
     </row>
     <row r="80" spans="2:8" ht="18.75">
-      <c r="B80" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D80" s="8">
+      <c r="B80" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D80" s="7">
         <v>2</v>
       </c>
-      <c r="E80" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F80" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G80" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H80" s="14"/>
+      <c r="E80" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" s="15"/>
     </row>
     <row r="81" spans="2:8" ht="18.75">
       <c r="B81" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D81" s="7">
         <v>2</v>
@@ -3563,10 +3560,10 @@
         <v>8</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H81" s="15"/>
     </row>
@@ -3575,7 +3572,7 @@
         <v>51</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D82" s="7">
         <v>2</v>
@@ -3596,16 +3593,16 @@
         <v>51</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c r="D83" s="7">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G83" s="11" t="s">
         <v>10</v>
@@ -3613,53 +3610,53 @@
       <c r="H83" s="15"/>
     </row>
     <row r="84" spans="2:8" ht="18.75">
-      <c r="B84" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D84" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F84" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G84" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H84" s="15"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="16"/>
     </row>
     <row r="85" spans="2:8" ht="18.75">
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="12"/>
-      <c r="G85" s="12"/>
-      <c r="H85" s="16"/>
+      <c r="B85" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D85" s="4">
+        <v>1</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H85" s="15"/>
     </row>
     <row r="86" spans="2:8" ht="18.75">
       <c r="B86" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D86" s="4">
-        <v>1</v>
+        <v>57</v>
+      </c>
+      <c r="D86" s="7">
+        <v>0.5</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H86" s="15"/>
     </row>
@@ -3668,19 +3665,19 @@
         <v>55</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D87" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H87" s="15"/>
     </row>
@@ -3689,7 +3686,7 @@
         <v>55</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c r="D88" s="7">
         <v>1</v>
@@ -3710,16 +3707,16 @@
         <v>55</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="D89" s="7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G89" s="11" t="s">
         <v>10</v>
@@ -3727,71 +3724,71 @@
       <c r="H89" s="15"/>
     </row>
     <row r="90" spans="2:8" ht="18.75">
-      <c r="B90" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D90" s="7">
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="15"/>
+    </row>
+    <row r="91" spans="2:8" ht="18.75">
+      <c r="B91" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D91" s="8">
         <v>0.5</v>
       </c>
-      <c r="E90" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F90" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G90" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H90" s="15"/>
-    </row>
-    <row r="91" spans="2:8" ht="18.75">
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
-      <c r="H91" s="15"/>
+      <c r="E91" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G91" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H91" s="14"/>
     </row>
     <row r="92" spans="2:8" ht="18.75">
-      <c r="B92" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D92" s="8">
+      <c r="B92" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D92" s="7">
         <v>0.5</v>
       </c>
-      <c r="E92" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F92" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G92" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H92" s="14"/>
+      <c r="E92" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G92" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H92" s="15"/>
     </row>
     <row r="93" spans="2:8" ht="18.75">
       <c r="B93" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="D93" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G93" s="11" t="s">
         <v>10</v>
@@ -3802,14 +3799,14 @@
       <c r="B94" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>136</v>
+      <c r="C94" s="49" t="s">
+        <v>133</v>
       </c>
       <c r="D94" s="7">
         <v>1</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F94" s="11" t="s">
         <v>12</v>
@@ -3817,92 +3814,92 @@
       <c r="G94" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H94" s="15"/>
+      <c r="H94" s="15" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="95" spans="2:8" ht="18.75">
       <c r="B95" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C95" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="D95" s="7">
+        <v>130</v>
+      </c>
+      <c r="C95" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="D95" s="52">
         <v>1</v>
       </c>
-      <c r="E95" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F95" s="11" t="s">
+      <c r="E95" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F95" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="G95" s="11" t="s">
+      <c r="G95" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H95" s="15" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="18.75">
-      <c r="B96" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C96" s="53" t="s">
-        <v>147</v>
-      </c>
-      <c r="D96" s="52">
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="15"/>
+    </row>
+    <row r="97" spans="2:8" ht="18.75">
+      <c r="B97" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D97" s="4">
+        <v>2</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G97" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H97" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" ht="18.75">
+      <c r="B98" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D98" s="7">
         <v>1</v>
       </c>
-      <c r="E96" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="F96" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="G96" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H96" s="15" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="97" spans="2:8" ht="18.75">
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="11"/>
-      <c r="G97" s="11"/>
-      <c r="H97" s="15"/>
-    </row>
-    <row r="98" spans="2:8" ht="18.75">
-      <c r="B98" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D98" s="4">
-        <v>2</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G98" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H98" s="14" t="s">
-        <v>61</v>
-      </c>
+      <c r="E98" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F98" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G98" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H98" s="15"/>
     </row>
     <row r="99" spans="2:8" ht="18.75">
       <c r="B99" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D99" s="7">
         <v>1</v>
@@ -3916,17 +3913,19 @@
       <c r="G99" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H99" s="15"/>
+      <c r="H99" s="15" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="100" spans="2:8" ht="18.75">
       <c r="B100" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D100" s="7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>8</v>
@@ -3937,25 +3936,23 @@
       <c r="G100" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H100" s="15" t="s">
-        <v>81</v>
-      </c>
+      <c r="H100" s="15"/>
     </row>
     <row r="101" spans="2:8" ht="18.75">
       <c r="B101" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D101" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G101" s="11" t="s">
         <v>10</v>
@@ -3967,7 +3964,7 @@
         <v>59</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c r="D102" s="7">
         <v>1</v>
@@ -3984,83 +3981,83 @@
       <c r="H102" s="15"/>
     </row>
     <row r="103" spans="2:8" ht="18.75">
-      <c r="B103" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D103" s="7">
-        <v>1</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F103" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G103" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H103" s="15"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="16"/>
     </row>
     <row r="104" spans="2:8" ht="18.75">
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="12"/>
-      <c r="G104" s="12"/>
-      <c r="H104" s="16"/>
+      <c r="B104" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D104" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F104" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G104" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H104" s="15"/>
     </row>
     <row r="105" spans="2:8" ht="18.75">
       <c r="B105" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D105" s="8">
+        <v>144</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D105" s="7">
         <v>0.5</v>
       </c>
-      <c r="E105" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F105" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G105" s="10" t="s">
-        <v>10</v>
+      <c r="E105" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F105" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G105" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="H105" s="15"/>
     </row>
     <row r="106" spans="2:8" ht="18.75">
       <c r="B106" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D106" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H106" s="15"/>
     </row>
     <row r="107" spans="2:8" ht="18.75">
       <c r="B107" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c r="D107" s="7">
         <v>1</v>
@@ -4074,60 +4071,44 @@
       <c r="G107" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H107" s="15"/>
+      <c r="H107" s="15" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="108" spans="2:8" ht="18.75">
       <c r="B108" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="D108" s="7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F108" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G108" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H108" s="15" t="s">
-        <v>149</v>
-      </c>
+      <c r="H108" s="15"/>
     </row>
     <row r="109" spans="2:8" ht="18.75">
-      <c r="B109" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D109" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F109" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G109" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H109" s="15"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="16"/>
     </row>
     <row r="110" spans="2:8" ht="18.75">
-      <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="6"/>
-      <c r="F110" s="12"/>
-      <c r="G110" s="12"/>
-      <c r="H110" s="16"/>
+      <c r="C110"/>
+      <c r="D110" s="7"/>
+      <c r="H110" s="13"/>
     </row>
     <row r="111" spans="2:8" ht="18.75">
       <c r="C111"/>
@@ -4184,26 +4165,26 @@
       <c r="D121" s="7"/>
       <c r="H121" s="13"/>
     </row>
-    <row r="122" spans="3:8" ht="18.75">
-      <c r="C122"/>
-      <c r="D122" s="7"/>
-      <c r="H122" s="13"/>
-    </row>
+    <row r="122" spans="3:8" ht="18.75"/>
     <row r="123" spans="3:8" ht="18.75"/>
     <row r="124" spans="3:8" ht="18.75"/>
     <row r="125" spans="3:8" ht="18.75"/>
-    <row r="126" spans="3:8" ht="18.75"/>
+    <row r="126" spans="3:8" ht="18.75">
+      <c r="C126"/>
+      <c r="D126" s="7"/>
+      <c r="H126" s="13"/>
+    </row>
     <row r="127" spans="3:8" ht="18.75">
       <c r="C127"/>
       <c r="D127" s="7"/>
       <c r="H127" s="13"/>
     </row>
     <row r="128" spans="3:8" ht="18.75">
-      <c r="C128"/>
-      <c r="D128" s="7"/>
       <c r="H128" s="13"/>
     </row>
     <row r="129" spans="3:8" ht="18.75">
+      <c r="C129"/>
+      <c r="D129" s="7"/>
       <c r="H129" s="13"/>
     </row>
     <row r="130" spans="3:8" ht="18.75">
@@ -4221,13 +4202,8 @@
       <c r="D132" s="7"/>
       <c r="H132" s="13"/>
     </row>
-    <row r="133" spans="3:8" ht="18.75">
-      <c r="C133"/>
-      <c r="D133" s="7"/>
-      <c r="H133" s="13"/>
-    </row>
   </sheetData>
-  <autoFilter ref="E2:G133" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="E2:G132" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
@@ -4238,19 +4214,19 @@
           <x14:formula1>
             <xm:f>その他!$B$3:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>G127:G128 G130:G1048576 G28:G122 G1:G26</xm:sqref>
+          <xm:sqref>G126:G127 G129:G1048576 G1:G26 G28:G121</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{66D8840C-D443-486F-BC72-01200775D285}">
           <x14:formula1>
             <xm:f>その他!$D$3:$D$6</xm:f>
           </x14:formula1>
-          <xm:sqref>F127:F128 F130:F1048576 F28:F122 F1:F26</xm:sqref>
+          <xm:sqref>F126:F127 F129:F1048576 F1:F26 F28:F121</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D61B1C0A-2748-4606-B0EE-00EEC89A23C6}">
           <x14:formula1>
             <xm:f>その他!$F$3:$F$6</xm:f>
           </x14:formula1>
-          <xm:sqref>E127:E128 E130:E1048576 E28:E122 E1:E26</xm:sqref>
+          <xm:sqref>E126:E127 E129:E1048576 E1:E26 E28:E121</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4262,8 +4238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D9" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4285,16 +4261,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E2" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="50" t="s">
         <v>143</v>
-      </c>
-      <c r="F2" s="50" t="s">
-        <v>144</v>
       </c>
       <c r="G2" s="37" t="s">
         <v>66</v>
@@ -4304,7 +4280,7 @@
       </c>
       <c r="J2" s="29">
         <f>SUM(C:C)</f>
-        <v>180.5</v>
+        <v>179.5</v>
       </c>
       <c r="K2" s="29"/>
       <c r="L2" s="28"/>
@@ -4339,7 +4315,7 @@
       </c>
       <c r="J3" s="29">
         <f>SUMIF(コスト表!G:G,"完了",コスト表!D:D)</f>
-        <v>38.5</v>
+        <v>59</v>
       </c>
       <c r="K3" s="28" t="s">
         <v>22</v>
@@ -4348,7 +4324,7 @@
     </row>
     <row r="4" spans="2:13" ht="19.5">
       <c r="B4" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" s="19">
         <f>SUMIF(コスト表!B:B, B4, コスト表!D:D)</f>
@@ -4356,30 +4332,30 @@
       </c>
       <c r="D4" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "敵ベース", コスト表!G:G, "完了")</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E4" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "敵ベース", コスト表!G:G, "作業中")</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F4" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "敵ベース", コスト表!G:G, "未着手")</f>
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G4" s="40">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "敵ベース", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "敵ベース") * 100,1)</f>
-        <v>14.2</v>
+        <v>57.1</v>
       </c>
       <c r="I4" s="32" t="s">
         <v>23</v>
       </c>
       <c r="J4" s="29">
         <f ca="1">NETWORKDAYS(J5,J6)</f>
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="K4" s="29">
         <f ca="1" xml:space="preserve"> ROUNDDOWN(J3 / J4,1)</f>
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="M4" s="28"/>
     </row>
@@ -4393,19 +4369,19 @@
       </c>
       <c r="D5" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "敵1(通常ゾンビ)", コスト表!G:G, "完了")</f>
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="E5" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "敵1(通常ゾンビ)", コスト表!G:G, "作業中")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "敵1(通常ゾンビ)", コスト表!G:G, "未着手")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G5" s="40">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "敵1(通常ゾンビ)", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "敵1(通常ゾンビ)") * 100,1)</f>
-        <v>33.299999999999997</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="I5" s="33" t="s">
         <v>24</v>
@@ -4424,11 +4400,11 @@
       </c>
       <c r="C6" s="19">
         <f>SUMIF(コスト表!B:B, B6, コスト表!D:D)</f>
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="D6" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "敵2(ランナーゾンビ)", コスト表!G:G, "完了")</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="E6" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "敵2(ランナーゾンビ)", コスト表!G:G, "作業中")</f>
@@ -4436,18 +4412,18 @@
       </c>
       <c r="F6" s="51">
         <f>SUMIFS(コスト表!D:D,コスト表!B:B,"敵2(ランナーゾンビ)",コスト表!G:G,"未着手")</f>
-        <v>11.5</v>
+        <v>3</v>
       </c>
       <c r="G6" s="40">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "敵2(ランナーゾンビ)", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "敵2(ランナーゾンビ)") * 100,1)</f>
-        <v>0</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="I6" s="34" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="46">
         <f ca="1">TODAY()</f>
-        <v>45833</v>
+        <v>45842</v>
       </c>
       <c r="K6" s="46"/>
       <c r="L6" s="28"/>
@@ -4467,11 +4443,11 @@
       </c>
       <c r="E7" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "敵3(遠距離型ゾンビ)", コスト表!G:G, "作業中")</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="F7" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "敵3(遠距離型ゾンビ)", コスト表!G:G, "未着手")</f>
-        <v>10.5</v>
+        <v>3</v>
       </c>
       <c r="G7" s="40">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "敵3(遠距離型ゾンビ)", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "敵3(遠距離型ゾンビ)") * 100,1)</f>
@@ -4514,7 +4490,7 @@
     </row>
     <row r="9" spans="2:13" ht="24">
       <c r="B9" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C9" s="19">
         <f>SUMIF(コスト表!B:B, B9, コスト表!D:D)</f>
@@ -4545,16 +4521,16 @@
       </c>
       <c r="K9" s="57">
         <f ca="1">NETWORKDAYS(TODAY(),J9)</f>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="L9" s="59">
         <f ca="1">ROUNDDOWN(($J$2-$J$3)/K9, 1)</f>
-        <v>6.7</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="19.5">
       <c r="B10" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C10" s="19">
         <f>SUMIF(コスト表!B:B, B10, コスト表!D:D)</f>
@@ -4585,11 +4561,11 @@
       </c>
       <c r="K10" s="58">
         <f ca="1">NETWORKDAYS(TODAY(),J10)</f>
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="L10" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K10,1)</f>
-        <v>4.4000000000000004</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="19.5">
@@ -4625,11 +4601,11 @@
       </c>
       <c r="K11" s="58">
         <f ca="1">NETWORKDAYS(TODAY(),J11)</f>
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="L11" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K11,1)</f>
-        <v>3.8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="19.5">
@@ -4665,7 +4641,7 @@
       </c>
       <c r="K12" s="58">
         <f ca="1">NETWORKDAYS(TODAY(),J12)</f>
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="L12" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K12,1)</f>
@@ -4674,7 +4650,7 @@
     </row>
     <row r="13" spans="2:13">
       <c r="B13" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C13" s="19">
         <f>SUMIF(コスト表!B:B, B13, コスト表!D:D)</f>
@@ -4731,7 +4707,7 @@
         <v>68</v>
       </c>
       <c r="K14" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L14" s="42" t="s">
         <v>69</v>
@@ -4739,7 +4715,7 @@
     </row>
     <row r="15" spans="2:13">
       <c r="B15" s="41" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C15" s="66">
         <f>SUMIF(コスト表!B:B, B15, コスト表!D:D)</f>
@@ -4766,15 +4742,15 @@
       </c>
       <c r="J15" s="43">
         <f>SUMIF(コスト表!F:F, "プロト", コスト表!D:D)</f>
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K15" s="43">
         <f>SUMIFS(コスト表!D:D, コスト表!F:F, "プロト", コスト表!G:G, "完了")</f>
-        <v>36.5</v>
+        <v>49</v>
       </c>
       <c r="L15" s="43">
         <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "プロト", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "プロト") * 100,1)</f>
-        <v>29.5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="2:13">
@@ -4787,7 +4763,7 @@
       <c r="F16" s="9"/>
       <c r="G16" s="40">
         <f>ROUNDDOWN(COUNTIF(コスト表!G:G, "完了") / COUNTA(コスト表!G:G) * 100,1)</f>
-        <v>22.9</v>
+        <v>32.6</v>
       </c>
       <c r="I16" s="43" t="s">
         <v>12</v>
@@ -4798,11 +4774,11 @@
       </c>
       <c r="K16" s="43">
         <f>SUMIFS(コスト表!D:D, コスト表!F:F, "アルファ", コスト表!G:G, "完了")</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L16" s="43">
         <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "アルファ", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "アルファ") * 100,1)</f>
-        <v>12.1</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="17" spans="3:12">
@@ -4952,27 +4928,27 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="63" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="63" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="63" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="64" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -4982,6 +4958,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006836AD0B55474E4CAD520F1DEB8FB579" ma:contentTypeVersion="3" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="078ba6c1f7b5b638bb57eb024ae572f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="187a6309-4c0c-49e3-bd2d-e8130eb88270" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5f182963113af090d1b42042cf04cb6" ns2:_="">
     <xsd:import namespace="187a6309-4c0c-49e3-bd2d-e8130eb88270"/>
@@ -5119,22 +5110,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A1D85CE-B20E-4841-A55B-779E85453EF9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5150,21 +5143,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ゾンビシューターゲームコスト表.xlsx
+++ b/ゾンビシューターゲームコスト表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\由留部 瑛人\Documents\MyGame3D2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D4742B-EC69-40C3-BAE9-D0BEBBCD23D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DB895B-9885-459C-A5E8-0FD1EDC9A836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1590" yWindow="1905" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コスト表" sheetId="1" r:id="rId1"/>
@@ -1935,8 +1935,8 @@
   <dimension ref="B1:I132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -2950,7 +2950,7 @@
         <v>9</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H50" s="15"/>
     </row>
@@ -3034,7 +3034,7 @@
         <v>9</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H54" s="15"/>
     </row>
@@ -4238,7 +4238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:M27"/>
   <sheetViews>
-    <sheetView topLeftCell="D3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -4315,7 +4315,7 @@
       </c>
       <c r="J3" s="29">
         <f>SUMIF(コスト表!G:G,"完了",コスト表!D:D)</f>
-        <v>59</v>
+        <v>63.5</v>
       </c>
       <c r="K3" s="28" t="s">
         <v>22</v>
@@ -4351,11 +4351,11 @@
       </c>
       <c r="J4" s="29">
         <f ca="1">NETWORKDAYS(J5,J6)</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K4" s="29">
         <f ca="1" xml:space="preserve"> ROUNDDOWN(J3 / J4,1)</f>
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="M4" s="28"/>
     </row>
@@ -4423,7 +4423,7 @@
       </c>
       <c r="J6" s="46">
         <f ca="1">TODAY()</f>
-        <v>45842</v>
+        <v>45845</v>
       </c>
       <c r="K6" s="46"/>
       <c r="L6" s="28"/>
@@ -4439,11 +4439,11 @@
       </c>
       <c r="D7" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "敵3(遠距離型ゾンビ)", コスト表!G:G, "完了")</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E7" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "敵3(遠距離型ゾンビ)", コスト表!G:G, "作業中")</f>
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="F7" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "敵3(遠距離型ゾンビ)", コスト表!G:G, "未着手")</f>
@@ -4451,7 +4451,7 @@
       </c>
       <c r="G7" s="40">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "敵3(遠距離型ゾンビ)", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "敵3(遠距離型ゾンビ)") * 100,1)</f>
-        <v>0</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="M7" s="28"/>
     </row>
@@ -4521,11 +4521,11 @@
       </c>
       <c r="K9" s="57">
         <f ca="1">NETWORKDAYS(TODAY(),J9)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L9" s="59">
         <f ca="1">ROUNDDOWN(($J$2-$J$3)/K9, 1)</f>
-        <v>8.6</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="19.5">
@@ -4561,7 +4561,7 @@
       </c>
       <c r="K10" s="58">
         <f ca="1">NETWORKDAYS(TODAY(),J10)</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L10" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K10,1)</f>
@@ -4601,7 +4601,7 @@
       </c>
       <c r="K11" s="58">
         <f ca="1">NETWORKDAYS(TODAY(),J11)</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L11" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K11,1)</f>
@@ -4641,7 +4641,7 @@
       </c>
       <c r="K12" s="58">
         <f ca="1">NETWORKDAYS(TODAY(),J12)</f>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L12" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K12,1)</f>
@@ -4746,11 +4746,11 @@
       </c>
       <c r="K15" s="43">
         <f>SUMIFS(コスト表!D:D, コスト表!F:F, "プロト", コスト表!G:G, "完了")</f>
-        <v>49</v>
+        <v>53.5</v>
       </c>
       <c r="L15" s="43">
         <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "プロト", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "プロト") * 100,1)</f>
-        <v>40</v>
+        <v>43.3</v>
       </c>
     </row>
     <row r="16" spans="2:13">
@@ -4763,7 +4763,7 @@
       <c r="F16" s="9"/>
       <c r="G16" s="40">
         <f>ROUNDDOWN(COUNTIF(コスト表!G:G, "完了") / COUNTA(コスト表!G:G) * 100,1)</f>
-        <v>32.6</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="I16" s="43" t="s">
         <v>12</v>
@@ -4958,21 +4958,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006836AD0B55474E4CAD520F1DEB8FB579" ma:contentTypeVersion="3" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="078ba6c1f7b5b638bb57eb024ae572f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="187a6309-4c0c-49e3-bd2d-e8130eb88270" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5f182963113af090d1b42042cf04cb6" ns2:_="">
     <xsd:import namespace="187a6309-4c0c-49e3-bd2d-e8130eb88270"/>
@@ -5110,24 +5095,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A1D85CE-B20E-4841-A55B-779E85453EF9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5143,4 +5126,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ゾンビシューターゲームコスト表.xlsx
+++ b/ゾンビシューターゲームコスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\由留部 瑛人\Documents\MyGame3D2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DB895B-9885-459C-A5E8-0FD1EDC9A836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924FDBF2-DFF9-4AAF-94E7-27422DEDFBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5415" yWindow="1695" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コスト表" sheetId="1" r:id="rId1"/>
@@ -1935,8 +1935,8 @@
   <dimension ref="B1:I132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
+      <pane ySplit="2" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -2971,7 +2971,7 @@
         <v>9</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H51" s="15"/>
     </row>
@@ -2992,7 +2992,7 @@
         <v>12</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H52" s="15"/>
     </row>
@@ -3264,7 +3264,7 @@
         <v>9</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H66" s="15"/>
     </row>
@@ -3285,7 +3285,7 @@
         <v>9</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H67" s="15"/>
     </row>
@@ -3306,7 +3306,7 @@
         <v>9</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H68" s="15"/>
     </row>
@@ -3327,7 +3327,7 @@
         <v>9</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H69" s="15"/>
     </row>
@@ -4238,8 +4238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:M27"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4315,7 +4315,7 @@
       </c>
       <c r="J3" s="29">
         <f>SUMIF(コスト表!G:G,"完了",コスト表!D:D)</f>
-        <v>63.5</v>
+        <v>70.5</v>
       </c>
       <c r="K3" s="28" t="s">
         <v>22</v>
@@ -4351,11 +4351,11 @@
       </c>
       <c r="J4" s="29">
         <f ca="1">NETWORKDAYS(J5,J6)</f>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K4" s="29">
         <f ca="1" xml:space="preserve"> ROUNDDOWN(J3 / J4,1)</f>
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="M4" s="28"/>
     </row>
@@ -4423,7 +4423,7 @@
       </c>
       <c r="J6" s="46">
         <f ca="1">TODAY()</f>
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="K6" s="46"/>
       <c r="L6" s="28"/>
@@ -4439,11 +4439,11 @@
       </c>
       <c r="D7" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "敵3(遠距離型ゾンビ)", コスト表!G:G, "完了")</f>
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="E7" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "敵3(遠距離型ゾンビ)", コスト表!G:G, "作業中")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F7" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "敵3(遠距離型ゾンビ)", コスト表!G:G, "未着手")</f>
@@ -4451,7 +4451,7 @@
       </c>
       <c r="G7" s="40">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "敵3(遠距離型ゾンビ)", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "敵3(遠距離型ゾンビ)") * 100,1)</f>
-        <v>33.299999999999997</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="M7" s="28"/>
     </row>
@@ -4498,19 +4498,19 @@
       </c>
       <c r="D9" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "マップ", コスト表!G:G, "完了")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E9" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "マップ", コスト表!G:G, "作業中")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F9" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "マップ", コスト表!G:G, "未着手")</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G9" s="40">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "マップ", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "マップ") * 100,1)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I9" s="55" t="s">
         <v>65</v>
@@ -4521,11 +4521,11 @@
       </c>
       <c r="K9" s="57">
         <f ca="1">NETWORKDAYS(TODAY(),J9)</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L9" s="59">
         <f ca="1">ROUNDDOWN(($J$2-$J$3)/K9, 1)</f>
-        <v>8.9</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="19.5">
@@ -4561,11 +4561,11 @@
       </c>
       <c r="K10" s="58">
         <f ca="1">NETWORKDAYS(TODAY(),J10)</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L10" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K10,1)</f>
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="19.5">
@@ -4601,7 +4601,7 @@
       </c>
       <c r="K11" s="58">
         <f ca="1">NETWORKDAYS(TODAY(),J11)</f>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L11" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K11,1)</f>
@@ -4641,11 +4641,11 @@
       </c>
       <c r="K12" s="58">
         <f ca="1">NETWORKDAYS(TODAY(),J12)</f>
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L12" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K12,1)</f>
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="13" spans="2:13">
@@ -4746,11 +4746,11 @@
       </c>
       <c r="K15" s="43">
         <f>SUMIFS(コスト表!D:D, コスト表!F:F, "プロト", コスト表!G:G, "完了")</f>
-        <v>53.5</v>
+        <v>58.5</v>
       </c>
       <c r="L15" s="43">
         <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "プロト", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "プロト") * 100,1)</f>
-        <v>43.3</v>
+        <v>48.3</v>
       </c>
     </row>
     <row r="16" spans="2:13">
@@ -4763,7 +4763,7 @@
       <c r="F16" s="9"/>
       <c r="G16" s="40">
         <f>ROUNDDOWN(COUNTIF(コスト表!G:G, "完了") / COUNTA(コスト表!G:G) * 100,1)</f>
-        <v>34.700000000000003</v>
+        <v>38.9</v>
       </c>
       <c r="I16" s="43" t="s">
         <v>12</v>
@@ -4774,11 +4774,11 @@
       </c>
       <c r="K16" s="43">
         <f>SUMIFS(コスト表!D:D, コスト表!F:F, "アルファ", コスト表!G:G, "完了")</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L16" s="43">
         <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "アルファ", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "アルファ") * 100,1)</f>
-        <v>21.2</v>
+        <v>24.2</v>
       </c>
     </row>
     <row r="17" spans="3:12">
@@ -4958,6 +4958,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006836AD0B55474E4CAD520F1DEB8FB579" ma:contentTypeVersion="3" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="078ba6c1f7b5b638bb57eb024ae572f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="187a6309-4c0c-49e3-bd2d-e8130eb88270" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5f182963113af090d1b42042cf04cb6" ns2:_="">
     <xsd:import namespace="187a6309-4c0c-49e3-bd2d-e8130eb88270"/>
@@ -5095,22 +5110,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A1D85CE-B20E-4841-A55B-779E85453EF9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5126,21 +5143,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ゾンビシューターゲームコスト表.xlsx
+++ b/ゾンビシューターゲームコスト表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\由留部 瑛人\Documents\MyGame3D2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sho24\OneDrive\ドキュメント\MyGame3D2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924FDBF2-DFF9-4AAF-94E7-27422DEDFBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CC91B8-784C-4E68-9203-B56E5A330D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5415" yWindow="1695" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コスト表" sheetId="1" r:id="rId1"/>
@@ -472,16 +472,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プレイヤー追尾、壁回避</t>
-    <rPh sb="5" eb="7">
-      <t>ツイビ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>カベカイヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ボス(ゾンビを召喚)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -969,6 +959,28 @@
     </rPh>
     <rPh sb="11" eb="15">
       <t>ジョウタイカンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー追尾処理は実装済みなのでいったん完了とす、壁回避(未完)</t>
+    <rPh sb="5" eb="7">
+      <t>ツイビ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ジッソウズ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>カベカイヒ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ミカン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1934,9 +1946,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H87" sqref="H87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -2023,10 +2035,10 @@
     </row>
     <row r="5" spans="2:8" ht="18.75">
       <c r="B5" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D5" s="7">
         <v>1</v>
@@ -2068,7 +2080,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D7" s="7">
         <v>6</v>
@@ -2130,7 +2142,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
@@ -2148,10 +2160,10 @@
     </row>
     <row r="11" spans="2:8" ht="18.75">
       <c r="B11" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D11" s="7">
         <v>5</v>
@@ -2187,7 +2199,7 @@
         <v>10</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="18.75">
@@ -2195,7 +2207,7 @@
         <v>78</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D13" s="7">
         <v>1</v>
@@ -2210,7 +2222,7 @@
         <v>14</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="18.75">
@@ -2236,10 +2248,10 @@
     </row>
     <row r="15" spans="2:8" ht="18.75">
       <c r="B15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="D15" s="7">
         <v>0.5</v>
@@ -2257,7 +2269,7 @@
     </row>
     <row r="16" spans="2:8" ht="18.75">
       <c r="B16" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>60</v>
@@ -2275,15 +2287,15 @@
         <v>13</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="18.75">
       <c r="B17" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D17" s="7">
         <v>3</v>
@@ -2367,7 +2379,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D21" s="7">
         <v>0.5</v>
@@ -2448,10 +2460,10 @@
     </row>
     <row r="25" spans="2:8" ht="18.75">
       <c r="B25" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D25" s="7">
         <v>1</v>
@@ -2463,10 +2475,10 @@
         <v>12</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H25" s="49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="18.75">
@@ -2501,7 +2513,7 @@
     </row>
     <row r="28" spans="2:8" ht="18.75">
       <c r="B28" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>83</v>
@@ -2524,7 +2536,7 @@
     </row>
     <row r="29" spans="2:8" ht="18.75">
       <c r="B29" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>85</v>
@@ -2542,12 +2554,12 @@
         <v>14</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="18.75">
       <c r="B30" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>86</v>
@@ -2562,18 +2574,18 @@
         <v>9</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>87</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="18.75">
       <c r="B31" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D31" s="7">
         <v>2</v>
@@ -2591,10 +2603,10 @@
     </row>
     <row r="32" spans="2:8" ht="18.75">
       <c r="B32" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D32" s="7">
         <v>4</v>
@@ -2609,15 +2621,15 @@
         <v>14</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="18.75">
       <c r="B33" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D33" s="7">
         <v>3</v>
@@ -2635,10 +2647,10 @@
     </row>
     <row r="34" spans="2:8" ht="18.75">
       <c r="B34" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D34" s="7">
         <v>3</v>
@@ -2668,7 +2680,7 @@
         <v>40</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D36" s="4">
         <v>1.5</v>
@@ -2689,7 +2701,7 @@
         <v>40</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D37" s="7">
         <v>1</v>
@@ -2710,7 +2722,7 @@
         <v>40</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D38" s="7">
         <v>2</v>
@@ -2731,7 +2743,7 @@
         <v>40</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="7">
         <v>2</v>
@@ -2752,7 +2764,7 @@
         <v>40</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D40" s="7">
         <v>3</v>
@@ -2773,7 +2785,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D41" s="7">
         <v>1</v>
@@ -2782,7 +2794,7 @@
         <v>8</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G41" s="11" t="s">
         <v>10</v>
@@ -2803,7 +2815,7 @@
         <v>41</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D43" s="8">
         <v>1</v>
@@ -2824,7 +2836,7 @@
         <v>41</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D44" s="7">
         <v>1.5</v>
@@ -2845,7 +2857,7 @@
         <v>41</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D45" s="7">
         <v>2</v>
@@ -2866,7 +2878,7 @@
         <v>41</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D46" s="7">
         <v>2</v>
@@ -2887,7 +2899,7 @@
         <v>41</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D47" s="7">
         <v>3</v>
@@ -2908,7 +2920,7 @@
         <v>41</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D48" s="7">
         <v>1</v>
@@ -2938,7 +2950,7 @@
         <v>82</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D50" s="4">
         <v>1.5</v>
@@ -2959,7 +2971,7 @@
         <v>82</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D51" s="7">
         <v>1</v>
@@ -2980,7 +2992,7 @@
         <v>82</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D52" s="7">
         <v>2</v>
@@ -3001,7 +3013,7 @@
         <v>82</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D53" s="7">
         <v>2</v>
@@ -3022,7 +3034,7 @@
         <v>82</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D54" s="7">
         <v>3</v>
@@ -3043,7 +3055,7 @@
         <v>82</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D55" s="7">
         <v>1</v>
@@ -3073,7 +3085,7 @@
         <v>71</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D57" s="8">
         <v>5</v>
@@ -3094,7 +3106,7 @@
         <v>71</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D58" s="7">
         <v>4</v>
@@ -3115,7 +3127,7 @@
         <v>71</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D59" s="7">
         <v>1</v>
@@ -3133,10 +3145,10 @@
     </row>
     <row r="60" spans="2:8" ht="18.75">
       <c r="B60" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D60" s="7">
         <v>5</v>
@@ -3159,7 +3171,7 @@
         <v>71</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D61" s="7">
         <v>3</v>
@@ -3180,7 +3192,7 @@
         <v>71</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D62" s="7">
         <v>2</v>
@@ -3201,7 +3213,7 @@
         <v>71</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D63" s="7">
         <v>3</v>
@@ -3222,7 +3234,7 @@
         <v>71</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D64" s="7">
         <v>1</v>
@@ -3249,10 +3261,10 @@
     </row>
     <row r="66" spans="2:8" ht="18.75">
       <c r="B66" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="D66" s="4">
         <v>2</v>
@@ -3270,10 +3282,10 @@
     </row>
     <row r="67" spans="2:8" ht="18.75">
       <c r="B67" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D67" s="7">
         <v>2</v>
@@ -3291,10 +3303,10 @@
     </row>
     <row r="68" spans="2:8" ht="18.75">
       <c r="B68" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D68" s="7">
         <v>2</v>
@@ -3312,10 +3324,10 @@
     </row>
     <row r="69" spans="2:8" ht="18.75">
       <c r="B69" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D69" s="7">
         <v>2</v>
@@ -3342,7 +3354,7 @@
     </row>
     <row r="71" spans="2:8" ht="18.75">
       <c r="B71" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>45</v>
@@ -3357,7 +3369,7 @@
         <v>9</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H71" s="14" t="s">
         <v>46</v>
@@ -3365,7 +3377,7 @@
     </row>
     <row r="72" spans="2:8" ht="18.75">
       <c r="B72" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>47</v>
@@ -3380,16 +3392,16 @@
         <v>9</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H72" s="15"/>
     </row>
     <row r="73" spans="2:8" ht="18.75">
       <c r="B73" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D73" s="7">
         <v>4</v>
@@ -3401,13 +3413,13 @@
         <v>9</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H73" s="15"/>
     </row>
     <row r="74" spans="2:8" ht="18.75">
       <c r="B74" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>48</v>
@@ -3422,7 +3434,7 @@
         <v>9</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H74" s="15" t="s">
         <v>49</v>
@@ -3430,7 +3442,7 @@
     </row>
     <row r="75" spans="2:8" ht="18.75">
       <c r="B75" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>50</v>
@@ -3445,18 +3457,18 @@
         <v>9</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H75" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="76" spans="2:8" ht="18.75">
       <c r="B76" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D76" s="7">
         <v>6</v>
@@ -3471,15 +3483,15 @@
         <v>10</v>
       </c>
       <c r="H76" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77" spans="2:8" ht="18.75">
       <c r="B77" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D77" s="7">
         <v>3</v>
@@ -3593,7 +3605,7 @@
         <v>51</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D83" s="7">
         <v>0.5</v>
@@ -3686,7 +3698,7 @@
         <v>55</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D88" s="7">
         <v>1</v>
@@ -3707,7 +3719,7 @@
         <v>55</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D89" s="7">
         <v>0.5</v>
@@ -3734,10 +3746,10 @@
     </row>
     <row r="91" spans="2:8" ht="18.75">
       <c r="B91" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="D91" s="8">
         <v>0.5</v>
@@ -3755,7 +3767,7 @@
     </row>
     <row r="92" spans="2:8" ht="18.75">
       <c r="B92" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>57</v>
@@ -3776,10 +3788,10 @@
     </row>
     <row r="93" spans="2:8" ht="18.75">
       <c r="B93" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D93" s="7">
         <v>1</v>
@@ -3797,10 +3809,10 @@
     </row>
     <row r="94" spans="2:8" ht="18.75">
       <c r="B94" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C94" s="49" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D94" s="7">
         <v>1</v>
@@ -3815,15 +3827,15 @@
         <v>10</v>
       </c>
       <c r="H94" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="18.75">
       <c r="B95" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C95" s="53" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D95" s="52">
         <v>1</v>
@@ -3838,7 +3850,7 @@
         <v>10</v>
       </c>
       <c r="H95" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="18.75">
@@ -3964,7 +3976,7 @@
         <v>59</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D102" s="7">
         <v>1</v>
@@ -3991,10 +4003,10 @@
     </row>
     <row r="104" spans="2:8" ht="18.75">
       <c r="B104" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D104" s="8">
         <v>0.5</v>
@@ -4012,7 +4024,7 @@
     </row>
     <row r="105" spans="2:8" ht="18.75">
       <c r="B105" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>57</v>
@@ -4033,7 +4045,7 @@
     </row>
     <row r="106" spans="2:8" ht="18.75">
       <c r="B106" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>58</v>
@@ -4054,10 +4066,10 @@
     </row>
     <row r="107" spans="2:8" ht="18.75">
       <c r="B107" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D107" s="7">
         <v>1</v>
@@ -4072,15 +4084,15 @@
         <v>10</v>
       </c>
       <c r="H107" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="108" spans="2:8" ht="18.75">
       <c r="B108" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D108" s="7">
         <v>0.5</v>
@@ -4238,8 +4250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:M27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4261,16 +4273,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E2" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="50" t="s">
         <v>142</v>
-      </c>
-      <c r="F2" s="50" t="s">
-        <v>143</v>
       </c>
       <c r="G2" s="37" t="s">
         <v>66</v>
@@ -4296,7 +4308,7 @@
       </c>
       <c r="D3" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "プレイヤー", コスト表!G:G, "完了")</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "プレイヤー", コスト表!G:G, "作業中")</f>
@@ -4304,18 +4316,18 @@
       </c>
       <c r="F3" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "プレイヤー", コスト表!G:G, "未着手")</f>
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="G3" s="40">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "プレイヤー", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "プレイヤー") * 100,1)</f>
-        <v>66.599999999999994</v>
+        <v>70.8</v>
       </c>
       <c r="I3" s="31" t="s">
         <v>21</v>
       </c>
       <c r="J3" s="29">
         <f>SUMIF(コスト表!G:G,"完了",コスト表!D:D)</f>
-        <v>70.5</v>
+        <v>93.5</v>
       </c>
       <c r="K3" s="28" t="s">
         <v>22</v>
@@ -4324,7 +4336,7 @@
     </row>
     <row r="4" spans="2:13" ht="19.5">
       <c r="B4" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C4" s="19">
         <f>SUMIF(コスト表!B:B, B4, コスト表!D:D)</f>
@@ -4332,11 +4344,11 @@
       </c>
       <c r="D4" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "敵ベース", コスト表!G:G, "完了")</f>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E4" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "敵ベース", コスト表!G:G, "作業中")</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F4" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "敵ベース", コスト表!G:G, "未着手")</f>
@@ -4344,18 +4356,18 @@
       </c>
       <c r="G4" s="40">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "敵ベース", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "敵ベース") * 100,1)</f>
-        <v>57.1</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="I4" s="32" t="s">
         <v>23</v>
       </c>
       <c r="J4" s="29">
         <f ca="1">NETWORKDAYS(J5,J6)</f>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K4" s="29">
         <f ca="1" xml:space="preserve"> ROUNDDOWN(J3 / J4,1)</f>
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="M4" s="28"/>
     </row>
@@ -4423,7 +4435,7 @@
       </c>
       <c r="J6" s="46">
         <f ca="1">TODAY()</f>
-        <v>45847</v>
+        <v>45851</v>
       </c>
       <c r="K6" s="46"/>
       <c r="L6" s="28"/>
@@ -4490,7 +4502,7 @@
     </row>
     <row r="9" spans="2:13" ht="24">
       <c r="B9" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C9" s="19">
         <f>SUMIF(コスト表!B:B, B9, コスト表!D:D)</f>
@@ -4521,16 +4533,16 @@
       </c>
       <c r="K9" s="57">
         <f ca="1">NETWORKDAYS(TODAY(),J9)</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L9" s="59">
         <f ca="1">ROUNDDOWN(($J$2-$J$3)/K9, 1)</f>
-        <v>9.9</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="19.5">
       <c r="B10" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C10" s="19">
         <f>SUMIF(コスト表!B:B, B10, コスト表!D:D)</f>
@@ -4538,7 +4550,7 @@
       </c>
       <c r="D10" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "ウェーブ管理", コスト表!G:G, "完了")</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E10" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "ウェーブ管理", コスト表!G:G, "作業中")</f>
@@ -4546,11 +4558,11 @@
       </c>
       <c r="F10" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "ウェーブ管理", コスト表!G:G, "未着手")</f>
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="G10" s="40">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "ウェーブ管理", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "ウェーブ管理") * 100,1)</f>
-        <v>0</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="I10" s="30" t="s">
         <v>28</v>
@@ -4561,11 +4573,11 @@
       </c>
       <c r="K10" s="58">
         <f ca="1">NETWORKDAYS(TODAY(),J10)</f>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L10" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K10,1)</f>
-        <v>4.9000000000000004</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="19.5">
@@ -4601,11 +4613,11 @@
       </c>
       <c r="K11" s="58">
         <f ca="1">NETWORKDAYS(TODAY(),J11)</f>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L11" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K11,1)</f>
-        <v>4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="19.5">
@@ -4641,16 +4653,16 @@
       </c>
       <c r="K12" s="58">
         <f ca="1">NETWORKDAYS(TODAY(),J12)</f>
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L12" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K12,1)</f>
-        <v>2.7</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="13" spans="2:13">
       <c r="B13" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C13" s="19">
         <f>SUMIF(コスト表!B:B, B13, コスト表!D:D)</f>
@@ -4707,7 +4719,7 @@
         <v>68</v>
       </c>
       <c r="K14" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L14" s="42" t="s">
         <v>69</v>
@@ -4715,7 +4727,7 @@
     </row>
     <row r="15" spans="2:13">
       <c r="B15" s="41" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C15" s="66">
         <f>SUMIF(コスト表!B:B, B15, コスト表!D:D)</f>
@@ -4746,11 +4758,11 @@
       </c>
       <c r="K15" s="43">
         <f>SUMIFS(コスト表!D:D, コスト表!F:F, "プロト", コスト表!G:G, "完了")</f>
-        <v>58.5</v>
+        <v>80.5</v>
       </c>
       <c r="L15" s="43">
         <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "プロト", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "プロト") * 100,1)</f>
-        <v>48.3</v>
+        <v>58.3</v>
       </c>
     </row>
     <row r="16" spans="2:13">
@@ -4763,7 +4775,7 @@
       <c r="F16" s="9"/>
       <c r="G16" s="40">
         <f>ROUNDDOWN(COUNTIF(コスト表!G:G, "完了") / COUNTA(コスト表!G:G) * 100,1)</f>
-        <v>38.9</v>
+        <v>46.3</v>
       </c>
       <c r="I16" s="43" t="s">
         <v>12</v>
@@ -4774,11 +4786,11 @@
       </c>
       <c r="K16" s="43">
         <f>SUMIFS(コスト表!D:D, コスト表!F:F, "アルファ", コスト表!G:G, "完了")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L16" s="43">
         <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "アルファ", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "アルファ") * 100,1)</f>
-        <v>24.2</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="17" spans="3:12">
@@ -4928,27 +4940,27 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="63" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="63" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="63" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="64" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -4958,21 +4970,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006836AD0B55474E4CAD520F1DEB8FB579" ma:contentTypeVersion="3" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="078ba6c1f7b5b638bb57eb024ae572f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="187a6309-4c0c-49e3-bd2d-e8130eb88270" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5f182963113af090d1b42042cf04cb6" ns2:_="">
     <xsd:import namespace="187a6309-4c0c-49e3-bd2d-e8130eb88270"/>
@@ -5110,24 +5107,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A1D85CE-B20E-4841-A55B-779E85453EF9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5143,4 +5138,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ゾンビシューターゲームコスト表.xlsx
+++ b/ゾンビシューターゲームコスト表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sho24\OneDrive\ドキュメント\MyGame3D2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\由留部 瑛人\Documents\MyGame3D2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CC91B8-784C-4E68-9203-B56E5A330D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A00A22-AD0E-440C-B9EE-3BD33DFBEE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="20355" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コスト表" sheetId="1" r:id="rId1"/>
@@ -616,19 +616,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ダッシュ時の画面ブレ効果</t>
-    <rPh sb="4" eb="5">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>コウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ヒットマーカー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -981,6 +968,22 @@
     </rPh>
     <rPh sb="30" eb="32">
       <t>ミカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>射撃時画面ブレ効果</t>
+    <rPh sb="0" eb="2">
+      <t>シャゲキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1947,8 +1950,8 @@
   <dimension ref="B1:I132"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H87" sqref="H87"/>
+      <pane ySplit="2" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -2038,7 +2041,7 @@
         <v>100</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>105</v>
+        <v>156</v>
       </c>
       <c r="D5" s="7">
         <v>1</v>
@@ -2050,7 +2053,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H5" s="15"/>
     </row>
@@ -2080,7 +2083,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D7" s="7">
         <v>6</v>
@@ -2142,7 +2145,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
@@ -2160,10 +2163,10 @@
     </row>
     <row r="11" spans="2:8" ht="18.75">
       <c r="B11" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D11" s="7">
         <v>5</v>
@@ -2199,7 +2202,7 @@
         <v>10</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="18.75">
@@ -2207,7 +2210,7 @@
         <v>78</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D13" s="7">
         <v>1</v>
@@ -2222,7 +2225,7 @@
         <v>14</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="18.75">
@@ -2379,7 +2382,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D21" s="7">
         <v>0.5</v>
@@ -2463,7 +2466,7 @@
         <v>100</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D25" s="7">
         <v>1</v>
@@ -2478,7 +2481,7 @@
         <v>14</v>
       </c>
       <c r="H25" s="49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="18.75">
@@ -2513,7 +2516,7 @@
     </row>
     <row r="28" spans="2:8" ht="18.75">
       <c r="B28" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>83</v>
@@ -2536,7 +2539,7 @@
     </row>
     <row r="29" spans="2:8" ht="18.75">
       <c r="B29" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>85</v>
@@ -2554,12 +2557,12 @@
         <v>14</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="18.75">
       <c r="B30" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>86</v>
@@ -2577,12 +2580,12 @@
         <v>14</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="18.75">
       <c r="B31" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>88</v>
@@ -2603,7 +2606,7 @@
     </row>
     <row r="32" spans="2:8" ht="18.75">
       <c r="B32" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>89</v>
@@ -2626,7 +2629,7 @@
     </row>
     <row r="33" spans="2:8" ht="18.75">
       <c r="B33" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>91</v>
@@ -2647,10 +2650,10 @@
     </row>
     <row r="34" spans="2:8" ht="18.75">
       <c r="B34" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="7">
         <v>3</v>
@@ -2662,7 +2665,7 @@
         <v>9</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H34" s="15"/>
     </row>
@@ -2743,7 +2746,7 @@
         <v>40</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="7">
         <v>2</v>
@@ -2764,7 +2767,7 @@
         <v>40</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D40" s="7">
         <v>3</v>
@@ -2785,7 +2788,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D41" s="7">
         <v>1</v>
@@ -2794,10 +2797,10 @@
         <v>8</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H41" s="15"/>
     </row>
@@ -2878,7 +2881,7 @@
         <v>41</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D46" s="7">
         <v>2</v>
@@ -2899,7 +2902,7 @@
         <v>41</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D47" s="7">
         <v>3</v>
@@ -2920,7 +2923,7 @@
         <v>41</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D48" s="7">
         <v>1</v>
@@ -2932,7 +2935,7 @@
         <v>9</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H48" s="15"/>
     </row>
@@ -3013,7 +3016,7 @@
         <v>82</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D53" s="7">
         <v>2</v>
@@ -3034,7 +3037,7 @@
         <v>82</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D54" s="7">
         <v>3</v>
@@ -3055,7 +3058,7 @@
         <v>82</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D55" s="7">
         <v>1</v>
@@ -3067,7 +3070,7 @@
         <v>9</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H55" s="15"/>
     </row>
@@ -3085,7 +3088,7 @@
         <v>71</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D57" s="8">
         <v>5</v>
@@ -3106,7 +3109,7 @@
         <v>71</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D58" s="7">
         <v>4</v>
@@ -3148,7 +3151,7 @@
         <v>87</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D60" s="7">
         <v>5</v>
@@ -3192,7 +3195,7 @@
         <v>71</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D62" s="7">
         <v>2</v>
@@ -3213,7 +3216,7 @@
         <v>71</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D63" s="7">
         <v>3</v>
@@ -3234,7 +3237,7 @@
         <v>71</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D64" s="7">
         <v>1</v>
@@ -3261,10 +3264,10 @@
     </row>
     <row r="66" spans="2:8" ht="18.75">
       <c r="B66" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="D66" s="4">
         <v>2</v>
@@ -3276,16 +3279,16 @@
         <v>9</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H66" s="15"/>
     </row>
     <row r="67" spans="2:8" ht="18.75">
       <c r="B67" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D67" s="7">
         <v>2</v>
@@ -3303,10 +3306,10 @@
     </row>
     <row r="68" spans="2:8" ht="18.75">
       <c r="B68" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D68" s="7">
         <v>2</v>
@@ -3324,10 +3327,10 @@
     </row>
     <row r="69" spans="2:8" ht="18.75">
       <c r="B69" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D69" s="7">
         <v>2</v>
@@ -3339,7 +3342,7 @@
         <v>9</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H69" s="15"/>
     </row>
@@ -3354,7 +3357,7 @@
     </row>
     <row r="71" spans="2:8" ht="18.75">
       <c r="B71" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>45</v>
@@ -3377,7 +3380,7 @@
     </row>
     <row r="72" spans="2:8" ht="18.75">
       <c r="B72" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>47</v>
@@ -3398,7 +3401,7 @@
     </row>
     <row r="73" spans="2:8" ht="18.75">
       <c r="B73" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>99</v>
@@ -3419,7 +3422,7 @@
     </row>
     <row r="74" spans="2:8" ht="18.75">
       <c r="B74" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>48</v>
@@ -3442,7 +3445,7 @@
     </row>
     <row r="75" spans="2:8" ht="18.75">
       <c r="B75" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>50</v>
@@ -3460,12 +3463,12 @@
         <v>14</v>
       </c>
       <c r="H75" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="76" spans="2:8" ht="18.75">
       <c r="B76" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>97</v>
@@ -3483,12 +3486,12 @@
         <v>10</v>
       </c>
       <c r="H76" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77" spans="2:8" ht="18.75">
       <c r="B77" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>98</v>
@@ -3533,7 +3536,7 @@
         <v>9</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H79" s="14"/>
     </row>
@@ -3605,7 +3608,7 @@
         <v>51</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D83" s="7">
         <v>0.5</v>
@@ -3617,7 +3620,7 @@
         <v>9</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H83" s="15"/>
     </row>
@@ -3698,7 +3701,7 @@
         <v>55</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D88" s="7">
         <v>1</v>
@@ -3719,7 +3722,7 @@
         <v>55</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D89" s="7">
         <v>0.5</v>
@@ -3731,7 +3734,7 @@
         <v>9</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H89" s="15"/>
     </row>
@@ -3746,10 +3749,10 @@
     </row>
     <row r="91" spans="2:8" ht="18.75">
       <c r="B91" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>130</v>
       </c>
       <c r="D91" s="8">
         <v>0.5</v>
@@ -3761,13 +3764,13 @@
         <v>9</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H91" s="14"/>
     </row>
     <row r="92" spans="2:8" ht="18.75">
       <c r="B92" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>57</v>
@@ -3788,10 +3791,10 @@
     </row>
     <row r="93" spans="2:8" ht="18.75">
       <c r="B93" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D93" s="7">
         <v>1</v>
@@ -3809,10 +3812,10 @@
     </row>
     <row r="94" spans="2:8" ht="18.75">
       <c r="B94" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C94" s="49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D94" s="7">
         <v>1</v>
@@ -3827,15 +3830,15 @@
         <v>10</v>
       </c>
       <c r="H94" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="18.75">
       <c r="B95" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C95" s="53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D95" s="52">
         <v>1</v>
@@ -3850,7 +3853,7 @@
         <v>10</v>
       </c>
       <c r="H95" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="18.75">
@@ -3976,7 +3979,7 @@
         <v>59</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D102" s="7">
         <v>1</v>
@@ -4003,10 +4006,10 @@
     </row>
     <row r="104" spans="2:8" ht="18.75">
       <c r="B104" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D104" s="8">
         <v>0.5</v>
@@ -4018,13 +4021,13 @@
         <v>9</v>
       </c>
       <c r="G104" s="10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H104" s="15"/>
     </row>
     <row r="105" spans="2:8" ht="18.75">
       <c r="B105" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>57</v>
@@ -4045,7 +4048,7 @@
     </row>
     <row r="106" spans="2:8" ht="18.75">
       <c r="B106" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>58</v>
@@ -4066,10 +4069,10 @@
     </row>
     <row r="107" spans="2:8" ht="18.75">
       <c r="B107" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D107" s="7">
         <v>1</v>
@@ -4084,15 +4087,15 @@
         <v>10</v>
       </c>
       <c r="H107" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="108" spans="2:8" ht="18.75">
       <c r="B108" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D108" s="7">
         <v>0.5</v>
@@ -4251,7 +4254,7 @@
   <dimension ref="B2:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4273,16 +4276,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D2" s="50" t="s">
         <v>103</v>
       </c>
       <c r="E2" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="50" t="s">
         <v>141</v>
-      </c>
-      <c r="F2" s="50" t="s">
-        <v>142</v>
       </c>
       <c r="G2" s="37" t="s">
         <v>66</v>
@@ -4308,7 +4311,7 @@
       </c>
       <c r="D3" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "プレイヤー", コスト表!G:G, "完了")</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "プレイヤー", コスト表!G:G, "作業中")</f>
@@ -4316,18 +4319,18 @@
       </c>
       <c r="F3" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "プレイヤー", コスト表!G:G, "未着手")</f>
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="G3" s="40">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "プレイヤー", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "プレイヤー") * 100,1)</f>
-        <v>70.8</v>
+        <v>75</v>
       </c>
       <c r="I3" s="31" t="s">
         <v>21</v>
       </c>
       <c r="J3" s="29">
         <f>SUMIF(コスト表!G:G,"完了",コスト表!D:D)</f>
-        <v>93.5</v>
+        <v>100.5</v>
       </c>
       <c r="K3" s="28" t="s">
         <v>22</v>
@@ -4336,7 +4339,7 @@
     </row>
     <row r="4" spans="2:13" ht="19.5">
       <c r="B4" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C4" s="19">
         <f>SUMIF(コスト表!B:B, B4, コスト表!D:D)</f>
@@ -4348,11 +4351,11 @@
       </c>
       <c r="E4" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "敵ベース", コスト表!G:G, "作業中")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "敵ベース", コスト表!G:G, "未着手")</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G4" s="40">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "敵ベース", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "敵ベース") * 100,1)</f>
@@ -4363,7 +4366,7 @@
       </c>
       <c r="J4" s="29">
         <f ca="1">NETWORKDAYS(J5,J6)</f>
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K4" s="29">
         <f ca="1" xml:space="preserve"> ROUNDDOWN(J3 / J4,1)</f>
@@ -4385,11 +4388,11 @@
       </c>
       <c r="E5" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "敵1(通常ゾンビ)", コスト表!G:G, "作業中")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "敵1(通常ゾンビ)", コスト表!G:G, "未着手")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" s="40">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "敵1(通常ゾンビ)", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "敵1(通常ゾンビ)") * 100,1)</f>
@@ -4420,11 +4423,11 @@
       </c>
       <c r="E6" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "敵2(ランナーゾンビ)", コスト表!G:G, "作業中")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="51">
         <f>SUMIFS(コスト表!D:D,コスト表!B:B,"敵2(ランナーゾンビ)",コスト表!G:G,"未着手")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" s="40">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "敵2(ランナーゾンビ)", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "敵2(ランナーゾンビ)") * 100,1)</f>
@@ -4435,7 +4438,7 @@
       </c>
       <c r="J6" s="46">
         <f ca="1">TODAY()</f>
-        <v>45851</v>
+        <v>45853</v>
       </c>
       <c r="K6" s="46"/>
       <c r="L6" s="28"/>
@@ -4455,11 +4458,11 @@
       </c>
       <c r="E7" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "敵3(遠距離型ゾンビ)", コスト表!G:G, "作業中")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "敵3(遠距離型ゾンビ)", コスト表!G:G, "未着手")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" s="40">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "敵3(遠距離型ゾンビ)", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "敵3(遠距離型ゾンビ)") * 100,1)</f>
@@ -4502,7 +4505,7 @@
     </row>
     <row r="9" spans="2:13" ht="24">
       <c r="B9" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C9" s="19">
         <f>SUMIF(コスト表!B:B, B9, コスト表!D:D)</f>
@@ -4510,11 +4513,11 @@
       </c>
       <c r="D9" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "マップ", コスト表!G:G, "完了")</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E9" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "マップ", コスト表!G:G, "作業中")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F9" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "マップ", コスト表!G:G, "未着手")</f>
@@ -4522,7 +4525,7 @@
       </c>
       <c r="G9" s="40">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "マップ", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "マップ") * 100,1)</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I9" s="55" t="s">
         <v>65</v>
@@ -4533,16 +4536,16 @@
       </c>
       <c r="K9" s="57">
         <f ca="1">NETWORKDAYS(TODAY(),J9)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L9" s="59">
         <f ca="1">ROUNDDOWN(($J$2-$J$3)/K9, 1)</f>
-        <v>10.7</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="19.5">
       <c r="B10" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C10" s="19">
         <f>SUMIF(コスト表!B:B, B10, コスト表!D:D)</f>
@@ -4573,11 +4576,11 @@
       </c>
       <c r="K10" s="58">
         <f ca="1">NETWORKDAYS(TODAY(),J10)</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L10" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K10,1)</f>
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="19.5">
@@ -4590,19 +4593,19 @@
       </c>
       <c r="D11" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "アイテム", コスト表!G:G, "完了")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E11" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "アイテム", コスト表!G:G, "作業中")</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F11" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "アイテム", コスト表!G:G, "未着手")</f>
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="G11" s="40">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "アイテム", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "アイテム") * 100,1)</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I11" s="31" t="s">
         <v>29</v>
@@ -4613,11 +4616,11 @@
       </c>
       <c r="K11" s="58">
         <f ca="1">NETWORKDAYS(TODAY(),J11)</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L11" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K11,1)</f>
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="19.5">
@@ -4634,11 +4637,11 @@
       </c>
       <c r="E12" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "タイトル", コスト表!G:G, "作業中")</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F12" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "タイトル", コスト表!G:G, "未着手")</f>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="G12" s="40">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "タイトル", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "タイトル") * 100,1)</f>
@@ -4653,16 +4656,16 @@
       </c>
       <c r="K12" s="58">
         <f ca="1">NETWORKDAYS(TODAY(),J12)</f>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L12" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K12,1)</f>
-        <v>2.2999999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="13" spans="2:13">
       <c r="B13" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C13" s="19">
         <f>SUMIF(コスト表!B:B, B13, コスト表!D:D)</f>
@@ -4674,11 +4677,11 @@
       </c>
       <c r="E13" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "リザルト", コスト表!G:G, "作業中")</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F13" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "リザルト", コスト表!G:G, "未着手")</f>
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="G13" s="40">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "リザルト", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "リザルト") * 100,1)</f>
@@ -4727,7 +4730,7 @@
     </row>
     <row r="15" spans="2:13">
       <c r="B15" s="41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C15" s="66">
         <f>SUMIF(コスト表!B:B, B15, コスト表!D:D)</f>
@@ -4739,11 +4742,11 @@
       </c>
       <c r="E15" s="66">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "ゲームオーバー", コスト表!G:G, "作業中")</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F15" s="66">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "ゲームオーバー", コスト表!G:G, "未着手")</f>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="G15" s="43">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "ゲームオーバー", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "ゲームオーバー") * 100,1)</f>
@@ -4758,11 +4761,11 @@
       </c>
       <c r="K15" s="43">
         <f>SUMIFS(コスト表!D:D, コスト表!F:F, "プロト", コスト表!G:G, "完了")</f>
-        <v>80.5</v>
+        <v>86.5</v>
       </c>
       <c r="L15" s="43">
         <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "プロト", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "プロト") * 100,1)</f>
-        <v>58.3</v>
+        <v>63.3</v>
       </c>
     </row>
     <row r="16" spans="2:13">
@@ -4775,7 +4778,7 @@
       <c r="F16" s="9"/>
       <c r="G16" s="40">
         <f>ROUNDDOWN(COUNTIF(コスト表!G:G, "完了") / COUNTA(コスト表!G:G) * 100,1)</f>
-        <v>46.3</v>
+        <v>50.5</v>
       </c>
       <c r="I16" s="43" t="s">
         <v>12</v>
@@ -4786,11 +4789,11 @@
       </c>
       <c r="K16" s="43">
         <f>SUMIFS(コスト表!D:D, コスト表!F:F, "アルファ", コスト表!G:G, "完了")</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L16" s="43">
         <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "アルファ", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "アルファ") * 100,1)</f>
-        <v>27.2</v>
+        <v>30.3</v>
       </c>
     </row>
     <row r="17" spans="3:12">
@@ -4940,27 +4943,27 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="63" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="63" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="63" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="64" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -4970,6 +4973,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006836AD0B55474E4CAD520F1DEB8FB579" ma:contentTypeVersion="3" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="078ba6c1f7b5b638bb57eb024ae572f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="187a6309-4c0c-49e3-bd2d-e8130eb88270" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5f182963113af090d1b42042cf04cb6" ns2:_="">
     <xsd:import namespace="187a6309-4c0c-49e3-bd2d-e8130eb88270"/>
@@ -5107,22 +5125,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A1D85CE-B20E-4841-A55B-779E85453EF9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5138,21 +5158,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ゾンビシューターゲームコスト表.xlsx
+++ b/ゾンビシューターゲームコスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\由留部 瑛人\Documents\MyGame3D2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A00A22-AD0E-440C-B9EE-3BD33DFBEE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8BE969-083A-4DA1-8014-74661DECE82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="20355" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5340" yWindow="2625" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コスト表" sheetId="1" r:id="rId1"/>
@@ -1949,9 +1949,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I132"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G104" sqref="G104"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -3578,7 +3578,7 @@
         <v>12</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H81" s="15"/>
     </row>
@@ -3599,7 +3599,7 @@
         <v>12</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H82" s="15"/>
     </row>
@@ -4253,7 +4253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -4330,7 +4330,7 @@
       </c>
       <c r="J3" s="29">
         <f>SUMIF(コスト表!G:G,"完了",コスト表!D:D)</f>
-        <v>100.5</v>
+        <v>104.5</v>
       </c>
       <c r="K3" s="28" t="s">
         <v>22</v>
@@ -4366,11 +4366,11 @@
       </c>
       <c r="J4" s="29">
         <f ca="1">NETWORKDAYS(J5,J6)</f>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K4" s="29">
         <f ca="1" xml:space="preserve"> ROUNDDOWN(J3 / J4,1)</f>
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="M4" s="28"/>
     </row>
@@ -4438,7 +4438,7 @@
       </c>
       <c r="J6" s="46">
         <f ca="1">TODAY()</f>
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="K6" s="46"/>
       <c r="L6" s="28"/>
@@ -4536,11 +4536,11 @@
       </c>
       <c r="K9" s="57">
         <f ca="1">NETWORKDAYS(TODAY(),J9)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L9" s="59">
         <f ca="1">ROUNDDOWN(($J$2-$J$3)/K9, 1)</f>
-        <v>11.2</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="19.5">
@@ -4576,11 +4576,11 @@
       </c>
       <c r="K10" s="58">
         <f ca="1">NETWORKDAYS(TODAY(),J10)</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L10" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K10,1)</f>
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="19.5">
@@ -4593,7 +4593,7 @@
       </c>
       <c r="D11" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "アイテム", コスト表!G:G, "完了")</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E11" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "アイテム", コスト表!G:G, "作業中")</f>
@@ -4601,11 +4601,11 @@
       </c>
       <c r="F11" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "アイテム", コスト表!G:G, "未着手")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G11" s="40">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "アイテム", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "アイテム") * 100,1)</f>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="I11" s="31" t="s">
         <v>29</v>
@@ -4616,7 +4616,7 @@
       </c>
       <c r="K11" s="58">
         <f ca="1">NETWORKDAYS(TODAY(),J11)</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L11" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K11,1)</f>
@@ -4656,7 +4656,7 @@
       </c>
       <c r="K12" s="58">
         <f ca="1">NETWORKDAYS(TODAY(),J12)</f>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L12" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K12,1)</f>
@@ -4778,7 +4778,7 @@
       <c r="F16" s="9"/>
       <c r="G16" s="40">
         <f>ROUNDDOWN(COUNTIF(コスト表!G:G, "完了") / COUNTA(コスト表!G:G) * 100,1)</f>
-        <v>50.5</v>
+        <v>52.6</v>
       </c>
       <c r="I16" s="43" t="s">
         <v>12</v>
@@ -4789,11 +4789,11 @@
       </c>
       <c r="K16" s="43">
         <f>SUMIFS(コスト表!D:D, コスト表!F:F, "アルファ", コスト表!G:G, "完了")</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L16" s="43">
         <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "アルファ", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "アルファ") * 100,1)</f>
-        <v>30.3</v>
+        <v>36.299999999999997</v>
       </c>
     </row>
     <row r="17" spans="3:12">
@@ -4973,21 +4973,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006836AD0B55474E4CAD520F1DEB8FB579" ma:contentTypeVersion="3" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="078ba6c1f7b5b638bb57eb024ae572f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="187a6309-4c0c-49e3-bd2d-e8130eb88270" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5f182963113af090d1b42042cf04cb6" ns2:_="">
     <xsd:import namespace="187a6309-4c0c-49e3-bd2d-e8130eb88270"/>
@@ -5125,24 +5110,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A1D85CE-B20E-4841-A55B-779E85453EF9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5158,4 +5141,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ゾンビシューターゲームコスト表.xlsx
+++ b/ゾンビシューターゲームコスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\由留部 瑛人\Documents\MyGame3D2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8BE969-083A-4DA1-8014-74661DECE82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCAF418-6ECE-42EA-8676-F41B2F0AD282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="2625" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1350" yWindow="1830" windowWidth="23610" windowHeight="13035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コスト表" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="その他" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">コスト表!$E$2:$G$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">コスト表!$E$2:$G$133</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">分類別コスト集計!$B$2:$G$21</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="158">
   <si>
     <t>分類</t>
   </si>
@@ -984,6 +984,13 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>難易度調整</t>
+    <rPh sb="3" eb="5">
+      <t>チョウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1947,11 +1954,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I132"/>
+  <dimension ref="B1:I133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H81" sqref="H81"/>
+      <pane ySplit="2" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -3506,67 +3513,67 @@
         <v>12</v>
       </c>
       <c r="G77" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H77" s="15"/>
+    </row>
+    <row r="78" spans="2:8" ht="18.75">
+      <c r="B78" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D78" s="7">
+        <v>2</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G78" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H77" s="15"/>
-    </row>
-    <row r="78" spans="2:8" ht="18.75">
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
       <c r="H78" s="15"/>
     </row>
     <row r="79" spans="2:8" ht="18.75">
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="15"/>
+    </row>
+    <row r="80" spans="2:8" ht="18.75">
+      <c r="B80" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C80" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D79" s="8">
+      <c r="D80" s="8">
         <v>2</v>
       </c>
-      <c r="E79" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F79" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G79" s="10" t="s">
+      <c r="E80" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G80" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H79" s="14"/>
-    </row>
-    <row r="80" spans="2:8" ht="18.75">
-      <c r="B80" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D80" s="7">
-        <v>2</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F80" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G80" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H80" s="15"/>
+      <c r="H80" s="14"/>
     </row>
     <row r="81" spans="2:8" ht="18.75">
       <c r="B81" s="1" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D81" s="7">
         <v>2</v>
@@ -3575,7 +3582,7 @@
         <v>8</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G81" s="11" t="s">
         <v>14</v>
@@ -3587,7 +3594,7 @@
         <v>51</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="D82" s="7">
         <v>2</v>
@@ -3608,70 +3615,70 @@
         <v>51</v>
       </c>
       <c r="C83" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D83" s="7">
+        <v>2</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H83" s="15"/>
+    </row>
+    <row r="84" spans="2:8" ht="18.75">
+      <c r="B84" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D83" s="7">
+      <c r="D84" s="7">
         <v>0.5</v>
       </c>
-      <c r="E83" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F83" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G83" s="11" t="s">
+      <c r="E84" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G84" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H83" s="15"/>
-    </row>
-    <row r="84" spans="2:8" ht="18.75">
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="12"/>
-      <c r="H84" s="16"/>
+      <c r="H84" s="15"/>
     </row>
     <row r="85" spans="2:8" ht="18.75">
-      <c r="B85" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D85" s="4">
-        <v>1</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F85" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G85" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H85" s="15"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="16"/>
     </row>
     <row r="86" spans="2:8" ht="18.75">
       <c r="B86" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D86" s="7">
-        <v>0.5</v>
+        <v>56</v>
+      </c>
+      <c r="D86" s="4">
+        <v>1</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H86" s="15"/>
     </row>
@@ -3680,19 +3687,19 @@
         <v>55</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D87" s="7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H87" s="15"/>
     </row>
@@ -3701,7 +3708,7 @@
         <v>55</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>144</v>
+        <v>58</v>
       </c>
       <c r="D88" s="7">
         <v>1</v>
@@ -3722,88 +3729,88 @@
         <v>55</v>
       </c>
       <c r="C89" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D89" s="7">
+        <v>1</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F89" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G89" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H89" s="15"/>
+    </row>
+    <row r="90" spans="2:8" ht="18.75">
+      <c r="B90" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D89" s="7">
+      <c r="D90" s="7">
         <v>0.5</v>
       </c>
-      <c r="E89" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F89" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G89" s="11" t="s">
+      <c r="E90" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G90" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H89" s="15"/>
-    </row>
-    <row r="90" spans="2:8" ht="18.75">
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11"/>
       <c r="H90" s="15"/>
     </row>
     <row r="91" spans="2:8" ht="18.75">
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="15"/>
+    </row>
+    <row r="92" spans="2:8" ht="18.75">
+      <c r="B92" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C92" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D91" s="8">
+      <c r="D92" s="8">
         <v>0.5</v>
       </c>
-      <c r="E91" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G91" s="10" t="s">
+      <c r="E92" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G92" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H91" s="14"/>
-    </row>
-    <row r="92" spans="2:8" ht="18.75">
-      <c r="B92" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D92" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F92" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G92" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H92" s="15"/>
+      <c r="H92" s="14"/>
     </row>
     <row r="93" spans="2:8" ht="18.75">
       <c r="B93" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>133</v>
+        <v>57</v>
       </c>
       <c r="D93" s="7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G93" s="11" t="s">
         <v>10</v>
@@ -3812,16 +3819,16 @@
     </row>
     <row r="94" spans="2:8" ht="18.75">
       <c r="B94" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C94" s="49" t="s">
-        <v>131</v>
+        <v>127</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="D94" s="7">
         <v>1</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F94" s="11" t="s">
         <v>12</v>
@@ -3829,92 +3836,92 @@
       <c r="G94" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H94" s="15" t="s">
-        <v>132</v>
-      </c>
+      <c r="H94" s="15"/>
     </row>
     <row r="95" spans="2:8" ht="18.75">
       <c r="B95" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C95" s="53" t="s">
+      <c r="C95" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="D95" s="7">
+        <v>1</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F95" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G95" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H95" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" ht="18.75">
+      <c r="B96" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C96" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="D95" s="52">
+      <c r="D96" s="52">
         <v>1</v>
       </c>
-      <c r="E95" s="52" t="s">
+      <c r="E96" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="F95" s="52" t="s">
+      <c r="F96" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="G95" s="5" t="s">
+      <c r="G96" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H95" s="15" t="s">
+      <c r="H96" s="15" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="96" spans="2:8" ht="18.75">
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="11"/>
-      <c r="G96" s="11"/>
-      <c r="H96" s="15"/>
-    </row>
     <row r="97" spans="2:8" ht="18.75">
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="15"/>
+    </row>
+    <row r="98" spans="2:8" ht="18.75">
+      <c r="B98" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C98" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D97" s="4">
+      <c r="D98" s="4">
         <v>2</v>
       </c>
-      <c r="E97" s="4" t="s">
+      <c r="E98" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F97" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G97" s="10" t="s">
+      <c r="F98" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G98" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H97" s="14" t="s">
+      <c r="H98" s="14" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="98" spans="2:8" ht="18.75">
-      <c r="B98" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D98" s="7">
-        <v>1</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F98" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G98" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H98" s="15"/>
     </row>
     <row r="99" spans="2:8" ht="18.75">
       <c r="B99" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D99" s="7">
         <v>1</v>
@@ -3928,19 +3935,17 @@
       <c r="G99" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H99" s="15" t="s">
-        <v>81</v>
-      </c>
+      <c r="H99" s="15"/>
     </row>
     <row r="100" spans="2:8" ht="18.75">
       <c r="B100" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D100" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>8</v>
@@ -3951,23 +3956,25 @@
       <c r="G100" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H100" s="15"/>
+      <c r="H100" s="15" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="101" spans="2:8" ht="18.75">
       <c r="B101" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D101" s="7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G101" s="11" t="s">
         <v>10</v>
@@ -3979,7 +3986,7 @@
         <v>59</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>144</v>
+        <v>58</v>
       </c>
       <c r="D102" s="7">
         <v>1</v>
@@ -3996,53 +4003,53 @@
       <c r="H102" s="15"/>
     </row>
     <row r="103" spans="2:8" ht="18.75">
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="12"/>
-      <c r="G103" s="12"/>
-      <c r="H103" s="16"/>
+      <c r="B103" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D103" s="7">
+        <v>1</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F103" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G103" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H103" s="15"/>
     </row>
     <row r="104" spans="2:8" ht="18.75">
-      <c r="B104" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D104" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F104" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G104" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H104" s="15"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="16"/>
     </row>
     <row r="105" spans="2:8" ht="18.75">
       <c r="B105" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D105" s="7">
+        <v>143</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D105" s="8">
         <v>0.5</v>
       </c>
-      <c r="E105" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F105" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G105" s="11" t="s">
-        <v>14</v>
+      <c r="E105" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F105" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G105" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="H105" s="15"/>
     </row>
@@ -4051,19 +4058,19 @@
         <v>142</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D106" s="7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H106" s="15"/>
     </row>
@@ -4072,7 +4079,7 @@
         <v>142</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>144</v>
+        <v>58</v>
       </c>
       <c r="D107" s="7">
         <v>1</v>
@@ -4086,44 +4093,60 @@
       <c r="G107" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H107" s="15" t="s">
-        <v>146</v>
-      </c>
+      <c r="H107" s="15"/>
     </row>
     <row r="108" spans="2:8" ht="18.75">
       <c r="B108" s="1" t="s">
         <v>142</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="D108" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F108" s="11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G108" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H108" s="15"/>
+      <c r="H108" s="15" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="109" spans="2:8" ht="18.75">
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="12"/>
-      <c r="G109" s="12"/>
-      <c r="H109" s="16"/>
+      <c r="B109" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D109" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F109" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G109" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H109" s="15"/>
     </row>
     <row r="110" spans="2:8" ht="18.75">
-      <c r="C110"/>
-      <c r="D110" s="7"/>
-      <c r="H110" s="13"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="16"/>
     </row>
     <row r="111" spans="2:8" ht="18.75">
       <c r="C111"/>
@@ -4180,26 +4203,26 @@
       <c r="D121" s="7"/>
       <c r="H121" s="13"/>
     </row>
-    <row r="122" spans="3:8" ht="18.75"/>
+    <row r="122" spans="3:8" ht="18.75">
+      <c r="C122"/>
+      <c r="D122" s="7"/>
+      <c r="H122" s="13"/>
+    </row>
     <row r="123" spans="3:8" ht="18.75"/>
     <row r="124" spans="3:8" ht="18.75"/>
     <row r="125" spans="3:8" ht="18.75"/>
-    <row r="126" spans="3:8" ht="18.75">
-      <c r="C126"/>
-      <c r="D126" s="7"/>
-      <c r="H126" s="13"/>
-    </row>
+    <row r="126" spans="3:8" ht="18.75"/>
     <row r="127" spans="3:8" ht="18.75">
       <c r="C127"/>
       <c r="D127" s="7"/>
       <c r="H127" s="13"/>
     </row>
     <row r="128" spans="3:8" ht="18.75">
+      <c r="C128"/>
+      <c r="D128" s="7"/>
       <c r="H128" s="13"/>
     </row>
     <row r="129" spans="3:8" ht="18.75">
-      <c r="C129"/>
-      <c r="D129" s="7"/>
       <c r="H129" s="13"/>
     </row>
     <row r="130" spans="3:8" ht="18.75">
@@ -4217,8 +4240,13 @@
       <c r="D132" s="7"/>
       <c r="H132" s="13"/>
     </row>
+    <row r="133" spans="3:8" ht="18.75">
+      <c r="C133"/>
+      <c r="D133" s="7"/>
+      <c r="H133" s="13"/>
+    </row>
   </sheetData>
-  <autoFilter ref="E2:G132" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="E2:G133" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
@@ -4229,19 +4257,19 @@
           <x14:formula1>
             <xm:f>その他!$B$3:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>G126:G127 G129:G1048576 G1:G26 G28:G121</xm:sqref>
+          <xm:sqref>G127:G128 G130:G1048576 G1:G26 G28:G122</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{66D8840C-D443-486F-BC72-01200775D285}">
           <x14:formula1>
             <xm:f>その他!$D$3:$D$6</xm:f>
           </x14:formula1>
-          <xm:sqref>F126:F127 F129:F1048576 F1:F26 F28:F121</xm:sqref>
+          <xm:sqref>F127:F128 F130:F1048576 F1:F26 F28:F122</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D61B1C0A-2748-4606-B0EE-00EEC89A23C6}">
           <x14:formula1>
             <xm:f>その他!$F$3:$F$6</xm:f>
           </x14:formula1>
-          <xm:sqref>E126:E127 E129:E1048576 E1:E26 E28:E121</xm:sqref>
+          <xm:sqref>E127:E128 E130:E1048576 E1:E26 E28:E122</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4254,7 +4282,7 @@
   <dimension ref="B2:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4295,7 +4323,7 @@
       </c>
       <c r="J2" s="29">
         <f>SUM(C:C)</f>
-        <v>179.5</v>
+        <v>181.5</v>
       </c>
       <c r="K2" s="29"/>
       <c r="L2" s="28"/>
@@ -4540,7 +4568,7 @@
       </c>
       <c r="L9" s="59">
         <f ca="1">ROUNDDOWN(($J$2-$J$3)/K9, 1)</f>
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="19.5">
@@ -4549,7 +4577,7 @@
       </c>
       <c r="C10" s="19">
         <f>SUMIF(コスト表!B:B, B10, コスト表!D:D)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "ウェーブ管理", コスト表!G:G, "完了")</f>
@@ -4557,15 +4585,15 @@
       </c>
       <c r="E10" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "ウェーブ管理", コスト表!G:G, "作業中")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F10" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "ウェーブ管理", コスト表!G:G, "未着手")</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G10" s="40">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "ウェーブ管理", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "ウェーブ管理") * 100,1)</f>
-        <v>71.400000000000006</v>
+        <v>62.5</v>
       </c>
       <c r="I10" s="30" t="s">
         <v>28</v>
@@ -4580,7 +4608,7 @@
       </c>
       <c r="L10" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K10,1)</f>
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="19.5">
@@ -4620,7 +4648,7 @@
       </c>
       <c r="L11" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K11,1)</f>
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="19.5">
@@ -4778,7 +4806,7 @@
       <c r="F16" s="9"/>
       <c r="G16" s="40">
         <f>ROUNDDOWN(COUNTIF(コスト表!G:G, "完了") / COUNTA(コスト表!G:G) * 100,1)</f>
-        <v>52.6</v>
+        <v>52</v>
       </c>
       <c r="I16" s="43" t="s">
         <v>12</v>
@@ -4802,7 +4830,7 @@
       </c>
       <c r="J17" s="43">
         <f>SUMIF(コスト表!F:F, "ベータ", コスト表!D:D)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K17" s="43">
         <f>SUMIFS(コスト表!D:D, コスト表!F:F, "ベータ", コスト表!G:G, "完了")</f>
@@ -4973,6 +5001,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006836AD0B55474E4CAD520F1DEB8FB579" ma:contentTypeVersion="3" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="078ba6c1f7b5b638bb57eb024ae572f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="187a6309-4c0c-49e3-bd2d-e8130eb88270" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5f182963113af090d1b42042cf04cb6" ns2:_="">
     <xsd:import namespace="187a6309-4c0c-49e3-bd2d-e8130eb88270"/>
@@ -5110,22 +5153,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A1D85CE-B20E-4841-A55B-779E85453EF9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5141,21 +5186,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ゾンビシューターゲームコスト表.xlsx
+++ b/ゾンビシューターゲームコスト表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\由留部 瑛人\Documents\MyGame3D2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCAF418-6ECE-42EA-8676-F41B2F0AD282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5095CD5-C140-452E-B5EF-EA1C27ABF4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1350" yWindow="1830" windowWidth="23610" windowHeight="13035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="159">
   <si>
     <t>分類</t>
   </si>
@@ -991,6 +991,16 @@
     <t>難易度調整</t>
     <rPh sb="3" eb="5">
       <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果UI実装</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジッソウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1957,8 +1967,8 @@
   <dimension ref="B1:I133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H78" sqref="H78"/>
+      <pane ySplit="2" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -3813,7 +3823,7 @@
         <v>9</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H93" s="15"/>
     </row>
@@ -3866,19 +3876,19 @@
         <v>128</v>
       </c>
       <c r="C96" s="53" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="D96" s="52">
         <v>1</v>
       </c>
       <c r="E96" s="52" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F96" s="52" t="s">
         <v>12</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H96" s="15" t="s">
         <v>145</v>
@@ -4358,7 +4368,7 @@
       </c>
       <c r="J3" s="29">
         <f>SUMIF(コスト表!G:G,"完了",コスト表!D:D)</f>
-        <v>104.5</v>
+        <v>106</v>
       </c>
       <c r="K3" s="28" t="s">
         <v>22</v>
@@ -4568,7 +4578,7 @@
       </c>
       <c r="L9" s="59">
         <f ca="1">ROUNDDOWN(($J$2-$J$3)/K9, 1)</f>
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="19.5">
@@ -4608,7 +4618,7 @@
       </c>
       <c r="L10" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K10,1)</f>
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="19.5">
@@ -4648,7 +4658,7 @@
       </c>
       <c r="L11" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K11,1)</f>
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="19.5">
@@ -4701,7 +4711,7 @@
       </c>
       <c r="D13" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "リザルト", コスト表!G:G, "完了")</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E13" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "リザルト", コスト表!G:G, "作業中")</f>
@@ -4709,11 +4719,11 @@
       </c>
       <c r="F13" s="51">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "リザルト", コスト表!G:G, "未着手")</f>
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="G13" s="40">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "リザルト", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "リザルト") * 100,1)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J13" s="46"/>
       <c r="K13" s="44"/>
@@ -4789,11 +4799,11 @@
       </c>
       <c r="K15" s="43">
         <f>SUMIFS(コスト表!D:D, コスト表!F:F, "プロト", コスト表!G:G, "完了")</f>
-        <v>86.5</v>
+        <v>87</v>
       </c>
       <c r="L15" s="43">
         <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "プロト", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "プロト") * 100,1)</f>
-        <v>63.3</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="2:13">
@@ -4806,7 +4816,7 @@
       <c r="F16" s="9"/>
       <c r="G16" s="40">
         <f>ROUNDDOWN(COUNTIF(コスト表!G:G, "完了") / COUNTA(コスト表!G:G) * 100,1)</f>
-        <v>52</v>
+        <v>54.1</v>
       </c>
       <c r="I16" s="43" t="s">
         <v>12</v>
@@ -4817,11 +4827,11 @@
       </c>
       <c r="K16" s="43">
         <f>SUMIFS(コスト表!D:D, コスト表!F:F, "アルファ", コスト表!G:G, "完了")</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L16" s="43">
         <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "アルファ", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "アルファ") * 100,1)</f>
-        <v>36.299999999999997</v>
+        <v>39.299999999999997</v>
       </c>
     </row>
     <row r="17" spans="3:12">

--- a/ゾンビシューターゲームコスト表.xlsx
+++ b/ゾンビシューターゲームコスト表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\由留部 瑛人\Documents\MyGame3D2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5095CD5-C140-452E-B5EF-EA1C27ABF4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5017835-09C6-4AA5-8134-3E57B7E9655B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1350" yWindow="1830" windowWidth="23610" windowHeight="13035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1968,7 +1968,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F94" sqref="F94"/>
+      <selection pane="bottomLeft" activeCell="H108" sqref="H108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -4122,7 +4122,7 @@
         <v>12</v>
       </c>
       <c r="G108" s="11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H108" s="15" t="s">
         <v>146</v>
@@ -4368,7 +4368,7 @@
       </c>
       <c r="J3" s="29">
         <f>SUMIF(コスト表!G:G,"完了",コスト表!D:D)</f>
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K3" s="28" t="s">
         <v>22</v>
@@ -4404,7 +4404,7 @@
       </c>
       <c r="J4" s="29">
         <f ca="1">NETWORKDAYS(J5,J6)</f>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K4" s="29">
         <f ca="1" xml:space="preserve"> ROUNDDOWN(J3 / J4,1)</f>
@@ -4476,7 +4476,7 @@
       </c>
       <c r="J6" s="46">
         <f ca="1">TODAY()</f>
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="K6" s="46"/>
       <c r="L6" s="28"/>
@@ -4574,11 +4574,11 @@
       </c>
       <c r="K9" s="57">
         <f ca="1">NETWORKDAYS(TODAY(),J9)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L9" s="59">
         <f ca="1">ROUNDDOWN(($J$2-$J$3)/K9, 1)</f>
-        <v>12.5</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="19.5">
@@ -4614,11 +4614,11 @@
       </c>
       <c r="K10" s="58">
         <f ca="1">NETWORKDAYS(TODAY(),J10)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L10" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K10,1)</f>
-        <v>4.4000000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="19.5">
@@ -4654,11 +4654,11 @@
       </c>
       <c r="K11" s="58">
         <f ca="1">NETWORKDAYS(TODAY(),J11)</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L11" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K11,1)</f>
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="19.5">
@@ -4694,7 +4694,7 @@
       </c>
       <c r="K12" s="58">
         <f ca="1">NETWORKDAYS(TODAY(),J12)</f>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L12" s="60">
         <f ca="1">ROUNDDOWN(($J$2 - $J$3) / K12,1)</f>
@@ -4776,7 +4776,7 @@
       </c>
       <c r="D15" s="66">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "ゲームオーバー", コスト表!G:G, "完了")</f>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="E15" s="66">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "ゲームオーバー", コスト表!G:G, "作業中")</f>
@@ -4784,11 +4784,11 @@
       </c>
       <c r="F15" s="66">
         <f>SUMIFS(コスト表!D:D, コスト表!B:B, "ゲームオーバー", コスト表!G:G, "未着手")</f>
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="G15" s="43">
         <f>ROUNDDOWN(COUNTIFS(コスト表!B:B, "ゲームオーバー", コスト表!G:G, "完了") / COUNTIF(コスト表!B:B, "ゲームオーバー") * 100,1)</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I15" s="43" t="s">
         <v>9</v>
@@ -4816,7 +4816,7 @@
       <c r="F16" s="9"/>
       <c r="G16" s="40">
         <f>ROUNDDOWN(COUNTIF(コスト表!G:G, "完了") / COUNTA(コスト表!G:G) * 100,1)</f>
-        <v>54.1</v>
+        <v>55.2</v>
       </c>
       <c r="I16" s="43" t="s">
         <v>12</v>
@@ -4827,11 +4827,11 @@
       </c>
       <c r="K16" s="43">
         <f>SUMIFS(コスト表!D:D, コスト表!F:F, "アルファ", コスト表!G:G, "完了")</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L16" s="43">
         <f>ROUNDDOWN(COUNTIFS(コスト表!F:F, "アルファ", コスト表!G:G, "完了") / COUNTIF(コスト表!F:F, "アルファ") * 100,1)</f>
-        <v>39.299999999999997</v>
+        <v>42.4</v>
       </c>
     </row>
     <row r="17" spans="3:12">
@@ -5011,21 +5011,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006836AD0B55474E4CAD520F1DEB8FB579" ma:contentTypeVersion="3" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="078ba6c1f7b5b638bb57eb024ae572f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="187a6309-4c0c-49e3-bd2d-e8130eb88270" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5f182963113af090d1b42042cf04cb6" ns2:_="">
     <xsd:import namespace="187a6309-4c0c-49e3-bd2d-e8130eb88270"/>
@@ -5163,24 +5148,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A1D85CE-B20E-4841-A55B-779E85453EF9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5196,4 +5179,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E90E09EE-5F6D-4AB8-AE54-C74368FE6F4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0DB335-AD01-472D-90D0-5B4B126AC491}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>